--- a/app_lightbulb/management/commands/x.xlsx
+++ b/app_lightbulb/management/commands/x.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FASTAPI\cal\app_lightbulb\management\commands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3634487-3589-4AF1-857D-02E79B173639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56C2822-1F6A-4DF0-AD30-849986A4A524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="310">
   <si>
     <t>Room_Type_Category  name</t>
   </si>
@@ -1121,7 +1121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1135,9 +1135,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1150,20 +1147,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1171,14 +1168,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1462,8 +1471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A254" workbookViewId="0">
-      <selection activeCell="J258" sqref="J258"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1471,7 +1480,7 @@
     <col min="1" max="1" width="44.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="93.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1498,770 +1507,800 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>100</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>40</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="8">
+      <c r="E2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="7">
         <v>0</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="9" t="s">
+      <c r="G2" s="6"/>
+      <c r="H2" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="126" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>100</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>40</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="8">
+      <c r="E3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="7">
         <v>0</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="9" t="s">
+      <c r="G3" s="6"/>
+      <c r="H3" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>150</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>40</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="9" t="s">
+      <c r="E4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>200</v>
       </c>
-      <c r="D5" s="7">
-        <v>80</v>
-      </c>
-      <c r="E5" s="7">
-        <v>20</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="9" t="s">
+      <c r="D5" s="6">
+        <v>80</v>
+      </c>
+      <c r="E5" s="6">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>100</v>
       </c>
-      <c r="D6" s="7">
-        <v>80</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="8">
+      <c r="D6" s="6">
+        <v>80</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="7">
         <v>0.5</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="9" t="s">
+      <c r="G6" s="6"/>
+      <c r="H6" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>300</v>
       </c>
-      <c r="D7" s="7">
-        <v>80</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="8">
+      <c r="D7" s="6">
+        <v>80</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="7">
         <v>0.5</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="9" t="s">
+      <c r="G7" s="6"/>
+      <c r="H7" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="126" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>200</v>
       </c>
-      <c r="D8" s="7">
-        <v>80</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="8">
+      <c r="D8" s="6">
+        <v>80</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="7">
         <v>0</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="9" t="s">
+      <c r="G8" s="6"/>
+      <c r="H8" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="7">
+      <c r="A9" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="6">
         <v>500</v>
       </c>
-      <c r="D9" s="7">
-        <v>80</v>
-      </c>
-      <c r="E9" s="7">
+      <c r="D9" s="6">
+        <v>80</v>
+      </c>
+      <c r="E9" s="6">
         <v>15</v>
       </c>
-      <c r="F9" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="9" t="s">
+      <c r="F9" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>500</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>90</v>
       </c>
-      <c r="E10" s="7">
-        <v>10</v>
-      </c>
-      <c r="F10" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="E10" s="6">
+        <v>10</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>200</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>60</v>
       </c>
-      <c r="E11" s="7">
-        <v>20</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="9" t="s">
+      <c r="E11" s="6">
+        <v>20</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="9" t="s">
+      <c r="A12" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>500</v>
       </c>
-      <c r="D12" s="7">
-        <v>80</v>
-      </c>
-      <c r="E12" s="7">
+      <c r="D12" s="6">
+        <v>80</v>
+      </c>
+      <c r="E12" s="6">
         <v>15</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="9" t="s">
+      <c r="F12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>100</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>60</v>
       </c>
-      <c r="E13" s="7">
-        <v>20</v>
-      </c>
-      <c r="F13" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="9" t="s">
+      <c r="E13" s="6">
+        <v>20</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="9" t="s">
+      <c r="A14" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>300</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>60</v>
       </c>
-      <c r="E14" s="7">
-        <v>20</v>
-      </c>
-      <c r="F14" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="9" t="s">
+      <c r="E14" s="6">
+        <v>20</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <v>40</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="8">
+      <c r="E15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="7">
         <v>0</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="9" t="s">
+      <c r="G15" s="6"/>
+      <c r="H15" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>60</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="8">
+      <c r="E16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="7">
         <v>0</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="9" t="s">
+      <c r="G16" s="6"/>
+      <c r="H16" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="9" t="s">
+      <c r="A17" s="18"/>
+      <c r="B17" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>150</v>
       </c>
-      <c r="D17" s="7">
-        <v>80</v>
-      </c>
-      <c r="E17" s="7">
-        <v>20</v>
-      </c>
-      <c r="F17" s="8">
+      <c r="D17" s="6">
+        <v>80</v>
+      </c>
+      <c r="E17" s="6">
+        <v>20</v>
+      </c>
+      <c r="F17" s="7">
         <v>0</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="9" t="s">
+      <c r="G17" s="6"/>
+      <c r="H17" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="9" t="s">
+      <c r="A18" s="19"/>
+      <c r="B18" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>200</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <v>60</v>
       </c>
-      <c r="E18" s="7">
-        <v>20</v>
-      </c>
-      <c r="F18" s="8">
+      <c r="E18" s="6">
+        <v>20</v>
+      </c>
+      <c r="F18" s="7">
         <v>0</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="9" t="s">
+      <c r="G18" s="6"/>
+      <c r="H18" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="189" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <v>200</v>
       </c>
-      <c r="D19" s="7">
-        <v>80</v>
-      </c>
-      <c r="E19" s="7">
-        <v>20</v>
-      </c>
-      <c r="F19" s="8">
+      <c r="D19" s="6">
+        <v>80</v>
+      </c>
+      <c r="E19" s="6">
+        <v>20</v>
+      </c>
+      <c r="F19" s="7">
         <v>0</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="9" t="s">
+      <c r="G19" s="6"/>
+      <c r="H19" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="9" t="s">
+      <c r="A20" s="21"/>
+      <c r="B20" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <v>50</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <v>40</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="8">
+      <c r="E20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="7">
         <v>0</v>
       </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="9" t="s">
+      <c r="G20" s="6"/>
+      <c r="H20" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="9" t="s">
+      <c r="A21" s="21"/>
+      <c r="B21" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <v>200</v>
       </c>
-      <c r="D21" s="7">
-        <v>80</v>
-      </c>
-      <c r="E21" s="7">
-        <v>20</v>
-      </c>
-      <c r="F21" s="8">
+      <c r="D21" s="6">
+        <v>80</v>
+      </c>
+      <c r="E21" s="6">
+        <v>20</v>
+      </c>
+      <c r="F21" s="7">
         <v>0</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="9" t="s">
+      <c r="G21" s="6"/>
+      <c r="H21" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="9" t="s">
+      <c r="A22" s="22"/>
+      <c r="B22" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <v>200</v>
       </c>
-      <c r="D22" s="7">
-        <v>80</v>
-      </c>
-      <c r="E22" s="7">
-        <v>20</v>
-      </c>
-      <c r="F22" s="8">
+      <c r="D22" s="6">
+        <v>80</v>
+      </c>
+      <c r="E22" s="6">
+        <v>20</v>
+      </c>
+      <c r="F22" s="7">
         <v>0</v>
       </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="9" t="s">
+      <c r="G22" s="6"/>
+      <c r="H22" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <v>300</v>
       </c>
-      <c r="D23" s="7">
-        <v>80</v>
-      </c>
-      <c r="E23" s="7">
+      <c r="D23" s="6">
+        <v>80</v>
+      </c>
+      <c r="E23" s="6">
         <v>15</v>
       </c>
-      <c r="F23" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="9" t="s">
+      <c r="F23" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="9" t="s">
+      <c r="A24" s="19"/>
+      <c r="B24" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="6">
         <v>500</v>
       </c>
-      <c r="D24" s="7">
-        <v>80</v>
-      </c>
-      <c r="E24" s="7">
+      <c r="D24" s="6">
+        <v>80</v>
+      </c>
+      <c r="E24" s="6">
         <v>15</v>
       </c>
-      <c r="F24" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="9" t="s">
+      <c r="F24" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <v>50</v>
       </c>
-      <c r="D25" s="7">
-        <v>20</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="8">
+      <c r="D25" s="6">
+        <v>20</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="7">
         <v>0</v>
       </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="9" t="s">
+      <c r="G25" s="6"/>
+      <c r="H25" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="9" t="s">
+      <c r="A26" s="18"/>
+      <c r="B26" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="6">
         <v>200</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="6">
         <v>40</v>
       </c>
-      <c r="E26" s="7">
-        <v>20</v>
-      </c>
-      <c r="F26" s="8">
+      <c r="E26" s="6">
+        <v>20</v>
+      </c>
+      <c r="F26" s="7">
         <v>0</v>
       </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="9" t="s">
+      <c r="G26" s="6"/>
+      <c r="H26" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="9" t="s">
+      <c r="A27" s="18"/>
+      <c r="B27" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="6">
         <v>300</v>
       </c>
-      <c r="D27" s="7">
-        <v>80</v>
-      </c>
-      <c r="E27" s="7">
-        <v>20</v>
-      </c>
-      <c r="F27" s="8">
+      <c r="D27" s="6">
+        <v>80</v>
+      </c>
+      <c r="E27" s="6">
+        <v>20</v>
+      </c>
+      <c r="F27" s="7">
         <v>0</v>
       </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="9" t="s">
+      <c r="G27" s="6"/>
+      <c r="H27" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="9" t="s">
+      <c r="A28" s="19"/>
+      <c r="B28" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="6">
         <v>300</v>
       </c>
-      <c r="D28" s="7">
-        <v>80</v>
-      </c>
-      <c r="E28" s="7">
-        <v>20</v>
-      </c>
-      <c r="F28" s="8">
+      <c r="D28" s="6">
+        <v>80</v>
+      </c>
+      <c r="E28" s="6">
+        <v>20</v>
+      </c>
+      <c r="F28" s="7">
         <v>0</v>
       </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="9" t="s">
+      <c r="G28" s="6"/>
+      <c r="H28" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="6">
         <v>50</v>
       </c>
-      <c r="D29" s="7">
-        <v>20</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="8">
+      <c r="D29" s="6">
+        <v>20</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="7">
         <v>0</v>
       </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="9" t="s">
+      <c r="G29" s="6"/>
+      <c r="H29" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="9" t="s">
+      <c r="A30" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="6">
         <v>300</v>
       </c>
-      <c r="D30" s="7">
-        <v>80</v>
-      </c>
-      <c r="E30" s="7">
-        <v>20</v>
-      </c>
-      <c r="F30" s="8">
+      <c r="D30" s="6">
+        <v>80</v>
+      </c>
+      <c r="E30" s="6">
+        <v>20</v>
+      </c>
+      <c r="F30" s="7">
         <v>0</v>
       </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="9" t="s">
+      <c r="G30" s="6"/>
+      <c r="H30" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="299.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="9" t="s">
+      <c r="A31" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="6">
         <v>300</v>
       </c>
-      <c r="D31" s="7">
-        <v>80</v>
-      </c>
-      <c r="E31" s="7">
-        <v>20</v>
-      </c>
-      <c r="F31" s="8">
+      <c r="D31" s="6">
+        <v>80</v>
+      </c>
+      <c r="E31" s="6">
+        <v>20</v>
+      </c>
+      <c r="F31" s="7">
         <v>0</v>
       </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="9" t="s">
+      <c r="G31" s="6"/>
+      <c r="H31" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="252" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="9" t="s">
+      <c r="A32" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="6">
         <v>750</v>
       </c>
-      <c r="D32" s="7">
-        <v>80</v>
-      </c>
-      <c r="E32" s="7">
-        <v>10</v>
-      </c>
-      <c r="F32" s="8">
+      <c r="D32" s="6">
+        <v>80</v>
+      </c>
+      <c r="E32" s="6">
+        <v>10</v>
+      </c>
+      <c r="F32" s="7">
         <v>0</v>
       </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="9" t="s">
+      <c r="G32" s="6"/>
+      <c r="H32" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="220.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="9" t="s">
+      <c r="A33" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="6">
         <v>750</v>
       </c>
-      <c r="D33" s="7">
-        <v>80</v>
-      </c>
-      <c r="E33" s="7">
-        <v>10</v>
-      </c>
-      <c r="F33" s="8">
+      <c r="D33" s="6">
+        <v>80</v>
+      </c>
+      <c r="E33" s="6">
+        <v>10</v>
+      </c>
+      <c r="F33" s="7">
         <v>0</v>
       </c>
-      <c r="G33" s="7"/>
-      <c r="H33" s="9" t="s">
+      <c r="G33" s="6"/>
+      <c r="H33" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="9" t="s">
+      <c r="A34" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="6">
         <v>1000</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="6">
         <v>90</v>
       </c>
-      <c r="E34" s="7">
-        <v>10</v>
-      </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="7" t="s">
+      <c r="E34" s="6">
+        <v>10</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H34" s="9" t="s">
+      <c r="H34" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="9" t="s">
+      <c r="A35" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="6">
         <v>1500</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="6">
         <v>90</v>
       </c>
-      <c r="E35" s="7">
-        <v>10</v>
-      </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="7" t="s">
+      <c r="E35" s="6">
+        <v>10</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H35" s="9" t="s">
+      <c r="H35" s="8" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2269,4806 +2308,4818 @@
       <c r="A36" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="6">
         <v>500</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="6">
         <v>90</v>
       </c>
-      <c r="E36" s="7">
-        <v>10</v>
-      </c>
-      <c r="F36" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G36" s="7"/>
-      <c r="H36" s="9" t="s">
+      <c r="E36" s="6">
+        <v>10</v>
+      </c>
+      <c r="F36" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G36" s="6"/>
+      <c r="H36" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="6">
         <v>50</v>
       </c>
-      <c r="D37" s="7">
-        <v>20</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="8">
+      <c r="D37" s="6">
+        <v>20</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="7">
         <v>0</v>
       </c>
-      <c r="G37" s="7"/>
-      <c r="H37" s="9" t="s">
+      <c r="G37" s="6"/>
+      <c r="H37" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="189" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
-      <c r="B38" s="9" t="s">
+      <c r="A38" s="18"/>
+      <c r="B38" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="6">
         <v>150</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="6">
         <v>40</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G38" s="7"/>
-      <c r="H38" s="9" t="s">
+      <c r="E38" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G38" s="6"/>
+      <c r="H38" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
-      <c r="B39" s="9" t="s">
+      <c r="A39" s="18"/>
+      <c r="B39" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="6">
         <v>300</v>
       </c>
-      <c r="D39" s="7">
-        <v>80</v>
-      </c>
-      <c r="E39" s="7">
-        <v>20</v>
-      </c>
-      <c r="F39" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G39" s="7"/>
-      <c r="H39" s="9" t="s">
+      <c r="D39" s="6">
+        <v>80</v>
+      </c>
+      <c r="E39" s="6">
+        <v>20</v>
+      </c>
+      <c r="F39" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G39" s="6"/>
+      <c r="H39" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="126" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="9" t="s">
+      <c r="A40" s="18"/>
+      <c r="B40" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="6">
         <v>500</v>
       </c>
-      <c r="D40" s="7">
-        <v>80</v>
-      </c>
-      <c r="E40" s="7">
-        <v>10</v>
-      </c>
-      <c r="F40" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G40" s="7"/>
-      <c r="H40" s="9" t="s">
+      <c r="D40" s="6">
+        <v>80</v>
+      </c>
+      <c r="E40" s="6">
+        <v>10</v>
+      </c>
+      <c r="F40" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G40" s="6"/>
+      <c r="H40" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
-      <c r="B41" s="9" t="s">
+      <c r="A41" s="18"/>
+      <c r="B41" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="6">
         <v>500</v>
       </c>
-      <c r="D41" s="7">
-        <v>80</v>
-      </c>
-      <c r="E41" s="7">
-        <v>10</v>
-      </c>
-      <c r="F41" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G41" s="7"/>
-      <c r="H41" s="9" t="s">
+      <c r="D41" s="6">
+        <v>80</v>
+      </c>
+      <c r="E41" s="6">
+        <v>10</v>
+      </c>
+      <c r="F41" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G41" s="6"/>
+      <c r="H41" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
-      <c r="B42" s="9" t="s">
+      <c r="A42" s="18"/>
+      <c r="B42" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="6">
         <v>500</v>
       </c>
-      <c r="D42" s="7">
-        <v>80</v>
-      </c>
-      <c r="E42" s="7">
+      <c r="D42" s="6">
+        <v>80</v>
+      </c>
+      <c r="E42" s="6">
         <v>15</v>
       </c>
-      <c r="F42" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G42" s="7"/>
-      <c r="H42" s="9" t="s">
+      <c r="F42" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G42" s="6"/>
+      <c r="H42" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
-      <c r="B43" s="9" t="s">
+      <c r="A43" s="18"/>
+      <c r="B43" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="6">
         <v>1000</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="6">
         <v>90</v>
       </c>
-      <c r="E43" s="7">
-        <v>10</v>
-      </c>
-      <c r="F43" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G43" s="7" t="s">
+      <c r="E43" s="6">
+        <v>10</v>
+      </c>
+      <c r="F43" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G43" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H43" s="9" t="s">
+      <c r="H43" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="11"/>
-      <c r="B44" s="9" t="s">
+      <c r="A44" s="19"/>
+      <c r="B44" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="6">
         <v>750</v>
       </c>
-      <c r="D44" s="7">
-        <v>80</v>
-      </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G44" s="7"/>
-      <c r="H44" s="9" t="s">
+      <c r="D44" s="6">
+        <v>80</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G44" s="6"/>
+      <c r="H44" s="8" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="6">
         <v>300</v>
       </c>
-      <c r="D45" s="7">
-        <v>80</v>
-      </c>
-      <c r="E45" s="7">
-        <v>20</v>
-      </c>
-      <c r="F45" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G45" s="7"/>
-      <c r="H45" s="9" t="s">
+      <c r="D45" s="6">
+        <v>80</v>
+      </c>
+      <c r="E45" s="6">
+        <v>20</v>
+      </c>
+      <c r="F45" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G45" s="6"/>
+      <c r="H45" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="126" x14ac:dyDescent="0.25">
-      <c r="A46" s="10"/>
-      <c r="B46" s="9" t="s">
+      <c r="A46" s="18"/>
+      <c r="B46" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="6">
         <v>300</v>
       </c>
-      <c r="D46" s="7">
-        <v>80</v>
-      </c>
-      <c r="E46" s="7">
-        <v>20</v>
-      </c>
-      <c r="F46" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G46" s="7"/>
-      <c r="H46" s="9" t="s">
+      <c r="D46" s="6">
+        <v>80</v>
+      </c>
+      <c r="E46" s="6">
+        <v>20</v>
+      </c>
+      <c r="F46" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G46" s="6"/>
+      <c r="H46" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
-      <c r="B47" s="9" t="s">
+      <c r="A47" s="18"/>
+      <c r="B47" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="6">
         <v>500</v>
       </c>
-      <c r="D47" s="7">
-        <v>80</v>
-      </c>
-      <c r="E47" s="7">
+      <c r="D47" s="6">
+        <v>80</v>
+      </c>
+      <c r="E47" s="6">
         <v>15</v>
       </c>
-      <c r="F47" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G47" s="7"/>
-      <c r="H47" s="9" t="s">
+      <c r="F47" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G47" s="6"/>
+      <c r="H47" s="8" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="10"/>
-      <c r="B48" s="9" t="s">
+      <c r="A48" s="18"/>
+      <c r="B48" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="6">
         <v>750</v>
       </c>
-      <c r="D48" s="7">
-        <v>80</v>
-      </c>
-      <c r="E48" s="7">
-        <v>10</v>
-      </c>
-      <c r="F48" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G48" s="7"/>
-      <c r="H48" s="9" t="s">
+      <c r="D48" s="6">
+        <v>80</v>
+      </c>
+      <c r="E48" s="6">
+        <v>10</v>
+      </c>
+      <c r="F48" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G48" s="6"/>
+      <c r="H48" s="8" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="10"/>
-      <c r="B49" s="9" t="s">
+      <c r="A49" s="18"/>
+      <c r="B49" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="6">
         <v>300</v>
       </c>
-      <c r="D49" s="7">
-        <v>80</v>
-      </c>
-      <c r="E49" s="7">
-        <v>20</v>
-      </c>
-      <c r="F49" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G49" s="7"/>
-      <c r="H49" s="9" t="s">
+      <c r="D49" s="6">
+        <v>80</v>
+      </c>
+      <c r="E49" s="6">
+        <v>20</v>
+      </c>
+      <c r="F49" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G49" s="6"/>
+      <c r="H49" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="10"/>
-      <c r="B50" s="9" t="s">
+      <c r="A50" s="18"/>
+      <c r="B50" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="6">
         <v>300</v>
       </c>
-      <c r="D50" s="7">
-        <v>80</v>
-      </c>
-      <c r="E50" s="7">
-        <v>20</v>
-      </c>
-      <c r="F50" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G50" s="7"/>
-      <c r="H50" s="9" t="s">
+      <c r="D50" s="6">
+        <v>80</v>
+      </c>
+      <c r="E50" s="6">
+        <v>20</v>
+      </c>
+      <c r="F50" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G50" s="6"/>
+      <c r="H50" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="10"/>
-      <c r="B51" s="9" t="s">
+      <c r="A51" s="18"/>
+      <c r="B51" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="6">
         <v>300</v>
       </c>
-      <c r="D51" s="7">
-        <v>80</v>
-      </c>
-      <c r="E51" s="7">
-        <v>20</v>
-      </c>
-      <c r="F51" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G51" s="7"/>
-      <c r="H51" s="9" t="s">
+      <c r="D51" s="6">
+        <v>80</v>
+      </c>
+      <c r="E51" s="6">
+        <v>20</v>
+      </c>
+      <c r="F51" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G51" s="6"/>
+      <c r="H51" s="8" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="10"/>
-      <c r="B52" s="9" t="s">
+      <c r="A52" s="18"/>
+      <c r="B52" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52" s="6">
         <v>500</v>
       </c>
-      <c r="D52" s="7">
-        <v>80</v>
-      </c>
-      <c r="E52" s="7">
+      <c r="D52" s="6">
+        <v>80</v>
+      </c>
+      <c r="E52" s="6">
         <v>15</v>
       </c>
-      <c r="F52" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G52" s="7"/>
-      <c r="H52" s="9" t="s">
+      <c r="F52" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G52" s="6"/>
+      <c r="H52" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="10"/>
-      <c r="B53" s="9" t="s">
+      <c r="A53" s="18"/>
+      <c r="B53" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="6">
         <v>750</v>
       </c>
-      <c r="D53" s="7">
-        <v>80</v>
-      </c>
-      <c r="E53" s="7">
-        <v>10</v>
-      </c>
-      <c r="F53" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G53" s="7"/>
-      <c r="H53" s="9" t="s">
+      <c r="D53" s="6">
+        <v>80</v>
+      </c>
+      <c r="E53" s="6">
+        <v>10</v>
+      </c>
+      <c r="F53" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G53" s="6"/>
+      <c r="H53" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A54" s="11"/>
-      <c r="B54" s="9" t="s">
+      <c r="A54" s="19"/>
+      <c r="B54" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="6">
         <v>1000</v>
       </c>
-      <c r="D54" s="7">
-        <v>80</v>
-      </c>
-      <c r="E54" s="7">
-        <v>10</v>
-      </c>
-      <c r="F54" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G54" s="7"/>
-      <c r="H54" s="9" t="s">
+      <c r="D54" s="6">
+        <v>80</v>
+      </c>
+      <c r="E54" s="6">
+        <v>10</v>
+      </c>
+      <c r="F54" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G54" s="6"/>
+      <c r="H54" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="6">
         <v>300</v>
       </c>
-      <c r="D55" s="7">
-        <v>80</v>
-      </c>
-      <c r="E55" s="7">
-        <v>20</v>
-      </c>
-      <c r="F55" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G55" s="7"/>
-      <c r="H55" s="9" t="s">
+      <c r="D55" s="6">
+        <v>80</v>
+      </c>
+      <c r="E55" s="6">
+        <v>20</v>
+      </c>
+      <c r="F55" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G55" s="6"/>
+      <c r="H55" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="10"/>
-      <c r="B56" s="9" t="s">
+      <c r="A56" s="18"/>
+      <c r="B56" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56" s="6">
         <v>300</v>
       </c>
-      <c r="D56" s="7">
-        <v>80</v>
-      </c>
-      <c r="E56" s="7">
-        <v>20</v>
-      </c>
-      <c r="F56" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G56" s="7"/>
-      <c r="H56" s="9" t="s">
+      <c r="D56" s="6">
+        <v>80</v>
+      </c>
+      <c r="E56" s="6">
+        <v>20</v>
+      </c>
+      <c r="F56" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G56" s="6"/>
+      <c r="H56" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A57" s="10"/>
-      <c r="B57" s="9" t="s">
+      <c r="A57" s="18"/>
+      <c r="B57" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C57" s="6">
         <v>300</v>
       </c>
-      <c r="D57" s="7">
-        <v>80</v>
-      </c>
-      <c r="E57" s="7">
-        <v>20</v>
-      </c>
-      <c r="F57" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G57" s="7"/>
-      <c r="H57" s="9" t="s">
+      <c r="D57" s="6">
+        <v>80</v>
+      </c>
+      <c r="E57" s="6">
+        <v>20</v>
+      </c>
+      <c r="F57" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G57" s="6"/>
+      <c r="H57" s="8" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A58" s="11"/>
-      <c r="B58" s="9" t="s">
+      <c r="A58" s="19"/>
+      <c r="B58" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58" s="6">
         <v>750</v>
       </c>
-      <c r="D58" s="7">
-        <v>80</v>
-      </c>
-      <c r="E58" s="7">
-        <v>10</v>
-      </c>
-      <c r="F58" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G58" s="7"/>
-      <c r="H58" s="9" t="s">
+      <c r="D58" s="6">
+        <v>80</v>
+      </c>
+      <c r="E58" s="6">
+        <v>10</v>
+      </c>
+      <c r="F58" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G58" s="6"/>
+      <c r="H58" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C59" s="6">
         <v>1500</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D59" s="6">
         <v>90</v>
       </c>
-      <c r="E59" s="7">
-        <v>10</v>
-      </c>
-      <c r="F59" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G59" s="7" t="s">
+      <c r="E59" s="6">
+        <v>10</v>
+      </c>
+      <c r="F59" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G59" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H59" s="9" t="s">
+      <c r="H59" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A60" s="10"/>
-      <c r="B60" s="9" t="s">
+      <c r="A60" s="18"/>
+      <c r="B60" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C60" s="6">
         <v>1000</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D60" s="6">
         <v>90</v>
       </c>
-      <c r="E60" s="7">
-        <v>10</v>
-      </c>
-      <c r="F60" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G60" s="7"/>
-      <c r="H60" s="9" t="s">
+      <c r="E60" s="6">
+        <v>10</v>
+      </c>
+      <c r="F60" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G60" s="6"/>
+      <c r="H60" s="8" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A61" s="10"/>
-      <c r="B61" s="9" t="s">
+      <c r="A61" s="18"/>
+      <c r="B61" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C61" s="6">
         <v>1500</v>
       </c>
-      <c r="D61" s="7">
-        <v>80</v>
-      </c>
-      <c r="E61" s="7">
-        <v>10</v>
-      </c>
-      <c r="F61" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G61" s="7"/>
-      <c r="H61" s="9" t="s">
+      <c r="D61" s="6">
+        <v>80</v>
+      </c>
+      <c r="E61" s="6">
+        <v>10</v>
+      </c>
+      <c r="F61" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G61" s="6"/>
+      <c r="H61" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="11"/>
-      <c r="B62" s="9" t="s">
+      <c r="A62" s="19"/>
+      <c r="B62" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C62" s="6">
         <v>500</v>
       </c>
-      <c r="D62" s="7">
-        <v>80</v>
-      </c>
-      <c r="E62" s="7">
+      <c r="D62" s="6">
+        <v>80</v>
+      </c>
+      <c r="E62" s="6">
         <v>15</v>
       </c>
-      <c r="F62" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G62" s="7"/>
-      <c r="H62" s="9" t="s">
+      <c r="F62" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G62" s="6"/>
+      <c r="H62" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C63" s="7">
+      <c r="C63" s="6">
         <v>200</v>
       </c>
-      <c r="D63" s="7">
-        <v>80</v>
-      </c>
-      <c r="E63" s="7">
-        <v>20</v>
-      </c>
-      <c r="F63" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G63" s="7"/>
-      <c r="H63" s="9" t="s">
+      <c r="D63" s="6">
+        <v>80</v>
+      </c>
+      <c r="E63" s="6">
+        <v>20</v>
+      </c>
+      <c r="F63" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G63" s="6"/>
+      <c r="H63" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="10"/>
-      <c r="B64" s="9" t="s">
+      <c r="A64" s="18"/>
+      <c r="B64" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C64" s="6">
         <v>300</v>
       </c>
-      <c r="D64" s="7">
-        <v>80</v>
-      </c>
-      <c r="E64" s="7">
-        <v>20</v>
-      </c>
-      <c r="F64" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G64" s="7"/>
-      <c r="H64" s="9" t="s">
+      <c r="D64" s="6">
+        <v>80</v>
+      </c>
+      <c r="E64" s="6">
+        <v>20</v>
+      </c>
+      <c r="F64" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G64" s="6"/>
+      <c r="H64" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="252" x14ac:dyDescent="0.25">
-      <c r="A65" s="11"/>
-      <c r="B65" s="9" t="s">
+      <c r="A65" s="19"/>
+      <c r="B65" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C65" s="7">
+      <c r="C65" s="6">
         <v>500</v>
       </c>
-      <c r="D65" s="7">
-        <v>80</v>
-      </c>
-      <c r="E65" s="7">
+      <c r="D65" s="6">
+        <v>80</v>
+      </c>
+      <c r="E65" s="6">
         <v>15</v>
       </c>
-      <c r="F65" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G65" s="7"/>
-      <c r="H65" s="9" t="s">
+      <c r="F65" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G65" s="6"/>
+      <c r="H65" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C66" s="6">
         <v>300</v>
       </c>
-      <c r="D66" s="7">
-        <v>80</v>
-      </c>
-      <c r="E66" s="7">
+      <c r="D66" s="6">
+        <v>80</v>
+      </c>
+      <c r="E66" s="6">
         <v>15</v>
       </c>
-      <c r="F66" s="8">
+      <c r="F66" s="7">
         <v>0</v>
       </c>
-      <c r="G66" s="7"/>
-      <c r="H66" s="9" t="s">
+      <c r="G66" s="6"/>
+      <c r="H66" s="8" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A67" s="10"/>
-      <c r="B67" s="9" t="s">
+      <c r="A67" s="18"/>
+      <c r="B67" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C67" s="6">
         <v>500</v>
       </c>
-      <c r="D67" s="7">
-        <v>80</v>
-      </c>
-      <c r="E67" s="7">
-        <v>10</v>
-      </c>
-      <c r="F67" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G67" s="7"/>
-      <c r="H67" s="9" t="s">
+      <c r="D67" s="6">
+        <v>80</v>
+      </c>
+      <c r="E67" s="6">
+        <v>10</v>
+      </c>
+      <c r="F67" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G67" s="6"/>
+      <c r="H67" s="8" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A68" s="11"/>
-      <c r="B68" s="9" t="s">
+      <c r="A68" s="19"/>
+      <c r="B68" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C68" s="7">
+      <c r="C68" s="6">
         <v>500</v>
       </c>
-      <c r="D68" s="7">
-        <v>80</v>
-      </c>
-      <c r="E68" s="7">
+      <c r="D68" s="6">
+        <v>80</v>
+      </c>
+      <c r="E68" s="6">
         <v>15</v>
       </c>
-      <c r="F68" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G68" s="7"/>
-      <c r="H68" s="9" t="s">
+      <c r="F68" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G68" s="6"/>
+      <c r="H68" s="8" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C69" s="7">
+      <c r="C69" s="6">
         <v>200</v>
       </c>
-      <c r="D69" s="7">
-        <v>80</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F69" s="8">
+      <c r="D69" s="6">
+        <v>80</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" s="7">
         <v>0</v>
       </c>
-      <c r="G69" s="7"/>
-      <c r="H69" s="9" t="s">
+      <c r="G69" s="6"/>
+      <c r="H69" s="8" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="189" x14ac:dyDescent="0.25">
-      <c r="A70" s="10"/>
-      <c r="B70" s="9" t="s">
+      <c r="A70" s="18"/>
+      <c r="B70" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C70" s="7">
+      <c r="C70" s="6">
         <v>300</v>
       </c>
-      <c r="D70" s="7">
-        <v>80</v>
-      </c>
-      <c r="E70" s="7">
-        <v>20</v>
-      </c>
-      <c r="F70" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G70" s="7"/>
-      <c r="H70" s="9" t="s">
+      <c r="D70" s="6">
+        <v>80</v>
+      </c>
+      <c r="E70" s="6">
+        <v>20</v>
+      </c>
+      <c r="F70" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G70" s="6"/>
+      <c r="H70" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="10"/>
-      <c r="B71" s="9" t="s">
+      <c r="A71" s="18"/>
+      <c r="B71" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C71" s="7">
+      <c r="C71" s="6">
         <v>500</v>
       </c>
-      <c r="D71" s="7">
-        <v>80</v>
-      </c>
-      <c r="E71" s="7">
+      <c r="D71" s="6">
+        <v>80</v>
+      </c>
+      <c r="E71" s="6">
         <v>15</v>
       </c>
-      <c r="F71" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G71" s="7"/>
-      <c r="H71" s="9" t="s">
+      <c r="F71" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G71" s="6"/>
+      <c r="H71" s="8" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="10"/>
-      <c r="B72" s="9" t="s">
+      <c r="A72" s="18"/>
+      <c r="B72" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C72" s="7">
+      <c r="C72" s="6">
         <v>300</v>
       </c>
-      <c r="D72" s="7">
-        <v>80</v>
-      </c>
-      <c r="E72" s="7">
-        <v>20</v>
-      </c>
-      <c r="F72" s="8">
+      <c r="D72" s="6">
+        <v>80</v>
+      </c>
+      <c r="E72" s="6">
+        <v>20</v>
+      </c>
+      <c r="F72" s="7">
         <v>0</v>
       </c>
-      <c r="G72" s="7"/>
-      <c r="H72" s="9" t="s">
+      <c r="G72" s="6"/>
+      <c r="H72" s="8" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="220.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="10"/>
-      <c r="B73" s="9" t="s">
+      <c r="A73" s="18"/>
+      <c r="B73" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C73" s="7">
+      <c r="C73" s="6">
         <v>500</v>
       </c>
-      <c r="D73" s="7">
-        <v>80</v>
-      </c>
-      <c r="E73" s="7">
+      <c r="D73" s="6">
+        <v>80</v>
+      </c>
+      <c r="E73" s="6">
         <v>15</v>
       </c>
-      <c r="F73" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G73" s="7"/>
-      <c r="H73" s="9" t="s">
+      <c r="F73" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G73" s="6"/>
+      <c r="H73" s="8" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="252" x14ac:dyDescent="0.25">
-      <c r="A74" s="10"/>
-      <c r="B74" s="9" t="s">
+      <c r="A74" s="18"/>
+      <c r="B74" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C74" s="7">
+      <c r="C74" s="6">
         <v>500</v>
       </c>
-      <c r="D74" s="7">
-        <v>80</v>
-      </c>
-      <c r="E74" s="7"/>
-      <c r="F74" s="8">
+      <c r="D74" s="6">
+        <v>80</v>
+      </c>
+      <c r="E74" s="6"/>
+      <c r="F74" s="7">
         <v>0</v>
       </c>
-      <c r="G74" s="7"/>
-      <c r="H74" s="9" t="s">
+      <c r="G74" s="6"/>
+      <c r="H74" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A75" s="10"/>
-      <c r="B75" s="9" t="s">
+      <c r="A75" s="18"/>
+      <c r="B75" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C75" s="7">
+      <c r="C75" s="6">
         <v>300</v>
       </c>
-      <c r="D75" s="7">
-        <v>80</v>
-      </c>
-      <c r="E75" s="7">
-        <v>10</v>
-      </c>
-      <c r="F75" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G75" s="7"/>
-      <c r="H75" s="9" t="s">
+      <c r="D75" s="6">
+        <v>80</v>
+      </c>
+      <c r="E75" s="6">
+        <v>10</v>
+      </c>
+      <c r="F75" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G75" s="6"/>
+      <c r="H75" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="11"/>
-      <c r="B76" s="9" t="s">
+      <c r="A76" s="19"/>
+      <c r="B76" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C76" s="7">
+      <c r="C76" s="6">
         <v>1000</v>
       </c>
-      <c r="D76" s="7">
+      <c r="D76" s="6">
         <v>90</v>
       </c>
-      <c r="E76" s="7">
-        <v>10</v>
-      </c>
-      <c r="F76" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G76" s="7" t="s">
+      <c r="E76" s="6">
+        <v>10</v>
+      </c>
+      <c r="F76" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G76" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H76" s="9" t="s">
+      <c r="H76" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C77" s="7">
+      <c r="C77" s="6">
         <v>50</v>
       </c>
-      <c r="D77" s="7">
-        <v>20</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F77" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G77" s="7"/>
-      <c r="H77" s="9" t="s">
+      <c r="D77" s="6">
+        <v>20</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G77" s="6"/>
+      <c r="H77" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A78" s="10"/>
-      <c r="B78" s="9" t="s">
+      <c r="A78" s="18"/>
+      <c r="B78" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C78" s="7">
+      <c r="C78" s="6">
         <v>100</v>
       </c>
-      <c r="D78" s="7">
+      <c r="D78" s="6">
         <v>40</v>
       </c>
-      <c r="E78" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F78" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G78" s="7"/>
-      <c r="H78" s="9" t="s">
+      <c r="E78" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G78" s="6"/>
+      <c r="H78" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="10"/>
-      <c r="B79" s="9" t="s">
+      <c r="A79" s="18"/>
+      <c r="B79" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C79" s="7">
+      <c r="C79" s="6">
         <v>200</v>
       </c>
-      <c r="D79" s="7">
-        <v>80</v>
-      </c>
-      <c r="E79" s="7">
-        <v>20</v>
-      </c>
-      <c r="F79" s="8">
+      <c r="D79" s="6">
+        <v>80</v>
+      </c>
+      <c r="E79" s="6">
+        <v>20</v>
+      </c>
+      <c r="F79" s="7">
         <v>0</v>
       </c>
-      <c r="G79" s="7"/>
-      <c r="H79" s="9" t="s">
+      <c r="G79" s="6"/>
+      <c r="H79" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="10"/>
-      <c r="B80" s="9" t="s">
+      <c r="A80" s="18"/>
+      <c r="B80" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C80" s="7">
+      <c r="C80" s="6">
         <v>200</v>
       </c>
-      <c r="D80" s="7">
+      <c r="D80" s="6">
         <v>60</v>
       </c>
-      <c r="E80" s="7">
-        <v>20</v>
-      </c>
-      <c r="F80" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G80" s="7"/>
-      <c r="H80" s="9" t="s">
+      <c r="E80" s="6">
+        <v>20</v>
+      </c>
+      <c r="F80" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G80" s="6"/>
+      <c r="H80" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A81" s="11"/>
-      <c r="B81" s="9" t="s">
+      <c r="A81" s="19"/>
+      <c r="B81" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C81" s="7">
+      <c r="C81" s="6">
         <v>500</v>
       </c>
-      <c r="D81" s="7">
-        <v>80</v>
-      </c>
-      <c r="E81" s="7">
+      <c r="D81" s="6">
+        <v>80</v>
+      </c>
+      <c r="E81" s="6">
         <v>15</v>
       </c>
-      <c r="F81" s="8">
+      <c r="F81" s="7">
         <v>0</v>
       </c>
-      <c r="G81" s="7"/>
-      <c r="H81" s="9" t="s">
+      <c r="G81" s="6"/>
+      <c r="H81" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C82" s="7">
+      <c r="C82" s="6">
         <v>50</v>
       </c>
-      <c r="D82" s="7">
-        <v>20</v>
-      </c>
-      <c r="E82" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F82" s="8">
+      <c r="D82" s="6">
+        <v>20</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" s="7">
         <v>0</v>
       </c>
-      <c r="G82" s="7"/>
-      <c r="H82" s="9" t="s">
+      <c r="G82" s="6"/>
+      <c r="H82" s="8" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="10"/>
-      <c r="B83" s="9" t="s">
+      <c r="A83" s="18"/>
+      <c r="B83" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C83" s="7">
+      <c r="C83" s="6">
         <v>100</v>
       </c>
-      <c r="D83" s="7">
+      <c r="D83" s="6">
         <v>40</v>
       </c>
-      <c r="E83" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F83" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G83" s="7"/>
-      <c r="H83" s="9" t="s">
+      <c r="E83" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G83" s="6"/>
+      <c r="H83" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A84" s="10"/>
-      <c r="B84" s="9" t="s">
+      <c r="A84" s="18"/>
+      <c r="B84" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C84" s="7">
+      <c r="C84" s="6">
         <v>200</v>
       </c>
-      <c r="D84" s="7">
-        <v>80</v>
-      </c>
-      <c r="E84" s="7">
-        <v>20</v>
-      </c>
-      <c r="F84" s="8">
+      <c r="D84" s="6">
+        <v>80</v>
+      </c>
+      <c r="E84" s="6">
+        <v>20</v>
+      </c>
+      <c r="F84" s="7">
         <v>0</v>
       </c>
-      <c r="G84" s="7"/>
-      <c r="H84" s="9" t="s">
+      <c r="G84" s="6"/>
+      <c r="H84" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A85" s="10"/>
-      <c r="B85" s="9" t="s">
+      <c r="A85" s="18"/>
+      <c r="B85" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C85" s="7">
+      <c r="C85" s="6">
         <v>200</v>
       </c>
-      <c r="D85" s="7">
-        <v>80</v>
-      </c>
-      <c r="E85" s="7">
-        <v>20</v>
-      </c>
-      <c r="F85" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G85" s="7"/>
-      <c r="H85" s="9" t="s">
+      <c r="D85" s="6">
+        <v>80</v>
+      </c>
+      <c r="E85" s="6">
+        <v>20</v>
+      </c>
+      <c r="F85" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G85" s="6"/>
+      <c r="H85" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A86" s="10"/>
-      <c r="B86" s="9" t="s">
+      <c r="A86" s="18"/>
+      <c r="B86" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C86" s="7">
+      <c r="C86" s="6">
         <v>200</v>
       </c>
-      <c r="D86" s="7">
-        <v>80</v>
-      </c>
-      <c r="E86" s="7">
-        <v>20</v>
-      </c>
-      <c r="F86" s="8">
+      <c r="D86" s="6">
+        <v>80</v>
+      </c>
+      <c r="E86" s="6">
+        <v>20</v>
+      </c>
+      <c r="F86" s="7">
         <v>0</v>
       </c>
-      <c r="G86" s="7"/>
-      <c r="H86" s="9" t="s">
+      <c r="G86" s="6"/>
+      <c r="H86" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="10"/>
-      <c r="B87" s="9" t="s">
+      <c r="A87" s="18"/>
+      <c r="B87" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C87" s="7">
+      <c r="C87" s="6">
         <v>200</v>
       </c>
-      <c r="D87" s="7">
-        <v>80</v>
-      </c>
-      <c r="E87" s="7">
-        <v>20</v>
-      </c>
-      <c r="F87" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G87" s="7"/>
-      <c r="H87" s="9" t="s">
+      <c r="D87" s="6">
+        <v>80</v>
+      </c>
+      <c r="E87" s="6">
+        <v>20</v>
+      </c>
+      <c r="F87" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G87" s="6"/>
+      <c r="H87" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A88" s="10"/>
-      <c r="B88" s="9" t="s">
+      <c r="A88" s="18"/>
+      <c r="B88" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C88" s="7">
+      <c r="C88" s="6">
         <v>200</v>
       </c>
-      <c r="D88" s="7">
-        <v>80</v>
-      </c>
-      <c r="E88" s="7">
-        <v>20</v>
-      </c>
-      <c r="F88" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G88" s="7"/>
-      <c r="H88" s="9" t="s">
+      <c r="D88" s="6">
+        <v>80</v>
+      </c>
+      <c r="E88" s="6">
+        <v>20</v>
+      </c>
+      <c r="F88" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G88" s="6"/>
+      <c r="H88" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="10"/>
-      <c r="B89" s="9" t="s">
+      <c r="A89" s="18"/>
+      <c r="B89" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C89" s="7">
+      <c r="C89" s="6">
         <v>200</v>
       </c>
-      <c r="D89" s="7">
-        <v>80</v>
-      </c>
-      <c r="E89" s="7">
-        <v>20</v>
-      </c>
-      <c r="F89" s="8">
+      <c r="D89" s="6">
+        <v>80</v>
+      </c>
+      <c r="E89" s="6">
+        <v>20</v>
+      </c>
+      <c r="F89" s="7">
         <v>0</v>
       </c>
-      <c r="G89" s="7"/>
-      <c r="H89" s="9" t="s">
+      <c r="G89" s="6"/>
+      <c r="H89" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A90" s="10"/>
-      <c r="B90" s="9" t="s">
+      <c r="A90" s="18"/>
+      <c r="B90" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C90" s="7">
+      <c r="C90" s="6">
         <v>300</v>
       </c>
-      <c r="D90" s="7">
-        <v>80</v>
-      </c>
-      <c r="E90" s="7">
-        <v>20</v>
-      </c>
-      <c r="F90" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G90" s="7"/>
-      <c r="H90" s="9" t="s">
+      <c r="D90" s="6">
+        <v>80</v>
+      </c>
+      <c r="E90" s="6">
+        <v>20</v>
+      </c>
+      <c r="F90" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G90" s="6"/>
+      <c r="H90" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A91" s="10"/>
-      <c r="B91" s="9" t="s">
+      <c r="A91" s="18"/>
+      <c r="B91" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C91" s="7">
+      <c r="C91" s="6">
         <v>300</v>
       </c>
-      <c r="D91" s="7">
-        <v>80</v>
-      </c>
-      <c r="E91" s="7">
-        <v>20</v>
-      </c>
-      <c r="F91" s="8">
+      <c r="D91" s="6">
+        <v>80</v>
+      </c>
+      <c r="E91" s="6">
+        <v>20</v>
+      </c>
+      <c r="F91" s="7">
         <v>0</v>
       </c>
-      <c r="G91" s="7"/>
-      <c r="H91" s="9" t="s">
+      <c r="G91" s="6"/>
+      <c r="H91" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="11"/>
-      <c r="B92" s="9" t="s">
+      <c r="A92" s="19"/>
+      <c r="B92" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C92" s="7">
+      <c r="C92" s="6">
         <v>500</v>
       </c>
-      <c r="D92" s="7">
-        <v>80</v>
-      </c>
-      <c r="E92" s="7">
+      <c r="D92" s="6">
+        <v>80</v>
+      </c>
+      <c r="E92" s="6">
         <v>15</v>
       </c>
-      <c r="F92" s="8">
+      <c r="F92" s="7">
         <v>0</v>
       </c>
-      <c r="G92" s="7"/>
-      <c r="H92" s="9" t="s">
+      <c r="G92" s="6"/>
+      <c r="H92" s="8" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="126" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="B93" s="9" t="s">
+      <c r="B93" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C93" s="7">
+      <c r="C93" s="6">
         <v>200</v>
       </c>
-      <c r="D93" s="7">
+      <c r="D93" s="6">
         <v>40</v>
       </c>
-      <c r="E93" s="7">
-        <v>20</v>
-      </c>
-      <c r="F93" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G93" s="7"/>
-      <c r="H93" s="9" t="s">
+      <c r="E93" s="6">
+        <v>20</v>
+      </c>
+      <c r="F93" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G93" s="6"/>
+      <c r="H93" s="8" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="10"/>
-      <c r="B94" s="9" t="s">
+      <c r="A94" s="18"/>
+      <c r="B94" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C94" s="7">
+      <c r="C94" s="6">
         <v>300</v>
       </c>
-      <c r="D94" s="7">
-        <v>80</v>
-      </c>
-      <c r="E94" s="7">
-        <v>20</v>
-      </c>
-      <c r="F94" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G94" s="7"/>
-      <c r="H94" s="9" t="s">
+      <c r="D94" s="6">
+        <v>80</v>
+      </c>
+      <c r="E94" s="6">
+        <v>20</v>
+      </c>
+      <c r="F94" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G94" s="6"/>
+      <c r="H94" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A95" s="10"/>
-      <c r="B95" s="9" t="s">
+      <c r="A95" s="18"/>
+      <c r="B95" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C95" s="7">
+      <c r="C95" s="6">
         <v>500</v>
       </c>
-      <c r="D95" s="7">
-        <v>80</v>
-      </c>
-      <c r="E95" s="7">
+      <c r="D95" s="6">
+        <v>80</v>
+      </c>
+      <c r="E95" s="6">
         <v>15</v>
       </c>
-      <c r="F95" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G95" s="7"/>
-      <c r="H95" s="9" t="s">
+      <c r="F95" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G95" s="6"/>
+      <c r="H95" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A96" s="10"/>
-      <c r="B96" s="9" t="s">
+      <c r="A96" s="18"/>
+      <c r="B96" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C96" s="7">
+      <c r="C96" s="6">
         <v>500</v>
       </c>
-      <c r="D96" s="7">
+      <c r="D96" s="6">
         <v>90</v>
       </c>
-      <c r="E96" s="7">
+      <c r="E96" s="6">
         <v>15</v>
       </c>
-      <c r="F96" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G96" s="7" t="s">
+      <c r="F96" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G96" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H96" s="9" t="s">
+      <c r="H96" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="126" x14ac:dyDescent="0.25">
-      <c r="A97" s="10"/>
-      <c r="B97" s="9" t="s">
+      <c r="A97" s="18"/>
+      <c r="B97" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C97" s="7">
+      <c r="C97" s="6">
         <v>500</v>
       </c>
-      <c r="D97" s="7">
-        <v>80</v>
-      </c>
-      <c r="E97" s="7">
+      <c r="D97" s="6">
+        <v>80</v>
+      </c>
+      <c r="E97" s="6">
         <v>15</v>
       </c>
-      <c r="F97" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G97" s="7"/>
-      <c r="H97" s="9" t="s">
+      <c r="F97" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G97" s="6"/>
+      <c r="H97" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="10"/>
-      <c r="B98" s="9" t="s">
+      <c r="A98" s="18"/>
+      <c r="B98" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C98" s="7">
+      <c r="C98" s="6">
         <v>1000</v>
       </c>
-      <c r="D98" s="7">
-        <v>80</v>
-      </c>
-      <c r="E98" s="7">
-        <v>10</v>
-      </c>
-      <c r="F98" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G98" s="7"/>
-      <c r="H98" s="9" t="s">
+      <c r="D98" s="6">
+        <v>80</v>
+      </c>
+      <c r="E98" s="6">
+        <v>10</v>
+      </c>
+      <c r="F98" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G98" s="6"/>
+      <c r="H98" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="10"/>
-      <c r="B99" s="9" t="s">
+      <c r="A99" s="18"/>
+      <c r="B99" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C99" s="7">
+      <c r="C99" s="6">
         <v>100</v>
       </c>
-      <c r="D99" s="7">
+      <c r="D99" s="6">
         <v>90</v>
       </c>
-      <c r="E99" s="7">
-        <v>10</v>
-      </c>
-      <c r="F99" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G99" s="7"/>
-      <c r="H99" s="9" t="s">
+      <c r="E99" s="6">
+        <v>10</v>
+      </c>
+      <c r="F99" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G99" s="6"/>
+      <c r="H99" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A100" s="10"/>
-      <c r="B100" s="9" t="s">
+      <c r="A100" s="18"/>
+      <c r="B100" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C100" s="7">
+      <c r="C100" s="6">
         <v>500</v>
       </c>
-      <c r="D100" s="7">
-        <v>80</v>
-      </c>
-      <c r="E100" s="7">
+      <c r="D100" s="6">
+        <v>80</v>
+      </c>
+      <c r="E100" s="6">
         <v>15</v>
       </c>
-      <c r="F100" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G100" s="7"/>
-      <c r="H100" s="9" t="s">
+      <c r="F100" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G100" s="6"/>
+      <c r="H100" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A101" s="11"/>
-      <c r="B101" s="9" t="s">
+      <c r="A101" s="19"/>
+      <c r="B101" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C101" s="7">
+      <c r="C101" s="6">
         <v>500</v>
       </c>
-      <c r="D101" s="7">
-        <v>80</v>
-      </c>
-      <c r="E101" s="7">
+      <c r="D101" s="6">
+        <v>80</v>
+      </c>
+      <c r="E101" s="6">
         <v>15</v>
       </c>
-      <c r="F101" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G101" s="7"/>
-      <c r="H101" s="9" t="s">
+      <c r="F101" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G101" s="6"/>
+      <c r="H101" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
+      <c r="A102" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="B102" s="9" t="s">
+      <c r="B102" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C102" s="7">
+      <c r="C102" s="6">
         <v>500</v>
       </c>
-      <c r="D102" s="7">
-        <v>80</v>
-      </c>
-      <c r="E102" s="7">
+      <c r="D102" s="6">
+        <v>80</v>
+      </c>
+      <c r="E102" s="6">
         <v>15</v>
       </c>
-      <c r="F102" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G102" s="7"/>
-      <c r="H102" s="9" t="s">
+      <c r="F102" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G102" s="6"/>
+      <c r="H102" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A103" s="10"/>
-      <c r="B103" s="9" t="s">
+      <c r="A103" s="18"/>
+      <c r="B103" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C103" s="7">
+      <c r="C103" s="6">
         <v>500</v>
       </c>
-      <c r="D103" s="7">
-        <v>80</v>
-      </c>
-      <c r="E103" s="7">
+      <c r="D103" s="6">
+        <v>80</v>
+      </c>
+      <c r="E103" s="6">
         <v>15</v>
       </c>
-      <c r="F103" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G103" s="7"/>
-      <c r="H103" s="9" t="s">
+      <c r="F103" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G103" s="6"/>
+      <c r="H103" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="10"/>
-      <c r="B104" s="9" t="s">
+      <c r="A104" s="18"/>
+      <c r="B104" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C104" s="7">
+      <c r="C104" s="6">
         <v>1000</v>
       </c>
-      <c r="D104" s="7">
-        <v>80</v>
-      </c>
-      <c r="E104" s="7">
-        <v>10</v>
-      </c>
-      <c r="F104" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G104" s="7"/>
-      <c r="H104" s="9" t="s">
+      <c r="D104" s="6">
+        <v>80</v>
+      </c>
+      <c r="E104" s="6">
+        <v>10</v>
+      </c>
+      <c r="F104" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G104" s="6"/>
+      <c r="H104" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="10"/>
-      <c r="B105" s="9" t="s">
+      <c r="A105" s="18"/>
+      <c r="B105" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C105" s="7">
+      <c r="C105" s="6">
         <v>1500</v>
       </c>
-      <c r="D105" s="7">
+      <c r="D105" s="6">
         <v>90</v>
       </c>
-      <c r="E105" s="7">
-        <v>10</v>
-      </c>
-      <c r="F105" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G105" s="7" t="s">
+      <c r="E105" s="6">
+        <v>10</v>
+      </c>
+      <c r="F105" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G105" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H105" s="9" t="s">
+      <c r="H105" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A106" s="11"/>
-      <c r="B106" s="9" t="s">
+      <c r="A106" s="19"/>
+      <c r="B106" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="C106" s="7">
+      <c r="C106" s="6">
         <v>2000</v>
       </c>
-      <c r="D106" s="7">
-        <v>80</v>
-      </c>
-      <c r="E106" s="7">
-        <v>10</v>
-      </c>
-      <c r="F106" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G106" s="7">
+      <c r="D106" s="6">
+        <v>80</v>
+      </c>
+      <c r="E106" s="6">
+        <v>10</v>
+      </c>
+      <c r="F106" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G106" s="6">
         <v>5000</v>
       </c>
-      <c r="H106" s="9" t="s">
+      <c r="H106" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
+      <c r="A107" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="B107" s="9" t="s">
+      <c r="B107" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C107" s="7">
+      <c r="C107" s="6">
         <v>100</v>
       </c>
-      <c r="D107" s="7">
-        <v>80</v>
-      </c>
-      <c r="E107" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F107" s="8">
+      <c r="D107" s="6">
+        <v>80</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F107" s="7">
         <v>0</v>
       </c>
-      <c r="G107" s="7"/>
-      <c r="H107" s="9" t="s">
+      <c r="G107" s="6"/>
+      <c r="H107" s="8" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A108" s="10"/>
-      <c r="B108" s="9" t="s">
+      <c r="A108" s="18"/>
+      <c r="B108" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C108" s="7">
+      <c r="C108" s="6">
         <v>200</v>
       </c>
-      <c r="D108" s="7">
-        <v>80</v>
-      </c>
-      <c r="E108" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F108" s="8">
+      <c r="D108" s="6">
+        <v>80</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F108" s="7">
         <v>0</v>
       </c>
-      <c r="G108" s="7"/>
-      <c r="H108" s="9" t="s">
+      <c r="G108" s="6"/>
+      <c r="H108" s="8" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A109" s="10"/>
-      <c r="B109" s="9" t="s">
+      <c r="A109" s="18"/>
+      <c r="B109" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C109" s="7">
+      <c r="C109" s="6">
         <v>200</v>
       </c>
-      <c r="D109" s="7">
-        <v>80</v>
-      </c>
-      <c r="E109" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F109" s="8">
+      <c r="D109" s="6">
+        <v>80</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F109" s="7">
         <v>0</v>
       </c>
-      <c r="G109" s="7"/>
-      <c r="H109" s="9" t="s">
+      <c r="G109" s="6"/>
+      <c r="H109" s="8" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A110" s="11"/>
-      <c r="B110" s="9" t="s">
+      <c r="A110" s="19"/>
+      <c r="B110" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C110" s="7">
+      <c r="C110" s="6">
         <v>300</v>
       </c>
-      <c r="D110" s="7">
-        <v>80</v>
-      </c>
-      <c r="E110" s="7">
-        <v>20</v>
-      </c>
-      <c r="F110" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G110" s="7"/>
-      <c r="H110" s="9" t="s">
+      <c r="D110" s="6">
+        <v>80</v>
+      </c>
+      <c r="E110" s="6">
+        <v>20</v>
+      </c>
+      <c r="F110" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G110" s="6"/>
+      <c r="H110" s="8" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A111" s="5" t="s">
+      <c r="A111" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="B111" s="9" t="s">
+      <c r="B111" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C111" s="7">
+      <c r="C111" s="6">
         <v>200</v>
       </c>
-      <c r="D111" s="7">
-        <v>80</v>
-      </c>
-      <c r="E111" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F111" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G111" s="7"/>
-      <c r="H111" s="9" t="s">
+      <c r="D111" s="6">
+        <v>80</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F111" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G111" s="6"/>
+      <c r="H111" s="8" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A112" s="10"/>
-      <c r="B112" s="9" t="s">
+      <c r="A112" s="18"/>
+      <c r="B112" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C112" s="7">
+      <c r="C112" s="6">
         <v>500</v>
       </c>
-      <c r="D112" s="7">
-        <v>80</v>
-      </c>
-      <c r="E112" s="7">
-        <v>10</v>
-      </c>
-      <c r="F112" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G112" s="7"/>
-      <c r="H112" s="9" t="s">
+      <c r="D112" s="6">
+        <v>80</v>
+      </c>
+      <c r="E112" s="6">
+        <v>10</v>
+      </c>
+      <c r="F112" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G112" s="6"/>
+      <c r="H112" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A113" s="11"/>
-      <c r="B113" s="9" t="s">
+      <c r="A113" s="19"/>
+      <c r="B113" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C113" s="7">
+      <c r="C113" s="6">
         <v>500</v>
       </c>
-      <c r="D113" s="7">
-        <v>80</v>
-      </c>
-      <c r="E113" s="7">
-        <v>10</v>
-      </c>
-      <c r="F113" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G113" s="7"/>
-      <c r="H113" s="9" t="s">
+      <c r="D113" s="6">
+        <v>80</v>
+      </c>
+      <c r="E113" s="6">
+        <v>10</v>
+      </c>
+      <c r="F113" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G113" s="6"/>
+      <c r="H113" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="93.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B114" s="9" t="s">
+      <c r="B114" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="C114" s="7">
+      <c r="C114" s="6">
         <v>300</v>
       </c>
-      <c r="D114" s="7">
+      <c r="D114" s="6">
         <v>90</v>
       </c>
-      <c r="E114" s="7">
-        <v>20</v>
-      </c>
-      <c r="F114" s="8">
+      <c r="E114" s="6">
+        <v>20</v>
+      </c>
+      <c r="F114" s="7">
         <v>0</v>
       </c>
-      <c r="G114" s="7"/>
-      <c r="H114" s="9" t="s">
+      <c r="G114" s="6"/>
+      <c r="H114" s="8" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="5" t="s">
+      <c r="A115" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="B115" s="9" t="s">
+      <c r="B115" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="C115" s="7">
+      <c r="C115" s="6">
         <v>200</v>
       </c>
-      <c r="D115" s="7">
-        <v>80</v>
-      </c>
-      <c r="E115" s="7">
-        <v>20</v>
-      </c>
-      <c r="F115" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G115" s="7"/>
-      <c r="H115" s="9" t="s">
+      <c r="D115" s="6">
+        <v>80</v>
+      </c>
+      <c r="E115" s="6">
+        <v>20</v>
+      </c>
+      <c r="F115" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G115" s="6"/>
+      <c r="H115" s="8" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A116" s="10"/>
-      <c r="B116" s="9" t="s">
+      <c r="A116" s="18"/>
+      <c r="B116" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="C116" s="7">
+      <c r="C116" s="6">
         <v>300</v>
       </c>
-      <c r="D116" s="7">
-        <v>80</v>
-      </c>
-      <c r="E116" s="7">
-        <v>20</v>
-      </c>
-      <c r="F116" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G116" s="7"/>
-      <c r="H116" s="9" t="s">
+      <c r="D116" s="6">
+        <v>80</v>
+      </c>
+      <c r="E116" s="6">
+        <v>20</v>
+      </c>
+      <c r="F116" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G116" s="6"/>
+      <c r="H116" s="8" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A117" s="10"/>
-      <c r="B117" s="9" t="s">
+      <c r="A117" s="18"/>
+      <c r="B117" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C117" s="7">
+      <c r="C117" s="6">
         <v>300</v>
       </c>
-      <c r="D117" s="7">
-        <v>80</v>
-      </c>
-      <c r="E117" s="7">
-        <v>20</v>
-      </c>
-      <c r="F117" s="8">
+      <c r="D117" s="6">
+        <v>80</v>
+      </c>
+      <c r="E117" s="6">
+        <v>20</v>
+      </c>
+      <c r="F117" s="7">
         <v>0</v>
       </c>
-      <c r="G117" s="7"/>
-      <c r="H117" s="9" t="s">
+      <c r="G117" s="6"/>
+      <c r="H117" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="189" x14ac:dyDescent="0.25">
-      <c r="A118" s="10"/>
-      <c r="B118" s="9" t="s">
+      <c r="A118" s="18"/>
+      <c r="B118" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="C118" s="7">
+      <c r="C118" s="6">
         <v>300</v>
       </c>
-      <c r="D118" s="7">
-        <v>80</v>
-      </c>
-      <c r="E118" s="7">
-        <v>20</v>
-      </c>
-      <c r="F118" s="8">
+      <c r="D118" s="6">
+        <v>80</v>
+      </c>
+      <c r="E118" s="6">
+        <v>20</v>
+      </c>
+      <c r="F118" s="7">
         <v>0</v>
       </c>
-      <c r="G118" s="7"/>
-      <c r="H118" s="9" t="s">
+      <c r="G118" s="6"/>
+      <c r="H118" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="126" x14ac:dyDescent="0.25">
-      <c r="A119" s="10"/>
-      <c r="B119" s="9" t="s">
+      <c r="A119" s="18"/>
+      <c r="B119" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="C119" s="7">
+      <c r="C119" s="6">
         <v>500</v>
       </c>
-      <c r="D119" s="7">
-        <v>80</v>
-      </c>
-      <c r="E119" s="7">
-        <v>10</v>
-      </c>
-      <c r="F119" s="8">
+      <c r="D119" s="6">
+        <v>80</v>
+      </c>
+      <c r="E119" s="6">
+        <v>10</v>
+      </c>
+      <c r="F119" s="7">
         <v>0</v>
       </c>
-      <c r="G119" s="7"/>
-      <c r="H119" s="9" t="s">
+      <c r="G119" s="6"/>
+      <c r="H119" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A120" s="10"/>
-      <c r="B120" s="9" t="s">
+      <c r="A120" s="18"/>
+      <c r="B120" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="C120" s="7">
+      <c r="C120" s="6">
         <v>750</v>
       </c>
-      <c r="D120" s="7">
-        <v>80</v>
-      </c>
-      <c r="E120" s="7">
-        <v>10</v>
-      </c>
-      <c r="F120" s="8">
+      <c r="D120" s="6">
+        <v>80</v>
+      </c>
+      <c r="E120" s="6">
+        <v>10</v>
+      </c>
+      <c r="F120" s="7">
         <v>0</v>
       </c>
-      <c r="G120" s="7"/>
-      <c r="H120" s="9" t="s">
+      <c r="G120" s="6"/>
+      <c r="H120" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="10"/>
-      <c r="B121" s="9" t="s">
+      <c r="A121" s="18"/>
+      <c r="B121" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="C121" s="7">
+      <c r="C121" s="6">
         <v>300</v>
       </c>
-      <c r="D121" s="7">
-        <v>80</v>
-      </c>
-      <c r="E121" s="7">
-        <v>20</v>
-      </c>
-      <c r="F121" s="8">
+      <c r="D121" s="6">
+        <v>80</v>
+      </c>
+      <c r="E121" s="6">
+        <v>20</v>
+      </c>
+      <c r="F121" s="7">
         <v>0</v>
       </c>
-      <c r="G121" s="7"/>
-      <c r="H121" s="9" t="s">
+      <c r="G121" s="6"/>
+      <c r="H121" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="10"/>
-      <c r="B122" s="9" t="s">
+      <c r="A122" s="18"/>
+      <c r="B122" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="C122" s="7">
+      <c r="C122" s="6">
         <v>200</v>
       </c>
-      <c r="D122" s="7">
-        <v>80</v>
-      </c>
-      <c r="E122" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F122" s="8">
+      <c r="D122" s="6">
+        <v>80</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F122" s="7">
         <v>0</v>
       </c>
-      <c r="G122" s="7"/>
-      <c r="H122" s="9" t="s">
+      <c r="G122" s="6"/>
+      <c r="H122" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="126" x14ac:dyDescent="0.25">
-      <c r="A123" s="10"/>
-      <c r="B123" s="9" t="s">
+      <c r="A123" s="18"/>
+      <c r="B123" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="C123" s="7">
+      <c r="C123" s="6">
         <v>300</v>
       </c>
-      <c r="D123" s="7">
-        <v>80</v>
-      </c>
-      <c r="E123" s="7">
+      <c r="D123" s="6">
+        <v>80</v>
+      </c>
+      <c r="E123" s="6">
         <v>15</v>
       </c>
-      <c r="F123" s="8">
+      <c r="F123" s="7">
         <v>0</v>
       </c>
-      <c r="G123" s="7"/>
-      <c r="H123" s="9" t="s">
+      <c r="G123" s="6"/>
+      <c r="H123" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="10"/>
-      <c r="B124" s="9" t="s">
+      <c r="A124" s="18"/>
+      <c r="B124" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="C124" s="7">
+      <c r="C124" s="6">
         <v>750</v>
       </c>
-      <c r="D124" s="7">
-        <v>80</v>
-      </c>
-      <c r="E124" s="7">
-        <v>10</v>
-      </c>
-      <c r="F124" s="8">
+      <c r="D124" s="6">
+        <v>80</v>
+      </c>
+      <c r="E124" s="6">
+        <v>10</v>
+      </c>
+      <c r="F124" s="7">
         <v>0</v>
       </c>
-      <c r="G124" s="7"/>
-      <c r="H124" s="9" t="s">
+      <c r="G124" s="6"/>
+      <c r="H124" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A125" s="10"/>
-      <c r="B125" s="9" t="s">
+      <c r="A125" s="18"/>
+      <c r="B125" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="C125" s="7">
+      <c r="C125" s="6">
         <v>200</v>
       </c>
-      <c r="D125" s="7">
-        <v>80</v>
-      </c>
-      <c r="E125" s="7">
-        <v>20</v>
-      </c>
-      <c r="F125" s="8">
+      <c r="D125" s="6">
+        <v>80</v>
+      </c>
+      <c r="E125" s="6">
+        <v>20</v>
+      </c>
+      <c r="F125" s="7">
         <v>0</v>
       </c>
-      <c r="G125" s="7"/>
-      <c r="H125" s="9" t="s">
+      <c r="G125" s="6"/>
+      <c r="H125" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A126" s="10"/>
-      <c r="B126" s="9" t="s">
+      <c r="A126" s="18"/>
+      <c r="B126" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="C126" s="7">
+      <c r="C126" s="6">
         <v>300</v>
       </c>
-      <c r="D126" s="7">
-        <v>80</v>
-      </c>
-      <c r="E126" s="7">
-        <v>20</v>
-      </c>
-      <c r="F126" s="8">
+      <c r="D126" s="6">
+        <v>80</v>
+      </c>
+      <c r="E126" s="6">
+        <v>20</v>
+      </c>
+      <c r="F126" s="7">
         <v>0</v>
       </c>
-      <c r="G126" s="7"/>
-      <c r="H126" s="9" t="s">
+      <c r="G126" s="6"/>
+      <c r="H126" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A127" s="10"/>
-      <c r="B127" s="9" t="s">
+      <c r="A127" s="18"/>
+      <c r="B127" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="C127" s="7">
+      <c r="C127" s="6">
         <v>500</v>
       </c>
-      <c r="D127" s="7">
-        <v>80</v>
-      </c>
-      <c r="E127" s="7">
+      <c r="D127" s="6">
+        <v>80</v>
+      </c>
+      <c r="E127" s="6">
         <v>15</v>
       </c>
-      <c r="F127" s="8">
+      <c r="F127" s="7">
         <v>0</v>
       </c>
-      <c r="G127" s="7"/>
-      <c r="H127" s="9" t="s">
+      <c r="G127" s="6"/>
+      <c r="H127" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A128" s="10"/>
-      <c r="B128" s="9" t="s">
+      <c r="A128" s="18"/>
+      <c r="B128" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="C128" s="7">
+      <c r="C128" s="6">
         <v>750</v>
       </c>
-      <c r="D128" s="7">
-        <v>80</v>
-      </c>
-      <c r="E128" s="7">
-        <v>10</v>
-      </c>
-      <c r="F128" s="8">
+      <c r="D128" s="6">
+        <v>80</v>
+      </c>
+      <c r="E128" s="6">
+        <v>10</v>
+      </c>
+      <c r="F128" s="7">
         <v>0</v>
       </c>
-      <c r="G128" s="7"/>
-      <c r="H128" s="9" t="s">
+      <c r="G128" s="6"/>
+      <c r="H128" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A129" s="10"/>
-      <c r="B129" s="9" t="s">
+      <c r="A129" s="18"/>
+      <c r="B129" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="C129" s="7">
+      <c r="C129" s="6">
         <v>300</v>
       </c>
-      <c r="D129" s="7">
-        <v>80</v>
-      </c>
-      <c r="E129" s="7">
-        <v>20</v>
-      </c>
-      <c r="F129" s="8">
+      <c r="D129" s="6">
+        <v>80</v>
+      </c>
+      <c r="E129" s="6">
+        <v>20</v>
+      </c>
+      <c r="F129" s="7">
         <v>0</v>
       </c>
-      <c r="G129" s="7"/>
-      <c r="H129" s="9" t="s">
+      <c r="G129" s="6"/>
+      <c r="H129" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="10"/>
-      <c r="B130" s="9" t="s">
+      <c r="A130" s="18"/>
+      <c r="B130" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="C130" s="7">
+      <c r="C130" s="6">
         <v>750</v>
       </c>
-      <c r="D130" s="7">
-        <v>80</v>
-      </c>
-      <c r="E130" s="7">
-        <v>10</v>
-      </c>
-      <c r="F130" s="8">
+      <c r="D130" s="6">
+        <v>80</v>
+      </c>
+      <c r="E130" s="6">
+        <v>10</v>
+      </c>
+      <c r="F130" s="7">
         <v>0</v>
       </c>
-      <c r="G130" s="7"/>
-      <c r="H130" s="9" t="s">
+      <c r="G130" s="6"/>
+      <c r="H130" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="204.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="11"/>
-      <c r="B131" s="9" t="s">
+      <c r="A131" s="19"/>
+      <c r="B131" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="C131" s="7">
+      <c r="C131" s="6">
         <v>1000</v>
       </c>
-      <c r="D131" s="7">
-        <v>80</v>
-      </c>
-      <c r="E131" s="7">
-        <v>10</v>
-      </c>
-      <c r="F131" s="8">
+      <c r="D131" s="6">
+        <v>80</v>
+      </c>
+      <c r="E131" s="6">
+        <v>10</v>
+      </c>
+      <c r="F131" s="7">
         <v>0</v>
       </c>
-      <c r="G131" s="7"/>
-      <c r="H131" s="9" t="s">
+      <c r="G131" s="6"/>
+      <c r="H131" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B132" s="9" t="s">
+      <c r="B132" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="C132" s="7">
+      <c r="C132" s="6">
         <v>300</v>
       </c>
-      <c r="D132" s="7">
-        <v>80</v>
-      </c>
-      <c r="E132" s="7">
-        <v>20</v>
-      </c>
-      <c r="F132" s="8">
+      <c r="D132" s="6">
+        <v>80</v>
+      </c>
+      <c r="E132" s="6">
+        <v>20</v>
+      </c>
+      <c r="F132" s="7">
         <v>0</v>
       </c>
-      <c r="G132" s="7"/>
-      <c r="H132" s="9" t="s">
+      <c r="G132" s="6"/>
+      <c r="H132" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="5" t="s">
+      <c r="A133" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="B133" s="9" t="s">
+      <c r="B133" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="C133" s="7">
+      <c r="C133" s="6">
         <v>500</v>
       </c>
-      <c r="D133" s="7">
-        <v>80</v>
-      </c>
-      <c r="E133" s="7">
+      <c r="D133" s="6">
+        <v>80</v>
+      </c>
+      <c r="E133" s="6">
         <v>15</v>
       </c>
-      <c r="F133" s="8">
+      <c r="F133" s="7">
         <v>0</v>
       </c>
-      <c r="G133" s="7"/>
-      <c r="H133" s="9" t="s">
+      <c r="G133" s="6"/>
+      <c r="H133" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A134" s="10"/>
-      <c r="B134" s="9" t="s">
+      <c r="A134" s="18"/>
+      <c r="B134" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="C134" s="7">
+      <c r="C134" s="6">
         <v>750</v>
       </c>
-      <c r="D134" s="7">
-        <v>80</v>
-      </c>
-      <c r="E134" s="7">
-        <v>10</v>
-      </c>
-      <c r="F134" s="8">
+      <c r="D134" s="6">
+        <v>80</v>
+      </c>
+      <c r="E134" s="6">
+        <v>10</v>
+      </c>
+      <c r="F134" s="7">
         <v>0</v>
       </c>
-      <c r="G134" s="7"/>
-      <c r="H134" s="9" t="s">
+      <c r="G134" s="6"/>
+      <c r="H134" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="10"/>
-      <c r="B135" s="9" t="s">
+      <c r="A135" s="18"/>
+      <c r="B135" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C135" s="7">
+      <c r="C135" s="6">
         <v>1000</v>
       </c>
-      <c r="D135" s="7">
+      <c r="D135" s="6">
         <v>90</v>
       </c>
-      <c r="E135" s="7">
-        <v>10</v>
-      </c>
-      <c r="F135" s="8">
+      <c r="E135" s="6">
+        <v>10</v>
+      </c>
+      <c r="F135" s="7">
         <v>0</v>
       </c>
-      <c r="G135" s="7" t="s">
+      <c r="G135" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H135" s="9" t="s">
+      <c r="H135" s="8" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A136" s="10"/>
-      <c r="B136" s="9" t="s">
+      <c r="A136" s="18"/>
+      <c r="B136" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C136" s="7">
+      <c r="C136" s="6">
         <v>1000</v>
       </c>
-      <c r="D136" s="7">
-        <v>80</v>
-      </c>
-      <c r="E136" s="7">
-        <v>10</v>
-      </c>
-      <c r="F136" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G136" s="7"/>
-      <c r="H136" s="9" t="s">
+      <c r="D136" s="6">
+        <v>80</v>
+      </c>
+      <c r="E136" s="6">
+        <v>10</v>
+      </c>
+      <c r="F136" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G136" s="6"/>
+      <c r="H136" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="10"/>
-      <c r="B137" s="9" t="s">
+      <c r="A137" s="18"/>
+      <c r="B137" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="C137" s="7">
+      <c r="C137" s="6">
         <v>1000</v>
       </c>
-      <c r="D137" s="7">
-        <v>80</v>
-      </c>
-      <c r="E137" s="7">
-        <v>10</v>
-      </c>
-      <c r="F137" s="8">
+      <c r="D137" s="6">
+        <v>80</v>
+      </c>
+      <c r="E137" s="6">
+        <v>10</v>
+      </c>
+      <c r="F137" s="7">
         <v>0</v>
       </c>
-      <c r="G137" s="7"/>
-      <c r="H137" s="9" t="s">
+      <c r="G137" s="6"/>
+      <c r="H137" s="8" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A138" s="11"/>
-      <c r="B138" s="9" t="s">
+      <c r="A138" s="19"/>
+      <c r="B138" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C138" s="7">
+      <c r="C138" s="6">
         <v>300</v>
       </c>
-      <c r="D138" s="7">
-        <v>80</v>
-      </c>
-      <c r="E138" s="7">
-        <v>20</v>
-      </c>
-      <c r="F138" s="8">
+      <c r="D138" s="6">
+        <v>80</v>
+      </c>
+      <c r="E138" s="6">
+        <v>20</v>
+      </c>
+      <c r="F138" s="7">
         <v>0</v>
       </c>
-      <c r="G138" s="7"/>
-      <c r="H138" s="9" t="s">
+      <c r="G138" s="6"/>
+      <c r="H138" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A139" s="5" t="s">
+      <c r="A139" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="B139" s="9" t="s">
+      <c r="B139" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="C139" s="7">
+      <c r="C139" s="6">
         <v>50</v>
       </c>
-      <c r="D139" s="7">
-        <v>20</v>
-      </c>
-      <c r="E139" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F139" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G139" s="7"/>
-      <c r="H139" s="9" t="s">
+      <c r="D139" s="6">
+        <v>20</v>
+      </c>
+      <c r="E139" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F139" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G139" s="6"/>
+      <c r="H139" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A140" s="10"/>
-      <c r="B140" s="9" t="s">
+      <c r="A140" s="18"/>
+      <c r="B140" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="C140" s="7">
+      <c r="C140" s="6">
         <v>150</v>
       </c>
-      <c r="D140" s="7">
+      <c r="D140" s="6">
         <v>40</v>
       </c>
-      <c r="E140" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F140" s="8"/>
-      <c r="G140" s="7"/>
-      <c r="H140" s="9" t="s">
+      <c r="E140" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F140" s="7"/>
+      <c r="G140" s="6"/>
+      <c r="H140" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A141" s="10"/>
-      <c r="B141" s="9" t="s">
+      <c r="A141" s="18"/>
+      <c r="B141" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="C141" s="7">
+      <c r="C141" s="6">
         <v>200</v>
       </c>
-      <c r="D141" s="7">
-        <v>80</v>
-      </c>
-      <c r="E141" s="7">
-        <v>20</v>
-      </c>
-      <c r="F141" s="8"/>
-      <c r="G141" s="7"/>
-      <c r="H141" s="9" t="s">
+      <c r="D141" s="6">
+        <v>80</v>
+      </c>
+      <c r="E141" s="6">
+        <v>20</v>
+      </c>
+      <c r="F141" s="7"/>
+      <c r="G141" s="6"/>
+      <c r="H141" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A142" s="10"/>
-      <c r="B142" s="9" t="s">
+      <c r="A142" s="18"/>
+      <c r="B142" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C142" s="7">
+      <c r="C142" s="6">
         <v>50</v>
       </c>
-      <c r="D142" s="7">
-        <v>20</v>
-      </c>
-      <c r="E142" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F142" s="8"/>
-      <c r="G142" s="7"/>
-      <c r="H142" s="9" t="s">
+      <c r="D142" s="6">
+        <v>20</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F142" s="7"/>
+      <c r="G142" s="6"/>
+      <c r="H142" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A143" s="10"/>
-      <c r="B143" s="9" t="s">
+      <c r="A143" s="18"/>
+      <c r="B143" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C143" s="7">
+      <c r="C143" s="6">
         <v>200</v>
       </c>
-      <c r="D143" s="7">
-        <v>20</v>
-      </c>
-      <c r="E143" s="7">
-        <v>20</v>
-      </c>
-      <c r="F143" s="8"/>
-      <c r="G143" s="7"/>
-      <c r="H143" s="9" t="s">
+      <c r="D143" s="6">
+        <v>20</v>
+      </c>
+      <c r="E143" s="6">
+        <v>20</v>
+      </c>
+      <c r="F143" s="7"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A144" s="10"/>
-      <c r="B144" s="9" t="s">
+      <c r="A144" s="18"/>
+      <c r="B144" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="C144" s="7">
+      <c r="C144" s="6">
         <v>300</v>
       </c>
-      <c r="D144" s="7">
+      <c r="D144" s="6">
         <v>40</v>
       </c>
-      <c r="E144" s="7">
-        <v>20</v>
-      </c>
-      <c r="F144" s="8"/>
-      <c r="G144" s="7"/>
-      <c r="H144" s="9" t="s">
+      <c r="E144" s="6">
+        <v>20</v>
+      </c>
+      <c r="F144" s="7"/>
+      <c r="G144" s="6"/>
+      <c r="H144" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A145" s="10"/>
-      <c r="B145" s="9" t="s">
+      <c r="A145" s="18"/>
+      <c r="B145" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="C145" s="7">
+      <c r="C145" s="6">
         <v>300</v>
       </c>
-      <c r="D145" s="7">
-        <v>80</v>
-      </c>
-      <c r="E145" s="7">
-        <v>20</v>
-      </c>
-      <c r="F145" s="8"/>
-      <c r="G145" s="7"/>
-      <c r="H145" s="9" t="s">
+      <c r="D145" s="6">
+        <v>80</v>
+      </c>
+      <c r="E145" s="6">
+        <v>20</v>
+      </c>
+      <c r="F145" s="7"/>
+      <c r="G145" s="6"/>
+      <c r="H145" s="8" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A146" s="10"/>
-      <c r="B146" s="9" t="s">
+      <c r="A146" s="18"/>
+      <c r="B146" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C146" s="7">
+      <c r="C146" s="6">
         <v>500</v>
       </c>
-      <c r="D146" s="7">
-        <v>80</v>
-      </c>
-      <c r="E146" s="7">
+      <c r="D146" s="6">
+        <v>80</v>
+      </c>
+      <c r="E146" s="6">
         <v>15</v>
       </c>
-      <c r="F146" s="8"/>
-      <c r="G146" s="7"/>
-      <c r="H146" s="9" t="s">
+      <c r="F146" s="7"/>
+      <c r="G146" s="6"/>
+      <c r="H146" s="8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A147" s="11"/>
-      <c r="B147" s="9" t="s">
+      <c r="A147" s="19"/>
+      <c r="B147" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="C147" s="7">
+      <c r="C147" s="6">
         <v>50</v>
       </c>
-      <c r="D147" s="7">
-        <v>20</v>
-      </c>
-      <c r="E147" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F147" s="8"/>
-      <c r="G147" s="7"/>
-      <c r="H147" s="9" t="s">
+      <c r="D147" s="6">
+        <v>20</v>
+      </c>
+      <c r="E147" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F147" s="7"/>
+      <c r="G147" s="6"/>
+      <c r="H147" s="8" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A148" s="5" t="s">
+      <c r="A148" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="B148" s="9" t="s">
+      <c r="B148" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="C148" s="7">
+      <c r="C148" s="6">
         <v>300</v>
       </c>
-      <c r="D148" s="7">
-        <v>80</v>
-      </c>
-      <c r="E148" s="7">
-        <v>10</v>
-      </c>
-      <c r="F148" s="8"/>
-      <c r="G148" s="7"/>
-      <c r="H148" s="9" t="s">
+      <c r="D148" s="6">
+        <v>80</v>
+      </c>
+      <c r="E148" s="6">
+        <v>10</v>
+      </c>
+      <c r="F148" s="7"/>
+      <c r="G148" s="6"/>
+      <c r="H148" s="8" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A149" s="11"/>
-      <c r="B149" s="9" t="s">
+      <c r="A149" s="19"/>
+      <c r="B149" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="C149" s="7">
+      <c r="C149" s="6">
         <v>300</v>
       </c>
-      <c r="D149" s="7"/>
-      <c r="E149" s="7"/>
-      <c r="F149" s="8"/>
-      <c r="G149" s="7"/>
-      <c r="H149" s="9" t="s">
+      <c r="D149" s="6"/>
+      <c r="E149" s="6"/>
+      <c r="F149" s="7"/>
+      <c r="G149" s="6"/>
+      <c r="H149" s="8" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A150" s="5" t="s">
+      <c r="A150" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="B150" s="9" t="s">
+      <c r="B150" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="C150" s="7">
+      <c r="C150" s="6">
         <v>50</v>
       </c>
-      <c r="D150" s="7">
+      <c r="D150" s="6">
         <v>40</v>
       </c>
-      <c r="E150" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F150" s="8"/>
-      <c r="G150" s="7"/>
-      <c r="H150" s="9" t="s">
+      <c r="E150" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F150" s="7"/>
+      <c r="G150" s="6"/>
+      <c r="H150" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A151" s="10"/>
-      <c r="B151" s="9" t="s">
+      <c r="A151" s="18"/>
+      <c r="B151" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="C151" s="7">
+      <c r="C151" s="6">
         <v>150</v>
       </c>
-      <c r="D151" s="7">
+      <c r="D151" s="6">
         <v>40</v>
       </c>
-      <c r="E151" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F151" s="8"/>
-      <c r="G151" s="7"/>
-      <c r="H151" s="9" t="s">
+      <c r="E151" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F151" s="7"/>
+      <c r="G151" s="6"/>
+      <c r="H151" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A152" s="10"/>
-      <c r="B152" s="9" t="s">
+      <c r="A152" s="18"/>
+      <c r="B152" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="C152" s="7">
+      <c r="C152" s="6">
         <v>300</v>
       </c>
-      <c r="D152" s="7">
+      <c r="D152" s="6">
         <v>60</v>
       </c>
-      <c r="E152" s="7">
-        <v>10</v>
-      </c>
-      <c r="F152" s="8"/>
-      <c r="G152" s="7"/>
-      <c r="H152" s="9" t="s">
+      <c r="E152" s="6">
+        <v>10</v>
+      </c>
+      <c r="F152" s="7"/>
+      <c r="G152" s="6"/>
+      <c r="H152" s="8" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A153" s="10"/>
-      <c r="B153" s="9" t="s">
+      <c r="A153" s="18"/>
+      <c r="B153" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="C153" s="7">
+      <c r="C153" s="6">
         <v>300</v>
       </c>
-      <c r="D153" s="7">
-        <v>80</v>
-      </c>
-      <c r="E153" s="7">
-        <v>20</v>
-      </c>
-      <c r="F153" s="8"/>
-      <c r="G153" s="7"/>
-      <c r="H153" s="9" t="s">
+      <c r="D153" s="6">
+        <v>80</v>
+      </c>
+      <c r="E153" s="6">
+        <v>20</v>
+      </c>
+      <c r="F153" s="7"/>
+      <c r="G153" s="6"/>
+      <c r="H153" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A154" s="10"/>
-      <c r="B154" s="9" t="s">
+      <c r="A154" s="18"/>
+      <c r="B154" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="C154" s="7">
+      <c r="C154" s="6">
         <v>750</v>
       </c>
-      <c r="D154" s="7">
-        <v>80</v>
-      </c>
-      <c r="E154" s="7">
-        <v>10</v>
-      </c>
-      <c r="F154" s="8"/>
-      <c r="G154" s="7"/>
-      <c r="H154" s="9" t="s">
+      <c r="D154" s="6">
+        <v>80</v>
+      </c>
+      <c r="E154" s="6">
+        <v>10</v>
+      </c>
+      <c r="F154" s="7"/>
+      <c r="G154" s="6"/>
+      <c r="H154" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="252" x14ac:dyDescent="0.25">
-      <c r="A155" s="10"/>
-      <c r="B155" s="9" t="s">
+      <c r="A155" s="18"/>
+      <c r="B155" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="C155" s="7">
+      <c r="C155" s="6">
         <v>500</v>
       </c>
-      <c r="D155" s="7">
-        <v>80</v>
-      </c>
-      <c r="E155" s="7">
-        <v>10</v>
-      </c>
-      <c r="F155" s="8"/>
-      <c r="G155" s="7"/>
-      <c r="H155" s="9" t="s">
+      <c r="D155" s="6">
+        <v>80</v>
+      </c>
+      <c r="E155" s="6">
+        <v>10</v>
+      </c>
+      <c r="F155" s="7"/>
+      <c r="G155" s="6"/>
+      <c r="H155" s="8" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A156" s="10"/>
-      <c r="B156" s="9" t="s">
+      <c r="A156" s="18"/>
+      <c r="B156" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C156" s="7">
+      <c r="C156" s="6">
         <v>750</v>
       </c>
-      <c r="D156" s="7">
+      <c r="D156" s="6">
         <v>90</v>
       </c>
-      <c r="E156" s="7">
-        <v>10</v>
-      </c>
-      <c r="F156" s="8"/>
-      <c r="G156" s="7" t="s">
+      <c r="E156" s="6">
+        <v>10</v>
+      </c>
+      <c r="F156" s="7"/>
+      <c r="G156" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H156" s="9" t="s">
+      <c r="H156" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A157" s="10"/>
-      <c r="B157" s="9" t="s">
+      <c r="A157" s="18"/>
+      <c r="B157" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="C157" s="7">
+      <c r="C157" s="6">
         <v>750</v>
       </c>
-      <c r="D157" s="7">
+      <c r="D157" s="6">
         <v>90</v>
       </c>
-      <c r="E157" s="7">
-        <v>10</v>
-      </c>
-      <c r="F157" s="8"/>
-      <c r="G157" s="7" t="s">
+      <c r="E157" s="6">
+        <v>10</v>
+      </c>
+      <c r="F157" s="7"/>
+      <c r="G157" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H157" s="9" t="s">
+      <c r="H157" s="8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A158" s="11"/>
-      <c r="B158" s="9" t="s">
+      <c r="A158" s="19"/>
+      <c r="B158" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="C158" s="7">
+      <c r="C158" s="6">
         <v>1000</v>
       </c>
-      <c r="D158" s="7">
+      <c r="D158" s="6">
         <v>90</v>
       </c>
-      <c r="E158" s="7">
-        <v>10</v>
-      </c>
-      <c r="F158" s="8"/>
-      <c r="G158" s="7" t="s">
+      <c r="E158" s="6">
+        <v>10</v>
+      </c>
+      <c r="F158" s="7"/>
+      <c r="G158" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H158" s="9" t="s">
+      <c r="H158" s="8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A159" s="5" t="s">
+      <c r="A159" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="B159" s="9" t="s">
+      <c r="B159" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="C159" s="7">
+      <c r="C159" s="6">
         <v>300</v>
       </c>
-      <c r="D159" s="7">
-        <v>80</v>
-      </c>
-      <c r="E159" s="7">
-        <v>20</v>
-      </c>
-      <c r="F159" s="8"/>
-      <c r="G159" s="7"/>
-      <c r="H159" s="9" t="s">
+      <c r="D159" s="6">
+        <v>80</v>
+      </c>
+      <c r="E159" s="6">
+        <v>20</v>
+      </c>
+      <c r="F159" s="7"/>
+      <c r="G159" s="6"/>
+      <c r="H159" s="8" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A160" s="10"/>
-      <c r="B160" s="9" t="s">
+      <c r="A160" s="18"/>
+      <c r="B160" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="C160" s="7">
+      <c r="C160" s="6">
         <v>500</v>
       </c>
-      <c r="D160" s="7">
-        <v>80</v>
-      </c>
-      <c r="E160" s="7">
-        <v>10</v>
-      </c>
-      <c r="F160" s="8"/>
-      <c r="G160" s="7"/>
-      <c r="H160" s="9" t="s">
+      <c r="D160" s="6">
+        <v>80</v>
+      </c>
+      <c r="E160" s="6">
+        <v>10</v>
+      </c>
+      <c r="F160" s="7"/>
+      <c r="G160" s="6"/>
+      <c r="H160" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A161" s="10"/>
-      <c r="B161" s="9" t="s">
+      <c r="A161" s="18"/>
+      <c r="B161" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="C161" s="7">
+      <c r="C161" s="6">
         <v>750</v>
       </c>
-      <c r="D161" s="7">
-        <v>80</v>
-      </c>
-      <c r="E161" s="7"/>
-      <c r="F161" s="8"/>
-      <c r="G161" s="7"/>
-      <c r="H161" s="9" t="s">
+      <c r="D161" s="6">
+        <v>80</v>
+      </c>
+      <c r="E161" s="6"/>
+      <c r="F161" s="7"/>
+      <c r="G161" s="6"/>
+      <c r="H161" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A162" s="10"/>
-      <c r="B162" s="9" t="s">
+      <c r="A162" s="18"/>
+      <c r="B162" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="C162" s="7">
+      <c r="C162" s="6">
         <v>500</v>
       </c>
-      <c r="D162" s="7">
-        <v>80</v>
-      </c>
-      <c r="E162" s="7">
+      <c r="D162" s="6">
+        <v>80</v>
+      </c>
+      <c r="E162" s="6">
         <v>5</v>
       </c>
-      <c r="F162" s="8"/>
-      <c r="G162" s="7"/>
-      <c r="H162" s="9" t="s">
+      <c r="F162" s="7"/>
+      <c r="G162" s="6"/>
+      <c r="H162" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="126" x14ac:dyDescent="0.25">
-      <c r="A163" s="10"/>
-      <c r="B163" s="9" t="s">
+      <c r="A163" s="18"/>
+      <c r="B163" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="C163" s="7">
+      <c r="C163" s="6">
         <v>500</v>
       </c>
-      <c r="D163" s="7">
-        <v>80</v>
-      </c>
-      <c r="E163" s="7">
-        <v>10</v>
-      </c>
-      <c r="F163" s="8"/>
-      <c r="G163" s="7"/>
-      <c r="H163" s="9" t="s">
+      <c r="D163" s="6">
+        <v>80</v>
+      </c>
+      <c r="E163" s="6">
+        <v>10</v>
+      </c>
+      <c r="F163" s="7"/>
+      <c r="G163" s="6"/>
+      <c r="H163" s="8" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A164" s="10"/>
-      <c r="B164" s="9" t="s">
+      <c r="A164" s="18"/>
+      <c r="B164" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="C164" s="7">
+      <c r="C164" s="6">
         <v>300</v>
       </c>
-      <c r="D164" s="7">
-        <v>80</v>
-      </c>
-      <c r="E164" s="7">
+      <c r="D164" s="6">
+        <v>80</v>
+      </c>
+      <c r="E164" s="6">
         <v>15</v>
       </c>
-      <c r="F164" s="8"/>
-      <c r="G164" s="7"/>
-      <c r="H164" s="9" t="s">
+      <c r="F164" s="7"/>
+      <c r="G164" s="6"/>
+      <c r="H164" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A165" s="11"/>
-      <c r="B165" s="9" t="s">
+      <c r="A165" s="19"/>
+      <c r="B165" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="C165" s="7">
+      <c r="C165" s="6">
         <v>200</v>
       </c>
-      <c r="D165" s="7">
-        <v>80</v>
-      </c>
-      <c r="E165" s="7">
-        <v>20</v>
-      </c>
-      <c r="F165" s="8"/>
-      <c r="G165" s="7"/>
-      <c r="H165" s="9" t="s">
+      <c r="D165" s="6">
+        <v>80</v>
+      </c>
+      <c r="E165" s="6">
+        <v>20</v>
+      </c>
+      <c r="F165" s="7"/>
+      <c r="G165" s="6"/>
+      <c r="H165" s="8" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A166" s="5" t="s">
+      <c r="A166" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="B166" s="9" t="s">
+      <c r="B166" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="C166" s="7">
+      <c r="C166" s="6">
         <v>200</v>
       </c>
-      <c r="D166" s="7">
+      <c r="D166" s="6">
         <v>60</v>
       </c>
-      <c r="E166" s="7">
-        <v>20</v>
-      </c>
-      <c r="F166" s="8"/>
-      <c r="G166" s="7"/>
-      <c r="H166" s="9" t="s">
+      <c r="E166" s="6">
+        <v>20</v>
+      </c>
+      <c r="F166" s="7"/>
+      <c r="G166" s="6"/>
+      <c r="H166" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="393.75" x14ac:dyDescent="0.25">
-      <c r="A167" s="10"/>
-      <c r="B167" s="9" t="s">
+      <c r="A167" s="18"/>
+      <c r="B167" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="C167" s="7">
+      <c r="C167" s="6">
         <v>300</v>
       </c>
-      <c r="D167" s="7">
-        <v>80</v>
-      </c>
-      <c r="E167" s="7">
-        <v>20</v>
-      </c>
-      <c r="F167" s="8"/>
-      <c r="G167" s="7"/>
-      <c r="H167" s="9" t="s">
+      <c r="D167" s="6">
+        <v>80</v>
+      </c>
+      <c r="E167" s="6">
+        <v>20</v>
+      </c>
+      <c r="F167" s="7"/>
+      <c r="G167" s="6"/>
+      <c r="H167" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A168" s="10"/>
-      <c r="B168" s="9" t="s">
+      <c r="A168" s="18"/>
+      <c r="B168" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="C168" s="7">
+      <c r="C168" s="6">
         <v>500</v>
       </c>
-      <c r="D168" s="7">
-        <v>80</v>
-      </c>
-      <c r="E168" s="7">
-        <v>10</v>
-      </c>
-      <c r="F168" s="8"/>
-      <c r="G168" s="7"/>
-      <c r="H168" s="9" t="s">
+      <c r="D168" s="6">
+        <v>80</v>
+      </c>
+      <c r="E168" s="6">
+        <v>10</v>
+      </c>
+      <c r="F168" s="7"/>
+      <c r="G168" s="6"/>
+      <c r="H168" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="189" x14ac:dyDescent="0.25">
-      <c r="A169" s="10"/>
-      <c r="B169" s="9" t="s">
+      <c r="A169" s="18"/>
+      <c r="B169" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="C169" s="7">
+      <c r="C169" s="6">
         <v>500</v>
       </c>
-      <c r="D169" s="7">
-        <v>80</v>
-      </c>
-      <c r="E169" s="7">
-        <v>10</v>
-      </c>
-      <c r="F169" s="8"/>
-      <c r="G169" s="7"/>
-      <c r="H169" s="9" t="s">
+      <c r="D169" s="6">
+        <v>80</v>
+      </c>
+      <c r="E169" s="6">
+        <v>10</v>
+      </c>
+      <c r="F169" s="7"/>
+      <c r="G169" s="6"/>
+      <c r="H169" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A170" s="10"/>
-      <c r="B170" s="9" t="s">
+      <c r="A170" s="18"/>
+      <c r="B170" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="C170" s="7">
+      <c r="C170" s="6">
         <v>750</v>
       </c>
-      <c r="D170" s="7">
-        <v>80</v>
-      </c>
-      <c r="E170" s="7">
-        <v>10</v>
-      </c>
-      <c r="F170" s="8"/>
-      <c r="G170" s="7"/>
-      <c r="H170" s="9" t="s">
+      <c r="D170" s="6">
+        <v>80</v>
+      </c>
+      <c r="E170" s="6">
+        <v>10</v>
+      </c>
+      <c r="F170" s="7"/>
+      <c r="G170" s="6"/>
+      <c r="H170" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A171" s="10"/>
-      <c r="B171" s="9" t="s">
+      <c r="A171" s="18"/>
+      <c r="B171" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="C171" s="7">
+      <c r="C171" s="6">
         <v>750</v>
       </c>
-      <c r="D171" s="7">
+      <c r="D171" s="6">
         <v>90</v>
       </c>
-      <c r="E171" s="7">
-        <v>10</v>
-      </c>
-      <c r="F171" s="8"/>
-      <c r="G171" s="7" t="s">
+      <c r="E171" s="6">
+        <v>10</v>
+      </c>
+      <c r="F171" s="7"/>
+      <c r="G171" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H171" s="9" t="s">
+      <c r="H171" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A172" s="10"/>
-      <c r="B172" s="9" t="s">
+      <c r="A172" s="18"/>
+      <c r="B172" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="C172" s="7">
+      <c r="C172" s="6">
         <v>500</v>
       </c>
-      <c r="D172" s="7">
-        <v>80</v>
-      </c>
-      <c r="E172" s="7">
+      <c r="D172" s="6">
+        <v>80</v>
+      </c>
+      <c r="E172" s="6">
         <v>15</v>
       </c>
-      <c r="F172" s="8"/>
-      <c r="G172" s="7"/>
-      <c r="H172" s="9" t="s">
+      <c r="F172" s="7"/>
+      <c r="G172" s="6"/>
+      <c r="H172" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A173" s="10"/>
-      <c r="B173" s="9" t="s">
+      <c r="A173" s="18"/>
+      <c r="B173" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="C173" s="7">
+      <c r="C173" s="6">
         <v>100</v>
       </c>
-      <c r="D173" s="7">
+      <c r="D173" s="6">
         <v>60</v>
       </c>
-      <c r="E173" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F173" s="8"/>
-      <c r="G173" s="7"/>
-      <c r="H173" s="9" t="s">
+      <c r="E173" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F173" s="7"/>
+      <c r="G173" s="6"/>
+      <c r="H173" s="8" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A174" s="10"/>
-      <c r="B174" s="9" t="s">
+      <c r="A174" s="18"/>
+      <c r="B174" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="C174" s="7">
+      <c r="C174" s="6">
         <v>500</v>
       </c>
-      <c r="D174" s="7">
-        <v>80</v>
-      </c>
-      <c r="E174" s="7">
+      <c r="D174" s="6">
+        <v>80</v>
+      </c>
+      <c r="E174" s="6">
         <v>15</v>
       </c>
-      <c r="F174" s="8"/>
-      <c r="G174" s="7"/>
-      <c r="H174" s="9" t="s">
+      <c r="F174" s="7"/>
+      <c r="G174" s="6"/>
+      <c r="H174" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A175" s="10"/>
-      <c r="B175" s="9" t="s">
+      <c r="A175" s="18"/>
+      <c r="B175" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="C175" s="7">
+      <c r="C175" s="6">
         <v>1000</v>
       </c>
-      <c r="D175" s="7">
-        <v>80</v>
-      </c>
-      <c r="E175" s="7">
-        <v>10</v>
-      </c>
-      <c r="F175" s="8"/>
-      <c r="G175" s="7"/>
-      <c r="H175" s="9" t="s">
+      <c r="D175" s="6">
+        <v>80</v>
+      </c>
+      <c r="E175" s="6">
+        <v>10</v>
+      </c>
+      <c r="F175" s="7"/>
+      <c r="G175" s="6"/>
+      <c r="H175" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="126" x14ac:dyDescent="0.25">
-      <c r="A176" s="10"/>
-      <c r="B176" s="9" t="s">
+      <c r="A176" s="18"/>
+      <c r="B176" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="C176" s="7">
+      <c r="C176" s="6">
         <v>1000</v>
       </c>
-      <c r="D176" s="7">
+      <c r="D176" s="6">
         <v>90</v>
       </c>
-      <c r="E176" s="7">
-        <v>10</v>
-      </c>
-      <c r="F176" s="8"/>
-      <c r="G176" s="7" t="s">
+      <c r="E176" s="6">
+        <v>10</v>
+      </c>
+      <c r="F176" s="7"/>
+      <c r="G176" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H176" s="9" t="s">
+      <c r="H176" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A177" s="10"/>
-      <c r="B177" s="9" t="s">
+      <c r="A177" s="18"/>
+      <c r="B177" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="C177" s="7">
+      <c r="C177" s="6">
         <v>1500</v>
       </c>
-      <c r="D177" s="7">
+      <c r="D177" s="6">
         <v>90</v>
       </c>
-      <c r="E177" s="7">
-        <v>10</v>
-      </c>
-      <c r="F177" s="8"/>
-      <c r="G177" s="7" t="s">
+      <c r="E177" s="6">
+        <v>10</v>
+      </c>
+      <c r="F177" s="7"/>
+      <c r="G177" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H177" s="9" t="s">
+      <c r="H177" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A178" s="11"/>
-      <c r="B178" s="9" t="s">
+      <c r="A178" s="19"/>
+      <c r="B178" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="C178" s="7">
+      <c r="C178" s="6">
         <v>500</v>
       </c>
-      <c r="D178" s="7">
-        <v>80</v>
-      </c>
-      <c r="E178" s="7">
+      <c r="D178" s="6">
+        <v>80</v>
+      </c>
+      <c r="E178" s="6">
         <v>15</v>
       </c>
-      <c r="F178" s="8"/>
-      <c r="G178" s="7"/>
-      <c r="H178" s="9" t="s">
+      <c r="F178" s="7"/>
+      <c r="G178" s="6"/>
+      <c r="H178" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A179" s="5" t="s">
+      <c r="A179" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="B179" s="9" t="s">
+      <c r="B179" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="C179" s="7">
+      <c r="C179" s="6">
         <v>300</v>
       </c>
-      <c r="D179" s="7">
-        <v>80</v>
-      </c>
-      <c r="E179" s="7">
-        <v>20</v>
-      </c>
-      <c r="F179" s="8"/>
-      <c r="G179" s="7"/>
-      <c r="H179" s="9" t="s">
+      <c r="D179" s="6">
+        <v>80</v>
+      </c>
+      <c r="E179" s="6">
+        <v>20</v>
+      </c>
+      <c r="F179" s="7"/>
+      <c r="G179" s="6"/>
+      <c r="H179" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A180" s="10"/>
-      <c r="B180" s="9" t="s">
+      <c r="A180" s="18"/>
+      <c r="B180" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="C180" s="7">
+      <c r="C180" s="6">
         <v>500</v>
       </c>
-      <c r="D180" s="7">
-        <v>80</v>
-      </c>
-      <c r="E180" s="7">
+      <c r="D180" s="6">
+        <v>80</v>
+      </c>
+      <c r="E180" s="6">
         <v>15</v>
       </c>
-      <c r="F180" s="8"/>
-      <c r="G180" s="7"/>
-      <c r="H180" s="9" t="s">
+      <c r="F180" s="7"/>
+      <c r="G180" s="6"/>
+      <c r="H180" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A181" s="10"/>
-      <c r="B181" s="9" t="s">
+      <c r="A181" s="18"/>
+      <c r="B181" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="C181" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D181" s="7">
-        <v>80</v>
-      </c>
-      <c r="E181" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F181" s="8"/>
-      <c r="G181" s="7"/>
-      <c r="H181" s="9" t="s">
+      <c r="C181" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D181" s="6">
+        <v>80</v>
+      </c>
+      <c r="E181" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F181" s="7"/>
+      <c r="G181" s="6"/>
+      <c r="H181" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A182" s="10"/>
-      <c r="B182" s="9" t="s">
+      <c r="A182" s="18"/>
+      <c r="B182" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C182" s="7">
+      <c r="C182" s="6">
         <v>200</v>
       </c>
-      <c r="D182" s="7">
-        <v>80</v>
-      </c>
-      <c r="E182" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F182" s="8"/>
-      <c r="G182" s="7"/>
-      <c r="H182" s="9" t="s">
+      <c r="D182" s="6">
+        <v>80</v>
+      </c>
+      <c r="E182" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F182" s="7"/>
+      <c r="G182" s="6"/>
+      <c r="H182" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A183" s="10"/>
-      <c r="B183" s="9" t="s">
+      <c r="A183" s="18"/>
+      <c r="B183" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="C183" s="7">
+      <c r="C183" s="6">
         <v>300</v>
       </c>
-      <c r="D183" s="7">
-        <v>80</v>
-      </c>
-      <c r="E183" s="7">
-        <v>20</v>
-      </c>
-      <c r="F183" s="8"/>
-      <c r="G183" s="7"/>
-      <c r="H183" s="9" t="s">
+      <c r="D183" s="6">
+        <v>80</v>
+      </c>
+      <c r="E183" s="6">
+        <v>20</v>
+      </c>
+      <c r="F183" s="7"/>
+      <c r="G183" s="6"/>
+      <c r="H183" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A184" s="10"/>
-      <c r="B184" s="9" t="s">
+      <c r="A184" s="18"/>
+      <c r="B184" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="C184" s="7">
+      <c r="C184" s="6">
         <v>500</v>
       </c>
-      <c r="D184" s="7">
-        <v>80</v>
-      </c>
-      <c r="E184" s="7">
-        <v>10</v>
-      </c>
-      <c r="F184" s="8"/>
-      <c r="G184" s="7"/>
-      <c r="H184" s="9" t="s">
+      <c r="D184" s="6">
+        <v>80</v>
+      </c>
+      <c r="E184" s="6">
+        <v>10</v>
+      </c>
+      <c r="F184" s="7"/>
+      <c r="G184" s="6"/>
+      <c r="H184" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A185" s="11"/>
-      <c r="B185" s="9" t="s">
+      <c r="A185" s="19"/>
+      <c r="B185" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="C185" s="7" t="s">
+      <c r="C185" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="D185" s="7">
-        <v>80</v>
-      </c>
-      <c r="E185" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F185" s="8"/>
-      <c r="G185" s="7"/>
-      <c r="H185" s="9" t="s">
+      <c r="D185" s="6">
+        <v>80</v>
+      </c>
+      <c r="E185" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F185" s="7"/>
+      <c r="G185" s="6"/>
+      <c r="H185" s="8" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A186" s="5" t="s">
+      <c r="A186" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="B186" s="9" t="s">
+      <c r="B186" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="C186" s="7">
+      <c r="C186" s="6">
         <v>300</v>
       </c>
-      <c r="D186" s="7">
+      <c r="D186" s="6">
         <v>40</v>
       </c>
-      <c r="E186" s="7">
-        <v>20</v>
-      </c>
-      <c r="F186" s="8"/>
-      <c r="G186" s="7"/>
-      <c r="H186" s="9" t="s">
+      <c r="E186" s="6">
+        <v>20</v>
+      </c>
+      <c r="F186" s="7"/>
+      <c r="G186" s="6"/>
+      <c r="H186" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A187" s="10"/>
-      <c r="B187" s="9" t="s">
+      <c r="A187" s="18"/>
+      <c r="B187" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="C187" s="7">
+      <c r="C187" s="6">
         <v>75</v>
       </c>
-      <c r="D187" s="7">
+      <c r="D187" s="6">
         <v>40</v>
       </c>
-      <c r="E187" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F187" s="8"/>
-      <c r="G187" s="7"/>
-      <c r="H187" s="9" t="s">
+      <c r="E187" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F187" s="7"/>
+      <c r="G187" s="6"/>
+      <c r="H187" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A188" s="10"/>
-      <c r="B188" s="9" t="s">
+      <c r="A188" s="18"/>
+      <c r="B188" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="C188" s="7">
+      <c r="C188" s="6">
         <v>75</v>
       </c>
-      <c r="D188" s="7">
+      <c r="D188" s="6">
         <v>40</v>
       </c>
-      <c r="E188" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F188" s="8"/>
-      <c r="G188" s="7"/>
-      <c r="H188" s="9" t="s">
+      <c r="E188" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F188" s="7"/>
+      <c r="G188" s="6"/>
+      <c r="H188" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A189" s="10"/>
-      <c r="B189" s="9" t="s">
+      <c r="A189" s="18"/>
+      <c r="B189" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="C189" s="7">
+      <c r="C189" s="6">
         <v>75</v>
       </c>
-      <c r="D189" s="7">
+      <c r="D189" s="6">
         <v>40</v>
       </c>
-      <c r="E189" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F189" s="8"/>
-      <c r="G189" s="7"/>
-      <c r="H189" s="9" t="s">
+      <c r="E189" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F189" s="7"/>
+      <c r="G189" s="6"/>
+      <c r="H189" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A190" s="11"/>
-      <c r="B190" s="9" t="s">
+      <c r="A190" s="19"/>
+      <c r="B190" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="C190" s="7">
+      <c r="C190" s="6">
         <v>300</v>
       </c>
-      <c r="D190" s="7">
-        <v>80</v>
-      </c>
-      <c r="E190" s="7">
-        <v>20</v>
-      </c>
-      <c r="F190" s="8"/>
-      <c r="G190" s="7"/>
-      <c r="H190" s="9" t="s">
+      <c r="D190" s="6">
+        <v>80</v>
+      </c>
+      <c r="E190" s="6">
+        <v>20</v>
+      </c>
+      <c r="F190" s="7"/>
+      <c r="G190" s="6"/>
+      <c r="H190" s="8" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A191" s="5" t="s">
+      <c r="A191" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="B191" s="9" t="s">
+      <c r="B191" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="C191" s="7">
+      <c r="C191" s="6">
         <v>200</v>
       </c>
-      <c r="D191" s="7">
-        <v>80</v>
-      </c>
-      <c r="E191" s="7">
-        <v>20</v>
-      </c>
-      <c r="F191" s="8"/>
-      <c r="G191" s="7"/>
-      <c r="H191" s="9" t="s">
+      <c r="D191" s="6">
+        <v>80</v>
+      </c>
+      <c r="E191" s="6">
+        <v>20</v>
+      </c>
+      <c r="F191" s="7"/>
+      <c r="G191" s="6"/>
+      <c r="H191" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A192" s="10"/>
-      <c r="B192" s="9" t="s">
+      <c r="A192" s="18"/>
+      <c r="B192" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="C192" s="7">
+      <c r="C192" s="6">
         <v>150</v>
       </c>
-      <c r="D192" s="7">
-        <v>80</v>
-      </c>
-      <c r="E192" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F192" s="8"/>
-      <c r="G192" s="7"/>
-      <c r="H192" s="9" t="s">
+      <c r="D192" s="6">
+        <v>80</v>
+      </c>
+      <c r="E192" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F192" s="7"/>
+      <c r="G192" s="6"/>
+      <c r="H192" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A193" s="10"/>
-      <c r="B193" s="9" t="s">
+      <c r="A193" s="18"/>
+      <c r="B193" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="C193" s="7">
+      <c r="C193" s="6">
         <v>500</v>
       </c>
-      <c r="D193" s="7">
-        <v>80</v>
-      </c>
-      <c r="E193" s="7">
-        <v>10</v>
-      </c>
-      <c r="F193" s="8"/>
-      <c r="G193" s="7"/>
-      <c r="H193" s="9" t="s">
+      <c r="D193" s="6">
+        <v>80</v>
+      </c>
+      <c r="E193" s="6">
+        <v>10</v>
+      </c>
+      <c r="F193" s="7"/>
+      <c r="G193" s="6"/>
+      <c r="H193" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A194" s="10"/>
-      <c r="B194" s="9" t="s">
+      <c r="A194" s="18"/>
+      <c r="B194" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="C194" s="7">
+      <c r="C194" s="6">
         <v>500</v>
       </c>
-      <c r="D194" s="7">
-        <v>80</v>
-      </c>
-      <c r="E194" s="7">
-        <v>10</v>
-      </c>
-      <c r="F194" s="8"/>
-      <c r="G194" s="7"/>
-      <c r="H194" s="9" t="s">
+      <c r="D194" s="6">
+        <v>80</v>
+      </c>
+      <c r="E194" s="6">
+        <v>10</v>
+      </c>
+      <c r="F194" s="7"/>
+      <c r="G194" s="6"/>
+      <c r="H194" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A195" s="10"/>
-      <c r="B195" s="9" t="s">
+      <c r="A195" s="18"/>
+      <c r="B195" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="C195" s="7">
+      <c r="C195" s="6">
         <v>200</v>
       </c>
-      <c r="D195" s="7">
-        <v>80</v>
-      </c>
-      <c r="E195" s="7">
-        <v>20</v>
-      </c>
-      <c r="F195" s="8"/>
-      <c r="G195" s="7"/>
-      <c r="H195" s="9" t="s">
+      <c r="D195" s="6">
+        <v>80</v>
+      </c>
+      <c r="E195" s="6">
+        <v>20</v>
+      </c>
+      <c r="F195" s="7"/>
+      <c r="G195" s="6"/>
+      <c r="H195" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A196" s="10"/>
-      <c r="B196" s="9" t="s">
+      <c r="A196" s="18"/>
+      <c r="B196" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="C196" s="7">
+      <c r="C196" s="6">
         <v>200</v>
       </c>
-      <c r="D196" s="7">
-        <v>80</v>
-      </c>
-      <c r="E196" s="7">
-        <v>20</v>
-      </c>
-      <c r="F196" s="8"/>
-      <c r="G196" s="7"/>
-      <c r="H196" s="9" t="s">
+      <c r="D196" s="6">
+        <v>80</v>
+      </c>
+      <c r="E196" s="6">
+        <v>20</v>
+      </c>
+      <c r="F196" s="7"/>
+      <c r="G196" s="6"/>
+      <c r="H196" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A197" s="10"/>
-      <c r="B197" s="9" t="s">
+      <c r="A197" s="18"/>
+      <c r="B197" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="C197" s="7">
+      <c r="C197" s="6">
         <v>300</v>
       </c>
-      <c r="D197" s="7">
-        <v>80</v>
-      </c>
-      <c r="E197" s="7">
-        <v>10</v>
-      </c>
-      <c r="F197" s="8"/>
-      <c r="G197" s="7"/>
-      <c r="H197" s="9" t="s">
+      <c r="D197" s="6">
+        <v>80</v>
+      </c>
+      <c r="E197" s="6">
+        <v>10</v>
+      </c>
+      <c r="F197" s="7"/>
+      <c r="G197" s="6"/>
+      <c r="H197" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="126" x14ac:dyDescent="0.25">
-      <c r="A198" s="10"/>
-      <c r="B198" s="9" t="s">
+      <c r="A198" s="18"/>
+      <c r="B198" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="C198" s="7">
+      <c r="C198" s="6">
         <v>500</v>
       </c>
-      <c r="D198" s="7">
-        <v>80</v>
-      </c>
-      <c r="E198" s="7">
-        <v>10</v>
-      </c>
-      <c r="F198" s="8"/>
-      <c r="G198" s="7"/>
-      <c r="H198" s="9" t="s">
+      <c r="D198" s="6">
+        <v>80</v>
+      </c>
+      <c r="E198" s="6">
+        <v>10</v>
+      </c>
+      <c r="F198" s="7"/>
+      <c r="G198" s="6"/>
+      <c r="H198" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A199" s="10"/>
-      <c r="B199" s="9" t="s">
+      <c r="A199" s="18"/>
+      <c r="B199" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="C199" s="7">
+      <c r="C199" s="6">
         <v>500</v>
       </c>
-      <c r="D199" s="7">
-        <v>80</v>
-      </c>
-      <c r="E199" s="7">
-        <v>10</v>
-      </c>
-      <c r="F199" s="8"/>
-      <c r="G199" s="7"/>
-      <c r="H199" s="9" t="s">
+      <c r="D199" s="6">
+        <v>80</v>
+      </c>
+      <c r="E199" s="6">
+        <v>10</v>
+      </c>
+      <c r="F199" s="7"/>
+      <c r="G199" s="6"/>
+      <c r="H199" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A200" s="10"/>
-      <c r="B200" s="9" t="s">
+      <c r="A200" s="18"/>
+      <c r="B200" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C200" s="7">
+      <c r="C200" s="6">
         <v>500</v>
       </c>
-      <c r="D200" s="7">
-        <v>80</v>
-      </c>
-      <c r="E200" s="7">
-        <v>10</v>
-      </c>
-      <c r="F200" s="8"/>
-      <c r="G200" s="7"/>
-      <c r="H200" s="9" t="s">
+      <c r="D200" s="6">
+        <v>80</v>
+      </c>
+      <c r="E200" s="6">
+        <v>10</v>
+      </c>
+      <c r="F200" s="7"/>
+      <c r="G200" s="6"/>
+      <c r="H200" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A201" s="11"/>
-      <c r="B201" s="9" t="s">
+      <c r="A201" s="19"/>
+      <c r="B201" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="C201" s="7">
+      <c r="C201" s="6">
         <v>500</v>
       </c>
-      <c r="D201" s="7">
-        <v>80</v>
-      </c>
-      <c r="E201" s="7">
-        <v>10</v>
-      </c>
-      <c r="F201" s="8"/>
-      <c r="G201" s="7"/>
-      <c r="H201" s="9" t="s">
+      <c r="D201" s="6">
+        <v>80</v>
+      </c>
+      <c r="E201" s="6">
+        <v>10</v>
+      </c>
+      <c r="F201" s="7"/>
+      <c r="G201" s="6"/>
+      <c r="H201" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A202" s="5" t="s">
+      <c r="A202" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="B202" s="9" t="s">
+      <c r="B202" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="C202" s="7">
+      <c r="C202" s="6">
         <v>300</v>
       </c>
-      <c r="D202" s="7">
-        <v>80</v>
-      </c>
-      <c r="E202" s="7">
+      <c r="D202" s="6">
+        <v>80</v>
+      </c>
+      <c r="E202" s="6">
         <v>15</v>
       </c>
-      <c r="F202" s="8"/>
-      <c r="G202" s="7"/>
-      <c r="H202" s="9" t="s">
+      <c r="F202" s="7"/>
+      <c r="G202" s="6"/>
+      <c r="H202" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A203" s="10"/>
-      <c r="B203" s="9" t="s">
+      <c r="A203" s="18"/>
+      <c r="B203" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="C203" s="7">
+      <c r="C203" s="6">
         <v>500</v>
       </c>
-      <c r="D203" s="7">
-        <v>80</v>
-      </c>
-      <c r="E203" s="7">
-        <v>10</v>
-      </c>
-      <c r="F203" s="8"/>
-      <c r="G203" s="7"/>
-      <c r="H203" s="9" t="s">
+      <c r="D203" s="6">
+        <v>80</v>
+      </c>
+      <c r="E203" s="6">
+        <v>10</v>
+      </c>
+      <c r="F203" s="7"/>
+      <c r="G203" s="6"/>
+      <c r="H203" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A204" s="10"/>
-      <c r="B204" s="9" t="s">
+      <c r="A204" s="18"/>
+      <c r="B204" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="C204" s="7">
+      <c r="C204" s="6">
         <v>500</v>
       </c>
-      <c r="D204" s="7">
-        <v>80</v>
-      </c>
-      <c r="E204" s="7">
-        <v>10</v>
-      </c>
-      <c r="F204" s="8"/>
-      <c r="G204" s="7"/>
-      <c r="H204" s="9" t="s">
+      <c r="D204" s="6">
+        <v>80</v>
+      </c>
+      <c r="E204" s="6">
+        <v>10</v>
+      </c>
+      <c r="F204" s="7"/>
+      <c r="G204" s="6"/>
+      <c r="H204" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A205" s="10"/>
-      <c r="B205" s="9" t="s">
+      <c r="A205" s="18"/>
+      <c r="B205" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="C205" s="7">
+      <c r="C205" s="6">
         <v>500</v>
       </c>
-      <c r="D205" s="7">
-        <v>80</v>
-      </c>
-      <c r="E205" s="7">
-        <v>10</v>
-      </c>
-      <c r="F205" s="8"/>
-      <c r="G205" s="7"/>
-      <c r="H205" s="9" t="s">
+      <c r="D205" s="6">
+        <v>80</v>
+      </c>
+      <c r="E205" s="6">
+        <v>10</v>
+      </c>
+      <c r="F205" s="7"/>
+      <c r="G205" s="6"/>
+      <c r="H205" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="126" x14ac:dyDescent="0.25">
-      <c r="A206" s="10"/>
-      <c r="B206" s="9" t="s">
+      <c r="A206" s="18"/>
+      <c r="B206" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="C206" s="7">
+      <c r="C206" s="6">
         <v>750</v>
       </c>
-      <c r="D206" s="7">
-        <v>80</v>
-      </c>
-      <c r="E206" s="7">
-        <v>10</v>
-      </c>
-      <c r="F206" s="8"/>
-      <c r="G206" s="7" t="s">
+      <c r="D206" s="6">
+        <v>80</v>
+      </c>
+      <c r="E206" s="6">
+        <v>10</v>
+      </c>
+      <c r="F206" s="7"/>
+      <c r="G206" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H206" s="9" t="s">
+      <c r="H206" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A207" s="10"/>
-      <c r="B207" s="9" t="s">
+      <c r="A207" s="18"/>
+      <c r="B207" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="C207" s="7">
+      <c r="C207" s="6">
         <v>750</v>
       </c>
-      <c r="D207" s="7">
-        <v>80</v>
-      </c>
-      <c r="E207" s="7">
-        <v>10</v>
-      </c>
-      <c r="F207" s="8"/>
-      <c r="G207" s="7"/>
-      <c r="H207" s="9" t="s">
+      <c r="D207" s="6">
+        <v>80</v>
+      </c>
+      <c r="E207" s="6">
+        <v>10</v>
+      </c>
+      <c r="F207" s="7"/>
+      <c r="G207" s="6"/>
+      <c r="H207" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="208" spans="1:8" ht="126" x14ac:dyDescent="0.25">
-      <c r="A208" s="10"/>
-      <c r="B208" s="9" t="s">
+      <c r="A208" s="18"/>
+      <c r="B208" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="C208" s="7">
+      <c r="C208" s="6">
         <v>500</v>
       </c>
-      <c r="D208" s="7">
-        <v>80</v>
-      </c>
-      <c r="E208" s="7">
-        <v>10</v>
-      </c>
-      <c r="F208" s="8"/>
-      <c r="G208" s="7"/>
-      <c r="H208" s="9" t="s">
+      <c r="D208" s="6">
+        <v>80</v>
+      </c>
+      <c r="E208" s="6">
+        <v>10</v>
+      </c>
+      <c r="F208" s="7"/>
+      <c r="G208" s="6"/>
+      <c r="H208" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="209" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A209" s="10"/>
-      <c r="B209" s="9" t="s">
+      <c r="A209" s="18"/>
+      <c r="B209" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="C209" s="7">
+      <c r="C209" s="6">
         <v>500</v>
       </c>
-      <c r="D209" s="7">
-        <v>80</v>
-      </c>
-      <c r="E209" s="7">
+      <c r="D209" s="6">
+        <v>80</v>
+      </c>
+      <c r="E209" s="6">
         <v>15</v>
       </c>
-      <c r="F209" s="8"/>
-      <c r="G209" s="7"/>
-      <c r="H209" s="9" t="s">
+      <c r="F209" s="7"/>
+      <c r="G209" s="6"/>
+      <c r="H209" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="210" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A210" s="10"/>
-      <c r="B210" s="9" t="s">
+      <c r="A210" s="18"/>
+      <c r="B210" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="C210" s="7">
+      <c r="C210" s="6">
         <v>300</v>
       </c>
-      <c r="D210" s="7">
-        <v>80</v>
-      </c>
-      <c r="E210" s="7">
-        <v>10</v>
-      </c>
-      <c r="F210" s="8"/>
-      <c r="G210" s="7"/>
-      <c r="H210" s="9" t="s">
+      <c r="D210" s="6">
+        <v>80</v>
+      </c>
+      <c r="E210" s="6">
+        <v>10</v>
+      </c>
+      <c r="F210" s="7"/>
+      <c r="G210" s="6"/>
+      <c r="H210" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="211" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A211" s="10"/>
-      <c r="B211" s="9" t="s">
+      <c r="A211" s="18"/>
+      <c r="B211" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="C211" s="7">
+      <c r="C211" s="6">
         <v>300</v>
       </c>
-      <c r="D211" s="7">
-        <v>80</v>
-      </c>
-      <c r="E211" s="7">
+      <c r="D211" s="6">
+        <v>80</v>
+      </c>
+      <c r="E211" s="6">
         <v>5</v>
       </c>
-      <c r="F211" s="8"/>
-      <c r="G211" s="7"/>
-      <c r="H211" s="9" t="s">
+      <c r="F211" s="7"/>
+      <c r="G211" s="6"/>
+      <c r="H211" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A212" s="10"/>
-      <c r="B212" s="9" t="s">
+      <c r="A212" s="18"/>
+      <c r="B212" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="C212" s="7">
+      <c r="C212" s="6">
         <v>300</v>
       </c>
-      <c r="D212" s="7">
-        <v>80</v>
-      </c>
-      <c r="E212" s="7">
-        <v>10</v>
-      </c>
-      <c r="F212" s="8"/>
-      <c r="G212" s="7"/>
-      <c r="H212" s="9" t="s">
+      <c r="D212" s="6">
+        <v>80</v>
+      </c>
+      <c r="E212" s="6">
+        <v>10</v>
+      </c>
+      <c r="F212" s="7"/>
+      <c r="G212" s="6"/>
+      <c r="H212" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="213" spans="1:8" ht="126" x14ac:dyDescent="0.25">
-      <c r="A213" s="10"/>
-      <c r="B213" s="9" t="s">
+      <c r="A213" s="18"/>
+      <c r="B213" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="C213" s="7">
+      <c r="C213" s="6">
         <v>500</v>
       </c>
-      <c r="D213" s="7">
-        <v>80</v>
-      </c>
-      <c r="E213" s="7">
-        <v>10</v>
-      </c>
-      <c r="F213" s="8"/>
-      <c r="G213" s="7"/>
-      <c r="H213" s="9" t="s">
+      <c r="D213" s="6">
+        <v>80</v>
+      </c>
+      <c r="E213" s="6">
+        <v>10</v>
+      </c>
+      <c r="F213" s="7"/>
+      <c r="G213" s="6"/>
+      <c r="H213" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="214" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A214" s="10"/>
-      <c r="B214" s="9" t="s">
+      <c r="A214" s="18"/>
+      <c r="B214" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="C214" s="7">
+      <c r="C214" s="6">
         <v>200</v>
       </c>
-      <c r="D214" s="7">
-        <v>80</v>
-      </c>
-      <c r="E214" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F214" s="8"/>
-      <c r="G214" s="7"/>
-      <c r="H214" s="9" t="s">
+      <c r="D214" s="6">
+        <v>80</v>
+      </c>
+      <c r="E214" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F214" s="7"/>
+      <c r="G214" s="6"/>
+      <c r="H214" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="215" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A215" s="10"/>
-      <c r="B215" s="9" t="s">
+      <c r="A215" s="18"/>
+      <c r="B215" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="C215" s="7">
+      <c r="C215" s="6">
         <v>100</v>
       </c>
-      <c r="D215" s="7">
-        <v>80</v>
-      </c>
-      <c r="E215" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F215" s="8"/>
-      <c r="G215" s="7"/>
-      <c r="H215" s="9" t="s">
+      <c r="D215" s="6">
+        <v>80</v>
+      </c>
+      <c r="E215" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F215" s="7"/>
+      <c r="G215" s="6"/>
+      <c r="H215" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="216" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A216" s="10"/>
-      <c r="B216" s="9" t="s">
+      <c r="A216" s="18"/>
+      <c r="B216" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="C216" s="7">
+      <c r="C216" s="6">
         <v>150</v>
       </c>
-      <c r="D216" s="7">
-        <v>80</v>
-      </c>
-      <c r="E216" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F216" s="8"/>
-      <c r="G216" s="7"/>
-      <c r="H216" s="9" t="s">
+      <c r="D216" s="6">
+        <v>80</v>
+      </c>
+      <c r="E216" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F216" s="7"/>
+      <c r="G216" s="6"/>
+      <c r="H216" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="217" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A217" s="10"/>
-      <c r="B217" s="9" t="s">
+      <c r="A217" s="18"/>
+      <c r="B217" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="C217" s="7">
+      <c r="C217" s="6">
         <v>200</v>
       </c>
-      <c r="D217" s="7">
-        <v>80</v>
-      </c>
-      <c r="E217" s="7">
-        <v>20</v>
-      </c>
-      <c r="F217" s="8"/>
-      <c r="G217" s="7"/>
-      <c r="H217" s="9" t="s">
+      <c r="D217" s="6">
+        <v>80</v>
+      </c>
+      <c r="E217" s="6">
+        <v>20</v>
+      </c>
+      <c r="F217" s="7"/>
+      <c r="G217" s="6"/>
+      <c r="H217" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="218" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A218" s="10"/>
-      <c r="B218" s="9" t="s">
+      <c r="A218" s="18"/>
+      <c r="B218" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="C218" s="7">
+      <c r="C218" s="6">
         <v>200</v>
       </c>
-      <c r="D218" s="7">
-        <v>80</v>
-      </c>
-      <c r="E218" s="7">
-        <v>20</v>
-      </c>
-      <c r="F218" s="8"/>
-      <c r="G218" s="7"/>
-      <c r="H218" s="9" t="s">
+      <c r="D218" s="6">
+        <v>80</v>
+      </c>
+      <c r="E218" s="6">
+        <v>20</v>
+      </c>
+      <c r="F218" s="7"/>
+      <c r="G218" s="6"/>
+      <c r="H218" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="219" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A219" s="10"/>
-      <c r="B219" s="9" t="s">
+      <c r="A219" s="18"/>
+      <c r="B219" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="C219" s="7">
+      <c r="C219" s="6">
         <v>500</v>
       </c>
-      <c r="D219" s="7">
-        <v>80</v>
-      </c>
-      <c r="E219" s="7">
-        <v>10</v>
-      </c>
-      <c r="F219" s="8"/>
-      <c r="G219" s="7"/>
-      <c r="H219" s="9" t="s">
+      <c r="D219" s="6">
+        <v>80</v>
+      </c>
+      <c r="E219" s="6">
+        <v>10</v>
+      </c>
+      <c r="F219" s="7"/>
+      <c r="G219" s="6"/>
+      <c r="H219" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="220" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A220" s="10"/>
-      <c r="B220" s="9" t="s">
+      <c r="A220" s="18"/>
+      <c r="B220" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="C220" s="7">
+      <c r="C220" s="6">
         <v>500</v>
       </c>
-      <c r="D220" s="7">
-        <v>80</v>
-      </c>
-      <c r="E220" s="7">
-        <v>10</v>
-      </c>
-      <c r="F220" s="8"/>
-      <c r="G220" s="7"/>
-      <c r="H220" s="9" t="s">
+      <c r="D220" s="6">
+        <v>80</v>
+      </c>
+      <c r="E220" s="6">
+        <v>10</v>
+      </c>
+      <c r="F220" s="7"/>
+      <c r="G220" s="6"/>
+      <c r="H220" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="221" spans="1:8" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A221" s="10"/>
-      <c r="B221" s="9" t="s">
+      <c r="A221" s="18"/>
+      <c r="B221" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="C221" s="7">
+      <c r="C221" s="6">
         <v>100</v>
       </c>
-      <c r="D221" s="7">
-        <v>80</v>
-      </c>
-      <c r="E221" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F221" s="8"/>
-      <c r="G221" s="7"/>
-      <c r="H221" s="9" t="s">
+      <c r="D221" s="6">
+        <v>80</v>
+      </c>
+      <c r="E221" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F221" s="7"/>
+      <c r="G221" s="6"/>
+      <c r="H221" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="222" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A222" s="10"/>
-      <c r="B222" s="9" t="s">
+      <c r="A222" s="18"/>
+      <c r="B222" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="C222" s="7">
+      <c r="C222" s="6">
         <v>300</v>
       </c>
-      <c r="D222" s="7">
-        <v>80</v>
-      </c>
-      <c r="E222" s="7">
-        <v>20</v>
-      </c>
-      <c r="F222" s="8"/>
-      <c r="G222" s="7"/>
-      <c r="H222" s="9" t="s">
+      <c r="D222" s="6">
+        <v>80</v>
+      </c>
+      <c r="E222" s="6">
+        <v>20</v>
+      </c>
+      <c r="F222" s="7"/>
+      <c r="G222" s="6"/>
+      <c r="H222" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="223" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A223" s="10"/>
-      <c r="B223" s="9" t="s">
+      <c r="A223" s="18"/>
+      <c r="B223" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="C223" s="7">
+      <c r="C223" s="6">
         <v>200</v>
       </c>
-      <c r="D223" s="7">
-        <v>80</v>
-      </c>
-      <c r="E223" s="7"/>
-      <c r="F223" s="8"/>
-      <c r="G223" s="7"/>
-      <c r="H223" s="9" t="s">
+      <c r="D223" s="6">
+        <v>80</v>
+      </c>
+      <c r="E223" s="6"/>
+      <c r="F223" s="7"/>
+      <c r="G223" s="6"/>
+      <c r="H223" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="224" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A224" s="11"/>
-      <c r="B224" s="9" t="s">
+      <c r="A224" s="19"/>
+      <c r="B224" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="C224" s="7">
+      <c r="C224" s="6">
         <v>500</v>
       </c>
-      <c r="D224" s="7">
-        <v>80</v>
-      </c>
-      <c r="E224" s="7">
-        <v>10</v>
-      </c>
-      <c r="F224" s="8"/>
-      <c r="G224" s="7"/>
-      <c r="H224" s="12" t="s">
+      <c r="D224" s="6">
+        <v>80</v>
+      </c>
+      <c r="E224" s="6">
+        <v>10</v>
+      </c>
+      <c r="F224" s="7"/>
+      <c r="G224" s="6"/>
+      <c r="H224" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="225" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A225" s="5" t="s">
+      <c r="A225" s="17" t="s">
         <v>291</v>
       </c>
       <c r="B225" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="C225" s="7">
+      <c r="C225" s="6">
         <v>200</v>
       </c>
-      <c r="D225" s="7">
-        <v>80</v>
-      </c>
-      <c r="E225" s="7">
-        <v>20</v>
-      </c>
-      <c r="F225" s="8"/>
-      <c r="G225" s="14"/>
-      <c r="H225" s="9" t="s">
+      <c r="D225" s="6">
+        <v>80</v>
+      </c>
+      <c r="E225" s="6">
+        <v>20</v>
+      </c>
+      <c r="F225" s="7"/>
+      <c r="G225" s="10"/>
+      <c r="H225" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="226" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A226" s="10"/>
-      <c r="B226" s="15"/>
-      <c r="C226" s="7">
+      <c r="A226" s="18"/>
+      <c r="B226" s="14"/>
+      <c r="C226" s="6">
         <v>100</v>
       </c>
-      <c r="D226" s="7">
-        <v>80</v>
-      </c>
-      <c r="E226" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F226" s="8"/>
-      <c r="G226" s="14"/>
-      <c r="H226" s="9" t="s">
+      <c r="D226" s="6">
+        <v>80</v>
+      </c>
+      <c r="E226" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F226" s="7"/>
+      <c r="G226" s="10"/>
+      <c r="H226" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="227" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A227" s="10"/>
-      <c r="B227" s="16"/>
-      <c r="C227" s="7">
+      <c r="A227" s="18"/>
+      <c r="B227" s="15"/>
+      <c r="C227" s="6">
         <v>50</v>
       </c>
-      <c r="D227" s="7">
-        <v>80</v>
-      </c>
-      <c r="E227" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F227" s="8"/>
-      <c r="G227" s="14"/>
-      <c r="H227" s="9" t="s">
+      <c r="D227" s="6">
+        <v>80</v>
+      </c>
+      <c r="E227" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F227" s="7"/>
+      <c r="G227" s="10"/>
+      <c r="H227" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="228" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A228" s="10"/>
+      <c r="A228" s="18"/>
       <c r="B228" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="C228" s="7">
+      <c r="C228" s="6">
         <v>500</v>
       </c>
-      <c r="D228" s="7">
-        <v>80</v>
-      </c>
-      <c r="E228" s="7">
+      <c r="D228" s="6">
+        <v>80</v>
+      </c>
+      <c r="E228" s="6">
         <v>15</v>
       </c>
-      <c r="F228" s="8"/>
-      <c r="G228" s="14"/>
-      <c r="H228" s="9" t="s">
+      <c r="F228" s="7"/>
+      <c r="G228" s="10"/>
+      <c r="H228" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="229" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A229" s="10"/>
-      <c r="B229" s="16"/>
-      <c r="C229" s="7">
+      <c r="A229" s="18"/>
+      <c r="B229" s="15"/>
+      <c r="C229" s="6">
         <v>300</v>
       </c>
-      <c r="D229" s="7">
-        <v>80</v>
-      </c>
-      <c r="E229" s="7">
-        <v>20</v>
-      </c>
-      <c r="F229" s="8"/>
-      <c r="G229" s="14"/>
-      <c r="H229" s="9" t="s">
+      <c r="D229" s="6">
+        <v>80</v>
+      </c>
+      <c r="E229" s="6">
+        <v>20</v>
+      </c>
+      <c r="F229" s="7"/>
+      <c r="G229" s="10"/>
+      <c r="H229" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="230" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A230" s="10"/>
+      <c r="A230" s="18"/>
       <c r="B230" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="C230" s="7" t="s">
+      <c r="C230" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="D230" s="7">
-        <v>80</v>
-      </c>
-      <c r="E230" s="17">
+      <c r="D230" s="6">
+        <v>80</v>
+      </c>
+      <c r="E230" s="11">
         <v>15</v>
       </c>
-      <c r="F230" s="8"/>
-      <c r="G230" s="14"/>
-      <c r="H230" s="9" t="s">
+      <c r="F230" s="7"/>
+      <c r="G230" s="10"/>
+      <c r="H230" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="231" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A231" s="10"/>
-      <c r="B231" s="15"/>
-      <c r="C231" s="7">
+      <c r="A231" s="18"/>
+      <c r="B231" s="14"/>
+      <c r="C231" s="6">
         <v>300</v>
       </c>
-      <c r="D231" s="7">
-        <v>80</v>
-      </c>
-      <c r="E231" s="18"/>
-      <c r="F231" s="8"/>
-      <c r="G231" s="14"/>
-      <c r="H231" s="9" t="s">
+      <c r="D231" s="6">
+        <v>80</v>
+      </c>
+      <c r="E231" s="16"/>
+      <c r="F231" s="7"/>
+      <c r="G231" s="10"/>
+      <c r="H231" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="232" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A232" s="10"/>
-      <c r="B232" s="15"/>
-      <c r="C232" s="7">
+      <c r="A232" s="18"/>
+      <c r="B232" s="14"/>
+      <c r="C232" s="6">
         <v>300</v>
       </c>
-      <c r="D232" s="7">
-        <v>80</v>
-      </c>
-      <c r="E232" s="19"/>
-      <c r="F232" s="8"/>
-      <c r="G232" s="14"/>
-      <c r="H232" s="9" t="s">
+      <c r="D232" s="6">
+        <v>80</v>
+      </c>
+      <c r="E232" s="12"/>
+      <c r="F232" s="7"/>
+      <c r="G232" s="10"/>
+      <c r="H232" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="233" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A233" s="10"/>
-      <c r="B233" s="15"/>
-      <c r="C233" s="7">
+      <c r="A233" s="18"/>
+      <c r="B233" s="14"/>
+      <c r="C233" s="6">
         <v>1000</v>
       </c>
-      <c r="D233" s="7">
-        <v>80</v>
-      </c>
-      <c r="E233" s="7">
-        <v>10</v>
-      </c>
-      <c r="F233" s="8"/>
-      <c r="G233" s="14"/>
-      <c r="H233" s="9" t="s">
+      <c r="D233" s="6">
+        <v>80</v>
+      </c>
+      <c r="E233" s="6">
+        <v>10</v>
+      </c>
+      <c r="F233" s="7"/>
+      <c r="G233" s="10"/>
+      <c r="H233" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="234" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A234" s="10"/>
-      <c r="B234" s="15"/>
-      <c r="C234" s="7">
+      <c r="A234" s="18"/>
+      <c r="B234" s="14"/>
+      <c r="C234" s="6">
         <v>5</v>
       </c>
-      <c r="D234" s="7">
+      <c r="D234" s="6">
         <v>90</v>
       </c>
-      <c r="E234" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F234" s="8"/>
-      <c r="G234" s="14"/>
-      <c r="H234" s="9" t="s">
+      <c r="E234" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F234" s="7"/>
+      <c r="G234" s="10"/>
+      <c r="H234" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="235" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A235" s="10"/>
-      <c r="B235" s="16"/>
-      <c r="C235" s="7">
+      <c r="A235" s="18"/>
+      <c r="B235" s="15"/>
+      <c r="C235" s="6">
         <v>200</v>
       </c>
-      <c r="D235" s="7">
-        <v>80</v>
-      </c>
-      <c r="E235" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F235" s="8"/>
-      <c r="G235" s="14"/>
-      <c r="H235" s="9" t="s">
+      <c r="D235" s="6">
+        <v>80</v>
+      </c>
+      <c r="E235" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F235" s="7"/>
+      <c r="G235" s="10"/>
+      <c r="H235" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="236" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A236" s="10"/>
+      <c r="A236" s="18"/>
       <c r="B236" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="C236" s="7">
+      <c r="C236" s="6">
         <v>500</v>
       </c>
-      <c r="D236" s="7">
+      <c r="D236" s="6">
         <v>90</v>
       </c>
-      <c r="E236" s="17">
-        <v>10</v>
-      </c>
-      <c r="F236" s="8"/>
-      <c r="G236" s="7" t="s">
+      <c r="E236" s="11">
+        <v>10</v>
+      </c>
+      <c r="F236" s="7"/>
+      <c r="G236" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="H236" s="9" t="s">
+      <c r="H236" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="237" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A237" s="10"/>
-      <c r="B237" s="16"/>
-      <c r="C237" s="7">
+      <c r="A237" s="18"/>
+      <c r="B237" s="15"/>
+      <c r="C237" s="6">
         <v>1000</v>
       </c>
-      <c r="D237" s="7">
+      <c r="D237" s="6">
         <v>90</v>
       </c>
-      <c r="E237" s="19"/>
-      <c r="F237" s="8"/>
-      <c r="G237" s="14"/>
-      <c r="H237" s="9" t="s">
+      <c r="E237" s="12"/>
+      <c r="F237" s="7"/>
+      <c r="G237" s="10"/>
+      <c r="H237" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="238" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A238" s="10"/>
+      <c r="A238" s="18"/>
       <c r="B238" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="C238" s="7">
+      <c r="C238" s="6">
         <v>500</v>
       </c>
-      <c r="D238" s="7">
+      <c r="D238" s="6">
         <v>90</v>
       </c>
-      <c r="E238" s="17">
-        <v>10</v>
-      </c>
-      <c r="F238" s="8"/>
-      <c r="G238" s="14"/>
-      <c r="H238" s="9" t="s">
+      <c r="E238" s="11">
+        <v>10</v>
+      </c>
+      <c r="F238" s="7"/>
+      <c r="G238" s="10"/>
+      <c r="H238" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="239" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A239" s="10"/>
-      <c r="B239" s="16"/>
-      <c r="C239" s="7">
+      <c r="A239" s="18"/>
+      <c r="B239" s="15"/>
+      <c r="C239" s="6">
         <v>1000</v>
       </c>
-      <c r="D239" s="7">
+      <c r="D239" s="6">
         <v>90</v>
       </c>
-      <c r="E239" s="19"/>
-      <c r="F239" s="8"/>
-      <c r="G239" s="14"/>
-      <c r="H239" s="9" t="s">
+      <c r="E239" s="12"/>
+      <c r="F239" s="7"/>
+      <c r="G239" s="10"/>
+      <c r="H239" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A240" s="10"/>
+      <c r="A240" s="18"/>
       <c r="B240" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="C240" s="7">
+      <c r="C240" s="6">
         <v>500</v>
       </c>
-      <c r="D240" s="7">
-        <v>80</v>
-      </c>
-      <c r="E240" s="7">
+      <c r="D240" s="6">
+        <v>80</v>
+      </c>
+      <c r="E240" s="6">
         <v>15</v>
       </c>
-      <c r="F240" s="8"/>
-      <c r="G240" s="7" t="s">
+      <c r="F240" s="7"/>
+      <c r="G240" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="H240" s="9" t="s">
+      <c r="H240" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="241" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A241" s="10"/>
-      <c r="B241" s="15"/>
-      <c r="C241" s="7">
+      <c r="A241" s="18"/>
+      <c r="B241" s="14"/>
+      <c r="C241" s="6">
         <v>1000</v>
       </c>
-      <c r="D241" s="7">
+      <c r="D241" s="6">
         <v>90</v>
       </c>
-      <c r="E241" s="7">
-        <v>10</v>
-      </c>
-      <c r="F241" s="8"/>
-      <c r="G241" s="14"/>
-      <c r="H241" s="9" t="s">
+      <c r="E241" s="6">
+        <v>10</v>
+      </c>
+      <c r="F241" s="7"/>
+      <c r="G241" s="10"/>
+      <c r="H241" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="242" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A242" s="10"/>
-      <c r="B242" s="16"/>
-      <c r="C242" s="7">
+      <c r="A242" s="18"/>
+      <c r="B242" s="15"/>
+      <c r="C242" s="6">
         <v>500</v>
       </c>
-      <c r="D242" s="7">
+      <c r="D242" s="6">
         <v>90</v>
       </c>
-      <c r="E242" s="7">
-        <v>10</v>
-      </c>
-      <c r="F242" s="8"/>
-      <c r="G242" s="14"/>
-      <c r="H242" s="9" t="s">
+      <c r="E242" s="6">
+        <v>10</v>
+      </c>
+      <c r="F242" s="7"/>
+      <c r="G242" s="10"/>
+      <c r="H242" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="243" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A243" s="10"/>
+      <c r="A243" s="18"/>
       <c r="B243" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="C243" s="7">
+      <c r="C243" s="6">
         <v>300</v>
       </c>
-      <c r="D243" s="7">
-        <v>80</v>
-      </c>
-      <c r="E243" s="17">
+      <c r="D243" s="6">
+        <v>80</v>
+      </c>
+      <c r="E243" s="11">
         <v>15</v>
       </c>
-      <c r="F243" s="8"/>
-      <c r="G243" s="14"/>
-      <c r="H243" s="9" t="s">
+      <c r="F243" s="7"/>
+      <c r="G243" s="10"/>
+      <c r="H243" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="244" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A244" s="10"/>
-      <c r="B244" s="16"/>
-      <c r="C244" s="7">
+      <c r="A244" s="18"/>
+      <c r="B244" s="15"/>
+      <c r="C244" s="6">
         <v>50</v>
       </c>
-      <c r="D244" s="7">
-        <v>80</v>
-      </c>
-      <c r="E244" s="19"/>
-      <c r="F244" s="8"/>
-      <c r="G244" s="7" t="s">
+      <c r="D244" s="6">
+        <v>80</v>
+      </c>
+      <c r="E244" s="12"/>
+      <c r="F244" s="7"/>
+      <c r="G244" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="H244" s="9" t="s">
+      <c r="H244" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="245" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A245" s="10"/>
+      <c r="A245" s="18"/>
       <c r="B245" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="C245" s="7">
+      <c r="C245" s="6">
         <v>500</v>
       </c>
-      <c r="D245" s="7">
-        <v>80</v>
-      </c>
-      <c r="E245" s="7">
+      <c r="D245" s="6">
+        <v>80</v>
+      </c>
+      <c r="E245" s="6">
         <v>15</v>
       </c>
-      <c r="F245" s="8"/>
-      <c r="G245" s="14"/>
-      <c r="H245" s="9" t="s">
+      <c r="F245" s="7"/>
+      <c r="G245" s="10"/>
+      <c r="H245" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="246" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A246" s="10"/>
-      <c r="B246" s="15"/>
-      <c r="C246" s="7">
+      <c r="A246" s="18"/>
+      <c r="B246" s="14"/>
+      <c r="C246" s="6">
         <v>500</v>
       </c>
-      <c r="D246" s="7">
+      <c r="D246" s="6">
         <v>90</v>
       </c>
-      <c r="E246" s="7">
-        <v>10</v>
-      </c>
-      <c r="F246" s="8"/>
-      <c r="G246" s="14"/>
-      <c r="H246" s="9" t="s">
+      <c r="E246" s="6">
+        <v>10</v>
+      </c>
+      <c r="F246" s="7"/>
+      <c r="G246" s="10"/>
+      <c r="H246" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="247" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A247" s="10"/>
-      <c r="B247" s="15"/>
-      <c r="C247" s="7">
+      <c r="A247" s="18"/>
+      <c r="B247" s="14"/>
+      <c r="C247" s="6">
         <v>300</v>
       </c>
-      <c r="D247" s="7">
+      <c r="D247" s="6">
         <v>90</v>
       </c>
-      <c r="E247" s="7">
+      <c r="E247" s="6">
         <v>15</v>
       </c>
-      <c r="F247" s="8"/>
-      <c r="G247" s="14"/>
-      <c r="H247" s="9" t="s">
+      <c r="F247" s="7"/>
+      <c r="G247" s="10"/>
+      <c r="H247" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="248" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A248" s="10"/>
-      <c r="B248" s="15"/>
-      <c r="C248" s="7">
+      <c r="A248" s="18"/>
+      <c r="B248" s="14"/>
+      <c r="C248" s="6">
         <v>500</v>
       </c>
-      <c r="D248" s="7">
+      <c r="D248" s="6">
         <v>90</v>
       </c>
-      <c r="E248" s="7">
-        <v>10</v>
-      </c>
-      <c r="F248" s="8"/>
-      <c r="G248" s="14"/>
-      <c r="H248" s="9" t="s">
+      <c r="E248" s="6">
+        <v>10</v>
+      </c>
+      <c r="F248" s="7"/>
+      <c r="G248" s="10"/>
+      <c r="H248" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="249" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A249" s="10"/>
-      <c r="B249" s="16"/>
-      <c r="C249" s="7">
+      <c r="A249" s="18"/>
+      <c r="B249" s="15"/>
+      <c r="C249" s="6">
         <v>300</v>
       </c>
-      <c r="D249" s="7">
+      <c r="D249" s="6">
         <v>90</v>
       </c>
-      <c r="E249" s="7">
+      <c r="E249" s="6">
         <v>15</v>
       </c>
-      <c r="F249" s="8"/>
-      <c r="G249" s="14"/>
-      <c r="H249" s="9" t="s">
+      <c r="F249" s="7"/>
+      <c r="G249" s="10"/>
+      <c r="H249" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="250" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A250" s="10"/>
+      <c r="A250" s="18"/>
       <c r="B250" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="C250" s="7">
+      <c r="C250" s="6">
         <v>500</v>
       </c>
-      <c r="D250" s="7">
+      <c r="D250" s="6">
         <v>90</v>
       </c>
-      <c r="E250" s="7">
-        <v>10</v>
-      </c>
-      <c r="F250" s="8"/>
-      <c r="G250" s="14"/>
-      <c r="H250" s="9" t="s">
+      <c r="E250" s="6">
+        <v>10</v>
+      </c>
+      <c r="F250" s="7"/>
+      <c r="G250" s="10"/>
+      <c r="H250" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="251" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A251" s="10"/>
-      <c r="B251" s="15"/>
-      <c r="C251" s="7">
+      <c r="A251" s="18"/>
+      <c r="B251" s="14"/>
+      <c r="C251" s="6">
         <v>1000</v>
       </c>
-      <c r="D251" s="7">
+      <c r="D251" s="6">
         <v>90</v>
       </c>
-      <c r="E251" s="7">
-        <v>10</v>
-      </c>
-      <c r="F251" s="8"/>
-      <c r="G251" s="14"/>
-      <c r="H251" s="9" t="s">
+      <c r="E251" s="6">
+        <v>10</v>
+      </c>
+      <c r="F251" s="7"/>
+      <c r="G251" s="10"/>
+      <c r="H251" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="252" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A252" s="10"/>
-      <c r="B252" s="16"/>
-      <c r="C252" s="7">
+      <c r="A252" s="18"/>
+      <c r="B252" s="15"/>
+      <c r="C252" s="6">
         <v>10000</v>
       </c>
-      <c r="D252" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E252" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F252" s="8"/>
-      <c r="G252" s="14"/>
-      <c r="H252" s="9" t="s">
+      <c r="D252" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E252" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F252" s="7"/>
+      <c r="G252" s="10"/>
+      <c r="H252" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="253" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A253" s="10"/>
+      <c r="A253" s="18"/>
       <c r="B253" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="C253" s="7" t="s">
+      <c r="C253" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="D253" s="7">
+      <c r="D253" s="6">
         <v>90</v>
       </c>
-      <c r="E253" s="7">
-        <v>20</v>
-      </c>
-      <c r="F253" s="8"/>
-      <c r="G253" s="14"/>
-      <c r="H253" s="9" t="s">
+      <c r="E253" s="6">
+        <v>20</v>
+      </c>
+      <c r="F253" s="7"/>
+      <c r="G253" s="10"/>
+      <c r="H253" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="254" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A254" s="10"/>
-      <c r="B254" s="15"/>
-      <c r="C254" s="7" t="s">
+      <c r="A254" s="18"/>
+      <c r="B254" s="14"/>
+      <c r="C254" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="D254" s="7">
+      <c r="D254" s="6">
         <v>90</v>
       </c>
-      <c r="E254" s="7">
+      <c r="E254" s="6">
         <v>15</v>
       </c>
-      <c r="F254" s="8"/>
-      <c r="G254" s="14"/>
-      <c r="H254" s="9" t="s">
+      <c r="F254" s="7"/>
+      <c r="G254" s="10"/>
+      <c r="H254" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="255" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A255" s="10"/>
-      <c r="B255" s="15"/>
-      <c r="C255" s="7" t="s">
+      <c r="A255" s="18"/>
+      <c r="B255" s="14"/>
+      <c r="C255" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="D255" s="7">
+      <c r="D255" s="6">
         <v>90</v>
       </c>
-      <c r="E255" s="7">
-        <v>10</v>
-      </c>
-      <c r="F255" s="8"/>
-      <c r="G255" s="14"/>
-      <c r="H255" s="9" t="s">
+      <c r="E255" s="6">
+        <v>10</v>
+      </c>
+      <c r="F255" s="7"/>
+      <c r="G255" s="10"/>
+      <c r="H255" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="256" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A256" s="10"/>
-      <c r="B256" s="16"/>
-      <c r="C256" s="7">
-        <v>20</v>
-      </c>
-      <c r="D256" s="7">
+      <c r="A256" s="18"/>
+      <c r="B256" s="15"/>
+      <c r="C256" s="6">
+        <v>20</v>
+      </c>
+      <c r="D256" s="6">
         <v>90</v>
       </c>
-      <c r="E256" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F256" s="8"/>
-      <c r="G256" s="14"/>
-      <c r="H256" s="9" t="s">
+      <c r="E256" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F256" s="7"/>
+      <c r="G256" s="10"/>
+      <c r="H256" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="257" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A257" s="10"/>
+      <c r="A257" s="18"/>
       <c r="B257" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="C257" s="7">
+      <c r="C257" s="6">
         <v>500</v>
       </c>
-      <c r="D257" s="7">
+      <c r="D257" s="6">
         <v>90</v>
       </c>
-      <c r="E257" s="7">
+      <c r="E257" s="6">
         <v>15</v>
       </c>
-      <c r="F257" s="8"/>
-      <c r="G257" s="7" t="s">
+      <c r="F257" s="7"/>
+      <c r="G257" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="H257" s="9" t="s">
+      <c r="H257" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="258" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A258" s="10"/>
-      <c r="B258" s="16"/>
-      <c r="C258" s="7">
+      <c r="A258" s="18"/>
+      <c r="B258" s="15"/>
+      <c r="C258" s="6">
         <v>1000</v>
       </c>
-      <c r="D258" s="7">
+      <c r="D258" s="6">
         <v>90</v>
       </c>
-      <c r="E258" s="7">
-        <v>10</v>
-      </c>
-      <c r="F258" s="8"/>
-      <c r="G258" s="7"/>
-      <c r="H258" s="9" t="s">
+      <c r="E258" s="6">
+        <v>10</v>
+      </c>
+      <c r="F258" s="7"/>
+      <c r="G258" s="6"/>
+      <c r="H258" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="259" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A259" s="10"/>
+      <c r="A259" s="18"/>
       <c r="B259" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="C259" s="7">
+      <c r="C259" s="6">
         <v>500</v>
       </c>
-      <c r="D259" s="7">
-        <v>80</v>
-      </c>
-      <c r="E259" s="7">
+      <c r="D259" s="6">
+        <v>80</v>
+      </c>
+      <c r="E259" s="6">
         <v>15</v>
       </c>
-      <c r="F259" s="8"/>
-      <c r="G259" s="7"/>
-      <c r="H259" s="9" t="s">
+      <c r="F259" s="7"/>
+      <c r="G259" s="6"/>
+      <c r="H259" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="260" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A260" s="10"/>
-      <c r="B260" s="16"/>
-      <c r="C260" s="7">
+      <c r="A260" s="18"/>
+      <c r="B260" s="15"/>
+      <c r="C260" s="6">
         <v>1000</v>
       </c>
-      <c r="D260" s="7">
+      <c r="D260" s="6">
         <v>90</v>
       </c>
-      <c r="E260" s="7">
-        <v>10</v>
-      </c>
-      <c r="F260" s="8"/>
-      <c r="G260" s="7" t="s">
+      <c r="E260" s="6">
+        <v>10</v>
+      </c>
+      <c r="F260" s="7"/>
+      <c r="G260" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="H260" s="9" t="s">
+      <c r="H260" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="261" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A261" s="10"/>
-      <c r="B261" s="9" t="s">
+      <c r="A261" s="18"/>
+      <c r="B261" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="C261" s="7">
+      <c r="C261" s="6">
         <v>300</v>
       </c>
-      <c r="D261" s="7">
-        <v>80</v>
-      </c>
-      <c r="E261" s="7">
-        <v>20</v>
-      </c>
-      <c r="F261" s="8"/>
-      <c r="G261" s="7"/>
-      <c r="H261" s="9" t="s">
+      <c r="D261" s="6">
+        <v>80</v>
+      </c>
+      <c r="E261" s="6">
+        <v>20</v>
+      </c>
+      <c r="F261" s="7"/>
+      <c r="G261" s="6"/>
+      <c r="H261" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="262" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A262" s="10"/>
+      <c r="A262" s="18"/>
       <c r="B262" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="C262" s="7">
+      <c r="C262" s="6">
         <v>500</v>
       </c>
-      <c r="D262" s="7">
+      <c r="D262" s="6">
         <v>90</v>
       </c>
-      <c r="E262" s="7">
+      <c r="E262" s="6">
         <v>15</v>
       </c>
-      <c r="F262" s="8"/>
-      <c r="G262" s="7"/>
-      <c r="H262" s="9" t="s">
+      <c r="F262" s="7"/>
+      <c r="G262" s="6"/>
+      <c r="H262" s="8" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="263" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A263" s="11"/>
-      <c r="B263" s="16"/>
-      <c r="C263" s="7">
+      <c r="A263" s="19"/>
+      <c r="B263" s="15"/>
+      <c r="C263" s="6">
         <v>5000</v>
       </c>
-      <c r="D263" s="7">
+      <c r="D263" s="6">
         <v>90</v>
       </c>
-      <c r="E263" s="7">
-        <v>10</v>
-      </c>
-      <c r="F263" s="8"/>
-      <c r="G263" s="7"/>
-      <c r="H263" s="9" t="s">
+      <c r="E263" s="6">
+        <v>10</v>
+      </c>
+      <c r="F263" s="7"/>
+      <c r="G263" s="6"/>
+      <c r="H263" s="8" t="s">
         <v>249</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="E243:E244"/>
-    <mergeCell ref="B245:B249"/>
-    <mergeCell ref="B250:B252"/>
-    <mergeCell ref="B253:B256"/>
-    <mergeCell ref="B257:B258"/>
-    <mergeCell ref="B259:B260"/>
-    <mergeCell ref="E230:E232"/>
-    <mergeCell ref="B236:B237"/>
-    <mergeCell ref="E236:E237"/>
-    <mergeCell ref="B238:B239"/>
-    <mergeCell ref="E238:E239"/>
-    <mergeCell ref="B240:B242"/>
+  <mergeCells count="45">
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A82:A92"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A37:A44"/>
+    <mergeCell ref="A45:A54"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="A69:A76"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="A179:A185"/>
+    <mergeCell ref="A93:A101"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="A107:A110"/>
+    <mergeCell ref="A111:A113"/>
+    <mergeCell ref="A115:A131"/>
+    <mergeCell ref="A133:A138"/>
+    <mergeCell ref="A139:A147"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="A150:A158"/>
+    <mergeCell ref="A159:A165"/>
+    <mergeCell ref="A166:A178"/>
     <mergeCell ref="A186:A190"/>
     <mergeCell ref="A191:A201"/>
     <mergeCell ref="A202:A224"/>
@@ -7078,36 +7129,18 @@
     <mergeCell ref="B230:B235"/>
     <mergeCell ref="B243:B244"/>
     <mergeCell ref="B262:B263"/>
-    <mergeCell ref="A139:A147"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="A150:A158"/>
-    <mergeCell ref="A159:A165"/>
-    <mergeCell ref="A166:A178"/>
-    <mergeCell ref="A179:A185"/>
-    <mergeCell ref="A93:A101"/>
-    <mergeCell ref="A102:A106"/>
-    <mergeCell ref="A107:A110"/>
-    <mergeCell ref="A111:A113"/>
-    <mergeCell ref="A115:A131"/>
-    <mergeCell ref="A133:A138"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="A69:A76"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="A82:A92"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="A37:A44"/>
-    <mergeCell ref="A45:A54"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B259:B260"/>
+    <mergeCell ref="E230:E232"/>
+    <mergeCell ref="B236:B237"/>
+    <mergeCell ref="E236:E237"/>
+    <mergeCell ref="B238:B239"/>
+    <mergeCell ref="E238:E239"/>
+    <mergeCell ref="B240:B242"/>
+    <mergeCell ref="E243:E244"/>
+    <mergeCell ref="B245:B249"/>
+    <mergeCell ref="B250:B252"/>
+    <mergeCell ref="B253:B256"/>
+    <mergeCell ref="B257:B258"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/app_lightbulb/management/commands/x.xlsx
+++ b/app_lightbulb/management/commands/x.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FASTAPI\cal\app_lightbulb\management\commands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56C2822-1F6A-4DF0-AD30-849986A4A524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4B3553-3B05-4017-9766-1E160257F492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="310">
   <si>
     <t>Room_Type_Category  name</t>
   </si>
@@ -1121,43 +1121,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1168,26 +1135,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1471,8 +1438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+    <sheetView tabSelected="1" topLeftCell="A260" workbookViewId="0">
+      <selection activeCell="E274" sqref="E274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1484,823 +1451,843 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="9">
         <v>100</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="9">
         <v>40</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="7">
+      <c r="E2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="10">
         <v>0</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="8" t="s">
+      <c r="G2" s="9"/>
+      <c r="H2" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="126" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="9">
         <v>100</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="9">
         <v>40</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="7">
+      <c r="E3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="10">
         <v>0</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="8" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="9">
         <v>150</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="9">
         <v>40</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="7">
+      <c r="E4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="10">
         <v>0.8</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="8" t="s">
+      <c r="G4" s="9"/>
+      <c r="H4" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="9">
         <v>200</v>
       </c>
-      <c r="D5" s="6">
-        <v>80</v>
-      </c>
-      <c r="E5" s="6">
-        <v>20</v>
-      </c>
-      <c r="F5" s="7">
+      <c r="D5" s="9">
+        <v>80</v>
+      </c>
+      <c r="E5" s="9">
+        <v>20</v>
+      </c>
+      <c r="F5" s="10">
         <v>0.8</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="8" t="s">
+      <c r="G5" s="9"/>
+      <c r="H5" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="9">
         <v>100</v>
       </c>
-      <c r="D6" s="6">
-        <v>80</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="7">
+      <c r="D6" s="9">
+        <v>80</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="10">
         <v>0.5</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="8" t="s">
+      <c r="G6" s="9"/>
+      <c r="H6" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="9">
         <v>300</v>
       </c>
-      <c r="D7" s="6">
-        <v>80</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="7">
+      <c r="D7" s="9">
+        <v>80</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="10">
         <v>0.5</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="8" t="s">
+      <c r="G7" s="9"/>
+      <c r="H7" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="126" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="9">
         <v>200</v>
       </c>
-      <c r="D8" s="6">
-        <v>80</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="7">
+      <c r="D8" s="9">
+        <v>80</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="10">
         <v>0</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="8" t="s">
+      <c r="G8" s="9"/>
+      <c r="H8" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="6">
+      <c r="B9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="9">
         <v>500</v>
       </c>
-      <c r="D9" s="6">
-        <v>80</v>
-      </c>
-      <c r="E9" s="6">
+      <c r="D9" s="9">
+        <v>80</v>
+      </c>
+      <c r="E9" s="9">
         <v>15</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="10">
         <v>0.8</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="8" t="s">
+      <c r="G9" s="9"/>
+      <c r="H9" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="9">
         <v>500</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="9">
         <v>90</v>
       </c>
-      <c r="E10" s="6">
-        <v>10</v>
-      </c>
-      <c r="F10" s="7">
+      <c r="E10" s="9">
+        <v>10</v>
+      </c>
+      <c r="F10" s="10">
         <v>0.8</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="9">
         <v>200</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="9">
         <v>60</v>
       </c>
-      <c r="E11" s="6">
-        <v>20</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="8" t="s">
+      <c r="E11" s="9">
+        <v>20</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="9">
         <v>500</v>
       </c>
-      <c r="D12" s="6">
-        <v>80</v>
-      </c>
-      <c r="E12" s="6">
+      <c r="D12" s="9">
+        <v>80</v>
+      </c>
+      <c r="E12" s="9">
         <v>15</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="8" t="s">
+      <c r="F12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="9">
         <v>100</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="9">
         <v>60</v>
       </c>
-      <c r="E13" s="6">
-        <v>20</v>
-      </c>
-      <c r="F13" s="7">
+      <c r="E13" s="9">
+        <v>20</v>
+      </c>
+      <c r="F13" s="10">
         <v>0.8</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="8" t="s">
+      <c r="G13" s="9"/>
+      <c r="H13" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="9">
         <v>300</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="9">
         <v>60</v>
       </c>
-      <c r="E14" s="6">
-        <v>20</v>
-      </c>
-      <c r="F14" s="7">
+      <c r="E14" s="9">
+        <v>20</v>
+      </c>
+      <c r="F14" s="10">
         <v>0.8</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="8" t="s">
+      <c r="G14" s="9"/>
+      <c r="H14" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="9">
         <v>40</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="7">
+      <c r="E15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="10">
         <v>0</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="8" t="s">
+      <c r="G15" s="9"/>
+      <c r="H15" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="8" t="s">
+      <c r="A16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="9">
         <v>60</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="7">
+      <c r="E16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="10">
         <v>0</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="8" t="s">
+      <c r="G16" s="9"/>
+      <c r="H16" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="8" t="s">
+      <c r="A17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="9">
         <v>150</v>
       </c>
-      <c r="D17" s="6">
-        <v>80</v>
-      </c>
-      <c r="E17" s="6">
-        <v>20</v>
-      </c>
-      <c r="F17" s="7">
+      <c r="D17" s="9">
+        <v>80</v>
+      </c>
+      <c r="E17" s="9">
+        <v>20</v>
+      </c>
+      <c r="F17" s="10">
         <v>0</v>
       </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="8" t="s">
+      <c r="G17" s="9"/>
+      <c r="H17" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="8" t="s">
+      <c r="A18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="9">
         <v>200</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="9">
         <v>60</v>
       </c>
-      <c r="E18" s="6">
-        <v>20</v>
-      </c>
-      <c r="F18" s="7">
+      <c r="E18" s="9">
+        <v>20</v>
+      </c>
+      <c r="F18" s="10">
         <v>0</v>
       </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="8" t="s">
+      <c r="G18" s="9"/>
+      <c r="H18" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="189" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="9">
         <v>200</v>
       </c>
-      <c r="D19" s="6">
-        <v>80</v>
-      </c>
-      <c r="E19" s="6">
-        <v>20</v>
-      </c>
-      <c r="F19" s="7">
+      <c r="D19" s="9">
+        <v>80</v>
+      </c>
+      <c r="E19" s="9">
+        <v>20</v>
+      </c>
+      <c r="F19" s="10">
         <v>0</v>
       </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="8" t="s">
+      <c r="G19" s="9"/>
+      <c r="H19" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
-      <c r="B20" s="8" t="s">
+      <c r="A20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="9">
         <v>50</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="9">
         <v>40</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="7">
+      <c r="E20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="10">
         <v>0</v>
       </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="8" t="s">
+      <c r="G20" s="9"/>
+      <c r="H20" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="8" t="s">
+      <c r="A21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="9">
         <v>200</v>
       </c>
-      <c r="D21" s="6">
-        <v>80</v>
-      </c>
-      <c r="E21" s="6">
-        <v>20</v>
-      </c>
-      <c r="F21" s="7">
+      <c r="D21" s="9">
+        <v>80</v>
+      </c>
+      <c r="E21" s="9">
+        <v>20</v>
+      </c>
+      <c r="F21" s="10">
         <v>0</v>
       </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="8" t="s">
+      <c r="G21" s="9"/>
+      <c r="H21" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="8" t="s">
+      <c r="A22" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="9">
         <v>200</v>
       </c>
-      <c r="D22" s="6">
-        <v>80</v>
-      </c>
-      <c r="E22" s="6">
-        <v>20</v>
-      </c>
-      <c r="F22" s="7">
+      <c r="D22" s="9">
+        <v>80</v>
+      </c>
+      <c r="E22" s="9">
+        <v>20</v>
+      </c>
+      <c r="F22" s="10">
         <v>0</v>
       </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="8" t="s">
+      <c r="G22" s="9"/>
+      <c r="H22" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="9">
         <v>300</v>
       </c>
-      <c r="D23" s="6">
-        <v>80</v>
-      </c>
-      <c r="E23" s="6">
+      <c r="D23" s="9">
+        <v>80</v>
+      </c>
+      <c r="E23" s="9">
         <v>15</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="10">
         <v>0.8</v>
       </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="8" t="s">
+      <c r="G23" s="9"/>
+      <c r="H23" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="8" t="s">
+      <c r="A24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="9">
         <v>500</v>
       </c>
-      <c r="D24" s="6">
-        <v>80</v>
-      </c>
-      <c r="E24" s="6">
+      <c r="D24" s="9">
+        <v>80</v>
+      </c>
+      <c r="E24" s="9">
         <v>15</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="10">
         <v>0.8</v>
       </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="8" t="s">
+      <c r="G24" s="9"/>
+      <c r="H24" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="9">
         <v>50</v>
       </c>
-      <c r="D25" s="6">
-        <v>20</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="7">
+      <c r="D25" s="9">
+        <v>20</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="10">
         <v>0</v>
       </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="8" t="s">
+      <c r="G25" s="9"/>
+      <c r="H25" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="8" t="s">
+      <c r="A26" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="9">
         <v>200</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="9">
         <v>40</v>
       </c>
-      <c r="E26" s="6">
-        <v>20</v>
-      </c>
-      <c r="F26" s="7">
+      <c r="E26" s="9">
+        <v>20</v>
+      </c>
+      <c r="F26" s="10">
         <v>0</v>
       </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="8" t="s">
+      <c r="G26" s="9"/>
+      <c r="H26" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="8" t="s">
+      <c r="A27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="9">
         <v>300</v>
       </c>
-      <c r="D27" s="6">
-        <v>80</v>
-      </c>
-      <c r="E27" s="6">
-        <v>20</v>
-      </c>
-      <c r="F27" s="7">
+      <c r="D27" s="9">
+        <v>80</v>
+      </c>
+      <c r="E27" s="9">
+        <v>20</v>
+      </c>
+      <c r="F27" s="10">
         <v>0</v>
       </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="8" t="s">
+      <c r="G27" s="9"/>
+      <c r="H27" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="8" t="s">
+      <c r="A28" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="9">
         <v>300</v>
       </c>
-      <c r="D28" s="6">
-        <v>80</v>
-      </c>
-      <c r="E28" s="6">
-        <v>20</v>
-      </c>
-      <c r="F28" s="7">
+      <c r="D28" s="9">
+        <v>80</v>
+      </c>
+      <c r="E28" s="9">
+        <v>20</v>
+      </c>
+      <c r="F28" s="10">
         <v>0</v>
       </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="8" t="s">
+      <c r="G28" s="9"/>
+      <c r="H28" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="9">
         <v>50</v>
       </c>
-      <c r="D29" s="6">
-        <v>20</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="7">
+      <c r="D29" s="9">
+        <v>20</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="10">
         <v>0</v>
       </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="8" t="s">
+      <c r="G29" s="9"/>
+      <c r="H29" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="9">
         <v>300</v>
       </c>
-      <c r="D30" s="6">
-        <v>80</v>
-      </c>
-      <c r="E30" s="6">
-        <v>20</v>
-      </c>
-      <c r="F30" s="7">
+      <c r="D30" s="9">
+        <v>80</v>
+      </c>
+      <c r="E30" s="9">
+        <v>20</v>
+      </c>
+      <c r="F30" s="10">
         <v>0</v>
       </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="8" t="s">
+      <c r="G30" s="9"/>
+      <c r="H30" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="299.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="9">
         <v>300</v>
       </c>
-      <c r="D31" s="6">
-        <v>80</v>
-      </c>
-      <c r="E31" s="6">
-        <v>20</v>
-      </c>
-      <c r="F31" s="7">
+      <c r="D31" s="9">
+        <v>80</v>
+      </c>
+      <c r="E31" s="9">
+        <v>20</v>
+      </c>
+      <c r="F31" s="10">
         <v>0</v>
       </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="8" t="s">
+      <c r="G31" s="9"/>
+      <c r="H31" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="252" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="9">
         <v>750</v>
       </c>
-      <c r="D32" s="6">
-        <v>80</v>
-      </c>
-      <c r="E32" s="6">
-        <v>10</v>
-      </c>
-      <c r="F32" s="7">
+      <c r="D32" s="9">
+        <v>80</v>
+      </c>
+      <c r="E32" s="9">
+        <v>10</v>
+      </c>
+      <c r="F32" s="10">
         <v>0</v>
       </c>
-      <c r="G32" s="6"/>
-      <c r="H32" s="8" t="s">
+      <c r="G32" s="9"/>
+      <c r="H32" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="220.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="9">
         <v>750</v>
       </c>
-      <c r="D33" s="6">
-        <v>80</v>
-      </c>
-      <c r="E33" s="6">
-        <v>10</v>
-      </c>
-      <c r="F33" s="7">
+      <c r="D33" s="9">
+        <v>80</v>
+      </c>
+      <c r="E33" s="9">
+        <v>10</v>
+      </c>
+      <c r="F33" s="10">
         <v>0</v>
       </c>
-      <c r="G33" s="6"/>
-      <c r="H33" s="8" t="s">
+      <c r="G33" s="9"/>
+      <c r="H33" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="9">
         <v>1000</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="9">
         <v>90</v>
       </c>
-      <c r="E34" s="6">
-        <v>10</v>
-      </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="6" t="s">
+      <c r="E34" s="9">
+        <v>10</v>
+      </c>
+      <c r="F34" s="10"/>
+      <c r="G34" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H34" s="8" t="s">
+      <c r="H34" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="9">
         <v>1500</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="9">
         <v>90</v>
       </c>
-      <c r="E35" s="6">
-        <v>10</v>
-      </c>
-      <c r="F35" s="7"/>
-      <c r="G35" s="6" t="s">
+      <c r="E35" s="9">
+        <v>10</v>
+      </c>
+      <c r="F35" s="10"/>
+      <c r="G35" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H35" s="8" t="s">
+      <c r="H35" s="9" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2308,1751 +2295,1879 @@
       <c r="A36" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="9">
         <v>500</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="9">
         <v>90</v>
       </c>
-      <c r="E36" s="6">
-        <v>10</v>
-      </c>
-      <c r="F36" s="7">
+      <c r="E36" s="9">
+        <v>10</v>
+      </c>
+      <c r="F36" s="10">
         <v>0.8</v>
       </c>
-      <c r="G36" s="6"/>
-      <c r="H36" s="8" t="s">
+      <c r="G36" s="9"/>
+      <c r="H36" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="9">
         <v>50</v>
       </c>
-      <c r="D37" s="6">
-        <v>20</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="7">
+      <c r="D37" s="9">
+        <v>20</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="10">
         <v>0</v>
       </c>
-      <c r="G37" s="6"/>
-      <c r="H37" s="8" t="s">
+      <c r="G37" s="9"/>
+      <c r="H37" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="189" x14ac:dyDescent="0.25">
-      <c r="A38" s="18"/>
-      <c r="B38" s="8" t="s">
+      <c r="A38" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="9">
         <v>150</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="9">
         <v>40</v>
       </c>
-      <c r="E38" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="7">
+      <c r="E38" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="10">
         <v>0.8</v>
       </c>
-      <c r="G38" s="6"/>
-      <c r="H38" s="8" t="s">
+      <c r="G38" s="9"/>
+      <c r="H38" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="18"/>
-      <c r="B39" s="8" t="s">
+      <c r="A39" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="9">
         <v>300</v>
       </c>
-      <c r="D39" s="6">
-        <v>80</v>
-      </c>
-      <c r="E39" s="6">
-        <v>20</v>
-      </c>
-      <c r="F39" s="7">
+      <c r="D39" s="9">
+        <v>80</v>
+      </c>
+      <c r="E39" s="9">
+        <v>20</v>
+      </c>
+      <c r="F39" s="10">
         <v>0.8</v>
       </c>
-      <c r="G39" s="6"/>
-      <c r="H39" s="8" t="s">
+      <c r="G39" s="9"/>
+      <c r="H39" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="126" x14ac:dyDescent="0.25">
-      <c r="A40" s="18"/>
-      <c r="B40" s="8" t="s">
+      <c r="A40" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="9">
         <v>500</v>
       </c>
-      <c r="D40" s="6">
-        <v>80</v>
-      </c>
-      <c r="E40" s="6">
-        <v>10</v>
-      </c>
-      <c r="F40" s="7">
+      <c r="D40" s="9">
+        <v>80</v>
+      </c>
+      <c r="E40" s="9">
+        <v>10</v>
+      </c>
+      <c r="F40" s="10">
         <v>0.8</v>
       </c>
-      <c r="G40" s="6"/>
-      <c r="H40" s="8" t="s">
+      <c r="G40" s="9"/>
+      <c r="H40" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="18"/>
-      <c r="B41" s="8" t="s">
+      <c r="A41" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="9">
         <v>500</v>
       </c>
-      <c r="D41" s="6">
-        <v>80</v>
-      </c>
-      <c r="E41" s="6">
-        <v>10</v>
-      </c>
-      <c r="F41" s="7">
+      <c r="D41" s="9">
+        <v>80</v>
+      </c>
+      <c r="E41" s="9">
+        <v>10</v>
+      </c>
+      <c r="F41" s="10">
         <v>0.8</v>
       </c>
-      <c r="G41" s="6"/>
-      <c r="H41" s="8" t="s">
+      <c r="G41" s="9"/>
+      <c r="H41" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A42" s="18"/>
-      <c r="B42" s="8" t="s">
+      <c r="A42" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="9">
         <v>500</v>
       </c>
-      <c r="D42" s="6">
-        <v>80</v>
-      </c>
-      <c r="E42" s="6">
+      <c r="D42" s="9">
+        <v>80</v>
+      </c>
+      <c r="E42" s="9">
         <v>15</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42" s="10">
         <v>0.8</v>
       </c>
-      <c r="G42" s="6"/>
-      <c r="H42" s="8" t="s">
+      <c r="G42" s="9"/>
+      <c r="H42" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A43" s="18"/>
-      <c r="B43" s="8" t="s">
+      <c r="A43" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="9">
         <v>1000</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="9">
         <v>90</v>
       </c>
-      <c r="E43" s="6">
-        <v>10</v>
-      </c>
-      <c r="F43" s="7">
+      <c r="E43" s="9">
+        <v>10</v>
+      </c>
+      <c r="F43" s="10">
         <v>0.8</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="G43" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H43" s="8" t="s">
+      <c r="H43" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="19"/>
-      <c r="B44" s="8" t="s">
+      <c r="A44" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="9">
         <v>750</v>
       </c>
-      <c r="D44" s="6">
-        <v>80</v>
-      </c>
-      <c r="E44" s="6"/>
-      <c r="F44" s="7">
+      <c r="D44" s="9">
+        <v>80</v>
+      </c>
+      <c r="E44" s="9"/>
+      <c r="F44" s="10">
         <v>0.8</v>
       </c>
-      <c r="G44" s="6"/>
-      <c r="H44" s="8" t="s">
+      <c r="G44" s="9"/>
+      <c r="H44" s="9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="9">
         <v>300</v>
       </c>
-      <c r="D45" s="6">
-        <v>80</v>
-      </c>
-      <c r="E45" s="6">
-        <v>20</v>
-      </c>
-      <c r="F45" s="7">
+      <c r="D45" s="9">
+        <v>80</v>
+      </c>
+      <c r="E45" s="9">
+        <v>20</v>
+      </c>
+      <c r="F45" s="10">
         <v>0.8</v>
       </c>
-      <c r="G45" s="6"/>
-      <c r="H45" s="8" t="s">
+      <c r="G45" s="9"/>
+      <c r="H45" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="126" x14ac:dyDescent="0.25">
-      <c r="A46" s="18"/>
-      <c r="B46" s="8" t="s">
+      <c r="A46" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="9">
         <v>300</v>
       </c>
-      <c r="D46" s="6">
-        <v>80</v>
-      </c>
-      <c r="E46" s="6">
-        <v>20</v>
-      </c>
-      <c r="F46" s="7">
+      <c r="D46" s="9">
+        <v>80</v>
+      </c>
+      <c r="E46" s="9">
+        <v>20</v>
+      </c>
+      <c r="F46" s="10">
         <v>0.8</v>
       </c>
-      <c r="G46" s="6"/>
-      <c r="H46" s="8" t="s">
+      <c r="G46" s="9"/>
+      <c r="H46" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A47" s="18"/>
-      <c r="B47" s="8" t="s">
+      <c r="A47" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="9">
         <v>500</v>
       </c>
-      <c r="D47" s="6">
-        <v>80</v>
-      </c>
-      <c r="E47" s="6">
+      <c r="D47" s="9">
+        <v>80</v>
+      </c>
+      <c r="E47" s="9">
         <v>15</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F47" s="10">
         <v>0.8</v>
       </c>
-      <c r="G47" s="6"/>
-      <c r="H47" s="8" t="s">
+      <c r="G47" s="9"/>
+      <c r="H47" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="18"/>
-      <c r="B48" s="8" t="s">
+      <c r="A48" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B48" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="9">
         <v>750</v>
       </c>
-      <c r="D48" s="6">
-        <v>80</v>
-      </c>
-      <c r="E48" s="6">
-        <v>10</v>
-      </c>
-      <c r="F48" s="7">
+      <c r="D48" s="9">
+        <v>80</v>
+      </c>
+      <c r="E48" s="9">
+        <v>10</v>
+      </c>
+      <c r="F48" s="10">
         <v>0.8</v>
       </c>
-      <c r="G48" s="6"/>
-      <c r="H48" s="8" t="s">
+      <c r="G48" s="9"/>
+      <c r="H48" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="18"/>
-      <c r="B49" s="8" t="s">
+      <c r="A49" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="9">
         <v>300</v>
       </c>
-      <c r="D49" s="6">
-        <v>80</v>
-      </c>
-      <c r="E49" s="6">
-        <v>20</v>
-      </c>
-      <c r="F49" s="7">
+      <c r="D49" s="9">
+        <v>80</v>
+      </c>
+      <c r="E49" s="9">
+        <v>20</v>
+      </c>
+      <c r="F49" s="10">
         <v>0.8</v>
       </c>
-      <c r="G49" s="6"/>
-      <c r="H49" s="8" t="s">
+      <c r="G49" s="9"/>
+      <c r="H49" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="18"/>
-      <c r="B50" s="8" t="s">
+      <c r="A50" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="9">
         <v>300</v>
       </c>
-      <c r="D50" s="6">
-        <v>80</v>
-      </c>
-      <c r="E50" s="6">
-        <v>20</v>
-      </c>
-      <c r="F50" s="7">
+      <c r="D50" s="9">
+        <v>80</v>
+      </c>
+      <c r="E50" s="9">
+        <v>20</v>
+      </c>
+      <c r="F50" s="10">
         <v>0.8</v>
       </c>
-      <c r="G50" s="6"/>
-      <c r="H50" s="8" t="s">
+      <c r="G50" s="9"/>
+      <c r="H50" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="18"/>
-      <c r="B51" s="8" t="s">
+      <c r="A51" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="9">
         <v>300</v>
       </c>
-      <c r="D51" s="6">
-        <v>80</v>
-      </c>
-      <c r="E51" s="6">
-        <v>20</v>
-      </c>
-      <c r="F51" s="7">
+      <c r="D51" s="9">
+        <v>80</v>
+      </c>
+      <c r="E51" s="9">
+        <v>20</v>
+      </c>
+      <c r="F51" s="10">
         <v>0.8</v>
       </c>
-      <c r="G51" s="6"/>
-      <c r="H51" s="8" t="s">
+      <c r="G51" s="9"/>
+      <c r="H51" s="9" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="18"/>
-      <c r="B52" s="8" t="s">
+      <c r="A52" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="9">
         <v>500</v>
       </c>
-      <c r="D52" s="6">
-        <v>80</v>
-      </c>
-      <c r="E52" s="6">
+      <c r="D52" s="9">
+        <v>80</v>
+      </c>
+      <c r="E52" s="9">
         <v>15</v>
       </c>
-      <c r="F52" s="7">
+      <c r="F52" s="10">
         <v>0.8</v>
       </c>
-      <c r="G52" s="6"/>
-      <c r="H52" s="8" t="s">
+      <c r="G52" s="9"/>
+      <c r="H52" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="18"/>
-      <c r="B53" s="8" t="s">
+      <c r="A53" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B53" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53" s="9">
         <v>750</v>
       </c>
-      <c r="D53" s="6">
-        <v>80</v>
-      </c>
-      <c r="E53" s="6">
-        <v>10</v>
-      </c>
-      <c r="F53" s="7">
+      <c r="D53" s="9">
+        <v>80</v>
+      </c>
+      <c r="E53" s="9">
+        <v>10</v>
+      </c>
+      <c r="F53" s="10">
         <v>0.8</v>
       </c>
-      <c r="G53" s="6"/>
-      <c r="H53" s="8" t="s">
+      <c r="G53" s="9"/>
+      <c r="H53" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A54" s="19"/>
-      <c r="B54" s="8" t="s">
+      <c r="A54" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54" s="9">
         <v>1000</v>
       </c>
-      <c r="D54" s="6">
-        <v>80</v>
-      </c>
-      <c r="E54" s="6">
-        <v>10</v>
-      </c>
-      <c r="F54" s="7">
+      <c r="D54" s="9">
+        <v>80</v>
+      </c>
+      <c r="E54" s="9">
+        <v>10</v>
+      </c>
+      <c r="F54" s="10">
         <v>0.8</v>
       </c>
-      <c r="G54" s="6"/>
-      <c r="H54" s="8" t="s">
+      <c r="G54" s="9"/>
+      <c r="H54" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="17" t="s">
+      <c r="A55" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C55" s="9">
         <v>300</v>
       </c>
-      <c r="D55" s="6">
-        <v>80</v>
-      </c>
-      <c r="E55" s="6">
-        <v>20</v>
-      </c>
-      <c r="F55" s="7">
+      <c r="D55" s="9">
+        <v>80</v>
+      </c>
+      <c r="E55" s="9">
+        <v>20</v>
+      </c>
+      <c r="F55" s="10">
         <v>0.8</v>
       </c>
-      <c r="G55" s="6"/>
-      <c r="H55" s="8" t="s">
+      <c r="G55" s="9"/>
+      <c r="H55" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="18"/>
-      <c r="B56" s="8" t="s">
+      <c r="A56" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C56" s="9">
         <v>300</v>
       </c>
-      <c r="D56" s="6">
-        <v>80</v>
-      </c>
-      <c r="E56" s="6">
-        <v>20</v>
-      </c>
-      <c r="F56" s="7">
+      <c r="D56" s="9">
+        <v>80</v>
+      </c>
+      <c r="E56" s="9">
+        <v>20</v>
+      </c>
+      <c r="F56" s="10">
         <v>0.8</v>
       </c>
-      <c r="G56" s="6"/>
-      <c r="H56" s="8" t="s">
+      <c r="G56" s="9"/>
+      <c r="H56" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A57" s="18"/>
-      <c r="B57" s="8" t="s">
+      <c r="A57" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B57" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C57" s="9">
         <v>300</v>
       </c>
-      <c r="D57" s="6">
-        <v>80</v>
-      </c>
-      <c r="E57" s="6">
-        <v>20</v>
-      </c>
-      <c r="F57" s="7">
+      <c r="D57" s="9">
+        <v>80</v>
+      </c>
+      <c r="E57" s="9">
+        <v>20</v>
+      </c>
+      <c r="F57" s="10">
         <v>0.8</v>
       </c>
-      <c r="G57" s="6"/>
-      <c r="H57" s="8" t="s">
+      <c r="G57" s="9"/>
+      <c r="H57" s="9" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A58" s="19"/>
-      <c r="B58" s="8" t="s">
+      <c r="A58" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B58" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58" s="9">
         <v>750</v>
       </c>
-      <c r="D58" s="6">
-        <v>80</v>
-      </c>
-      <c r="E58" s="6">
-        <v>10</v>
-      </c>
-      <c r="F58" s="7">
+      <c r="D58" s="9">
+        <v>80</v>
+      </c>
+      <c r="E58" s="9">
+        <v>10</v>
+      </c>
+      <c r="F58" s="10">
         <v>0.8</v>
       </c>
-      <c r="G58" s="6"/>
-      <c r="H58" s="8" t="s">
+      <c r="G58" s="9"/>
+      <c r="H58" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="17" t="s">
+      <c r="A59" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59" s="9">
         <v>1500</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D59" s="9">
         <v>90</v>
       </c>
-      <c r="E59" s="6">
-        <v>10</v>
-      </c>
-      <c r="F59" s="7">
+      <c r="E59" s="9">
+        <v>10</v>
+      </c>
+      <c r="F59" s="10">
         <v>0.8</v>
       </c>
-      <c r="G59" s="6" t="s">
+      <c r="G59" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H59" s="8" t="s">
+      <c r="H59" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A60" s="18"/>
-      <c r="B60" s="8" t="s">
+      <c r="A60" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B60" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C60" s="9">
         <v>1000</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60" s="9">
         <v>90</v>
       </c>
-      <c r="E60" s="6">
-        <v>10</v>
-      </c>
-      <c r="F60" s="7">
+      <c r="E60" s="9">
+        <v>10</v>
+      </c>
+      <c r="F60" s="10">
         <v>0.8</v>
       </c>
-      <c r="G60" s="6"/>
-      <c r="H60" s="8" t="s">
+      <c r="G60" s="9"/>
+      <c r="H60" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A61" s="18"/>
-      <c r="B61" s="8" t="s">
+      <c r="A61" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B61" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C61" s="9">
         <v>1500</v>
       </c>
-      <c r="D61" s="6">
-        <v>80</v>
-      </c>
-      <c r="E61" s="6">
-        <v>10</v>
-      </c>
-      <c r="F61" s="7">
+      <c r="D61" s="9">
+        <v>80</v>
+      </c>
+      <c r="E61" s="9">
+        <v>10</v>
+      </c>
+      <c r="F61" s="10">
         <v>0.8</v>
       </c>
-      <c r="G61" s="6"/>
-      <c r="H61" s="8" t="s">
+      <c r="G61" s="9"/>
+      <c r="H61" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="19"/>
-      <c r="B62" s="8" t="s">
+      <c r="A62" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B62" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C62" s="6">
+      <c r="C62" s="9">
         <v>500</v>
       </c>
-      <c r="D62" s="6">
-        <v>80</v>
-      </c>
-      <c r="E62" s="6">
+      <c r="D62" s="9">
+        <v>80</v>
+      </c>
+      <c r="E62" s="9">
         <v>15</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F62" s="10">
         <v>0.8</v>
       </c>
-      <c r="G62" s="6"/>
-      <c r="H62" s="8" t="s">
+      <c r="G62" s="9"/>
+      <c r="H62" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="17" t="s">
+      <c r="A63" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C63" s="6">
+      <c r="C63" s="9">
         <v>200</v>
       </c>
-      <c r="D63" s="6">
-        <v>80</v>
-      </c>
-      <c r="E63" s="6">
-        <v>20</v>
-      </c>
-      <c r="F63" s="7">
+      <c r="D63" s="9">
+        <v>80</v>
+      </c>
+      <c r="E63" s="9">
+        <v>20</v>
+      </c>
+      <c r="F63" s="10">
         <v>0.8</v>
       </c>
-      <c r="G63" s="6"/>
-      <c r="H63" s="8" t="s">
+      <c r="G63" s="9"/>
+      <c r="H63" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="18"/>
-      <c r="B64" s="8" t="s">
+      <c r="A64" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B64" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C64" s="6">
+      <c r="C64" s="9">
         <v>300</v>
       </c>
-      <c r="D64" s="6">
-        <v>80</v>
-      </c>
-      <c r="E64" s="6">
-        <v>20</v>
-      </c>
-      <c r="F64" s="7">
+      <c r="D64" s="9">
+        <v>80</v>
+      </c>
+      <c r="E64" s="9">
+        <v>20</v>
+      </c>
+      <c r="F64" s="10">
         <v>0.8</v>
       </c>
-      <c r="G64" s="6"/>
-      <c r="H64" s="8" t="s">
+      <c r="G64" s="9"/>
+      <c r="H64" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="252" x14ac:dyDescent="0.25">
-      <c r="A65" s="19"/>
-      <c r="B65" s="8" t="s">
+      <c r="A65" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B65" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C65" s="6">
+      <c r="C65" s="9">
         <v>500</v>
       </c>
-      <c r="D65" s="6">
-        <v>80</v>
-      </c>
-      <c r="E65" s="6">
+      <c r="D65" s="9">
+        <v>80</v>
+      </c>
+      <c r="E65" s="9">
         <v>15</v>
       </c>
-      <c r="F65" s="7">
+      <c r="F65" s="10">
         <v>0.8</v>
       </c>
-      <c r="G65" s="6"/>
-      <c r="H65" s="8" t="s">
+      <c r="G65" s="9"/>
+      <c r="H65" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A66" s="17" t="s">
+      <c r="A66" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C66" s="6">
+      <c r="C66" s="9">
         <v>300</v>
       </c>
-      <c r="D66" s="6">
-        <v>80</v>
-      </c>
-      <c r="E66" s="6">
+      <c r="D66" s="9">
+        <v>80</v>
+      </c>
+      <c r="E66" s="9">
         <v>15</v>
       </c>
-      <c r="F66" s="7">
+      <c r="F66" s="10">
         <v>0</v>
       </c>
-      <c r="G66" s="6"/>
-      <c r="H66" s="8" t="s">
+      <c r="G66" s="9"/>
+      <c r="H66" s="9" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A67" s="18"/>
-      <c r="B67" s="8" t="s">
+      <c r="A67" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B67" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C67" s="6">
+      <c r="C67" s="9">
         <v>500</v>
       </c>
-      <c r="D67" s="6">
-        <v>80</v>
-      </c>
-      <c r="E67" s="6">
-        <v>10</v>
-      </c>
-      <c r="F67" s="7">
+      <c r="D67" s="9">
+        <v>80</v>
+      </c>
+      <c r="E67" s="9">
+        <v>10</v>
+      </c>
+      <c r="F67" s="10">
         <v>0.8</v>
       </c>
-      <c r="G67" s="6"/>
-      <c r="H67" s="8" t="s">
+      <c r="G67" s="9"/>
+      <c r="H67" s="9" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A68" s="19"/>
-      <c r="B68" s="8" t="s">
+      <c r="A68" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B68" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C68" s="6">
+      <c r="C68" s="9">
         <v>500</v>
       </c>
-      <c r="D68" s="6">
-        <v>80</v>
-      </c>
-      <c r="E68" s="6">
+      <c r="D68" s="9">
+        <v>80</v>
+      </c>
+      <c r="E68" s="9">
         <v>15</v>
       </c>
-      <c r="F68" s="7">
+      <c r="F68" s="10">
         <v>0.8</v>
       </c>
-      <c r="G68" s="6"/>
-      <c r="H68" s="8" t="s">
+      <c r="G68" s="9"/>
+      <c r="H68" s="9" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="17" t="s">
+      <c r="A69" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C69" s="6">
+      <c r="C69" s="9">
         <v>200</v>
       </c>
-      <c r="D69" s="6">
-        <v>80</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F69" s="7">
+      <c r="D69" s="9">
+        <v>80</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" s="10">
         <v>0</v>
       </c>
-      <c r="G69" s="6"/>
-      <c r="H69" s="8" t="s">
+      <c r="G69" s="9"/>
+      <c r="H69" s="9" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="189" x14ac:dyDescent="0.25">
-      <c r="A70" s="18"/>
-      <c r="B70" s="8" t="s">
+      <c r="A70" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B70" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C70" s="6">
+      <c r="C70" s="9">
         <v>300</v>
       </c>
-      <c r="D70" s="6">
-        <v>80</v>
-      </c>
-      <c r="E70" s="6">
-        <v>20</v>
-      </c>
-      <c r="F70" s="7">
+      <c r="D70" s="9">
+        <v>80</v>
+      </c>
+      <c r="E70" s="9">
+        <v>20</v>
+      </c>
+      <c r="F70" s="10">
         <v>0.8</v>
       </c>
-      <c r="G70" s="6"/>
-      <c r="H70" s="8" t="s">
+      <c r="G70" s="9"/>
+      <c r="H70" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="18"/>
-      <c r="B71" s="8" t="s">
+      <c r="A71" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B71" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C71" s="6">
+      <c r="C71" s="9">
         <v>500</v>
       </c>
-      <c r="D71" s="6">
-        <v>80</v>
-      </c>
-      <c r="E71" s="6">
+      <c r="D71" s="9">
+        <v>80</v>
+      </c>
+      <c r="E71" s="9">
         <v>15</v>
       </c>
-      <c r="F71" s="7">
+      <c r="F71" s="10">
         <v>0.8</v>
       </c>
-      <c r="G71" s="6"/>
-      <c r="H71" s="8" t="s">
+      <c r="G71" s="9"/>
+      <c r="H71" s="9" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="18"/>
-      <c r="B72" s="8" t="s">
+      <c r="A72" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B72" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C72" s="6">
+      <c r="C72" s="9">
         <v>300</v>
       </c>
-      <c r="D72" s="6">
-        <v>80</v>
-      </c>
-      <c r="E72" s="6">
-        <v>20</v>
-      </c>
-      <c r="F72" s="7">
+      <c r="D72" s="9">
+        <v>80</v>
+      </c>
+      <c r="E72" s="9">
+        <v>20</v>
+      </c>
+      <c r="F72" s="10">
         <v>0</v>
       </c>
-      <c r="G72" s="6"/>
-      <c r="H72" s="8" t="s">
+      <c r="G72" s="9"/>
+      <c r="H72" s="9" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="220.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="18"/>
-      <c r="B73" s="8" t="s">
+      <c r="A73" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B73" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C73" s="6">
+      <c r="C73" s="9">
         <v>500</v>
       </c>
-      <c r="D73" s="6">
-        <v>80</v>
-      </c>
-      <c r="E73" s="6">
+      <c r="D73" s="9">
+        <v>80</v>
+      </c>
+      <c r="E73" s="9">
         <v>15</v>
       </c>
-      <c r="F73" s="7">
+      <c r="F73" s="10">
         <v>0.8</v>
       </c>
-      <c r="G73" s="6"/>
-      <c r="H73" s="8" t="s">
+      <c r="G73" s="9"/>
+      <c r="H73" s="9" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="252" x14ac:dyDescent="0.25">
-      <c r="A74" s="18"/>
-      <c r="B74" s="8" t="s">
+      <c r="A74" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B74" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C74" s="6">
+      <c r="C74" s="9">
         <v>500</v>
       </c>
-      <c r="D74" s="6">
-        <v>80</v>
-      </c>
-      <c r="E74" s="6"/>
-      <c r="F74" s="7">
+      <c r="D74" s="9">
+        <v>80</v>
+      </c>
+      <c r="E74" s="9"/>
+      <c r="F74" s="10">
         <v>0</v>
       </c>
-      <c r="G74" s="6"/>
-      <c r="H74" s="8" t="s">
+      <c r="G74" s="9"/>
+      <c r="H74" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A75" s="18"/>
-      <c r="B75" s="8" t="s">
+      <c r="A75" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B75" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C75" s="6">
+      <c r="C75" s="9">
         <v>300</v>
       </c>
-      <c r="D75" s="6">
-        <v>80</v>
-      </c>
-      <c r="E75" s="6">
-        <v>10</v>
-      </c>
-      <c r="F75" s="7">
+      <c r="D75" s="9">
+        <v>80</v>
+      </c>
+      <c r="E75" s="9">
+        <v>10</v>
+      </c>
+      <c r="F75" s="10">
         <v>0.8</v>
       </c>
-      <c r="G75" s="6"/>
-      <c r="H75" s="8" t="s">
+      <c r="G75" s="9"/>
+      <c r="H75" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="19"/>
-      <c r="B76" s="8" t="s">
+      <c r="A76" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B76" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C76" s="6">
+      <c r="C76" s="9">
         <v>1000</v>
       </c>
-      <c r="D76" s="6">
+      <c r="D76" s="9">
         <v>90</v>
       </c>
-      <c r="E76" s="6">
-        <v>10</v>
-      </c>
-      <c r="F76" s="7">
+      <c r="E76" s="9">
+        <v>10</v>
+      </c>
+      <c r="F76" s="10">
         <v>0.8</v>
       </c>
-      <c r="G76" s="6" t="s">
+      <c r="G76" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H76" s="8" t="s">
+      <c r="H76" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="17" t="s">
+      <c r="A77" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C77" s="6">
+      <c r="C77" s="9">
         <v>50</v>
       </c>
-      <c r="D77" s="6">
-        <v>20</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F77" s="7">
+      <c r="D77" s="9">
+        <v>20</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" s="10">
         <v>0.8</v>
       </c>
-      <c r="G77" s="6"/>
-      <c r="H77" s="8" t="s">
+      <c r="G77" s="9"/>
+      <c r="H77" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A78" s="18"/>
-      <c r="B78" s="8" t="s">
+      <c r="A78" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B78" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C78" s="6">
+      <c r="C78" s="9">
         <v>100</v>
       </c>
-      <c r="D78" s="6">
+      <c r="D78" s="9">
         <v>40</v>
       </c>
-      <c r="E78" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F78" s="7">
+      <c r="E78" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" s="10">
         <v>0.8</v>
       </c>
-      <c r="G78" s="6"/>
-      <c r="H78" s="8" t="s">
+      <c r="G78" s="9"/>
+      <c r="H78" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="18"/>
-      <c r="B79" s="8" t="s">
+      <c r="A79" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B79" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C79" s="6">
+      <c r="C79" s="9">
         <v>200</v>
       </c>
-      <c r="D79" s="6">
-        <v>80</v>
-      </c>
-      <c r="E79" s="6">
-        <v>20</v>
-      </c>
-      <c r="F79" s="7">
+      <c r="D79" s="9">
+        <v>80</v>
+      </c>
+      <c r="E79" s="9">
+        <v>20</v>
+      </c>
+      <c r="F79" s="10">
         <v>0</v>
       </c>
-      <c r="G79" s="6"/>
-      <c r="H79" s="8" t="s">
+      <c r="G79" s="9"/>
+      <c r="H79" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="18"/>
-      <c r="B80" s="8" t="s">
+      <c r="A80" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B80" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C80" s="6">
+      <c r="C80" s="9">
         <v>200</v>
       </c>
-      <c r="D80" s="6">
+      <c r="D80" s="9">
         <v>60</v>
       </c>
-      <c r="E80" s="6">
-        <v>20</v>
-      </c>
-      <c r="F80" s="7">
+      <c r="E80" s="9">
+        <v>20</v>
+      </c>
+      <c r="F80" s="10">
         <v>0.8</v>
       </c>
-      <c r="G80" s="6"/>
-      <c r="H80" s="8" t="s">
+      <c r="G80" s="9"/>
+      <c r="H80" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A81" s="19"/>
-      <c r="B81" s="8" t="s">
+      <c r="A81" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B81" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C81" s="6">
+      <c r="C81" s="9">
         <v>500</v>
       </c>
-      <c r="D81" s="6">
-        <v>80</v>
-      </c>
-      <c r="E81" s="6">
+      <c r="D81" s="9">
+        <v>80</v>
+      </c>
+      <c r="E81" s="9">
         <v>15</v>
       </c>
-      <c r="F81" s="7">
+      <c r="F81" s="10">
         <v>0</v>
       </c>
-      <c r="G81" s="6"/>
-      <c r="H81" s="8" t="s">
+      <c r="G81" s="9"/>
+      <c r="H81" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A82" s="17" t="s">
+      <c r="A82" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="B82" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C82" s="6">
+      <c r="C82" s="9">
         <v>50</v>
       </c>
-      <c r="D82" s="6">
-        <v>20</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F82" s="7">
+      <c r="D82" s="9">
+        <v>20</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" s="10">
         <v>0</v>
       </c>
-      <c r="G82" s="6"/>
-      <c r="H82" s="8" t="s">
+      <c r="G82" s="9"/>
+      <c r="H82" s="9" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="18"/>
-      <c r="B83" s="8" t="s">
+      <c r="A83" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B83" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C83" s="6">
+      <c r="C83" s="9">
         <v>100</v>
       </c>
-      <c r="D83" s="6">
+      <c r="D83" s="9">
         <v>40</v>
       </c>
-      <c r="E83" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F83" s="7">
+      <c r="E83" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" s="10">
         <v>0.8</v>
       </c>
-      <c r="G83" s="6"/>
-      <c r="H83" s="8" t="s">
+      <c r="G83" s="9"/>
+      <c r="H83" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A84" s="18"/>
-      <c r="B84" s="8" t="s">
+      <c r="A84" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B84" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C84" s="6">
+      <c r="C84" s="9">
         <v>200</v>
       </c>
-      <c r="D84" s="6">
-        <v>80</v>
-      </c>
-      <c r="E84" s="6">
-        <v>20</v>
-      </c>
-      <c r="F84" s="7">
+      <c r="D84" s="9">
+        <v>80</v>
+      </c>
+      <c r="E84" s="9">
+        <v>20</v>
+      </c>
+      <c r="F84" s="10">
         <v>0</v>
       </c>
-      <c r="G84" s="6"/>
-      <c r="H84" s="8" t="s">
+      <c r="G84" s="9"/>
+      <c r="H84" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A85" s="18"/>
-      <c r="B85" s="8" t="s">
+      <c r="A85" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B85" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C85" s="6">
+      <c r="C85" s="9">
         <v>200</v>
       </c>
-      <c r="D85" s="6">
-        <v>80</v>
-      </c>
-      <c r="E85" s="6">
-        <v>20</v>
-      </c>
-      <c r="F85" s="7">
+      <c r="D85" s="9">
+        <v>80</v>
+      </c>
+      <c r="E85" s="9">
+        <v>20</v>
+      </c>
+      <c r="F85" s="10">
         <v>0.8</v>
       </c>
-      <c r="G85" s="6"/>
-      <c r="H85" s="8" t="s">
+      <c r="G85" s="9"/>
+      <c r="H85" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A86" s="18"/>
-      <c r="B86" s="8" t="s">
+      <c r="A86" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B86" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C86" s="6">
+      <c r="C86" s="9">
         <v>200</v>
       </c>
-      <c r="D86" s="6">
-        <v>80</v>
-      </c>
-      <c r="E86" s="6">
-        <v>20</v>
-      </c>
-      <c r="F86" s="7">
+      <c r="D86" s="9">
+        <v>80</v>
+      </c>
+      <c r="E86" s="9">
+        <v>20</v>
+      </c>
+      <c r="F86" s="10">
         <v>0</v>
       </c>
-      <c r="G86" s="6"/>
-      <c r="H86" s="8" t="s">
+      <c r="G86" s="9"/>
+      <c r="H86" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="18"/>
-      <c r="B87" s="8" t="s">
+      <c r="A87" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B87" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C87" s="6">
+      <c r="C87" s="9">
         <v>200</v>
       </c>
-      <c r="D87" s="6">
-        <v>80</v>
-      </c>
-      <c r="E87" s="6">
-        <v>20</v>
-      </c>
-      <c r="F87" s="7">
+      <c r="D87" s="9">
+        <v>80</v>
+      </c>
+      <c r="E87" s="9">
+        <v>20</v>
+      </c>
+      <c r="F87" s="10">
         <v>0.8</v>
       </c>
-      <c r="G87" s="6"/>
-      <c r="H87" s="8" t="s">
+      <c r="G87" s="9"/>
+      <c r="H87" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A88" s="18"/>
-      <c r="B88" s="8" t="s">
+      <c r="A88" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B88" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="C88" s="6">
+      <c r="C88" s="9">
         <v>200</v>
       </c>
-      <c r="D88" s="6">
-        <v>80</v>
-      </c>
-      <c r="E88" s="6">
-        <v>20</v>
-      </c>
-      <c r="F88" s="7">
+      <c r="D88" s="9">
+        <v>80</v>
+      </c>
+      <c r="E88" s="9">
+        <v>20</v>
+      </c>
+      <c r="F88" s="10">
         <v>0.8</v>
       </c>
-      <c r="G88" s="6"/>
-      <c r="H88" s="8" t="s">
+      <c r="G88" s="9"/>
+      <c r="H88" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="18"/>
-      <c r="B89" s="8" t="s">
+      <c r="A89" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B89" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C89" s="6">
+      <c r="C89" s="9">
         <v>200</v>
       </c>
-      <c r="D89" s="6">
-        <v>80</v>
-      </c>
-      <c r="E89" s="6">
-        <v>20</v>
-      </c>
-      <c r="F89" s="7">
+      <c r="D89" s="9">
+        <v>80</v>
+      </c>
+      <c r="E89" s="9">
+        <v>20</v>
+      </c>
+      <c r="F89" s="10">
         <v>0</v>
       </c>
-      <c r="G89" s="6"/>
-      <c r="H89" s="8" t="s">
+      <c r="G89" s="9"/>
+      <c r="H89" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A90" s="18"/>
-      <c r="B90" s="8" t="s">
+      <c r="A90" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B90" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C90" s="6">
+      <c r="C90" s="9">
         <v>300</v>
       </c>
-      <c r="D90" s="6">
-        <v>80</v>
-      </c>
-      <c r="E90" s="6">
-        <v>20</v>
-      </c>
-      <c r="F90" s="7">
+      <c r="D90" s="9">
+        <v>80</v>
+      </c>
+      <c r="E90" s="9">
+        <v>20</v>
+      </c>
+      <c r="F90" s="10">
         <v>0.8</v>
       </c>
-      <c r="G90" s="6"/>
-      <c r="H90" s="8" t="s">
+      <c r="G90" s="9"/>
+      <c r="H90" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A91" s="18"/>
-      <c r="B91" s="8" t="s">
+      <c r="A91" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B91" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C91" s="6">
+      <c r="C91" s="9">
         <v>300</v>
       </c>
-      <c r="D91" s="6">
-        <v>80</v>
-      </c>
-      <c r="E91" s="6">
-        <v>20</v>
-      </c>
-      <c r="F91" s="7">
+      <c r="D91" s="9">
+        <v>80</v>
+      </c>
+      <c r="E91" s="9">
+        <v>20</v>
+      </c>
+      <c r="F91" s="10">
         <v>0</v>
       </c>
-      <c r="G91" s="6"/>
-      <c r="H91" s="8" t="s">
+      <c r="G91" s="9"/>
+      <c r="H91" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="19"/>
-      <c r="B92" s="8" t="s">
+      <c r="A92" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B92" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C92" s="6">
+      <c r="C92" s="9">
         <v>500</v>
       </c>
-      <c r="D92" s="6">
-        <v>80</v>
-      </c>
-      <c r="E92" s="6">
+      <c r="D92" s="9">
+        <v>80</v>
+      </c>
+      <c r="E92" s="9">
         <v>15</v>
       </c>
-      <c r="F92" s="7">
+      <c r="F92" s="10">
         <v>0</v>
       </c>
-      <c r="G92" s="6"/>
-      <c r="H92" s="8" t="s">
+      <c r="G92" s="9"/>
+      <c r="H92" s="9" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="126" x14ac:dyDescent="0.25">
-      <c r="A93" s="17" t="s">
+      <c r="A93" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="B93" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C93" s="6">
+      <c r="C93" s="9">
         <v>200</v>
       </c>
-      <c r="D93" s="6">
+      <c r="D93" s="9">
         <v>40</v>
       </c>
-      <c r="E93" s="6">
-        <v>20</v>
-      </c>
-      <c r="F93" s="7">
+      <c r="E93" s="9">
+        <v>20</v>
+      </c>
+      <c r="F93" s="10">
         <v>0.8</v>
       </c>
-      <c r="G93" s="6"/>
-      <c r="H93" s="8" t="s">
+      <c r="G93" s="9"/>
+      <c r="H93" s="9" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="18"/>
-      <c r="B94" s="8" t="s">
+      <c r="A94" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B94" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C94" s="6">
+      <c r="C94" s="9">
         <v>300</v>
       </c>
-      <c r="D94" s="6">
-        <v>80</v>
-      </c>
-      <c r="E94" s="6">
-        <v>20</v>
-      </c>
-      <c r="F94" s="7">
+      <c r="D94" s="9">
+        <v>80</v>
+      </c>
+      <c r="E94" s="9">
+        <v>20</v>
+      </c>
+      <c r="F94" s="10">
         <v>0.8</v>
       </c>
-      <c r="G94" s="6"/>
-      <c r="H94" s="8" t="s">
+      <c r="G94" s="9"/>
+      <c r="H94" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A95" s="18"/>
-      <c r="B95" s="8" t="s">
+      <c r="A95" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B95" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C95" s="6">
+      <c r="C95" s="9">
         <v>500</v>
       </c>
-      <c r="D95" s="6">
-        <v>80</v>
-      </c>
-      <c r="E95" s="6">
+      <c r="D95" s="9">
+        <v>80</v>
+      </c>
+      <c r="E95" s="9">
         <v>15</v>
       </c>
-      <c r="F95" s="7">
+      <c r="F95" s="10">
         <v>0.8</v>
       </c>
-      <c r="G95" s="6"/>
-      <c r="H95" s="8" t="s">
+      <c r="G95" s="9"/>
+      <c r="H95" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A96" s="18"/>
-      <c r="B96" s="8" t="s">
+      <c r="A96" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B96" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C96" s="6">
+      <c r="C96" s="9">
         <v>500</v>
       </c>
-      <c r="D96" s="6">
+      <c r="D96" s="9">
         <v>90</v>
       </c>
-      <c r="E96" s="6">
+      <c r="E96" s="9">
         <v>15</v>
       </c>
-      <c r="F96" s="7">
+      <c r="F96" s="10">
         <v>0.8</v>
       </c>
-      <c r="G96" s="6" t="s">
+      <c r="G96" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H96" s="8" t="s">
+      <c r="H96" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="126" x14ac:dyDescent="0.25">
-      <c r="A97" s="18"/>
-      <c r="B97" s="8" t="s">
+      <c r="A97" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B97" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C97" s="6">
+      <c r="C97" s="9">
         <v>500</v>
       </c>
-      <c r="D97" s="6">
-        <v>80</v>
-      </c>
-      <c r="E97" s="6">
+      <c r="D97" s="9">
+        <v>80</v>
+      </c>
+      <c r="E97" s="9">
         <v>15</v>
       </c>
-      <c r="F97" s="7">
+      <c r="F97" s="10">
         <v>0.8</v>
       </c>
-      <c r="G97" s="6"/>
-      <c r="H97" s="8" t="s">
+      <c r="G97" s="9"/>
+      <c r="H97" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="18"/>
-      <c r="B98" s="8" t="s">
+      <c r="A98" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B98" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="C98" s="6">
+      <c r="C98" s="9">
         <v>1000</v>
       </c>
-      <c r="D98" s="6">
-        <v>80</v>
-      </c>
-      <c r="E98" s="6">
-        <v>10</v>
-      </c>
-      <c r="F98" s="7">
+      <c r="D98" s="9">
+        <v>80</v>
+      </c>
+      <c r="E98" s="9">
+        <v>10</v>
+      </c>
+      <c r="F98" s="10">
         <v>0.8</v>
       </c>
-      <c r="G98" s="6"/>
-      <c r="H98" s="8" t="s">
+      <c r="G98" s="9"/>
+      <c r="H98" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="18"/>
-      <c r="B99" s="8" t="s">
+      <c r="A99" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B99" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C99" s="6">
+      <c r="C99" s="9">
         <v>100</v>
       </c>
-      <c r="D99" s="6">
+      <c r="D99" s="9">
         <v>90</v>
       </c>
-      <c r="E99" s="6">
-        <v>10</v>
-      </c>
-      <c r="F99" s="7">
+      <c r="E99" s="9">
+        <v>10</v>
+      </c>
+      <c r="F99" s="10">
         <v>0.8</v>
       </c>
-      <c r="G99" s="6"/>
-      <c r="H99" s="8" t="s">
+      <c r="G99" s="9"/>
+      <c r="H99" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A100" s="18"/>
-      <c r="B100" s="8" t="s">
+      <c r="A100" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B100" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="C100" s="6">
+      <c r="C100" s="9">
         <v>500</v>
       </c>
-      <c r="D100" s="6">
-        <v>80</v>
-      </c>
-      <c r="E100" s="6">
+      <c r="D100" s="9">
+        <v>80</v>
+      </c>
+      <c r="E100" s="9">
         <v>15</v>
       </c>
-      <c r="F100" s="7">
+      <c r="F100" s="10">
         <v>0.8</v>
       </c>
-      <c r="G100" s="6"/>
-      <c r="H100" s="8" t="s">
+      <c r="G100" s="9"/>
+      <c r="H100" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A101" s="19"/>
-      <c r="B101" s="8" t="s">
+      <c r="A101" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B101" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="C101" s="6">
+      <c r="C101" s="9">
         <v>500</v>
       </c>
-      <c r="D101" s="6">
-        <v>80</v>
-      </c>
-      <c r="E101" s="6">
+      <c r="D101" s="9">
+        <v>80</v>
+      </c>
+      <c r="E101" s="9">
         <v>15</v>
       </c>
-      <c r="F101" s="7">
+      <c r="F101" s="10">
         <v>0.8</v>
       </c>
-      <c r="G101" s="6"/>
-      <c r="H101" s="8" t="s">
+      <c r="G101" s="9"/>
+      <c r="H101" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="17" t="s">
+      <c r="A102" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="B102" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C102" s="6">
+      <c r="C102" s="9">
         <v>500</v>
       </c>
-      <c r="D102" s="6">
-        <v>80</v>
-      </c>
-      <c r="E102" s="6">
+      <c r="D102" s="9">
+        <v>80</v>
+      </c>
+      <c r="E102" s="9">
         <v>15</v>
       </c>
-      <c r="F102" s="7">
+      <c r="F102" s="10">
         <v>0.8</v>
       </c>
-      <c r="G102" s="6"/>
-      <c r="H102" s="8" t="s">
+      <c r="G102" s="9"/>
+      <c r="H102" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A103" s="18"/>
-      <c r="B103" s="8" t="s">
+      <c r="A103" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B103" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C103" s="6">
+      <c r="C103" s="9">
         <v>500</v>
       </c>
-      <c r="D103" s="6">
-        <v>80</v>
-      </c>
-      <c r="E103" s="6">
+      <c r="D103" s="9">
+        <v>80</v>
+      </c>
+      <c r="E103" s="9">
         <v>15</v>
       </c>
-      <c r="F103" s="7">
+      <c r="F103" s="10">
         <v>0.8</v>
       </c>
-      <c r="G103" s="6"/>
-      <c r="H103" s="8" t="s">
+      <c r="G103" s="9"/>
+      <c r="H103" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="18"/>
-      <c r="B104" s="8" t="s">
+      <c r="A104" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B104" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C104" s="6">
+      <c r="C104" s="9">
         <v>1000</v>
       </c>
-      <c r="D104" s="6">
-        <v>80</v>
-      </c>
-      <c r="E104" s="6">
-        <v>10</v>
-      </c>
-      <c r="F104" s="7">
+      <c r="D104" s="9">
+        <v>80</v>
+      </c>
+      <c r="E104" s="9">
+        <v>10</v>
+      </c>
+      <c r="F104" s="10">
         <v>0.8</v>
       </c>
-      <c r="G104" s="6"/>
-      <c r="H104" s="8" t="s">
+      <c r="G104" s="9"/>
+      <c r="H104" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="18"/>
-      <c r="B105" s="8" t="s">
+      <c r="A105" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B105" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C105" s="6">
+      <c r="C105" s="9">
         <v>1500</v>
       </c>
-      <c r="D105" s="6">
+      <c r="D105" s="9">
         <v>90</v>
       </c>
-      <c r="E105" s="6">
-        <v>10</v>
-      </c>
-      <c r="F105" s="7">
+      <c r="E105" s="9">
+        <v>10</v>
+      </c>
+      <c r="F105" s="10">
         <v>0.8</v>
       </c>
-      <c r="G105" s="6" t="s">
+      <c r="G105" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H105" s="8" t="s">
+      <c r="H105" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A106" s="19"/>
-      <c r="B106" s="8" t="s">
+      <c r="A106" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B106" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C106" s="6">
+      <c r="C106" s="9">
         <v>2000</v>
       </c>
-      <c r="D106" s="6">
-        <v>80</v>
-      </c>
-      <c r="E106" s="6">
-        <v>10</v>
-      </c>
-      <c r="F106" s="7">
+      <c r="D106" s="9">
+        <v>80</v>
+      </c>
+      <c r="E106" s="9">
+        <v>10</v>
+      </c>
+      <c r="F106" s="10">
         <v>0.8</v>
       </c>
-      <c r="G106" s="6">
+      <c r="G106" s="9">
         <v>5000</v>
       </c>
-      <c r="H106" s="8" t="s">
+      <c r="H106" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="17" t="s">
+      <c r="A107" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B107" s="8" t="s">
+      <c r="B107" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C107" s="6">
+      <c r="C107" s="9">
         <v>100</v>
       </c>
-      <c r="D107" s="6">
-        <v>80</v>
-      </c>
-      <c r="E107" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F107" s="7">
+      <c r="D107" s="9">
+        <v>80</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F107" s="10">
         <v>0</v>
       </c>
-      <c r="G107" s="6"/>
-      <c r="H107" s="8" t="s">
+      <c r="G107" s="9"/>
+      <c r="H107" s="9" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A108" s="18"/>
-      <c r="B108" s="8" t="s">
+      <c r="A108" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B108" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="C108" s="6">
+      <c r="C108" s="9">
         <v>200</v>
       </c>
-      <c r="D108" s="6">
-        <v>80</v>
-      </c>
-      <c r="E108" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F108" s="7">
+      <c r="D108" s="9">
+        <v>80</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F108" s="10">
         <v>0</v>
       </c>
-      <c r="G108" s="6"/>
-      <c r="H108" s="8" t="s">
+      <c r="G108" s="9"/>
+      <c r="H108" s="9" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A109" s="18"/>
-      <c r="B109" s="8" t="s">
+      <c r="A109" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B109" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C109" s="6">
+      <c r="C109" s="9">
         <v>200</v>
       </c>
-      <c r="D109" s="6">
-        <v>80</v>
-      </c>
-      <c r="E109" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F109" s="7">
+      <c r="D109" s="9">
+        <v>80</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F109" s="10">
         <v>0</v>
       </c>
-      <c r="G109" s="6"/>
-      <c r="H109" s="8" t="s">
+      <c r="G109" s="9"/>
+      <c r="H109" s="9" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A110" s="19"/>
-      <c r="B110" s="8" t="s">
+      <c r="A110" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B110" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="C110" s="6">
+      <c r="C110" s="9">
         <v>300</v>
       </c>
-      <c r="D110" s="6">
-        <v>80</v>
-      </c>
-      <c r="E110" s="6">
-        <v>20</v>
-      </c>
-      <c r="F110" s="7">
+      <c r="D110" s="9">
+        <v>80</v>
+      </c>
+      <c r="E110" s="9">
+        <v>20</v>
+      </c>
+      <c r="F110" s="10">
         <v>0.8</v>
       </c>
-      <c r="G110" s="6"/>
-      <c r="H110" s="8" t="s">
+      <c r="G110" s="9"/>
+      <c r="H110" s="9" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A111" s="17" t="s">
+      <c r="A111" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B111" s="8" t="s">
+      <c r="B111" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C111" s="6">
+      <c r="C111" s="9">
         <v>200</v>
       </c>
-      <c r="D111" s="6">
-        <v>80</v>
-      </c>
-      <c r="E111" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F111" s="7">
+      <c r="D111" s="9">
+        <v>80</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F111" s="10">
         <v>0.8</v>
       </c>
-      <c r="G111" s="6"/>
-      <c r="H111" s="8" t="s">
+      <c r="G111" s="9"/>
+      <c r="H111" s="9" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A112" s="18"/>
-      <c r="B112" s="8" t="s">
+      <c r="A112" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B112" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C112" s="6">
+      <c r="C112" s="9">
         <v>500</v>
       </c>
-      <c r="D112" s="6">
-        <v>80</v>
-      </c>
-      <c r="E112" s="6">
-        <v>10</v>
-      </c>
-      <c r="F112" s="7">
+      <c r="D112" s="9">
+        <v>80</v>
+      </c>
+      <c r="E112" s="9">
+        <v>10</v>
+      </c>
+      <c r="F112" s="10">
         <v>0.8</v>
       </c>
-      <c r="G112" s="6"/>
-      <c r="H112" s="8" t="s">
+      <c r="G112" s="9"/>
+      <c r="H112" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A113" s="19"/>
-      <c r="B113" s="8" t="s">
+      <c r="A113" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B113" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="C113" s="6">
+      <c r="C113" s="9">
         <v>500</v>
       </c>
-      <c r="D113" s="6">
-        <v>80</v>
-      </c>
-      <c r="E113" s="6">
-        <v>10</v>
-      </c>
-      <c r="F113" s="7">
+      <c r="D113" s="9">
+        <v>80</v>
+      </c>
+      <c r="E113" s="9">
+        <v>10</v>
+      </c>
+      <c r="F113" s="10">
         <v>0.8</v>
       </c>
-      <c r="G113" s="6"/>
-      <c r="H113" s="8" t="s">
+      <c r="G113" s="9"/>
+      <c r="H113" s="9" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4060,399 +4175,431 @@
       <c r="A114" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B114" s="8" t="s">
+      <c r="B114" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C114" s="6">
+      <c r="C114" s="9">
         <v>300</v>
       </c>
-      <c r="D114" s="6">
+      <c r="D114" s="9">
         <v>90</v>
       </c>
-      <c r="E114" s="6">
-        <v>20</v>
-      </c>
-      <c r="F114" s="7">
+      <c r="E114" s="9">
+        <v>20</v>
+      </c>
+      <c r="F114" s="10">
         <v>0</v>
       </c>
-      <c r="G114" s="6"/>
-      <c r="H114" s="8" t="s">
+      <c r="G114" s="9"/>
+      <c r="H114" s="9" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="17" t="s">
+      <c r="A115" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B115" s="8" t="s">
+      <c r="B115" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="C115" s="6">
+      <c r="C115" s="9">
         <v>200</v>
       </c>
-      <c r="D115" s="6">
-        <v>80</v>
-      </c>
-      <c r="E115" s="6">
-        <v>20</v>
-      </c>
-      <c r="F115" s="7">
+      <c r="D115" s="9">
+        <v>80</v>
+      </c>
+      <c r="E115" s="9">
+        <v>20</v>
+      </c>
+      <c r="F115" s="10">
         <v>0.8</v>
       </c>
-      <c r="G115" s="6"/>
-      <c r="H115" s="8" t="s">
+      <c r="G115" s="9"/>
+      <c r="H115" s="9" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A116" s="18"/>
-      <c r="B116" s="8" t="s">
+      <c r="A116" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B116" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="C116" s="6">
+      <c r="C116" s="9">
         <v>300</v>
       </c>
-      <c r="D116" s="6">
-        <v>80</v>
-      </c>
-      <c r="E116" s="6">
-        <v>20</v>
-      </c>
-      <c r="F116" s="7">
+      <c r="D116" s="9">
+        <v>80</v>
+      </c>
+      <c r="E116" s="9">
+        <v>20</v>
+      </c>
+      <c r="F116" s="10">
         <v>0.8</v>
       </c>
-      <c r="G116" s="6"/>
-      <c r="H116" s="8" t="s">
+      <c r="G116" s="9"/>
+      <c r="H116" s="9" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A117" s="18"/>
-      <c r="B117" s="8" t="s">
+      <c r="A117" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B117" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="C117" s="6">
+      <c r="C117" s="9">
         <v>300</v>
       </c>
-      <c r="D117" s="6">
-        <v>80</v>
-      </c>
-      <c r="E117" s="6">
-        <v>20</v>
-      </c>
-      <c r="F117" s="7">
+      <c r="D117" s="9">
+        <v>80</v>
+      </c>
+      <c r="E117" s="9">
+        <v>20</v>
+      </c>
+      <c r="F117" s="10">
         <v>0</v>
       </c>
-      <c r="G117" s="6"/>
-      <c r="H117" s="8" t="s">
+      <c r="G117" s="9"/>
+      <c r="H117" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="189" x14ac:dyDescent="0.25">
-      <c r="A118" s="18"/>
-      <c r="B118" s="8" t="s">
+      <c r="A118" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B118" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="C118" s="6">
+      <c r="C118" s="9">
         <v>300</v>
       </c>
-      <c r="D118" s="6">
-        <v>80</v>
-      </c>
-      <c r="E118" s="6">
-        <v>20</v>
-      </c>
-      <c r="F118" s="7">
+      <c r="D118" s="9">
+        <v>80</v>
+      </c>
+      <c r="E118" s="9">
+        <v>20</v>
+      </c>
+      <c r="F118" s="10">
         <v>0</v>
       </c>
-      <c r="G118" s="6"/>
-      <c r="H118" s="8" t="s">
+      <c r="G118" s="9"/>
+      <c r="H118" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="126" x14ac:dyDescent="0.25">
-      <c r="A119" s="18"/>
-      <c r="B119" s="8" t="s">
+      <c r="A119" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B119" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C119" s="6">
+      <c r="C119" s="9">
         <v>500</v>
       </c>
-      <c r="D119" s="6">
-        <v>80</v>
-      </c>
-      <c r="E119" s="6">
-        <v>10</v>
-      </c>
-      <c r="F119" s="7">
+      <c r="D119" s="9">
+        <v>80</v>
+      </c>
+      <c r="E119" s="9">
+        <v>10</v>
+      </c>
+      <c r="F119" s="10">
         <v>0</v>
       </c>
-      <c r="G119" s="6"/>
-      <c r="H119" s="8" t="s">
+      <c r="G119" s="9"/>
+      <c r="H119" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A120" s="18"/>
-      <c r="B120" s="8" t="s">
+      <c r="A120" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B120" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C120" s="6">
+      <c r="C120" s="9">
         <v>750</v>
       </c>
-      <c r="D120" s="6">
-        <v>80</v>
-      </c>
-      <c r="E120" s="6">
-        <v>10</v>
-      </c>
-      <c r="F120" s="7">
+      <c r="D120" s="9">
+        <v>80</v>
+      </c>
+      <c r="E120" s="9">
+        <v>10</v>
+      </c>
+      <c r="F120" s="10">
         <v>0</v>
       </c>
-      <c r="G120" s="6"/>
-      <c r="H120" s="8" t="s">
+      <c r="G120" s="9"/>
+      <c r="H120" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="18"/>
-      <c r="B121" s="8" t="s">
+      <c r="A121" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B121" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C121" s="6">
+      <c r="C121" s="9">
         <v>300</v>
       </c>
-      <c r="D121" s="6">
-        <v>80</v>
-      </c>
-      <c r="E121" s="6">
-        <v>20</v>
-      </c>
-      <c r="F121" s="7">
+      <c r="D121" s="9">
+        <v>80</v>
+      </c>
+      <c r="E121" s="9">
+        <v>20</v>
+      </c>
+      <c r="F121" s="10">
         <v>0</v>
       </c>
-      <c r="G121" s="6"/>
-      <c r="H121" s="8" t="s">
+      <c r="G121" s="9"/>
+      <c r="H121" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="18"/>
-      <c r="B122" s="8" t="s">
+      <c r="A122" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B122" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C122" s="6">
+      <c r="C122" s="9">
         <v>200</v>
       </c>
-      <c r="D122" s="6">
-        <v>80</v>
-      </c>
-      <c r="E122" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F122" s="7">
+      <c r="D122" s="9">
+        <v>80</v>
+      </c>
+      <c r="E122" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F122" s="10">
         <v>0</v>
       </c>
-      <c r="G122" s="6"/>
-      <c r="H122" s="8" t="s">
+      <c r="G122" s="9"/>
+      <c r="H122" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="126" x14ac:dyDescent="0.25">
-      <c r="A123" s="18"/>
-      <c r="B123" s="8" t="s">
+      <c r="A123" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B123" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C123" s="6">
+      <c r="C123" s="9">
         <v>300</v>
       </c>
-      <c r="D123" s="6">
-        <v>80</v>
-      </c>
-      <c r="E123" s="6">
+      <c r="D123" s="9">
+        <v>80</v>
+      </c>
+      <c r="E123" s="9">
         <v>15</v>
       </c>
-      <c r="F123" s="7">
+      <c r="F123" s="10">
         <v>0</v>
       </c>
-      <c r="G123" s="6"/>
-      <c r="H123" s="8" t="s">
+      <c r="G123" s="9"/>
+      <c r="H123" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="18"/>
-      <c r="B124" s="8" t="s">
+      <c r="A124" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B124" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="C124" s="6">
+      <c r="C124" s="9">
         <v>750</v>
       </c>
-      <c r="D124" s="6">
-        <v>80</v>
-      </c>
-      <c r="E124" s="6">
-        <v>10</v>
-      </c>
-      <c r="F124" s="7">
+      <c r="D124" s="9">
+        <v>80</v>
+      </c>
+      <c r="E124" s="9">
+        <v>10</v>
+      </c>
+      <c r="F124" s="10">
         <v>0</v>
       </c>
-      <c r="G124" s="6"/>
-      <c r="H124" s="8" t="s">
+      <c r="G124" s="9"/>
+      <c r="H124" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A125" s="18"/>
-      <c r="B125" s="8" t="s">
+      <c r="A125" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B125" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="C125" s="6">
+      <c r="C125" s="9">
         <v>200</v>
       </c>
-      <c r="D125" s="6">
-        <v>80</v>
-      </c>
-      <c r="E125" s="6">
-        <v>20</v>
-      </c>
-      <c r="F125" s="7">
+      <c r="D125" s="9">
+        <v>80</v>
+      </c>
+      <c r="E125" s="9">
+        <v>20</v>
+      </c>
+      <c r="F125" s="10">
         <v>0</v>
       </c>
-      <c r="G125" s="6"/>
-      <c r="H125" s="8" t="s">
+      <c r="G125" s="9"/>
+      <c r="H125" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A126" s="18"/>
-      <c r="B126" s="8" t="s">
+      <c r="A126" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B126" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="C126" s="6">
+      <c r="C126" s="9">
         <v>300</v>
       </c>
-      <c r="D126" s="6">
-        <v>80</v>
-      </c>
-      <c r="E126" s="6">
-        <v>20</v>
-      </c>
-      <c r="F126" s="7">
+      <c r="D126" s="9">
+        <v>80</v>
+      </c>
+      <c r="E126" s="9">
+        <v>20</v>
+      </c>
+      <c r="F126" s="10">
         <v>0</v>
       </c>
-      <c r="G126" s="6"/>
-      <c r="H126" s="8" t="s">
+      <c r="G126" s="9"/>
+      <c r="H126" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A127" s="18"/>
-      <c r="B127" s="8" t="s">
+      <c r="A127" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B127" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="C127" s="6">
+      <c r="C127" s="9">
         <v>500</v>
       </c>
-      <c r="D127" s="6">
-        <v>80</v>
-      </c>
-      <c r="E127" s="6">
+      <c r="D127" s="9">
+        <v>80</v>
+      </c>
+      <c r="E127" s="9">
         <v>15</v>
       </c>
-      <c r="F127" s="7">
+      <c r="F127" s="10">
         <v>0</v>
       </c>
-      <c r="G127" s="6"/>
-      <c r="H127" s="8" t="s">
+      <c r="G127" s="9"/>
+      <c r="H127" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A128" s="18"/>
-      <c r="B128" s="8" t="s">
+      <c r="A128" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B128" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="C128" s="6">
+      <c r="C128" s="9">
         <v>750</v>
       </c>
-      <c r="D128" s="6">
-        <v>80</v>
-      </c>
-      <c r="E128" s="6">
-        <v>10</v>
-      </c>
-      <c r="F128" s="7">
+      <c r="D128" s="9">
+        <v>80</v>
+      </c>
+      <c r="E128" s="9">
+        <v>10</v>
+      </c>
+      <c r="F128" s="10">
         <v>0</v>
       </c>
-      <c r="G128" s="6"/>
-      <c r="H128" s="8" t="s">
+      <c r="G128" s="9"/>
+      <c r="H128" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A129" s="18"/>
-      <c r="B129" s="8" t="s">
+      <c r="A129" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B129" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="C129" s="6">
+      <c r="C129" s="9">
         <v>300</v>
       </c>
-      <c r="D129" s="6">
-        <v>80</v>
-      </c>
-      <c r="E129" s="6">
-        <v>20</v>
-      </c>
-      <c r="F129" s="7">
+      <c r="D129" s="9">
+        <v>80</v>
+      </c>
+      <c r="E129" s="9">
+        <v>20</v>
+      </c>
+      <c r="F129" s="10">
         <v>0</v>
       </c>
-      <c r="G129" s="6"/>
-      <c r="H129" s="8" t="s">
+      <c r="G129" s="9"/>
+      <c r="H129" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="18"/>
-      <c r="B130" s="8" t="s">
+      <c r="A130" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B130" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="C130" s="6">
+      <c r="C130" s="9">
         <v>750</v>
       </c>
-      <c r="D130" s="6">
-        <v>80</v>
-      </c>
-      <c r="E130" s="6">
-        <v>10</v>
-      </c>
-      <c r="F130" s="7">
+      <c r="D130" s="9">
+        <v>80</v>
+      </c>
+      <c r="E130" s="9">
+        <v>10</v>
+      </c>
+      <c r="F130" s="10">
         <v>0</v>
       </c>
-      <c r="G130" s="6"/>
-      <c r="H130" s="8" t="s">
+      <c r="G130" s="9"/>
+      <c r="H130" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="204.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="19"/>
-      <c r="B131" s="8" t="s">
+      <c r="A131" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B131" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C131" s="6">
+      <c r="C131" s="9">
         <v>1000</v>
       </c>
-      <c r="D131" s="6">
-        <v>80</v>
-      </c>
-      <c r="E131" s="6">
-        <v>10</v>
-      </c>
-      <c r="F131" s="7">
+      <c r="D131" s="9">
+        <v>80</v>
+      </c>
+      <c r="E131" s="9">
+        <v>10</v>
+      </c>
+      <c r="F131" s="10">
         <v>0</v>
       </c>
-      <c r="G131" s="6"/>
-      <c r="H131" s="8" t="s">
+      <c r="G131" s="9"/>
+      <c r="H131" s="9" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4460,2688 +4607,2881 @@
       <c r="A132" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B132" s="8" t="s">
+      <c r="B132" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="C132" s="6">
+      <c r="C132" s="9">
         <v>300</v>
       </c>
-      <c r="D132" s="6">
-        <v>80</v>
-      </c>
-      <c r="E132" s="6">
-        <v>20</v>
-      </c>
-      <c r="F132" s="7">
+      <c r="D132" s="9">
+        <v>80</v>
+      </c>
+      <c r="E132" s="9">
+        <v>20</v>
+      </c>
+      <c r="F132" s="10">
         <v>0</v>
       </c>
-      <c r="G132" s="6"/>
-      <c r="H132" s="8" t="s">
+      <c r="G132" s="9"/>
+      <c r="H132" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="17" t="s">
+      <c r="A133" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="B133" s="8" t="s">
+      <c r="B133" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="C133" s="6">
+      <c r="C133" s="9">
         <v>500</v>
       </c>
-      <c r="D133" s="6">
-        <v>80</v>
-      </c>
-      <c r="E133" s="6">
+      <c r="D133" s="9">
+        <v>80</v>
+      </c>
+      <c r="E133" s="9">
         <v>15</v>
       </c>
-      <c r="F133" s="7">
+      <c r="F133" s="10">
         <v>0</v>
       </c>
-      <c r="G133" s="6"/>
-      <c r="H133" s="8" t="s">
+      <c r="G133" s="9"/>
+      <c r="H133" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A134" s="18"/>
-      <c r="B134" s="8" t="s">
+      <c r="A134" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B134" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="C134" s="6">
+      <c r="C134" s="9">
         <v>750</v>
       </c>
-      <c r="D134" s="6">
-        <v>80</v>
-      </c>
-      <c r="E134" s="6">
-        <v>10</v>
-      </c>
-      <c r="F134" s="7">
+      <c r="D134" s="9">
+        <v>80</v>
+      </c>
+      <c r="E134" s="9">
+        <v>10</v>
+      </c>
+      <c r="F134" s="10">
         <v>0</v>
       </c>
-      <c r="G134" s="6"/>
-      <c r="H134" s="8" t="s">
+      <c r="G134" s="9"/>
+      <c r="H134" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="18"/>
-      <c r="B135" s="8" t="s">
+      <c r="A135" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B135" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="C135" s="6">
+      <c r="C135" s="9">
         <v>1000</v>
       </c>
-      <c r="D135" s="6">
+      <c r="D135" s="9">
         <v>90</v>
       </c>
-      <c r="E135" s="6">
-        <v>10</v>
-      </c>
-      <c r="F135" s="7">
+      <c r="E135" s="9">
+        <v>10</v>
+      </c>
+      <c r="F135" s="10">
         <v>0</v>
       </c>
-      <c r="G135" s="6" t="s">
+      <c r="G135" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H135" s="8" t="s">
+      <c r="H135" s="9" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A136" s="18"/>
-      <c r="B136" s="8" t="s">
+      <c r="A136" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B136" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="C136" s="6">
+      <c r="C136" s="9">
         <v>1000</v>
       </c>
-      <c r="D136" s="6">
-        <v>80</v>
-      </c>
-      <c r="E136" s="6">
-        <v>10</v>
-      </c>
-      <c r="F136" s="7">
+      <c r="D136" s="9">
+        <v>80</v>
+      </c>
+      <c r="E136" s="9">
+        <v>10</v>
+      </c>
+      <c r="F136" s="10">
         <v>0.8</v>
       </c>
-      <c r="G136" s="6"/>
-      <c r="H136" s="8" t="s">
+      <c r="G136" s="9"/>
+      <c r="H136" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="18"/>
-      <c r="B137" s="8" t="s">
+      <c r="A137" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B137" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="C137" s="6">
+      <c r="C137" s="9">
         <v>1000</v>
       </c>
-      <c r="D137" s="6">
-        <v>80</v>
-      </c>
-      <c r="E137" s="6">
-        <v>10</v>
-      </c>
-      <c r="F137" s="7">
+      <c r="D137" s="9">
+        <v>80</v>
+      </c>
+      <c r="E137" s="9">
+        <v>10</v>
+      </c>
+      <c r="F137" s="10">
         <v>0</v>
       </c>
-      <c r="G137" s="6"/>
-      <c r="H137" s="8" t="s">
+      <c r="G137" s="9"/>
+      <c r="H137" s="9" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A138" s="19"/>
-      <c r="B138" s="8" t="s">
+      <c r="A138" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B138" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C138" s="6">
+      <c r="C138" s="9">
         <v>300</v>
       </c>
-      <c r="D138" s="6">
-        <v>80</v>
-      </c>
-      <c r="E138" s="6">
-        <v>20</v>
-      </c>
-      <c r="F138" s="7">
+      <c r="D138" s="9">
+        <v>80</v>
+      </c>
+      <c r="E138" s="9">
+        <v>20</v>
+      </c>
+      <c r="F138" s="10">
         <v>0</v>
       </c>
-      <c r="G138" s="6"/>
-      <c r="H138" s="8" t="s">
+      <c r="G138" s="9"/>
+      <c r="H138" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A139" s="17" t="s">
+      <c r="A139" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B139" s="8" t="s">
+      <c r="B139" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="C139" s="6">
+      <c r="C139" s="9">
         <v>50</v>
       </c>
-      <c r="D139" s="6">
-        <v>20</v>
-      </c>
-      <c r="E139" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F139" s="7">
+      <c r="D139" s="9">
+        <v>20</v>
+      </c>
+      <c r="E139" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F139" s="10">
         <v>0.8</v>
       </c>
-      <c r="G139" s="6"/>
-      <c r="H139" s="8" t="s">
+      <c r="G139" s="9"/>
+      <c r="H139" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A140" s="18"/>
-      <c r="B140" s="8" t="s">
+      <c r="A140" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B140" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="C140" s="6">
+      <c r="C140" s="9">
         <v>150</v>
       </c>
-      <c r="D140" s="6">
+      <c r="D140" s="9">
         <v>40</v>
       </c>
-      <c r="E140" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F140" s="7"/>
-      <c r="G140" s="6"/>
-      <c r="H140" s="8" t="s">
+      <c r="E140" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F140" s="10"/>
+      <c r="G140" s="9"/>
+      <c r="H140" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A141" s="18"/>
-      <c r="B141" s="8" t="s">
+      <c r="A141" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B141" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="C141" s="6">
+      <c r="C141" s="9">
         <v>200</v>
       </c>
-      <c r="D141" s="6">
-        <v>80</v>
-      </c>
-      <c r="E141" s="6">
-        <v>20</v>
-      </c>
-      <c r="F141" s="7"/>
-      <c r="G141" s="6"/>
-      <c r="H141" s="8" t="s">
+      <c r="D141" s="9">
+        <v>80</v>
+      </c>
+      <c r="E141" s="9">
+        <v>20</v>
+      </c>
+      <c r="F141" s="10"/>
+      <c r="G141" s="9"/>
+      <c r="H141" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A142" s="18"/>
-      <c r="B142" s="8" t="s">
+      <c r="A142" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B142" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="C142" s="6">
+      <c r="C142" s="9">
         <v>50</v>
       </c>
-      <c r="D142" s="6">
-        <v>20</v>
-      </c>
-      <c r="E142" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F142" s="7"/>
-      <c r="G142" s="6"/>
-      <c r="H142" s="8" t="s">
+      <c r="D142" s="9">
+        <v>20</v>
+      </c>
+      <c r="E142" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F142" s="10"/>
+      <c r="G142" s="9"/>
+      <c r="H142" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A143" s="18"/>
-      <c r="B143" s="8" t="s">
+      <c r="A143" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B143" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="C143" s="6">
+      <c r="C143" s="9">
         <v>200</v>
       </c>
-      <c r="D143" s="6">
-        <v>20</v>
-      </c>
-      <c r="E143" s="6">
-        <v>20</v>
-      </c>
-      <c r="F143" s="7"/>
-      <c r="G143" s="6"/>
-      <c r="H143" s="8" t="s">
+      <c r="D143" s="9">
+        <v>20</v>
+      </c>
+      <c r="E143" s="9">
+        <v>20</v>
+      </c>
+      <c r="F143" s="10"/>
+      <c r="G143" s="9"/>
+      <c r="H143" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A144" s="18"/>
-      <c r="B144" s="8" t="s">
+      <c r="A144" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B144" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="C144" s="6">
+      <c r="C144" s="9">
         <v>300</v>
       </c>
-      <c r="D144" s="6">
+      <c r="D144" s="9">
         <v>40</v>
       </c>
-      <c r="E144" s="6">
-        <v>20</v>
-      </c>
-      <c r="F144" s="7"/>
-      <c r="G144" s="6"/>
-      <c r="H144" s="8" t="s">
+      <c r="E144" s="9">
+        <v>20</v>
+      </c>
+      <c r="F144" s="10"/>
+      <c r="G144" s="9"/>
+      <c r="H144" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A145" s="18"/>
-      <c r="B145" s="8" t="s">
+      <c r="A145" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B145" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C145" s="6">
+      <c r="C145" s="9">
         <v>300</v>
       </c>
-      <c r="D145" s="6">
-        <v>80</v>
-      </c>
-      <c r="E145" s="6">
-        <v>20</v>
-      </c>
-      <c r="F145" s="7"/>
-      <c r="G145" s="6"/>
-      <c r="H145" s="8" t="s">
+      <c r="D145" s="9">
+        <v>80</v>
+      </c>
+      <c r="E145" s="9">
+        <v>20</v>
+      </c>
+      <c r="F145" s="10"/>
+      <c r="G145" s="9"/>
+      <c r="H145" s="9" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A146" s="18"/>
-      <c r="B146" s="8" t="s">
+      <c r="A146" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B146" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="C146" s="6">
+      <c r="C146" s="9">
         <v>500</v>
       </c>
-      <c r="D146" s="6">
-        <v>80</v>
-      </c>
-      <c r="E146" s="6">
+      <c r="D146" s="9">
+        <v>80</v>
+      </c>
+      <c r="E146" s="9">
         <v>15</v>
       </c>
-      <c r="F146" s="7"/>
-      <c r="G146" s="6"/>
-      <c r="H146" s="8" t="s">
+      <c r="F146" s="10"/>
+      <c r="G146" s="9"/>
+      <c r="H146" s="9" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A147" s="19"/>
-      <c r="B147" s="8" t="s">
+      <c r="A147" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B147" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="C147" s="6">
+      <c r="C147" s="9">
         <v>50</v>
       </c>
-      <c r="D147" s="6">
-        <v>20</v>
-      </c>
-      <c r="E147" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F147" s="7"/>
-      <c r="G147" s="6"/>
-      <c r="H147" s="8" t="s">
+      <c r="D147" s="9">
+        <v>20</v>
+      </c>
+      <c r="E147" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F147" s="10"/>
+      <c r="G147" s="9"/>
+      <c r="H147" s="9" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A148" s="17" t="s">
+      <c r="A148" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="B148" s="8" t="s">
+      <c r="B148" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="C148" s="6">
+      <c r="C148" s="9">
         <v>300</v>
       </c>
-      <c r="D148" s="6">
-        <v>80</v>
-      </c>
-      <c r="E148" s="6">
-        <v>10</v>
-      </c>
-      <c r="F148" s="7"/>
-      <c r="G148" s="6"/>
-      <c r="H148" s="8" t="s">
+      <c r="D148" s="9">
+        <v>80</v>
+      </c>
+      <c r="E148" s="9">
+        <v>10</v>
+      </c>
+      <c r="F148" s="10"/>
+      <c r="G148" s="9"/>
+      <c r="H148" s="9" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A149" s="19"/>
-      <c r="B149" s="8" t="s">
+      <c r="A149" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B149" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="C149" s="6">
+      <c r="C149" s="9">
         <v>300</v>
       </c>
-      <c r="D149" s="6"/>
-      <c r="E149" s="6"/>
-      <c r="F149" s="7"/>
-      <c r="G149" s="6"/>
-      <c r="H149" s="8" t="s">
+      <c r="D149" s="9"/>
+      <c r="E149" s="9"/>
+      <c r="F149" s="10"/>
+      <c r="G149" s="9"/>
+      <c r="H149" s="9" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A150" s="17" t="s">
+      <c r="A150" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B150" s="8" t="s">
+      <c r="B150" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="C150" s="6">
+      <c r="C150" s="9">
         <v>50</v>
       </c>
-      <c r="D150" s="6">
+      <c r="D150" s="9">
         <v>40</v>
       </c>
-      <c r="E150" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F150" s="7"/>
-      <c r="G150" s="6"/>
-      <c r="H150" s="8" t="s">
+      <c r="E150" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F150" s="10"/>
+      <c r="G150" s="9"/>
+      <c r="H150" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A151" s="18"/>
-      <c r="B151" s="8" t="s">
+      <c r="A151" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B151" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="C151" s="6">
+      <c r="C151" s="9">
         <v>150</v>
       </c>
-      <c r="D151" s="6">
+      <c r="D151" s="9">
         <v>40</v>
       </c>
-      <c r="E151" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F151" s="7"/>
-      <c r="G151" s="6"/>
-      <c r="H151" s="8" t="s">
+      <c r="E151" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F151" s="10"/>
+      <c r="G151" s="9"/>
+      <c r="H151" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A152" s="18"/>
-      <c r="B152" s="8" t="s">
+      <c r="A152" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B152" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="C152" s="6">
+      <c r="C152" s="9">
         <v>300</v>
       </c>
-      <c r="D152" s="6">
+      <c r="D152" s="9">
         <v>60</v>
       </c>
-      <c r="E152" s="6">
-        <v>10</v>
-      </c>
-      <c r="F152" s="7"/>
-      <c r="G152" s="6"/>
-      <c r="H152" s="8" t="s">
+      <c r="E152" s="9">
+        <v>10</v>
+      </c>
+      <c r="F152" s="10"/>
+      <c r="G152" s="9"/>
+      <c r="H152" s="9" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A153" s="18"/>
-      <c r="B153" s="8" t="s">
+      <c r="A153" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B153" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="C153" s="6">
+      <c r="C153" s="9">
         <v>300</v>
       </c>
-      <c r="D153" s="6">
-        <v>80</v>
-      </c>
-      <c r="E153" s="6">
-        <v>20</v>
-      </c>
-      <c r="F153" s="7"/>
-      <c r="G153" s="6"/>
-      <c r="H153" s="8" t="s">
+      <c r="D153" s="9">
+        <v>80</v>
+      </c>
+      <c r="E153" s="9">
+        <v>20</v>
+      </c>
+      <c r="F153" s="10"/>
+      <c r="G153" s="9"/>
+      <c r="H153" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A154" s="18"/>
-      <c r="B154" s="8" t="s">
+      <c r="A154" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B154" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="C154" s="6">
+      <c r="C154" s="9">
         <v>750</v>
       </c>
-      <c r="D154" s="6">
-        <v>80</v>
-      </c>
-      <c r="E154" s="6">
-        <v>10</v>
-      </c>
-      <c r="F154" s="7"/>
-      <c r="G154" s="6"/>
-      <c r="H154" s="8" t="s">
+      <c r="D154" s="9">
+        <v>80</v>
+      </c>
+      <c r="E154" s="9">
+        <v>10</v>
+      </c>
+      <c r="F154" s="10"/>
+      <c r="G154" s="9"/>
+      <c r="H154" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="252" x14ac:dyDescent="0.25">
-      <c r="A155" s="18"/>
-      <c r="B155" s="8" t="s">
+      <c r="A155" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B155" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="C155" s="6">
+      <c r="C155" s="9">
         <v>500</v>
       </c>
-      <c r="D155" s="6">
-        <v>80</v>
-      </c>
-      <c r="E155" s="6">
-        <v>10</v>
-      </c>
-      <c r="F155" s="7"/>
-      <c r="G155" s="6"/>
-      <c r="H155" s="8" t="s">
+      <c r="D155" s="9">
+        <v>80</v>
+      </c>
+      <c r="E155" s="9">
+        <v>10</v>
+      </c>
+      <c r="F155" s="10"/>
+      <c r="G155" s="9"/>
+      <c r="H155" s="9" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A156" s="18"/>
-      <c r="B156" s="8" t="s">
+      <c r="A156" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B156" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="C156" s="6">
+      <c r="C156" s="9">
         <v>750</v>
       </c>
-      <c r="D156" s="6">
+      <c r="D156" s="9">
         <v>90</v>
       </c>
-      <c r="E156" s="6">
-        <v>10</v>
-      </c>
-      <c r="F156" s="7"/>
-      <c r="G156" s="6" t="s">
+      <c r="E156" s="9">
+        <v>10</v>
+      </c>
+      <c r="F156" s="10"/>
+      <c r="G156" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H156" s="8" t="s">
+      <c r="H156" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A157" s="18"/>
-      <c r="B157" s="8" t="s">
+      <c r="A157" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B157" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="C157" s="6">
+      <c r="C157" s="9">
         <v>750</v>
       </c>
-      <c r="D157" s="6">
+      <c r="D157" s="9">
         <v>90</v>
       </c>
-      <c r="E157" s="6">
-        <v>10</v>
-      </c>
-      <c r="F157" s="7"/>
-      <c r="G157" s="6" t="s">
+      <c r="E157" s="9">
+        <v>10</v>
+      </c>
+      <c r="F157" s="10"/>
+      <c r="G157" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H157" s="8" t="s">
+      <c r="H157" s="9" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A158" s="19"/>
-      <c r="B158" s="8" t="s">
+      <c r="A158" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B158" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="C158" s="6">
+      <c r="C158" s="9">
         <v>1000</v>
       </c>
-      <c r="D158" s="6">
+      <c r="D158" s="9">
         <v>90</v>
       </c>
-      <c r="E158" s="6">
-        <v>10</v>
-      </c>
-      <c r="F158" s="7"/>
-      <c r="G158" s="6" t="s">
+      <c r="E158" s="9">
+        <v>10</v>
+      </c>
+      <c r="F158" s="10"/>
+      <c r="G158" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H158" s="8" t="s">
+      <c r="H158" s="9" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A159" s="17" t="s">
+      <c r="A159" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="B159" s="8" t="s">
+      <c r="B159" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="C159" s="6">
+      <c r="C159" s="9">
         <v>300</v>
       </c>
-      <c r="D159" s="6">
-        <v>80</v>
-      </c>
-      <c r="E159" s="6">
-        <v>20</v>
-      </c>
-      <c r="F159" s="7"/>
-      <c r="G159" s="6"/>
-      <c r="H159" s="8" t="s">
+      <c r="D159" s="9">
+        <v>80</v>
+      </c>
+      <c r="E159" s="9">
+        <v>20</v>
+      </c>
+      <c r="F159" s="10"/>
+      <c r="G159" s="9"/>
+      <c r="H159" s="9" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A160" s="18"/>
-      <c r="B160" s="8" t="s">
+      <c r="A160" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B160" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="C160" s="6">
+      <c r="C160" s="9">
         <v>500</v>
       </c>
-      <c r="D160" s="6">
-        <v>80</v>
-      </c>
-      <c r="E160" s="6">
-        <v>10</v>
-      </c>
-      <c r="F160" s="7"/>
-      <c r="G160" s="6"/>
-      <c r="H160" s="8" t="s">
+      <c r="D160" s="9">
+        <v>80</v>
+      </c>
+      <c r="E160" s="9">
+        <v>10</v>
+      </c>
+      <c r="F160" s="10"/>
+      <c r="G160" s="9"/>
+      <c r="H160" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A161" s="18"/>
-      <c r="B161" s="8" t="s">
+      <c r="A161" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B161" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="C161" s="6">
+      <c r="C161" s="9">
         <v>750</v>
       </c>
-      <c r="D161" s="6">
-        <v>80</v>
-      </c>
-      <c r="E161" s="6"/>
-      <c r="F161" s="7"/>
-      <c r="G161" s="6"/>
-      <c r="H161" s="8" t="s">
+      <c r="D161" s="9">
+        <v>80</v>
+      </c>
+      <c r="E161" s="9"/>
+      <c r="F161" s="10"/>
+      <c r="G161" s="9"/>
+      <c r="H161" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A162" s="18"/>
-      <c r="B162" s="8" t="s">
+      <c r="A162" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B162" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="C162" s="6">
+      <c r="C162" s="9">
         <v>500</v>
       </c>
-      <c r="D162" s="6">
-        <v>80</v>
-      </c>
-      <c r="E162" s="6">
+      <c r="D162" s="9">
+        <v>80</v>
+      </c>
+      <c r="E162" s="9">
         <v>5</v>
       </c>
-      <c r="F162" s="7"/>
-      <c r="G162" s="6"/>
-      <c r="H162" s="8" t="s">
+      <c r="F162" s="10"/>
+      <c r="G162" s="9"/>
+      <c r="H162" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="126" x14ac:dyDescent="0.25">
-      <c r="A163" s="18"/>
-      <c r="B163" s="8" t="s">
+      <c r="A163" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B163" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C163" s="6">
+      <c r="C163" s="9">
         <v>500</v>
       </c>
-      <c r="D163" s="6">
-        <v>80</v>
-      </c>
-      <c r="E163" s="6">
-        <v>10</v>
-      </c>
-      <c r="F163" s="7"/>
-      <c r="G163" s="6"/>
-      <c r="H163" s="8" t="s">
+      <c r="D163" s="9">
+        <v>80</v>
+      </c>
+      <c r="E163" s="9">
+        <v>10</v>
+      </c>
+      <c r="F163" s="10"/>
+      <c r="G163" s="9"/>
+      <c r="H163" s="9" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A164" s="18"/>
-      <c r="B164" s="8" t="s">
+      <c r="A164" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B164" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="C164" s="6">
+      <c r="C164" s="9">
         <v>300</v>
       </c>
-      <c r="D164" s="6">
-        <v>80</v>
-      </c>
-      <c r="E164" s="6">
+      <c r="D164" s="9">
+        <v>80</v>
+      </c>
+      <c r="E164" s="9">
         <v>15</v>
       </c>
-      <c r="F164" s="7"/>
-      <c r="G164" s="6"/>
-      <c r="H164" s="8" t="s">
+      <c r="F164" s="10"/>
+      <c r="G164" s="9"/>
+      <c r="H164" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A165" s="19"/>
-      <c r="B165" s="8" t="s">
+      <c r="A165" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B165" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="C165" s="6">
+      <c r="C165" s="9">
         <v>200</v>
       </c>
-      <c r="D165" s="6">
-        <v>80</v>
-      </c>
-      <c r="E165" s="6">
-        <v>20</v>
-      </c>
-      <c r="F165" s="7"/>
-      <c r="G165" s="6"/>
-      <c r="H165" s="8" t="s">
+      <c r="D165" s="9">
+        <v>80</v>
+      </c>
+      <c r="E165" s="9">
+        <v>20</v>
+      </c>
+      <c r="F165" s="10"/>
+      <c r="G165" s="9"/>
+      <c r="H165" s="9" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A166" s="17" t="s">
+      <c r="A166" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="B166" s="8" t="s">
+      <c r="B166" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="C166" s="6">
+      <c r="C166" s="9">
         <v>200</v>
       </c>
-      <c r="D166" s="6">
+      <c r="D166" s="9">
         <v>60</v>
       </c>
-      <c r="E166" s="6">
-        <v>20</v>
-      </c>
-      <c r="F166" s="7"/>
-      <c r="G166" s="6"/>
-      <c r="H166" s="8" t="s">
+      <c r="E166" s="9">
+        <v>20</v>
+      </c>
+      <c r="F166" s="10"/>
+      <c r="G166" s="9"/>
+      <c r="H166" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="393.75" x14ac:dyDescent="0.25">
-      <c r="A167" s="18"/>
-      <c r="B167" s="8" t="s">
+      <c r="A167" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B167" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="C167" s="6">
+      <c r="C167" s="9">
         <v>300</v>
       </c>
-      <c r="D167" s="6">
-        <v>80</v>
-      </c>
-      <c r="E167" s="6">
-        <v>20</v>
-      </c>
-      <c r="F167" s="7"/>
-      <c r="G167" s="6"/>
-      <c r="H167" s="8" t="s">
+      <c r="D167" s="9">
+        <v>80</v>
+      </c>
+      <c r="E167" s="9">
+        <v>20</v>
+      </c>
+      <c r="F167" s="10"/>
+      <c r="G167" s="9"/>
+      <c r="H167" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A168" s="18"/>
-      <c r="B168" s="8" t="s">
+      <c r="A168" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B168" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="C168" s="6">
+      <c r="C168" s="9">
         <v>500</v>
       </c>
-      <c r="D168" s="6">
-        <v>80</v>
-      </c>
-      <c r="E168" s="6">
-        <v>10</v>
-      </c>
-      <c r="F168" s="7"/>
-      <c r="G168" s="6"/>
-      <c r="H168" s="8" t="s">
+      <c r="D168" s="9">
+        <v>80</v>
+      </c>
+      <c r="E168" s="9">
+        <v>10</v>
+      </c>
+      <c r="F168" s="10"/>
+      <c r="G168" s="9"/>
+      <c r="H168" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="189" x14ac:dyDescent="0.25">
-      <c r="A169" s="18"/>
-      <c r="B169" s="8" t="s">
+      <c r="A169" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B169" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="C169" s="6">
+      <c r="C169" s="9">
         <v>500</v>
       </c>
-      <c r="D169" s="6">
-        <v>80</v>
-      </c>
-      <c r="E169" s="6">
-        <v>10</v>
-      </c>
-      <c r="F169" s="7"/>
-      <c r="G169" s="6"/>
-      <c r="H169" s="8" t="s">
+      <c r="D169" s="9">
+        <v>80</v>
+      </c>
+      <c r="E169" s="9">
+        <v>10</v>
+      </c>
+      <c r="F169" s="10"/>
+      <c r="G169" s="9"/>
+      <c r="H169" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A170" s="18"/>
-      <c r="B170" s="8" t="s">
+      <c r="A170" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B170" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="C170" s="6">
+      <c r="C170" s="9">
         <v>750</v>
       </c>
-      <c r="D170" s="6">
-        <v>80</v>
-      </c>
-      <c r="E170" s="6">
-        <v>10</v>
-      </c>
-      <c r="F170" s="7"/>
-      <c r="G170" s="6"/>
-      <c r="H170" s="8" t="s">
+      <c r="D170" s="9">
+        <v>80</v>
+      </c>
+      <c r="E170" s="9">
+        <v>10</v>
+      </c>
+      <c r="F170" s="10"/>
+      <c r="G170" s="9"/>
+      <c r="H170" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A171" s="18"/>
-      <c r="B171" s="8" t="s">
+      <c r="A171" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B171" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="C171" s="6">
+      <c r="C171" s="9">
         <v>750</v>
       </c>
-      <c r="D171" s="6">
+      <c r="D171" s="9">
         <v>90</v>
       </c>
-      <c r="E171" s="6">
-        <v>10</v>
-      </c>
-      <c r="F171" s="7"/>
-      <c r="G171" s="6" t="s">
+      <c r="E171" s="9">
+        <v>10</v>
+      </c>
+      <c r="F171" s="10"/>
+      <c r="G171" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H171" s="8" t="s">
+      <c r="H171" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A172" s="18"/>
-      <c r="B172" s="8" t="s">
+      <c r="A172" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B172" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="C172" s="6">
+      <c r="C172" s="9">
         <v>500</v>
       </c>
-      <c r="D172" s="6">
-        <v>80</v>
-      </c>
-      <c r="E172" s="6">
+      <c r="D172" s="9">
+        <v>80</v>
+      </c>
+      <c r="E172" s="9">
         <v>15</v>
       </c>
-      <c r="F172" s="7"/>
-      <c r="G172" s="6"/>
-      <c r="H172" s="8" t="s">
+      <c r="F172" s="10"/>
+      <c r="G172" s="9"/>
+      <c r="H172" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A173" s="18"/>
-      <c r="B173" s="8" t="s">
+      <c r="A173" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B173" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="C173" s="6">
+      <c r="C173" s="9">
         <v>100</v>
       </c>
-      <c r="D173" s="6">
+      <c r="D173" s="9">
         <v>60</v>
       </c>
-      <c r="E173" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F173" s="7"/>
-      <c r="G173" s="6"/>
-      <c r="H173" s="8" t="s">
+      <c r="E173" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F173" s="10"/>
+      <c r="G173" s="9"/>
+      <c r="H173" s="9" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A174" s="18"/>
-      <c r="B174" s="8" t="s">
+      <c r="A174" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B174" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="C174" s="6">
+      <c r="C174" s="9">
         <v>500</v>
       </c>
-      <c r="D174" s="6">
-        <v>80</v>
-      </c>
-      <c r="E174" s="6">
+      <c r="D174" s="9">
+        <v>80</v>
+      </c>
+      <c r="E174" s="9">
         <v>15</v>
       </c>
-      <c r="F174" s="7"/>
-      <c r="G174" s="6"/>
-      <c r="H174" s="8" t="s">
+      <c r="F174" s="10"/>
+      <c r="G174" s="9"/>
+      <c r="H174" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A175" s="18"/>
-      <c r="B175" s="8" t="s">
+      <c r="A175" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B175" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="C175" s="6">
+      <c r="C175" s="9">
         <v>1000</v>
       </c>
-      <c r="D175" s="6">
-        <v>80</v>
-      </c>
-      <c r="E175" s="6">
-        <v>10</v>
-      </c>
-      <c r="F175" s="7"/>
-      <c r="G175" s="6"/>
-      <c r="H175" s="8" t="s">
+      <c r="D175" s="9">
+        <v>80</v>
+      </c>
+      <c r="E175" s="9">
+        <v>10</v>
+      </c>
+      <c r="F175" s="10"/>
+      <c r="G175" s="9"/>
+      <c r="H175" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="126" x14ac:dyDescent="0.25">
-      <c r="A176" s="18"/>
-      <c r="B176" s="8" t="s">
+      <c r="A176" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B176" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="C176" s="6">
+      <c r="C176" s="9">
         <v>1000</v>
       </c>
-      <c r="D176" s="6">
+      <c r="D176" s="9">
         <v>90</v>
       </c>
-      <c r="E176" s="6">
-        <v>10</v>
-      </c>
-      <c r="F176" s="7"/>
-      <c r="G176" s="6" t="s">
+      <c r="E176" s="9">
+        <v>10</v>
+      </c>
+      <c r="F176" s="10"/>
+      <c r="G176" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H176" s="8" t="s">
+      <c r="H176" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A177" s="18"/>
-      <c r="B177" s="8" t="s">
+      <c r="A177" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B177" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="C177" s="6">
+      <c r="C177" s="9">
         <v>1500</v>
       </c>
-      <c r="D177" s="6">
+      <c r="D177" s="9">
         <v>90</v>
       </c>
-      <c r="E177" s="6">
-        <v>10</v>
-      </c>
-      <c r="F177" s="7"/>
-      <c r="G177" s="6" t="s">
+      <c r="E177" s="9">
+        <v>10</v>
+      </c>
+      <c r="F177" s="10"/>
+      <c r="G177" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H177" s="8" t="s">
+      <c r="H177" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A178" s="19"/>
-      <c r="B178" s="8" t="s">
+      <c r="A178" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B178" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="C178" s="6">
+      <c r="C178" s="9">
         <v>500</v>
       </c>
-      <c r="D178" s="6">
-        <v>80</v>
-      </c>
-      <c r="E178" s="6">
+      <c r="D178" s="9">
+        <v>80</v>
+      </c>
+      <c r="E178" s="9">
         <v>15</v>
       </c>
-      <c r="F178" s="7"/>
-      <c r="G178" s="6"/>
-      <c r="H178" s="8" t="s">
+      <c r="F178" s="10"/>
+      <c r="G178" s="9"/>
+      <c r="H178" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A179" s="17" t="s">
+      <c r="A179" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="B179" s="8" t="s">
+      <c r="B179" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="C179" s="6">
+      <c r="C179" s="9">
         <v>300</v>
       </c>
-      <c r="D179" s="6">
-        <v>80</v>
-      </c>
-      <c r="E179" s="6">
-        <v>20</v>
-      </c>
-      <c r="F179" s="7"/>
-      <c r="G179" s="6"/>
-      <c r="H179" s="8" t="s">
+      <c r="D179" s="9">
+        <v>80</v>
+      </c>
+      <c r="E179" s="9">
+        <v>20</v>
+      </c>
+      <c r="F179" s="10"/>
+      <c r="G179" s="9"/>
+      <c r="H179" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A180" s="18"/>
-      <c r="B180" s="8" t="s">
+      <c r="A180" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B180" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="C180" s="6">
+      <c r="C180" s="9">
         <v>500</v>
       </c>
-      <c r="D180" s="6">
-        <v>80</v>
-      </c>
-      <c r="E180" s="6">
+      <c r="D180" s="9">
+        <v>80</v>
+      </c>
+      <c r="E180" s="9">
         <v>15</v>
       </c>
-      <c r="F180" s="7"/>
-      <c r="G180" s="6"/>
-      <c r="H180" s="8" t="s">
+      <c r="F180" s="10"/>
+      <c r="G180" s="9"/>
+      <c r="H180" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A181" s="18"/>
-      <c r="B181" s="8" t="s">
+      <c r="A181" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B181" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="C181" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D181" s="6">
-        <v>80</v>
-      </c>
-      <c r="E181" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F181" s="7"/>
-      <c r="G181" s="6"/>
-      <c r="H181" s="8" t="s">
+      <c r="C181" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D181" s="9">
+        <v>80</v>
+      </c>
+      <c r="E181" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F181" s="10"/>
+      <c r="G181" s="9"/>
+      <c r="H181" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A182" s="18"/>
-      <c r="B182" s="8" t="s">
+      <c r="A182" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B182" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="C182" s="6">
+      <c r="C182" s="9">
         <v>200</v>
       </c>
-      <c r="D182" s="6">
-        <v>80</v>
-      </c>
-      <c r="E182" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F182" s="7"/>
-      <c r="G182" s="6"/>
-      <c r="H182" s="8" t="s">
+      <c r="D182" s="9">
+        <v>80</v>
+      </c>
+      <c r="E182" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F182" s="10"/>
+      <c r="G182" s="9"/>
+      <c r="H182" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A183" s="18"/>
-      <c r="B183" s="8" t="s">
+      <c r="A183" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B183" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="C183" s="6">
+      <c r="C183" s="9">
         <v>300</v>
       </c>
-      <c r="D183" s="6">
-        <v>80</v>
-      </c>
-      <c r="E183" s="6">
-        <v>20</v>
-      </c>
-      <c r="F183" s="7"/>
-      <c r="G183" s="6"/>
-      <c r="H183" s="8" t="s">
+      <c r="D183" s="9">
+        <v>80</v>
+      </c>
+      <c r="E183" s="9">
+        <v>20</v>
+      </c>
+      <c r="F183" s="10"/>
+      <c r="G183" s="9"/>
+      <c r="H183" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A184" s="18"/>
-      <c r="B184" s="8" t="s">
+      <c r="A184" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B184" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="C184" s="6">
+      <c r="C184" s="9">
         <v>500</v>
       </c>
-      <c r="D184" s="6">
-        <v>80</v>
-      </c>
-      <c r="E184" s="6">
-        <v>10</v>
-      </c>
-      <c r="F184" s="7"/>
-      <c r="G184" s="6"/>
-      <c r="H184" s="8" t="s">
+      <c r="D184" s="9">
+        <v>80</v>
+      </c>
+      <c r="E184" s="9">
+        <v>10</v>
+      </c>
+      <c r="F184" s="10"/>
+      <c r="G184" s="9"/>
+      <c r="H184" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A185" s="19"/>
-      <c r="B185" s="8" t="s">
+      <c r="A185" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B185" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="C185" s="6" t="s">
+      <c r="C185" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="D185" s="6">
-        <v>80</v>
-      </c>
-      <c r="E185" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F185" s="7"/>
-      <c r="G185" s="6"/>
-      <c r="H185" s="8" t="s">
+      <c r="D185" s="9">
+        <v>80</v>
+      </c>
+      <c r="E185" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F185" s="10"/>
+      <c r="G185" s="9"/>
+      <c r="H185" s="9" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A186" s="17" t="s">
+      <c r="A186" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="B186" s="8" t="s">
+      <c r="B186" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="C186" s="6">
+      <c r="C186" s="9">
         <v>300</v>
       </c>
-      <c r="D186" s="6">
+      <c r="D186" s="9">
         <v>40</v>
       </c>
-      <c r="E186" s="6">
-        <v>20</v>
-      </c>
-      <c r="F186" s="7"/>
-      <c r="G186" s="6"/>
-      <c r="H186" s="8" t="s">
+      <c r="E186" s="9">
+        <v>20</v>
+      </c>
+      <c r="F186" s="10"/>
+      <c r="G186" s="9"/>
+      <c r="H186" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A187" s="18"/>
-      <c r="B187" s="8" t="s">
+      <c r="A187" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B187" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="C187" s="6">
+      <c r="C187" s="9">
         <v>75</v>
       </c>
-      <c r="D187" s="6">
+      <c r="D187" s="9">
         <v>40</v>
       </c>
-      <c r="E187" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F187" s="7"/>
-      <c r="G187" s="6"/>
-      <c r="H187" s="8" t="s">
+      <c r="E187" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F187" s="10"/>
+      <c r="G187" s="9"/>
+      <c r="H187" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A188" s="18"/>
-      <c r="B188" s="8" t="s">
+      <c r="A188" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B188" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="C188" s="6">
+      <c r="C188" s="9">
         <v>75</v>
       </c>
-      <c r="D188" s="6">
+      <c r="D188" s="9">
         <v>40</v>
       </c>
-      <c r="E188" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F188" s="7"/>
-      <c r="G188" s="6"/>
-      <c r="H188" s="8" t="s">
+      <c r="E188" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F188" s="10"/>
+      <c r="G188" s="9"/>
+      <c r="H188" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A189" s="18"/>
-      <c r="B189" s="8" t="s">
+      <c r="A189" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B189" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="C189" s="6">
+      <c r="C189" s="9">
         <v>75</v>
       </c>
-      <c r="D189" s="6">
+      <c r="D189" s="9">
         <v>40</v>
       </c>
-      <c r="E189" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F189" s="7"/>
-      <c r="G189" s="6"/>
-      <c r="H189" s="8" t="s">
+      <c r="E189" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F189" s="10"/>
+      <c r="G189" s="9"/>
+      <c r="H189" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A190" s="19"/>
-      <c r="B190" s="8" t="s">
+      <c r="A190" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B190" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="C190" s="6">
+      <c r="C190" s="9">
         <v>300</v>
       </c>
-      <c r="D190" s="6">
-        <v>80</v>
-      </c>
-      <c r="E190" s="6">
-        <v>20</v>
-      </c>
-      <c r="F190" s="7"/>
-      <c r="G190" s="6"/>
-      <c r="H190" s="8" t="s">
+      <c r="D190" s="9">
+        <v>80</v>
+      </c>
+      <c r="E190" s="9">
+        <v>20</v>
+      </c>
+      <c r="F190" s="10"/>
+      <c r="G190" s="9"/>
+      <c r="H190" s="9" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A191" s="17" t="s">
+      <c r="A191" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="B191" s="8" t="s">
+      <c r="B191" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="C191" s="6">
+      <c r="C191" s="9">
         <v>200</v>
       </c>
-      <c r="D191" s="6">
-        <v>80</v>
-      </c>
-      <c r="E191" s="6">
-        <v>20</v>
-      </c>
-      <c r="F191" s="7"/>
-      <c r="G191" s="6"/>
-      <c r="H191" s="8" t="s">
+      <c r="D191" s="9">
+        <v>80</v>
+      </c>
+      <c r="E191" s="9">
+        <v>20</v>
+      </c>
+      <c r="F191" s="10"/>
+      <c r="G191" s="9"/>
+      <c r="H191" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A192" s="18"/>
-      <c r="B192" s="8" t="s">
+      <c r="A192" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B192" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="C192" s="6">
+      <c r="C192" s="9">
         <v>150</v>
       </c>
-      <c r="D192" s="6">
-        <v>80</v>
-      </c>
-      <c r="E192" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F192" s="7"/>
-      <c r="G192" s="6"/>
-      <c r="H192" s="8" t="s">
+      <c r="D192" s="9">
+        <v>80</v>
+      </c>
+      <c r="E192" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F192" s="10"/>
+      <c r="G192" s="9"/>
+      <c r="H192" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A193" s="18"/>
-      <c r="B193" s="8" t="s">
+      <c r="A193" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B193" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="C193" s="6">
+      <c r="C193" s="9">
         <v>500</v>
       </c>
-      <c r="D193" s="6">
-        <v>80</v>
-      </c>
-      <c r="E193" s="6">
-        <v>10</v>
-      </c>
-      <c r="F193" s="7"/>
-      <c r="G193" s="6"/>
-      <c r="H193" s="8" t="s">
+      <c r="D193" s="9">
+        <v>80</v>
+      </c>
+      <c r="E193" s="9">
+        <v>10</v>
+      </c>
+      <c r="F193" s="10"/>
+      <c r="G193" s="9"/>
+      <c r="H193" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A194" s="18"/>
-      <c r="B194" s="8" t="s">
+      <c r="A194" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B194" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="C194" s="6">
+      <c r="C194" s="9">
         <v>500</v>
       </c>
-      <c r="D194" s="6">
-        <v>80</v>
-      </c>
-      <c r="E194" s="6">
-        <v>10</v>
-      </c>
-      <c r="F194" s="7"/>
-      <c r="G194" s="6"/>
-      <c r="H194" s="8" t="s">
+      <c r="D194" s="9">
+        <v>80</v>
+      </c>
+      <c r="E194" s="9">
+        <v>10</v>
+      </c>
+      <c r="F194" s="10"/>
+      <c r="G194" s="9"/>
+      <c r="H194" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A195" s="18"/>
-      <c r="B195" s="8" t="s">
+      <c r="A195" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B195" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="C195" s="6">
+      <c r="C195" s="9">
         <v>200</v>
       </c>
-      <c r="D195" s="6">
-        <v>80</v>
-      </c>
-      <c r="E195" s="6">
-        <v>20</v>
-      </c>
-      <c r="F195" s="7"/>
-      <c r="G195" s="6"/>
-      <c r="H195" s="8" t="s">
+      <c r="D195" s="9">
+        <v>80</v>
+      </c>
+      <c r="E195" s="9">
+        <v>20</v>
+      </c>
+      <c r="F195" s="10"/>
+      <c r="G195" s="9"/>
+      <c r="H195" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A196" s="18"/>
-      <c r="B196" s="8" t="s">
+      <c r="A196" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B196" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="C196" s="6">
+      <c r="C196" s="9">
         <v>200</v>
       </c>
-      <c r="D196" s="6">
-        <v>80</v>
-      </c>
-      <c r="E196" s="6">
-        <v>20</v>
-      </c>
-      <c r="F196" s="7"/>
-      <c r="G196" s="6"/>
-      <c r="H196" s="8" t="s">
+      <c r="D196" s="9">
+        <v>80</v>
+      </c>
+      <c r="E196" s="9">
+        <v>20</v>
+      </c>
+      <c r="F196" s="10"/>
+      <c r="G196" s="9"/>
+      <c r="H196" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A197" s="18"/>
-      <c r="B197" s="8" t="s">
+      <c r="A197" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B197" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="C197" s="6">
+      <c r="C197" s="9">
         <v>300</v>
       </c>
-      <c r="D197" s="6">
-        <v>80</v>
-      </c>
-      <c r="E197" s="6">
-        <v>10</v>
-      </c>
-      <c r="F197" s="7"/>
-      <c r="G197" s="6"/>
-      <c r="H197" s="8" t="s">
+      <c r="D197" s="9">
+        <v>80</v>
+      </c>
+      <c r="E197" s="9">
+        <v>10</v>
+      </c>
+      <c r="F197" s="10"/>
+      <c r="G197" s="9"/>
+      <c r="H197" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="126" x14ac:dyDescent="0.25">
-      <c r="A198" s="18"/>
-      <c r="B198" s="8" t="s">
+      <c r="A198" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B198" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="C198" s="6">
+      <c r="C198" s="9">
         <v>500</v>
       </c>
-      <c r="D198" s="6">
-        <v>80</v>
-      </c>
-      <c r="E198" s="6">
-        <v>10</v>
-      </c>
-      <c r="F198" s="7"/>
-      <c r="G198" s="6"/>
-      <c r="H198" s="8" t="s">
+      <c r="D198" s="9">
+        <v>80</v>
+      </c>
+      <c r="E198" s="9">
+        <v>10</v>
+      </c>
+      <c r="F198" s="10"/>
+      <c r="G198" s="9"/>
+      <c r="H198" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A199" s="18"/>
-      <c r="B199" s="8" t="s">
+      <c r="A199" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B199" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="C199" s="6">
+      <c r="C199" s="9">
         <v>500</v>
       </c>
-      <c r="D199" s="6">
-        <v>80</v>
-      </c>
-      <c r="E199" s="6">
-        <v>10</v>
-      </c>
-      <c r="F199" s="7"/>
-      <c r="G199" s="6"/>
-      <c r="H199" s="8" t="s">
+      <c r="D199" s="9">
+        <v>80</v>
+      </c>
+      <c r="E199" s="9">
+        <v>10</v>
+      </c>
+      <c r="F199" s="10"/>
+      <c r="G199" s="9"/>
+      <c r="H199" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A200" s="18"/>
-      <c r="B200" s="8" t="s">
+      <c r="A200" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B200" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="C200" s="6">
+      <c r="C200" s="9">
         <v>500</v>
       </c>
-      <c r="D200" s="6">
-        <v>80</v>
-      </c>
-      <c r="E200" s="6">
-        <v>10</v>
-      </c>
-      <c r="F200" s="7"/>
-      <c r="G200" s="6"/>
-      <c r="H200" s="8" t="s">
+      <c r="D200" s="9">
+        <v>80</v>
+      </c>
+      <c r="E200" s="9">
+        <v>10</v>
+      </c>
+      <c r="F200" s="10"/>
+      <c r="G200" s="9"/>
+      <c r="H200" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A201" s="19"/>
-      <c r="B201" s="8" t="s">
+      <c r="A201" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B201" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="C201" s="6">
+      <c r="C201" s="9">
         <v>500</v>
       </c>
-      <c r="D201" s="6">
-        <v>80</v>
-      </c>
-      <c r="E201" s="6">
-        <v>10</v>
-      </c>
-      <c r="F201" s="7"/>
-      <c r="G201" s="6"/>
-      <c r="H201" s="8" t="s">
+      <c r="D201" s="9">
+        <v>80</v>
+      </c>
+      <c r="E201" s="9">
+        <v>10</v>
+      </c>
+      <c r="F201" s="10"/>
+      <c r="G201" s="9"/>
+      <c r="H201" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A202" s="17" t="s">
+      <c r="A202" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="B202" s="8" t="s">
+      <c r="B202" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="C202" s="6">
+      <c r="C202" s="9">
         <v>300</v>
       </c>
-      <c r="D202" s="6">
-        <v>80</v>
-      </c>
-      <c r="E202" s="6">
+      <c r="D202" s="9">
+        <v>80</v>
+      </c>
+      <c r="E202" s="9">
         <v>15</v>
       </c>
-      <c r="F202" s="7"/>
-      <c r="G202" s="6"/>
-      <c r="H202" s="8" t="s">
+      <c r="F202" s="10"/>
+      <c r="G202" s="9"/>
+      <c r="H202" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A203" s="18"/>
-      <c r="B203" s="8" t="s">
+      <c r="A203" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B203" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="C203" s="6">
+      <c r="C203" s="9">
         <v>500</v>
       </c>
-      <c r="D203" s="6">
-        <v>80</v>
-      </c>
-      <c r="E203" s="6">
-        <v>10</v>
-      </c>
-      <c r="F203" s="7"/>
-      <c r="G203" s="6"/>
-      <c r="H203" s="8" t="s">
+      <c r="D203" s="9">
+        <v>80</v>
+      </c>
+      <c r="E203" s="9">
+        <v>10</v>
+      </c>
+      <c r="F203" s="10"/>
+      <c r="G203" s="9"/>
+      <c r="H203" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A204" s="18"/>
-      <c r="B204" s="8" t="s">
+      <c r="A204" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B204" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="C204" s="6">
+      <c r="C204" s="9">
         <v>500</v>
       </c>
-      <c r="D204" s="6">
-        <v>80</v>
-      </c>
-      <c r="E204" s="6">
-        <v>10</v>
-      </c>
-      <c r="F204" s="7"/>
-      <c r="G204" s="6"/>
-      <c r="H204" s="8" t="s">
+      <c r="D204" s="9">
+        <v>80</v>
+      </c>
+      <c r="E204" s="9">
+        <v>10</v>
+      </c>
+      <c r="F204" s="10"/>
+      <c r="G204" s="9"/>
+      <c r="H204" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A205" s="18"/>
-      <c r="B205" s="8" t="s">
+      <c r="A205" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B205" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="C205" s="6">
+      <c r="C205" s="9">
         <v>500</v>
       </c>
-      <c r="D205" s="6">
-        <v>80</v>
-      </c>
-      <c r="E205" s="6">
-        <v>10</v>
-      </c>
-      <c r="F205" s="7"/>
-      <c r="G205" s="6"/>
-      <c r="H205" s="8" t="s">
+      <c r="D205" s="9">
+        <v>80</v>
+      </c>
+      <c r="E205" s="9">
+        <v>10</v>
+      </c>
+      <c r="F205" s="10"/>
+      <c r="G205" s="9"/>
+      <c r="H205" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="126" x14ac:dyDescent="0.25">
-      <c r="A206" s="18"/>
-      <c r="B206" s="8" t="s">
+      <c r="A206" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B206" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="C206" s="6">
+      <c r="C206" s="9">
         <v>750</v>
       </c>
-      <c r="D206" s="6">
-        <v>80</v>
-      </c>
-      <c r="E206" s="6">
-        <v>10</v>
-      </c>
-      <c r="F206" s="7"/>
-      <c r="G206" s="6" t="s">
+      <c r="D206" s="9">
+        <v>80</v>
+      </c>
+      <c r="E206" s="9">
+        <v>10</v>
+      </c>
+      <c r="F206" s="10"/>
+      <c r="G206" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H206" s="8" t="s">
+      <c r="H206" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A207" s="18"/>
-      <c r="B207" s="8" t="s">
+      <c r="A207" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B207" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="C207" s="6">
+      <c r="C207" s="9">
         <v>750</v>
       </c>
-      <c r="D207" s="6">
-        <v>80</v>
-      </c>
-      <c r="E207" s="6">
-        <v>10</v>
-      </c>
-      <c r="F207" s="7"/>
-      <c r="G207" s="6"/>
-      <c r="H207" s="8" t="s">
+      <c r="D207" s="9">
+        <v>80</v>
+      </c>
+      <c r="E207" s="9">
+        <v>10</v>
+      </c>
+      <c r="F207" s="10"/>
+      <c r="G207" s="9"/>
+      <c r="H207" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="208" spans="1:8" ht="126" x14ac:dyDescent="0.25">
-      <c r="A208" s="18"/>
-      <c r="B208" s="8" t="s">
+      <c r="A208" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B208" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="C208" s="6">
+      <c r="C208" s="9">
         <v>500</v>
       </c>
-      <c r="D208" s="6">
-        <v>80</v>
-      </c>
-      <c r="E208" s="6">
-        <v>10</v>
-      </c>
-      <c r="F208" s="7"/>
-      <c r="G208" s="6"/>
-      <c r="H208" s="8" t="s">
+      <c r="D208" s="9">
+        <v>80</v>
+      </c>
+      <c r="E208" s="9">
+        <v>10</v>
+      </c>
+      <c r="F208" s="10"/>
+      <c r="G208" s="9"/>
+      <c r="H208" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="209" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A209" s="18"/>
-      <c r="B209" s="8" t="s">
+      <c r="A209" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B209" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="C209" s="6">
+      <c r="C209" s="9">
         <v>500</v>
       </c>
-      <c r="D209" s="6">
-        <v>80</v>
-      </c>
-      <c r="E209" s="6">
+      <c r="D209" s="9">
+        <v>80</v>
+      </c>
+      <c r="E209" s="9">
         <v>15</v>
       </c>
-      <c r="F209" s="7"/>
-      <c r="G209" s="6"/>
-      <c r="H209" s="8" t="s">
+      <c r="F209" s="10"/>
+      <c r="G209" s="9"/>
+      <c r="H209" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="210" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A210" s="18"/>
-      <c r="B210" s="8" t="s">
+      <c r="A210" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B210" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="C210" s="6">
+      <c r="C210" s="9">
         <v>300</v>
       </c>
-      <c r="D210" s="6">
-        <v>80</v>
-      </c>
-      <c r="E210" s="6">
-        <v>10</v>
-      </c>
-      <c r="F210" s="7"/>
-      <c r="G210" s="6"/>
-      <c r="H210" s="8" t="s">
+      <c r="D210" s="9">
+        <v>80</v>
+      </c>
+      <c r="E210" s="9">
+        <v>10</v>
+      </c>
+      <c r="F210" s="10"/>
+      <c r="G210" s="9"/>
+      <c r="H210" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="211" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A211" s="18"/>
-      <c r="B211" s="8" t="s">
+      <c r="A211" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B211" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="C211" s="6">
+      <c r="C211" s="9">
         <v>300</v>
       </c>
-      <c r="D211" s="6">
-        <v>80</v>
-      </c>
-      <c r="E211" s="6">
+      <c r="D211" s="9">
+        <v>80</v>
+      </c>
+      <c r="E211" s="9">
         <v>5</v>
       </c>
-      <c r="F211" s="7"/>
-      <c r="G211" s="6"/>
-      <c r="H211" s="8" t="s">
+      <c r="F211" s="10"/>
+      <c r="G211" s="9"/>
+      <c r="H211" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A212" s="18"/>
-      <c r="B212" s="8" t="s">
+      <c r="A212" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B212" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="C212" s="6">
+      <c r="C212" s="9">
         <v>300</v>
       </c>
-      <c r="D212" s="6">
-        <v>80</v>
-      </c>
-      <c r="E212" s="6">
-        <v>10</v>
-      </c>
-      <c r="F212" s="7"/>
-      <c r="G212" s="6"/>
-      <c r="H212" s="8" t="s">
+      <c r="D212" s="9">
+        <v>80</v>
+      </c>
+      <c r="E212" s="9">
+        <v>10</v>
+      </c>
+      <c r="F212" s="10"/>
+      <c r="G212" s="9"/>
+      <c r="H212" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="213" spans="1:8" ht="126" x14ac:dyDescent="0.25">
-      <c r="A213" s="18"/>
-      <c r="B213" s="8" t="s">
+      <c r="A213" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B213" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="C213" s="6">
+      <c r="C213" s="9">
         <v>500</v>
       </c>
-      <c r="D213" s="6">
-        <v>80</v>
-      </c>
-      <c r="E213" s="6">
-        <v>10</v>
-      </c>
-      <c r="F213" s="7"/>
-      <c r="G213" s="6"/>
-      <c r="H213" s="8" t="s">
+      <c r="D213" s="9">
+        <v>80</v>
+      </c>
+      <c r="E213" s="9">
+        <v>10</v>
+      </c>
+      <c r="F213" s="10"/>
+      <c r="G213" s="9"/>
+      <c r="H213" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="214" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A214" s="18"/>
-      <c r="B214" s="8" t="s">
+      <c r="A214" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B214" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="C214" s="6">
+      <c r="C214" s="9">
         <v>200</v>
       </c>
-      <c r="D214" s="6">
-        <v>80</v>
-      </c>
-      <c r="E214" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F214" s="7"/>
-      <c r="G214" s="6"/>
-      <c r="H214" s="8" t="s">
+      <c r="D214" s="9">
+        <v>80</v>
+      </c>
+      <c r="E214" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F214" s="10"/>
+      <c r="G214" s="9"/>
+      <c r="H214" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="215" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A215" s="18"/>
-      <c r="B215" s="8" t="s">
+      <c r="A215" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B215" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="C215" s="6">
+      <c r="C215" s="9">
         <v>100</v>
       </c>
-      <c r="D215" s="6">
-        <v>80</v>
-      </c>
-      <c r="E215" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F215" s="7"/>
-      <c r="G215" s="6"/>
-      <c r="H215" s="8" t="s">
+      <c r="D215" s="9">
+        <v>80</v>
+      </c>
+      <c r="E215" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F215" s="10"/>
+      <c r="G215" s="9"/>
+      <c r="H215" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="216" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A216" s="18"/>
-      <c r="B216" s="8" t="s">
+      <c r="A216" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B216" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="C216" s="6">
+      <c r="C216" s="9">
         <v>150</v>
       </c>
-      <c r="D216" s="6">
-        <v>80</v>
-      </c>
-      <c r="E216" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F216" s="7"/>
-      <c r="G216" s="6"/>
-      <c r="H216" s="8" t="s">
+      <c r="D216" s="9">
+        <v>80</v>
+      </c>
+      <c r="E216" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F216" s="10"/>
+      <c r="G216" s="9"/>
+      <c r="H216" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="217" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A217" s="18"/>
-      <c r="B217" s="8" t="s">
+      <c r="A217" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B217" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="C217" s="6">
+      <c r="C217" s="9">
         <v>200</v>
       </c>
-      <c r="D217" s="6">
-        <v>80</v>
-      </c>
-      <c r="E217" s="6">
-        <v>20</v>
-      </c>
-      <c r="F217" s="7"/>
-      <c r="G217" s="6"/>
-      <c r="H217" s="8" t="s">
+      <c r="D217" s="9">
+        <v>80</v>
+      </c>
+      <c r="E217" s="9">
+        <v>20</v>
+      </c>
+      <c r="F217" s="10"/>
+      <c r="G217" s="9"/>
+      <c r="H217" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="218" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A218" s="18"/>
-      <c r="B218" s="8" t="s">
+      <c r="A218" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B218" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="C218" s="6">
+      <c r="C218" s="9">
         <v>200</v>
       </c>
-      <c r="D218" s="6">
-        <v>80</v>
-      </c>
-      <c r="E218" s="6">
-        <v>20</v>
-      </c>
-      <c r="F218" s="7"/>
-      <c r="G218" s="6"/>
-      <c r="H218" s="8" t="s">
+      <c r="D218" s="9">
+        <v>80</v>
+      </c>
+      <c r="E218" s="9">
+        <v>20</v>
+      </c>
+      <c r="F218" s="10"/>
+      <c r="G218" s="9"/>
+      <c r="H218" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="219" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A219" s="18"/>
-      <c r="B219" s="8" t="s">
+      <c r="A219" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B219" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="C219" s="6">
+      <c r="C219" s="9">
         <v>500</v>
       </c>
-      <c r="D219" s="6">
-        <v>80</v>
-      </c>
-      <c r="E219" s="6">
-        <v>10</v>
-      </c>
-      <c r="F219" s="7"/>
-      <c r="G219" s="6"/>
-      <c r="H219" s="8" t="s">
+      <c r="D219" s="9">
+        <v>80</v>
+      </c>
+      <c r="E219" s="9">
+        <v>10</v>
+      </c>
+      <c r="F219" s="10"/>
+      <c r="G219" s="9"/>
+      <c r="H219" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="220" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A220" s="18"/>
-      <c r="B220" s="8" t="s">
+      <c r="A220" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B220" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="C220" s="6">
+      <c r="C220" s="9">
         <v>500</v>
       </c>
-      <c r="D220" s="6">
-        <v>80</v>
-      </c>
-      <c r="E220" s="6">
-        <v>10</v>
-      </c>
-      <c r="F220" s="7"/>
-      <c r="G220" s="6"/>
-      <c r="H220" s="8" t="s">
+      <c r="D220" s="9">
+        <v>80</v>
+      </c>
+      <c r="E220" s="9">
+        <v>10</v>
+      </c>
+      <c r="F220" s="10"/>
+      <c r="G220" s="9"/>
+      <c r="H220" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="221" spans="1:8" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A221" s="18"/>
-      <c r="B221" s="8" t="s">
+      <c r="A221" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B221" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="C221" s="6">
+      <c r="C221" s="9">
         <v>100</v>
       </c>
-      <c r="D221" s="6">
-        <v>80</v>
-      </c>
-      <c r="E221" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F221" s="7"/>
-      <c r="G221" s="6"/>
-      <c r="H221" s="8" t="s">
+      <c r="D221" s="9">
+        <v>80</v>
+      </c>
+      <c r="E221" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F221" s="10"/>
+      <c r="G221" s="9"/>
+      <c r="H221" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="222" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A222" s="18"/>
-      <c r="B222" s="8" t="s">
+      <c r="A222" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B222" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="C222" s="6">
+      <c r="C222" s="9">
         <v>300</v>
       </c>
-      <c r="D222" s="6">
-        <v>80</v>
-      </c>
-      <c r="E222" s="6">
-        <v>20</v>
-      </c>
-      <c r="F222" s="7"/>
-      <c r="G222" s="6"/>
-      <c r="H222" s="8" t="s">
+      <c r="D222" s="9">
+        <v>80</v>
+      </c>
+      <c r="E222" s="9">
+        <v>20</v>
+      </c>
+      <c r="F222" s="10"/>
+      <c r="G222" s="9"/>
+      <c r="H222" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="223" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A223" s="18"/>
-      <c r="B223" s="8" t="s">
+      <c r="A223" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B223" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="C223" s="6">
+      <c r="C223" s="9">
         <v>200</v>
       </c>
-      <c r="D223" s="6">
-        <v>80</v>
-      </c>
-      <c r="E223" s="6"/>
-      <c r="F223" s="7"/>
-      <c r="G223" s="6"/>
-      <c r="H223" s="8" t="s">
+      <c r="D223" s="9">
+        <v>80</v>
+      </c>
+      <c r="E223" s="9"/>
+      <c r="F223" s="10"/>
+      <c r="G223" s="9"/>
+      <c r="H223" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="224" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A224" s="19"/>
-      <c r="B224" s="8" t="s">
+      <c r="A224" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B224" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="C224" s="6">
+      <c r="C224" s="9">
         <v>500</v>
       </c>
-      <c r="D224" s="6">
-        <v>80</v>
-      </c>
-      <c r="E224" s="6">
-        <v>10</v>
-      </c>
-      <c r="F224" s="7"/>
-      <c r="G224" s="6"/>
-      <c r="H224" s="9" t="s">
+      <c r="D224" s="9">
+        <v>80</v>
+      </c>
+      <c r="E224" s="9">
+        <v>10</v>
+      </c>
+      <c r="F224" s="10"/>
+      <c r="G224" s="9"/>
+      <c r="H224" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A225" s="17" t="s">
+    <row r="225" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="B225" s="13" t="s">
+      <c r="B225" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C225" s="6">
+      <c r="C225" s="9">
         <v>200</v>
       </c>
-      <c r="D225" s="6">
-        <v>80</v>
-      </c>
-      <c r="E225" s="6">
-        <v>20</v>
-      </c>
-      <c r="F225" s="7"/>
-      <c r="G225" s="10"/>
-      <c r="H225" s="8" t="s">
+      <c r="D225" s="9">
+        <v>80</v>
+      </c>
+      <c r="E225" s="9">
+        <v>20</v>
+      </c>
+      <c r="F225" s="10"/>
+      <c r="G225" s="11"/>
+      <c r="H225" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="226" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A226" s="18"/>
-      <c r="B226" s="14"/>
-      <c r="C226" s="6">
+      <c r="A226" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B226" s="3"/>
+      <c r="C226" s="9">
         <v>100</v>
       </c>
-      <c r="D226" s="6">
-        <v>80</v>
-      </c>
-      <c r="E226" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F226" s="7"/>
-      <c r="G226" s="10"/>
-      <c r="H226" s="8" t="s">
+      <c r="D226" s="9">
+        <v>80</v>
+      </c>
+      <c r="E226" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F226" s="10"/>
+      <c r="G226" s="11"/>
+      <c r="H226" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="227" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A227" s="18"/>
-      <c r="B227" s="15"/>
-      <c r="C227" s="6">
+      <c r="A227" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B227" s="4"/>
+      <c r="C227" s="9">
         <v>50</v>
       </c>
-      <c r="D227" s="6">
-        <v>80</v>
-      </c>
-      <c r="E227" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F227" s="7"/>
-      <c r="G227" s="10"/>
-      <c r="H227" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A228" s="18"/>
-      <c r="B228" s="13" t="s">
+      <c r="D227" s="9">
+        <v>80</v>
+      </c>
+      <c r="E227" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F227" s="10"/>
+      <c r="G227" s="11"/>
+      <c r="H227" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B228" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C228" s="6">
+      <c r="C228" s="9">
         <v>500</v>
       </c>
-      <c r="D228" s="6">
-        <v>80</v>
-      </c>
-      <c r="E228" s="6">
+      <c r="D228" s="9">
+        <v>80</v>
+      </c>
+      <c r="E228" s="9">
         <v>15</v>
       </c>
-      <c r="F228" s="7"/>
-      <c r="G228" s="10"/>
-      <c r="H228" s="8" t="s">
+      <c r="F228" s="10"/>
+      <c r="G228" s="11"/>
+      <c r="H228" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="229" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A229" s="18"/>
-      <c r="B229" s="15"/>
-      <c r="C229" s="6">
+      <c r="A229" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B229" s="4"/>
+      <c r="C229" s="9">
         <v>300</v>
       </c>
-      <c r="D229" s="6">
-        <v>80</v>
-      </c>
-      <c r="E229" s="6">
-        <v>20</v>
-      </c>
-      <c r="F229" s="7"/>
-      <c r="G229" s="10"/>
-      <c r="H229" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A230" s="18"/>
-      <c r="B230" s="13" t="s">
+      <c r="D229" s="9">
+        <v>80</v>
+      </c>
+      <c r="E229" s="9">
+        <v>20</v>
+      </c>
+      <c r="F229" s="10"/>
+      <c r="G229" s="11"/>
+      <c r="H229" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B230" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C230" s="6" t="s">
+      <c r="C230" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="D230" s="6">
-        <v>80</v>
-      </c>
-      <c r="E230" s="11">
+      <c r="D230" s="9">
+        <v>80</v>
+      </c>
+      <c r="E230" s="2">
         <v>15</v>
       </c>
-      <c r="F230" s="7"/>
-      <c r="G230" s="10"/>
-      <c r="H230" s="8" t="s">
+      <c r="F230" s="10"/>
+      <c r="G230" s="11"/>
+      <c r="H230" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="231" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A231" s="18"/>
-      <c r="B231" s="14"/>
-      <c r="C231" s="6">
+      <c r="A231" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B231" s="3"/>
+      <c r="C231" s="9">
         <v>300</v>
       </c>
-      <c r="D231" s="6">
-        <v>80</v>
-      </c>
-      <c r="E231" s="16"/>
-      <c r="F231" s="7"/>
-      <c r="G231" s="10"/>
-      <c r="H231" s="8" t="s">
+      <c r="D231" s="9">
+        <v>80</v>
+      </c>
+      <c r="E231" s="3"/>
+      <c r="F231" s="10"/>
+      <c r="G231" s="11"/>
+      <c r="H231" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="232" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A232" s="18"/>
-      <c r="B232" s="14"/>
-      <c r="C232" s="6">
+      <c r="A232" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B232" s="3"/>
+      <c r="C232" s="9">
         <v>300</v>
       </c>
-      <c r="D232" s="6">
-        <v>80</v>
-      </c>
-      <c r="E232" s="12"/>
-      <c r="F232" s="7"/>
-      <c r="G232" s="10"/>
-      <c r="H232" s="8" t="s">
+      <c r="D232" s="9">
+        <v>80</v>
+      </c>
+      <c r="E232" s="4"/>
+      <c r="F232" s="10"/>
+      <c r="G232" s="11"/>
+      <c r="H232" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="233" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A233" s="18"/>
-      <c r="B233" s="14"/>
-      <c r="C233" s="6">
+      <c r="A233" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B233" s="3"/>
+      <c r="C233" s="9">
         <v>1000</v>
       </c>
-      <c r="D233" s="6">
-        <v>80</v>
-      </c>
-      <c r="E233" s="6">
-        <v>10</v>
-      </c>
-      <c r="F233" s="7"/>
-      <c r="G233" s="10"/>
-      <c r="H233" s="8" t="s">
+      <c r="D233" s="9">
+        <v>80</v>
+      </c>
+      <c r="E233" s="9">
+        <v>10</v>
+      </c>
+      <c r="F233" s="10"/>
+      <c r="G233" s="11"/>
+      <c r="H233" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="234" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A234" s="18"/>
-      <c r="B234" s="14"/>
-      <c r="C234" s="6">
+      <c r="A234" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B234" s="3"/>
+      <c r="C234" s="9">
         <v>5</v>
       </c>
-      <c r="D234" s="6">
+      <c r="D234" s="9">
         <v>90</v>
       </c>
-      <c r="E234" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F234" s="7"/>
-      <c r="G234" s="10"/>
-      <c r="H234" s="8" t="s">
+      <c r="E234" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F234" s="10"/>
+      <c r="G234" s="11"/>
+      <c r="H234" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="235" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A235" s="18"/>
-      <c r="B235" s="15"/>
-      <c r="C235" s="6">
+      <c r="A235" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B235" s="4"/>
+      <c r="C235" s="9">
         <v>200</v>
       </c>
-      <c r="D235" s="6">
-        <v>80</v>
-      </c>
-      <c r="E235" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F235" s="7"/>
-      <c r="G235" s="10"/>
-      <c r="H235" s="8" t="s">
+      <c r="D235" s="9">
+        <v>80</v>
+      </c>
+      <c r="E235" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F235" s="10"/>
+      <c r="G235" s="11"/>
+      <c r="H235" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A236" s="18"/>
-      <c r="B236" s="13" t="s">
+    <row r="236" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B236" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C236" s="6">
+      <c r="C236" s="9">
         <v>500</v>
       </c>
-      <c r="D236" s="6">
+      <c r="D236" s="9">
         <v>90</v>
       </c>
-      <c r="E236" s="11">
-        <v>10</v>
-      </c>
-      <c r="F236" s="7"/>
-      <c r="G236" s="6" t="s">
+      <c r="E236" s="2">
+        <v>10</v>
+      </c>
+      <c r="F236" s="10"/>
+      <c r="G236" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="H236" s="8" t="s">
+      <c r="H236" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="237" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A237" s="18"/>
-      <c r="B237" s="15"/>
-      <c r="C237" s="6">
+      <c r="A237" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B237" s="4"/>
+      <c r="C237" s="9">
         <v>1000</v>
       </c>
-      <c r="D237" s="6">
+      <c r="D237" s="9">
         <v>90</v>
       </c>
-      <c r="E237" s="12"/>
-      <c r="F237" s="7"/>
-      <c r="G237" s="10"/>
-      <c r="H237" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A238" s="18"/>
-      <c r="B238" s="13" t="s">
+      <c r="E237" s="4"/>
+      <c r="F237" s="10"/>
+      <c r="G237" s="11"/>
+      <c r="H237" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B238" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C238" s="6">
+      <c r="C238" s="9">
         <v>500</v>
       </c>
-      <c r="D238" s="6">
+      <c r="D238" s="9">
         <v>90</v>
       </c>
-      <c r="E238" s="11">
-        <v>10</v>
-      </c>
-      <c r="F238" s="7"/>
-      <c r="G238" s="10"/>
-      <c r="H238" s="8" t="s">
+      <c r="E238" s="2">
+        <v>10</v>
+      </c>
+      <c r="F238" s="10"/>
+      <c r="G238" s="11"/>
+      <c r="H238" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="239" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A239" s="18"/>
-      <c r="B239" s="15"/>
-      <c r="C239" s="6">
+      <c r="A239" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B239" s="4"/>
+      <c r="C239" s="9">
         <v>1000</v>
       </c>
-      <c r="D239" s="6">
+      <c r="D239" s="9">
         <v>90</v>
       </c>
-      <c r="E239" s="12"/>
-      <c r="F239" s="7"/>
-      <c r="G239" s="10"/>
-      <c r="H239" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A240" s="18"/>
-      <c r="B240" s="13" t="s">
+      <c r="E239" s="4"/>
+      <c r="F239" s="10"/>
+      <c r="G239" s="11"/>
+      <c r="H239" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B240" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C240" s="6">
+      <c r="C240" s="9">
         <v>500</v>
       </c>
-      <c r="D240" s="6">
-        <v>80</v>
-      </c>
-      <c r="E240" s="6">
+      <c r="D240" s="9">
+        <v>80</v>
+      </c>
+      <c r="E240" s="9">
         <v>15</v>
       </c>
-      <c r="F240" s="7"/>
-      <c r="G240" s="6" t="s">
+      <c r="F240" s="10"/>
+      <c r="G240" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="H240" s="8" t="s">
+      <c r="H240" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="241" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A241" s="18"/>
-      <c r="B241" s="14"/>
-      <c r="C241" s="6">
+      <c r="A241" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B241" s="3"/>
+      <c r="C241" s="9">
         <v>1000</v>
       </c>
-      <c r="D241" s="6">
+      <c r="D241" s="9">
         <v>90</v>
       </c>
-      <c r="E241" s="6">
-        <v>10</v>
-      </c>
-      <c r="F241" s="7"/>
-      <c r="G241" s="10"/>
-      <c r="H241" s="8" t="s">
+      <c r="E241" s="9">
+        <v>10</v>
+      </c>
+      <c r="F241" s="10"/>
+      <c r="G241" s="11"/>
+      <c r="H241" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="242" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A242" s="18"/>
-      <c r="B242" s="15"/>
-      <c r="C242" s="6">
+      <c r="A242" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B242" s="4"/>
+      <c r="C242" s="9">
         <v>500</v>
       </c>
-      <c r="D242" s="6">
+      <c r="D242" s="9">
         <v>90</v>
       </c>
-      <c r="E242" s="6">
-        <v>10</v>
-      </c>
-      <c r="F242" s="7"/>
-      <c r="G242" s="10"/>
-      <c r="H242" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A243" s="18"/>
-      <c r="B243" s="13" t="s">
+      <c r="E242" s="9">
+        <v>10</v>
+      </c>
+      <c r="F242" s="10"/>
+      <c r="G242" s="11"/>
+      <c r="H242" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B243" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C243" s="6">
+      <c r="C243" s="9">
         <v>300</v>
       </c>
-      <c r="D243" s="6">
-        <v>80</v>
-      </c>
-      <c r="E243" s="11">
+      <c r="D243" s="9">
+        <v>80</v>
+      </c>
+      <c r="E243" s="2">
         <v>15</v>
       </c>
-      <c r="F243" s="7"/>
-      <c r="G243" s="10"/>
-      <c r="H243" s="8" t="s">
+      <c r="F243" s="10"/>
+      <c r="G243" s="11"/>
+      <c r="H243" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="244" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A244" s="18"/>
-      <c r="B244" s="15"/>
-      <c r="C244" s="6">
+      <c r="A244" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B244" s="4"/>
+      <c r="C244" s="9">
         <v>50</v>
       </c>
-      <c r="D244" s="6">
-        <v>80</v>
-      </c>
-      <c r="E244" s="12"/>
-      <c r="F244" s="7"/>
-      <c r="G244" s="6" t="s">
+      <c r="D244" s="9">
+        <v>80</v>
+      </c>
+      <c r="E244" s="4"/>
+      <c r="F244" s="10"/>
+      <c r="G244" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="H244" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A245" s="18"/>
-      <c r="B245" s="13" t="s">
+      <c r="H244" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B245" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C245" s="6">
+      <c r="C245" s="9">
         <v>500</v>
       </c>
-      <c r="D245" s="6">
-        <v>80</v>
-      </c>
-      <c r="E245" s="6">
+      <c r="D245" s="9">
+        <v>80</v>
+      </c>
+      <c r="E245" s="9">
         <v>15</v>
       </c>
-      <c r="F245" s="7"/>
-      <c r="G245" s="10"/>
-      <c r="H245" s="8" t="s">
+      <c r="F245" s="10"/>
+      <c r="G245" s="11"/>
+      <c r="H245" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="246" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A246" s="18"/>
-      <c r="B246" s="14"/>
-      <c r="C246" s="6">
+      <c r="A246" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B246" s="3"/>
+      <c r="C246" s="9">
         <v>500</v>
       </c>
-      <c r="D246" s="6">
+      <c r="D246" s="9">
         <v>90</v>
       </c>
-      <c r="E246" s="6">
-        <v>10</v>
-      </c>
-      <c r="F246" s="7"/>
-      <c r="G246" s="10"/>
-      <c r="H246" s="8" t="s">
+      <c r="E246" s="9">
+        <v>10</v>
+      </c>
+      <c r="F246" s="10"/>
+      <c r="G246" s="11"/>
+      <c r="H246" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="247" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A247" s="18"/>
-      <c r="B247" s="14"/>
-      <c r="C247" s="6">
+      <c r="A247" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B247" s="3"/>
+      <c r="C247" s="9">
         <v>300</v>
       </c>
-      <c r="D247" s="6">
+      <c r="D247" s="9">
         <v>90</v>
       </c>
-      <c r="E247" s="6">
+      <c r="E247" s="9">
         <v>15</v>
       </c>
-      <c r="F247" s="7"/>
-      <c r="G247" s="10"/>
-      <c r="H247" s="8" t="s">
+      <c r="F247" s="10"/>
+      <c r="G247" s="11"/>
+      <c r="H247" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="248" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A248" s="18"/>
-      <c r="B248" s="14"/>
-      <c r="C248" s="6">
+      <c r="A248" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B248" s="3"/>
+      <c r="C248" s="9">
         <v>500</v>
       </c>
-      <c r="D248" s="6">
+      <c r="D248" s="9">
         <v>90</v>
       </c>
-      <c r="E248" s="6">
-        <v>10</v>
-      </c>
-      <c r="F248" s="7"/>
-      <c r="G248" s="10"/>
-      <c r="H248" s="8" t="s">
+      <c r="E248" s="9">
+        <v>10</v>
+      </c>
+      <c r="F248" s="10"/>
+      <c r="G248" s="11"/>
+      <c r="H248" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="249" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A249" s="18"/>
-      <c r="B249" s="15"/>
-      <c r="C249" s="6">
+      <c r="A249" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B249" s="4"/>
+      <c r="C249" s="9">
         <v>300</v>
       </c>
-      <c r="D249" s="6">
+      <c r="D249" s="9">
         <v>90</v>
       </c>
-      <c r="E249" s="6">
+      <c r="E249" s="9">
         <v>15</v>
       </c>
-      <c r="F249" s="7"/>
-      <c r="G249" s="10"/>
-      <c r="H249" s="8" t="s">
+      <c r="F249" s="10"/>
+      <c r="G249" s="11"/>
+      <c r="H249" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="250" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A250" s="18"/>
-      <c r="B250" s="13" t="s">
+      <c r="A250" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B250" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C250" s="6">
+      <c r="C250" s="9">
         <v>500</v>
       </c>
-      <c r="D250" s="6">
+      <c r="D250" s="9">
         <v>90</v>
       </c>
-      <c r="E250" s="6">
-        <v>10</v>
-      </c>
-      <c r="F250" s="7"/>
-      <c r="G250" s="10"/>
-      <c r="H250" s="8" t="s">
+      <c r="E250" s="9">
+        <v>10</v>
+      </c>
+      <c r="F250" s="10"/>
+      <c r="G250" s="11"/>
+      <c r="H250" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="251" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A251" s="18"/>
-      <c r="B251" s="14"/>
-      <c r="C251" s="6">
+      <c r="A251" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B251" s="3"/>
+      <c r="C251" s="9">
         <v>1000</v>
       </c>
-      <c r="D251" s="6">
+      <c r="D251" s="9">
         <v>90</v>
       </c>
-      <c r="E251" s="6">
-        <v>10</v>
-      </c>
-      <c r="F251" s="7"/>
-      <c r="G251" s="10"/>
-      <c r="H251" s="8" t="s">
+      <c r="E251" s="9">
+        <v>10</v>
+      </c>
+      <c r="F251" s="10"/>
+      <c r="G251" s="11"/>
+      <c r="H251" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="252" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A252" s="18"/>
-      <c r="B252" s="15"/>
-      <c r="C252" s="6">
+      <c r="A252" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B252" s="4"/>
+      <c r="C252" s="9">
         <v>10000</v>
       </c>
-      <c r="D252" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E252" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F252" s="7"/>
-      <c r="G252" s="10"/>
-      <c r="H252" s="8" t="s">
+      <c r="D252" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E252" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F252" s="10"/>
+      <c r="G252" s="11"/>
+      <c r="H252" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A253" s="18"/>
-      <c r="B253" s="13" t="s">
+    <row r="253" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B253" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C253" s="6" t="s">
+      <c r="C253" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="D253" s="6">
+      <c r="D253" s="9">
         <v>90</v>
       </c>
-      <c r="E253" s="6">
-        <v>20</v>
-      </c>
-      <c r="F253" s="7"/>
-      <c r="G253" s="10"/>
-      <c r="H253" s="8" t="s">
+      <c r="E253" s="9">
+        <v>20</v>
+      </c>
+      <c r="F253" s="10"/>
+      <c r="G253" s="11"/>
+      <c r="H253" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="254" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A254" s="18"/>
-      <c r="B254" s="14"/>
-      <c r="C254" s="6" t="s">
+      <c r="A254" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B254" s="3"/>
+      <c r="C254" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="D254" s="6">
+      <c r="D254" s="9">
         <v>90</v>
       </c>
-      <c r="E254" s="6">
+      <c r="E254" s="9">
         <v>15</v>
       </c>
-      <c r="F254" s="7"/>
-      <c r="G254" s="10"/>
-      <c r="H254" s="8" t="s">
+      <c r="F254" s="10"/>
+      <c r="G254" s="11"/>
+      <c r="H254" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="255" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A255" s="18"/>
-      <c r="B255" s="14"/>
-      <c r="C255" s="6" t="s">
+      <c r="A255" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B255" s="3"/>
+      <c r="C255" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="D255" s="6">
+      <c r="D255" s="9">
         <v>90</v>
       </c>
-      <c r="E255" s="6">
-        <v>10</v>
-      </c>
-      <c r="F255" s="7"/>
-      <c r="G255" s="10"/>
-      <c r="H255" s="8" t="s">
+      <c r="E255" s="9">
+        <v>10</v>
+      </c>
+      <c r="F255" s="10"/>
+      <c r="G255" s="11"/>
+      <c r="H255" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="256" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A256" s="18"/>
-      <c r="B256" s="15"/>
-      <c r="C256" s="6">
-        <v>20</v>
-      </c>
-      <c r="D256" s="6">
+      <c r="A256" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B256" s="4"/>
+      <c r="C256" s="9">
+        <v>20</v>
+      </c>
+      <c r="D256" s="9">
         <v>90</v>
       </c>
-      <c r="E256" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F256" s="7"/>
-      <c r="G256" s="10"/>
-      <c r="H256" s="8" t="s">
+      <c r="E256" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F256" s="10"/>
+      <c r="G256" s="11"/>
+      <c r="H256" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="257" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A257" s="18"/>
-      <c r="B257" s="13" t="s">
+    <row r="257" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B257" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C257" s="6">
+      <c r="C257" s="9">
         <v>500</v>
       </c>
-      <c r="D257" s="6">
+      <c r="D257" s="9">
         <v>90</v>
       </c>
-      <c r="E257" s="6">
+      <c r="E257" s="9">
         <v>15</v>
       </c>
-      <c r="F257" s="7"/>
-      <c r="G257" s="6" t="s">
+      <c r="F257" s="10"/>
+      <c r="G257" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="H257" s="8" t="s">
+      <c r="H257" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="258" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A258" s="18"/>
-      <c r="B258" s="15"/>
-      <c r="C258" s="6">
+      <c r="A258" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B258" s="4"/>
+      <c r="C258" s="9">
         <v>1000</v>
       </c>
-      <c r="D258" s="6">
+      <c r="D258" s="9">
         <v>90</v>
       </c>
-      <c r="E258" s="6">
-        <v>10</v>
-      </c>
-      <c r="F258" s="7"/>
-      <c r="G258" s="6"/>
-      <c r="H258" s="8" t="s">
+      <c r="E258" s="9">
+        <v>10</v>
+      </c>
+      <c r="F258" s="10"/>
+      <c r="G258" s="9"/>
+      <c r="H258" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="259" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A259" s="18"/>
-      <c r="B259" s="13" t="s">
+      <c r="A259" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B259" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="C259" s="6">
+      <c r="C259" s="9">
         <v>500</v>
       </c>
-      <c r="D259" s="6">
-        <v>80</v>
-      </c>
-      <c r="E259" s="6">
+      <c r="D259" s="9">
+        <v>80</v>
+      </c>
+      <c r="E259" s="9">
         <v>15</v>
       </c>
-      <c r="F259" s="7"/>
-      <c r="G259" s="6"/>
-      <c r="H259" s="8" t="s">
+      <c r="F259" s="10"/>
+      <c r="G259" s="9"/>
+      <c r="H259" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="260" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A260" s="18"/>
-      <c r="B260" s="15"/>
-      <c r="C260" s="6">
+      <c r="A260" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B260" s="4"/>
+      <c r="C260" s="9">
         <v>1000</v>
       </c>
-      <c r="D260" s="6">
+      <c r="D260" s="9">
         <v>90</v>
       </c>
-      <c r="E260" s="6">
-        <v>10</v>
-      </c>
-      <c r="F260" s="7"/>
-      <c r="G260" s="6" t="s">
+      <c r="E260" s="9">
+        <v>10</v>
+      </c>
+      <c r="F260" s="10"/>
+      <c r="G260" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="H260" s="8" t="s">
+      <c r="H260" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="261" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A261" s="18"/>
-      <c r="B261" s="8" t="s">
+      <c r="A261" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B261" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="C261" s="6">
+      <c r="C261" s="9">
         <v>300</v>
       </c>
-      <c r="D261" s="6">
-        <v>80</v>
-      </c>
-      <c r="E261" s="6">
-        <v>20</v>
-      </c>
-      <c r="F261" s="7"/>
-      <c r="G261" s="6"/>
-      <c r="H261" s="8" t="s">
+      <c r="D261" s="9">
+        <v>80</v>
+      </c>
+      <c r="E261" s="9">
+        <v>20</v>
+      </c>
+      <c r="F261" s="10"/>
+      <c r="G261" s="9"/>
+      <c r="H261" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="262" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A262" s="18"/>
-      <c r="B262" s="13" t="s">
+      <c r="A262" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B262" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C262" s="6">
+      <c r="C262" s="9">
         <v>500</v>
       </c>
-      <c r="D262" s="6">
+      <c r="D262" s="9">
         <v>90</v>
       </c>
-      <c r="E262" s="6">
+      <c r="E262" s="9">
         <v>15</v>
       </c>
-      <c r="F262" s="7"/>
-      <c r="G262" s="6"/>
-      <c r="H262" s="8" t="s">
+      <c r="F262" s="10"/>
+      <c r="G262" s="9"/>
+      <c r="H262" s="9" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="263" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A263" s="19"/>
-      <c r="B263" s="15"/>
-      <c r="C263" s="6">
+      <c r="A263" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B263" s="4"/>
+      <c r="C263" s="9">
         <v>5000</v>
       </c>
-      <c r="D263" s="6">
+      <c r="D263" s="9">
         <v>90</v>
       </c>
-      <c r="E263" s="6">
-        <v>10</v>
-      </c>
-      <c r="F263" s="7"/>
-      <c r="G263" s="6"/>
-      <c r="H263" s="8" t="s">
+      <c r="E263" s="9">
+        <v>10</v>
+      </c>
+      <c r="F263" s="10"/>
+      <c r="G263" s="9"/>
+      <c r="H263" s="9" t="s">
         <v>249</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A82:A92"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A37:A44"/>
-    <mergeCell ref="A45:A54"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="A69:A76"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="A179:A185"/>
-    <mergeCell ref="A93:A101"/>
-    <mergeCell ref="A102:A106"/>
-    <mergeCell ref="A107:A110"/>
-    <mergeCell ref="A111:A113"/>
-    <mergeCell ref="A115:A131"/>
-    <mergeCell ref="A133:A138"/>
-    <mergeCell ref="A139:A147"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="A150:A158"/>
-    <mergeCell ref="A159:A165"/>
-    <mergeCell ref="A166:A178"/>
-    <mergeCell ref="A186:A190"/>
-    <mergeCell ref="A191:A201"/>
-    <mergeCell ref="A202:A224"/>
-    <mergeCell ref="A225:A263"/>
-    <mergeCell ref="B225:B227"/>
-    <mergeCell ref="B228:B229"/>
-    <mergeCell ref="B230:B235"/>
-    <mergeCell ref="B243:B244"/>
-    <mergeCell ref="B262:B263"/>
-    <mergeCell ref="B259:B260"/>
-    <mergeCell ref="E230:E232"/>
-    <mergeCell ref="B236:B237"/>
-    <mergeCell ref="E236:E237"/>
-    <mergeCell ref="B238:B239"/>
-    <mergeCell ref="E238:E239"/>
-    <mergeCell ref="B240:B242"/>
-    <mergeCell ref="E243:E244"/>
-    <mergeCell ref="B245:B249"/>
-    <mergeCell ref="B250:B252"/>
-    <mergeCell ref="B253:B256"/>
-    <mergeCell ref="B257:B258"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/app_lightbulb/management/commands/x.xlsx
+++ b/app_lightbulb/management/commands/x.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FASTAPI\cal\app_lightbulb\management\commands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3617DC2-BDBD-44CB-B89C-E016C9B8678A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B970AEC-66FE-4319-9118-0A8AFEF68BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,6 @@
     <t>Room_Type_Category  name</t>
   </si>
   <si>
-    <t>Room_Type   name</t>
-  </si>
-  <si>
     <t>lk</t>
   </si>
   <si>
@@ -1190,6 +1187,9 @@
   <si>
     <t xml:space="preserve"> Столы для вскрытия трупов и 
 анатомические</t>
+  </si>
+  <si>
+    <t>category</t>
   </si>
 </sst>
 </file>
@@ -1614,7 +1614,7 @@
   <dimension ref="A1:J278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1627,39 +1627,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>312</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>313</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7">
@@ -1675,21 +1675,21 @@
         <v>0.8</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7">
@@ -1705,21 +1705,21 @@
         <v>0</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7">
@@ -1735,21 +1735,21 @@
         <v>0.8</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7">
@@ -1765,21 +1765,21 @@
         <v>0</v>
       </c>
       <c r="H5" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>322</v>
-      </c>
       <c r="J5" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7">
@@ -1795,21 +1795,21 @@
         <v>0</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7">
@@ -1825,21 +1825,21 @@
         <v>0</v>
       </c>
       <c r="H7" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>322</v>
-      </c>
       <c r="J7" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7">
@@ -1855,21 +1855,21 @@
         <v>0.8</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7">
@@ -1885,21 +1885,21 @@
         <v>0.8</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7">
@@ -1918,18 +1918,18 @@
         <v>4000</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7">
@@ -1945,21 +1945,21 @@
         <v>0.8</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7">
@@ -1975,21 +1975,21 @@
         <v>0.8</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7">
@@ -2005,21 +2005,21 @@
         <v>0.8</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7">
@@ -2035,21 +2035,21 @@
         <v>0</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7">
@@ -2068,18 +2068,18 @@
         <v>4000</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7">
@@ -2095,21 +2095,21 @@
         <v>0</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="7">
@@ -2119,25 +2119,25 @@
         <v>40</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G17" s="10">
         <v>0</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="126" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7">
@@ -2147,25 +2147,25 @@
         <v>40</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G18" s="10">
         <v>0</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7">
@@ -2175,25 +2175,25 @@
         <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G19" s="10">
         <v>0.8</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7">
@@ -2210,18 +2210,18 @@
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7">
@@ -2231,25 +2231,25 @@
         <v>80</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G21" s="10">
         <v>0.5</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7">
@@ -2259,25 +2259,25 @@
         <v>80</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G22" s="10">
         <v>0.5</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="126" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7">
@@ -2287,25 +2287,25 @@
         <v>80</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G23" s="10">
         <v>0</v>
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7">
@@ -2322,18 +2322,18 @@
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7">
@@ -2349,21 +2349,21 @@
         <v>0.8</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7">
@@ -2376,22 +2376,22 @@
         <v>20</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7">
@@ -2404,22 +2404,22 @@
         <v>15</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7">
@@ -2436,18 +2436,18 @@
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7">
@@ -2464,74 +2464,74 @@
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E30" s="7">
         <v>40</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G30" s="10">
         <v>0</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E31" s="7">
         <v>60</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G31" s="10">
         <v>0</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7">
@@ -2548,18 +2548,18 @@
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7">
@@ -2576,18 +2576,18 @@
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="189" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7">
@@ -2604,18 +2604,18 @@
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7">
@@ -2625,25 +2625,25 @@
         <v>40</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G35" s="10">
         <v>0</v>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7">
@@ -2660,18 +2660,18 @@
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7">
@@ -2688,18 +2688,18 @@
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>44</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7">
@@ -2716,18 +2716,18 @@
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7">
@@ -2744,18 +2744,18 @@
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7">
@@ -2765,25 +2765,25 @@
         <v>20</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G40" s="10">
         <v>0</v>
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7">
@@ -2800,18 +2800,18 @@
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7">
@@ -2828,18 +2828,18 @@
       </c>
       <c r="H42" s="7"/>
       <c r="I42" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7">
@@ -2856,18 +2856,18 @@
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7">
@@ -2877,25 +2877,25 @@
         <v>20</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G44" s="10">
         <v>0</v>
       </c>
       <c r="H44" s="7"/>
       <c r="I44" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7">
@@ -2912,18 +2912,18 @@
       </c>
       <c r="H45" s="7"/>
       <c r="I45" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="299.25" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7">
@@ -2940,18 +2940,18 @@
       </c>
       <c r="H46" s="7"/>
       <c r="I46" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="252" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7">
@@ -2968,18 +2968,18 @@
       </c>
       <c r="H47" s="7"/>
       <c r="I47" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7">
@@ -2996,18 +2996,18 @@
       </c>
       <c r="H48" s="7"/>
       <c r="I48" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7">
@@ -3023,21 +3023,21 @@
         <v>0</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7">
@@ -3053,21 +3053,21 @@
         <v>0</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7">
@@ -3085,15 +3085,15 @@
       <c r="H51" s="7"/>
       <c r="I51" s="6"/>
       <c r="J51" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7">
@@ -3103,25 +3103,25 @@
         <v>20</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G52" s="10">
         <v>0</v>
       </c>
       <c r="H52" s="7"/>
       <c r="I52" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="189" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7">
@@ -3131,25 +3131,25 @@
         <v>40</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G53" s="10">
         <v>0.8</v>
       </c>
       <c r="H53" s="7"/>
       <c r="I53" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7">
@@ -3166,18 +3166,18 @@
       </c>
       <c r="H54" s="7"/>
       <c r="I54" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="126" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7">
@@ -3194,18 +3194,18 @@
       </c>
       <c r="H55" s="7"/>
       <c r="I55" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7">
@@ -3222,18 +3222,18 @@
       </c>
       <c r="H56" s="7"/>
       <c r="I56" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7">
@@ -3250,18 +3250,18 @@
       </c>
       <c r="H57" s="7"/>
       <c r="I57" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7">
@@ -3277,21 +3277,21 @@
         <v>0.8</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7">
@@ -3306,18 +3306,18 @@
       </c>
       <c r="H59" s="7"/>
       <c r="I59" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7">
@@ -3334,18 +3334,18 @@
       </c>
       <c r="H60" s="7"/>
       <c r="I60" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J60" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="126" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7">
@@ -3362,18 +3362,18 @@
       </c>
       <c r="H61" s="7"/>
       <c r="I61" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J61" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7">
@@ -3390,18 +3390,18 @@
       </c>
       <c r="H62" s="7"/>
       <c r="I62" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7">
@@ -3418,18 +3418,18 @@
       </c>
       <c r="H63" s="7"/>
       <c r="I63" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7">
@@ -3446,18 +3446,18 @@
       </c>
       <c r="H64" s="7"/>
       <c r="I64" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J64" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7">
@@ -3474,18 +3474,18 @@
       </c>
       <c r="H65" s="7"/>
       <c r="I65" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7">
@@ -3502,18 +3502,18 @@
       </c>
       <c r="H66" s="7"/>
       <c r="I66" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7">
@@ -3530,18 +3530,18 @@
       </c>
       <c r="H67" s="7"/>
       <c r="I67" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J67" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7">
@@ -3558,18 +3558,18 @@
       </c>
       <c r="H68" s="7"/>
       <c r="I68" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7">
@@ -3586,18 +3586,18 @@
       </c>
       <c r="H69" s="7"/>
       <c r="I69" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B70" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7">
@@ -3614,18 +3614,18 @@
       </c>
       <c r="H70" s="7"/>
       <c r="I70" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7">
@@ -3642,18 +3642,18 @@
       </c>
       <c r="H71" s="7"/>
       <c r="I71" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7">
@@ -3670,18 +3670,18 @@
       </c>
       <c r="H72" s="7"/>
       <c r="I72" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7">
@@ -3698,18 +3698,18 @@
       </c>
       <c r="H73" s="7"/>
       <c r="I73" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J73" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B74" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7">
@@ -3725,21 +3725,21 @@
         <v>0.8</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J74" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7">
@@ -3756,18 +3756,18 @@
       </c>
       <c r="H75" s="7"/>
       <c r="I75" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J75" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7">
@@ -3784,18 +3784,18 @@
       </c>
       <c r="H76" s="7"/>
       <c r="I76" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J76" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7">
@@ -3812,18 +3812,18 @@
       </c>
       <c r="H77" s="7"/>
       <c r="I77" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B78" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>96</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7">
@@ -3840,18 +3840,18 @@
       </c>
       <c r="H78" s="7"/>
       <c r="I78" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J78" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7">
@@ -3868,18 +3868,18 @@
       </c>
       <c r="H79" s="7"/>
       <c r="I79" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="252" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7">
@@ -3896,18 +3896,18 @@
       </c>
       <c r="H80" s="7"/>
       <c r="I80" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B81" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>100</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7">
@@ -3924,18 +3924,18 @@
       </c>
       <c r="H81" s="7"/>
       <c r="I81" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J81" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7">
@@ -3952,18 +3952,18 @@
       </c>
       <c r="H82" s="7"/>
       <c r="I82" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7">
@@ -3980,18 +3980,18 @@
       </c>
       <c r="H83" s="7"/>
       <c r="I83" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J83" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B84" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7">
@@ -4001,25 +4001,25 @@
         <v>80</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G84" s="10">
         <v>0</v>
       </c>
       <c r="H84" s="7"/>
       <c r="I84" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J84" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="189" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7">
@@ -4036,18 +4036,18 @@
       </c>
       <c r="H85" s="7"/>
       <c r="I85" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J85" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7">
@@ -4064,18 +4064,18 @@
       </c>
       <c r="H86" s="7"/>
       <c r="I86" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J86" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7">
@@ -4092,18 +4092,18 @@
       </c>
       <c r="H87" s="7"/>
       <c r="I87" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J87" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7">
@@ -4120,18 +4120,18 @@
       </c>
       <c r="H88" s="7"/>
       <c r="I88" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J88" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="252" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7">
@@ -4146,18 +4146,18 @@
       </c>
       <c r="H89" s="7"/>
       <c r="I89" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J89" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7">
@@ -4174,18 +4174,18 @@
       </c>
       <c r="H90" s="7"/>
       <c r="I90" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J90" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7">
@@ -4201,21 +4201,21 @@
         <v>0.8</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J91" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B92" s="6" t="s">
         <v>115</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7">
@@ -4225,25 +4225,25 @@
         <v>20</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G92" s="10">
         <v>0.8</v>
       </c>
       <c r="H92" s="7"/>
       <c r="I92" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J92" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7">
@@ -4253,25 +4253,25 @@
         <v>40</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G93" s="10">
         <v>0.8</v>
       </c>
       <c r="H93" s="7"/>
       <c r="I93" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J93" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7">
@@ -4288,18 +4288,18 @@
       </c>
       <c r="H94" s="7"/>
       <c r="I94" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J94" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="7">
@@ -4316,18 +4316,18 @@
       </c>
       <c r="H95" s="7"/>
       <c r="I95" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J95" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7">
@@ -4344,18 +4344,18 @@
       </c>
       <c r="H96" s="7"/>
       <c r="I96" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J96" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B97" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>122</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7">
@@ -4365,25 +4365,25 @@
         <v>20</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G97" s="10">
         <v>0</v>
       </c>
       <c r="H97" s="7"/>
       <c r="I97" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J97" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7">
@@ -4393,25 +4393,25 @@
         <v>40</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G98" s="10">
         <v>0.8</v>
       </c>
       <c r="H98" s="7"/>
       <c r="I98" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J98" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7">
@@ -4428,18 +4428,18 @@
       </c>
       <c r="H99" s="7"/>
       <c r="I99" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J99" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="7">
@@ -4456,18 +4456,18 @@
       </c>
       <c r="H100" s="7"/>
       <c r="I100" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J100" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="7">
@@ -4484,18 +4484,18 @@
       </c>
       <c r="H101" s="7"/>
       <c r="I101" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J101" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7">
@@ -4512,18 +4512,18 @@
       </c>
       <c r="H102" s="7"/>
       <c r="I102" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J102" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="7">
@@ -4540,18 +4540,18 @@
       </c>
       <c r="H103" s="7"/>
       <c r="I103" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J103" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="7">
@@ -4568,18 +4568,18 @@
       </c>
       <c r="H104" s="7"/>
       <c r="I104" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J104" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="7">
@@ -4596,18 +4596,18 @@
       </c>
       <c r="H105" s="7"/>
       <c r="I105" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J105" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="7">
@@ -4624,18 +4624,18 @@
       </c>
       <c r="H106" s="7"/>
       <c r="I106" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J106" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="7">
@@ -4652,18 +4652,18 @@
       </c>
       <c r="H107" s="7"/>
       <c r="I107" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J107" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="126" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B108" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>134</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="7">
@@ -4680,18 +4680,18 @@
       </c>
       <c r="H108" s="7"/>
       <c r="I108" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J108" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C109" s="7"/>
       <c r="D109" s="7">
@@ -4708,18 +4708,18 @@
       </c>
       <c r="H109" s="7"/>
       <c r="I109" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J109" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="7">
@@ -4736,18 +4736,18 @@
       </c>
       <c r="H110" s="7"/>
       <c r="I110" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J110" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="7">
@@ -4763,21 +4763,21 @@
         <v>0.8</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I111" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J111" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="126" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="7">
@@ -4794,18 +4794,18 @@
       </c>
       <c r="H112" s="7"/>
       <c r="I112" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J112" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="7">
@@ -4822,18 +4822,18 @@
       </c>
       <c r="H113" s="7"/>
       <c r="I113" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J113" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C114" s="7"/>
       <c r="D114" s="7">
@@ -4850,18 +4850,18 @@
       </c>
       <c r="H114" s="7"/>
       <c r="I114" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J114" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="7">
@@ -4878,18 +4878,18 @@
       </c>
       <c r="H115" s="7"/>
       <c r="I115" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J115" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C116" s="7"/>
       <c r="D116" s="7">
@@ -4906,18 +4906,18 @@
       </c>
       <c r="H116" s="7"/>
       <c r="I116" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J116" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B117" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>144</v>
       </c>
       <c r="C117" s="7"/>
       <c r="D117" s="7">
@@ -4934,18 +4934,18 @@
       </c>
       <c r="H117" s="7"/>
       <c r="I117" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J117" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C118" s="7"/>
       <c r="D118" s="7">
@@ -4962,18 +4962,18 @@
       </c>
       <c r="H118" s="7"/>
       <c r="I118" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J118" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C119" s="7"/>
       <c r="D119" s="7">
@@ -4990,18 +4990,18 @@
       </c>
       <c r="H119" s="7"/>
       <c r="I119" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J119" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C120" s="7"/>
       <c r="D120" s="7">
@@ -5017,21 +5017,21 @@
         <v>0.8</v>
       </c>
       <c r="H120" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I120" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J120" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C121" s="7"/>
       <c r="D121" s="7">
@@ -5050,18 +5050,18 @@
         <v>5000</v>
       </c>
       <c r="I121" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J121" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B122" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>150</v>
       </c>
       <c r="C122" s="7"/>
       <c r="D122" s="7">
@@ -5071,25 +5071,25 @@
         <v>80</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G122" s="10">
         <v>0</v>
       </c>
       <c r="H122" s="7"/>
       <c r="I122" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J122" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C123" s="7"/>
       <c r="D123" s="7">
@@ -5099,25 +5099,25 @@
         <v>80</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G123" s="10">
         <v>0</v>
       </c>
       <c r="H123" s="7"/>
       <c r="I123" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J123" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C124" s="7"/>
       <c r="D124" s="7">
@@ -5127,25 +5127,25 @@
         <v>80</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G124" s="10">
         <v>0</v>
       </c>
       <c r="H124" s="7"/>
       <c r="I124" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J124" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C125" s="7"/>
       <c r="D125" s="7">
@@ -5162,18 +5162,18 @@
       </c>
       <c r="H125" s="7"/>
       <c r="I125" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J125" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B126" s="6" t="s">
         <v>155</v>
-      </c>
-      <c r="B126" s="6" t="s">
-        <v>156</v>
       </c>
       <c r="C126" s="7"/>
       <c r="D126" s="7">
@@ -5183,25 +5183,25 @@
         <v>80</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G126" s="10">
         <v>0.8</v>
       </c>
       <c r="H126" s="7"/>
       <c r="I126" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J126" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C127" s="7"/>
       <c r="D127" s="7">
@@ -5218,18 +5218,18 @@
       </c>
       <c r="H127" s="7"/>
       <c r="I127" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J127" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C128" s="7"/>
       <c r="D128" s="7">
@@ -5246,18 +5246,18 @@
       </c>
       <c r="H128" s="7"/>
       <c r="I128" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J128" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B129" s="6" t="s">
         <v>159</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>160</v>
       </c>
       <c r="C129" s="7"/>
       <c r="D129" s="7">
@@ -5274,18 +5274,18 @@
       </c>
       <c r="H129" s="7"/>
       <c r="I129" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J129" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B130" s="6" t="s">
         <v>162</v>
-      </c>
-      <c r="B130" s="6" t="s">
-        <v>163</v>
       </c>
       <c r="C130" s="7"/>
       <c r="D130" s="7">
@@ -5302,18 +5302,18 @@
       </c>
       <c r="H130" s="7"/>
       <c r="I130" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J130" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C131" s="7"/>
       <c r="D131" s="7">
@@ -5330,18 +5330,18 @@
       </c>
       <c r="H131" s="7"/>
       <c r="I131" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J131" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C132" s="7"/>
       <c r="D132" s="7">
@@ -5358,18 +5358,18 @@
       </c>
       <c r="H132" s="7"/>
       <c r="I132" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J132" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="189" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C133" s="7"/>
       <c r="D133" s="7">
@@ -5386,18 +5386,18 @@
       </c>
       <c r="H133" s="7"/>
       <c r="I133" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J133" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="126" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C134" s="7"/>
       <c r="D134" s="7">
@@ -5414,18 +5414,18 @@
       </c>
       <c r="H134" s="7"/>
       <c r="I134" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J134" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C135" s="7"/>
       <c r="D135" s="7">
@@ -5442,18 +5442,18 @@
       </c>
       <c r="H135" s="7"/>
       <c r="I135" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J135" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C136" s="7"/>
       <c r="D136" s="7">
@@ -5470,18 +5470,18 @@
       </c>
       <c r="H136" s="7"/>
       <c r="I136" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J136" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C137" s="7"/>
       <c r="D137" s="7">
@@ -5491,25 +5491,25 @@
         <v>80</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G137" s="10">
         <v>0</v>
       </c>
       <c r="H137" s="7"/>
       <c r="I137" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J137" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="126" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C138" s="7"/>
       <c r="D138" s="7">
@@ -5526,18 +5526,18 @@
       </c>
       <c r="H138" s="7"/>
       <c r="I138" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J138" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C139" s="7"/>
       <c r="D139" s="7">
@@ -5554,18 +5554,18 @@
       </c>
       <c r="H139" s="7"/>
       <c r="I139" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J139" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C140" s="7"/>
       <c r="D140" s="7">
@@ -5582,18 +5582,18 @@
       </c>
       <c r="H140" s="7"/>
       <c r="I140" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J140" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C141" s="7"/>
       <c r="D141" s="7">
@@ -5610,18 +5610,18 @@
       </c>
       <c r="H141" s="7"/>
       <c r="I141" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J141" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C142" s="7"/>
       <c r="D142" s="7">
@@ -5638,18 +5638,18 @@
       </c>
       <c r="H142" s="7"/>
       <c r="I142" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J142" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C143" s="7"/>
       <c r="D143" s="7">
@@ -5666,18 +5666,18 @@
       </c>
       <c r="H143" s="7"/>
       <c r="I143" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J143" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C144" s="7"/>
       <c r="D144" s="7">
@@ -5694,18 +5694,18 @@
       </c>
       <c r="H144" s="7"/>
       <c r="I144" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J144" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="145" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C145" s="7"/>
       <c r="D145" s="7">
@@ -5722,18 +5722,18 @@
       </c>
       <c r="H145" s="7"/>
       <c r="I145" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J145" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="146" spans="1:10" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C146" s="7"/>
       <c r="D146" s="7">
@@ -5750,18 +5750,18 @@
       </c>
       <c r="H146" s="7"/>
       <c r="I146" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J146" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="147" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B147" s="6" t="s">
         <v>180</v>
-      </c>
-      <c r="B147" s="6" t="s">
-        <v>181</v>
       </c>
       <c r="C147" s="7"/>
       <c r="D147" s="7">
@@ -5778,18 +5778,18 @@
       </c>
       <c r="H147" s="7"/>
       <c r="I147" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J147" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="148" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B148" s="6" t="s">
         <v>182</v>
-      </c>
-      <c r="B148" s="6" t="s">
-        <v>183</v>
       </c>
       <c r="C148" s="7"/>
       <c r="D148" s="7">
@@ -5806,18 +5806,18 @@
       </c>
       <c r="H148" s="7"/>
       <c r="I148" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J148" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="149" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C149" s="7"/>
       <c r="D149" s="7">
@@ -5834,18 +5834,18 @@
       </c>
       <c r="H149" s="7"/>
       <c r="I149" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J149" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="150" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C150" s="7"/>
       <c r="D150" s="7">
@@ -5861,21 +5861,21 @@
         <v>0</v>
       </c>
       <c r="H150" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I150" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J150" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="151" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C151" s="7"/>
       <c r="D151" s="7">
@@ -5892,18 +5892,18 @@
       </c>
       <c r="H151" s="7"/>
       <c r="I151" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J151" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="152" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C152" s="7"/>
       <c r="D152" s="7">
@@ -5920,18 +5920,18 @@
       </c>
       <c r="H152" s="7"/>
       <c r="I152" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J152" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="153" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C153" s="7"/>
       <c r="D153" s="7">
@@ -5948,18 +5948,18 @@
       </c>
       <c r="H153" s="7"/>
       <c r="I153" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J153" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="154" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B154" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="B154" s="6" t="s">
-        <v>192</v>
       </c>
       <c r="C154" s="7"/>
       <c r="D154" s="7">
@@ -5969,25 +5969,25 @@
         <v>20</v>
       </c>
       <c r="F154" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G154" s="10">
         <v>0.8</v>
       </c>
       <c r="H154" s="7"/>
       <c r="I154" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J154" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="155" spans="1:10" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C155" s="7"/>
       <c r="D155" s="7">
@@ -5997,25 +5997,25 @@
         <v>40</v>
       </c>
       <c r="F155" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G155" s="10">
         <v>0</v>
       </c>
       <c r="H155" s="7"/>
       <c r="I155" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J155" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="156" spans="1:10" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C156" s="7"/>
       <c r="D156" s="7">
@@ -6032,18 +6032,18 @@
       </c>
       <c r="H156" s="7"/>
       <c r="I156" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J156" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="157" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C157" s="7"/>
       <c r="D157" s="7">
@@ -6053,25 +6053,25 @@
         <v>20</v>
       </c>
       <c r="F157" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G157" s="10">
         <v>0</v>
       </c>
       <c r="H157" s="7"/>
       <c r="I157" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J157" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="158" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C158" s="7"/>
       <c r="D158" s="7">
@@ -6088,18 +6088,18 @@
       </c>
       <c r="H158" s="7"/>
       <c r="I158" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J158" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="159" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C159" s="7"/>
       <c r="D159" s="7">
@@ -6116,18 +6116,18 @@
       </c>
       <c r="H159" s="7"/>
       <c r="I159" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J159" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="160" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C160" s="7"/>
       <c r="D160" s="7">
@@ -6144,18 +6144,18 @@
       </c>
       <c r="H160" s="7"/>
       <c r="I160" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J160" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="161" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C161" s="7"/>
       <c r="D161" s="7">
@@ -6172,18 +6172,18 @@
       </c>
       <c r="H161" s="7"/>
       <c r="I161" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J161" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="162" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C162" s="7"/>
       <c r="D162" s="7">
@@ -6193,25 +6193,25 @@
         <v>20</v>
       </c>
       <c r="F162" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G162" s="10">
         <v>0</v>
       </c>
       <c r="H162" s="7"/>
       <c r="I162" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J162" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="163" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B163" s="6" t="s">
         <v>203</v>
-      </c>
-      <c r="B163" s="6" t="s">
-        <v>204</v>
       </c>
       <c r="C163" s="7"/>
       <c r="D163" s="7">
@@ -6228,18 +6228,18 @@
       </c>
       <c r="H163" s="7"/>
       <c r="I163" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J163" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="164" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C164" s="7"/>
       <c r="D164" s="7">
@@ -6252,18 +6252,18 @@
       </c>
       <c r="H164" s="7"/>
       <c r="I164" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J164" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="165" spans="1:10" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B165" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="B165" s="6" t="s">
-        <v>208</v>
       </c>
       <c r="C165" s="7"/>
       <c r="D165" s="7">
@@ -6273,25 +6273,25 @@
         <v>40</v>
       </c>
       <c r="F165" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G165" s="10">
         <v>0.8</v>
       </c>
       <c r="H165" s="7"/>
       <c r="I165" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J165" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="166" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C166" s="7"/>
       <c r="D166" s="7">
@@ -6301,25 +6301,25 @@
         <v>40</v>
       </c>
       <c r="F166" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G166" s="10">
         <v>0.8</v>
       </c>
       <c r="H166" s="7"/>
       <c r="I166" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J166" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="167" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C167" s="7"/>
       <c r="D167" s="7">
@@ -6336,18 +6336,18 @@
       </c>
       <c r="H167" s="7"/>
       <c r="I167" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J167" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="168" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C168" s="7"/>
       <c r="D168" s="7">
@@ -6364,18 +6364,18 @@
       </c>
       <c r="H168" s="7"/>
       <c r="I168" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J168" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="169" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C169" s="7"/>
       <c r="D169" s="7">
@@ -6392,18 +6392,18 @@
       </c>
       <c r="H169" s="7"/>
       <c r="I169" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J169" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="170" spans="1:10" ht="252" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C170" s="7"/>
       <c r="D170" s="7">
@@ -6420,18 +6420,18 @@
       </c>
       <c r="H170" s="7"/>
       <c r="I170" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J170" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="171" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C171" s="7"/>
       <c r="D171" s="7">
@@ -6447,21 +6447,21 @@
         <v>0.8</v>
       </c>
       <c r="H171" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I171" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J171" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="172" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C172" s="7"/>
       <c r="D172" s="7">
@@ -6477,21 +6477,21 @@
         <v>0.8</v>
       </c>
       <c r="H172" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I172" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J172" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="173" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C173" s="7"/>
       <c r="D173" s="7">
@@ -6507,21 +6507,21 @@
         <v>0.8</v>
       </c>
       <c r="H173" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I173" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J173" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="174" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B174" s="6" t="s">
         <v>218</v>
-      </c>
-      <c r="B174" s="6" t="s">
-        <v>219</v>
       </c>
       <c r="C174" s="7"/>
       <c r="D174" s="7">
@@ -6538,18 +6538,18 @@
       </c>
       <c r="H174" s="7"/>
       <c r="I174" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J174" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="175" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C175" s="7"/>
       <c r="D175" s="7">
@@ -6566,18 +6566,18 @@
       </c>
       <c r="H175" s="7"/>
       <c r="I175" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J175" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="176" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C176" s="7"/>
       <c r="D176" s="7">
@@ -6592,18 +6592,18 @@
       </c>
       <c r="H176" s="7"/>
       <c r="I176" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J176" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="177" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C177" s="7"/>
       <c r="D177" s="7">
@@ -6620,18 +6620,18 @@
       </c>
       <c r="H177" s="7"/>
       <c r="I177" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J177" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="178" spans="1:10" ht="126" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C178" s="7"/>
       <c r="D178" s="7">
@@ -6648,18 +6648,18 @@
       </c>
       <c r="H178" s="7"/>
       <c r="I178" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J178" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="179" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C179" s="7"/>
       <c r="D179" s="7">
@@ -6676,18 +6676,18 @@
       </c>
       <c r="H179" s="7"/>
       <c r="I179" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J179" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="180" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C180" s="7"/>
       <c r="D180" s="7">
@@ -6704,18 +6704,18 @@
       </c>
       <c r="H180" s="7"/>
       <c r="I180" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J180" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="181" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B181" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="B181" s="6" t="s">
-        <v>227</v>
       </c>
       <c r="C181" s="7"/>
       <c r="D181" s="7">
@@ -6732,18 +6732,18 @@
       </c>
       <c r="H181" s="7"/>
       <c r="I181" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J181" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="182" spans="1:10" ht="393.75" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C182" s="7"/>
       <c r="D182" s="7">
@@ -6760,18 +6760,18 @@
       </c>
       <c r="H182" s="7"/>
       <c r="I182" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J182" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="183" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C183" s="7"/>
       <c r="D183" s="7">
@@ -6788,18 +6788,18 @@
       </c>
       <c r="H183" s="7"/>
       <c r="I183" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J183" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="184" spans="1:10" ht="189" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C184" s="7"/>
       <c r="D184" s="7">
@@ -6816,18 +6816,18 @@
       </c>
       <c r="H184" s="7"/>
       <c r="I184" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J184" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="185" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C185" s="7"/>
       <c r="D185" s="7">
@@ -6844,18 +6844,18 @@
       </c>
       <c r="H185" s="7"/>
       <c r="I185" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J185" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="186" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C186" s="7"/>
       <c r="D186" s="7">
@@ -6871,21 +6871,21 @@
         <v>0.8</v>
       </c>
       <c r="H186" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I186" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J186" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="187" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C187" s="7"/>
       <c r="D187" s="7">
@@ -6902,18 +6902,18 @@
       </c>
       <c r="H187" s="7"/>
       <c r="I187" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J187" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="188" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C188" s="7"/>
       <c r="D188" s="7">
@@ -6923,25 +6923,25 @@
         <v>60</v>
       </c>
       <c r="F188" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G188" s="10">
         <v>0.8</v>
       </c>
       <c r="H188" s="7"/>
       <c r="I188" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J188" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="189" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C189" s="7"/>
       <c r="D189" s="7">
@@ -6958,18 +6958,18 @@
       </c>
       <c r="H189" s="7"/>
       <c r="I189" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J189" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="190" spans="1:10" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C190" s="7"/>
       <c r="D190" s="7">
@@ -6986,18 +6986,18 @@
       </c>
       <c r="H190" s="7"/>
       <c r="I190" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J190" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="191" spans="1:10" ht="126" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C191" s="7"/>
       <c r="D191" s="7">
@@ -7013,21 +7013,21 @@
         <v>0.8</v>
       </c>
       <c r="H191" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I191" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J191" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="192" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C192" s="7"/>
       <c r="D192" s="7">
@@ -7043,21 +7043,21 @@
         <v>0.8</v>
       </c>
       <c r="H192" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I192" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J192" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="193" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C193" s="7"/>
       <c r="D193" s="7">
@@ -7074,18 +7074,18 @@
       </c>
       <c r="H193" s="7"/>
       <c r="I193" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J193" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="194" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B194" s="6" t="s">
         <v>240</v>
-      </c>
-      <c r="B194" s="6" t="s">
-        <v>241</v>
       </c>
       <c r="C194" s="7"/>
       <c r="D194" s="7">
@@ -7102,18 +7102,18 @@
       </c>
       <c r="H194" s="7"/>
       <c r="I194" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J194" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="195" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C195" s="7"/>
       <c r="D195" s="7">
@@ -7130,46 +7130,46 @@
       </c>
       <c r="H195" s="7"/>
       <c r="I195" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J195" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="196" spans="1:10" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C196" s="7"/>
       <c r="D196" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E196" s="7">
         <v>80</v>
       </c>
       <c r="F196" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G196" s="10">
         <v>0.8</v>
       </c>
       <c r="H196" s="7"/>
       <c r="I196" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J196" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="197" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C197" s="7"/>
       <c r="D197" s="7">
@@ -7179,25 +7179,25 @@
         <v>80</v>
       </c>
       <c r="F197" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G197" s="10">
         <v>0.8</v>
       </c>
       <c r="H197" s="7"/>
       <c r="I197" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J197" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="198" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C198" s="7"/>
       <c r="D198" s="7">
@@ -7214,18 +7214,18 @@
       </c>
       <c r="H198" s="7"/>
       <c r="I198" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J198" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="199" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C199" s="7"/>
       <c r="D199" s="7">
@@ -7242,46 +7242,46 @@
       </c>
       <c r="H199" s="7"/>
       <c r="I199" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J199" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="200" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C200" s="7"/>
       <c r="D200" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E200" s="7">
         <v>80</v>
       </c>
       <c r="F200" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G200" s="10">
         <v>0</v>
       </c>
       <c r="H200" s="7"/>
       <c r="I200" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J200" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="201" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B201" s="6" t="s">
         <v>250</v>
-      </c>
-      <c r="B201" s="6" t="s">
-        <v>251</v>
       </c>
       <c r="C201" s="7"/>
       <c r="D201" s="7">
@@ -7298,18 +7298,18 @@
       </c>
       <c r="H201" s="7"/>
       <c r="I201" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J201" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="202" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C202" s="7"/>
       <c r="D202" s="7">
@@ -7319,25 +7319,25 @@
         <v>40</v>
       </c>
       <c r="F202" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G202" s="10">
         <v>0</v>
       </c>
       <c r="H202" s="7"/>
       <c r="I202" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J202" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="203" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C203" s="7"/>
       <c r="D203" s="7">
@@ -7347,25 +7347,25 @@
         <v>40</v>
       </c>
       <c r="F203" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G203" s="10">
         <v>0</v>
       </c>
       <c r="H203" s="7"/>
       <c r="I203" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J203" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="204" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C204" s="7"/>
       <c r="D204" s="7">
@@ -7375,25 +7375,25 @@
         <v>40</v>
       </c>
       <c r="F204" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G204" s="10">
         <v>0</v>
       </c>
       <c r="H204" s="7"/>
       <c r="I204" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J204" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="205" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C205" s="7"/>
       <c r="D205" s="7">
@@ -7410,18 +7410,18 @@
       </c>
       <c r="H205" s="7"/>
       <c r="I205" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J205" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="206" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B206" s="6" t="s">
         <v>256</v>
-      </c>
-      <c r="B206" s="6" t="s">
-        <v>257</v>
       </c>
       <c r="C206" s="7"/>
       <c r="D206" s="7">
@@ -7438,18 +7438,18 @@
       </c>
       <c r="H206" s="7"/>
       <c r="I206" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J206" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="207" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C207" s="7"/>
       <c r="D207" s="7">
@@ -7459,25 +7459,25 @@
         <v>80</v>
       </c>
       <c r="F207" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G207" s="10">
         <v>0</v>
       </c>
       <c r="H207" s="7"/>
       <c r="I207" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J207" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="208" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C208" s="7"/>
       <c r="D208" s="7">
@@ -7494,18 +7494,18 @@
       </c>
       <c r="H208" s="7"/>
       <c r="I208" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J208" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="209" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C209" s="7"/>
       <c r="D209" s="7">
@@ -7522,18 +7522,18 @@
       </c>
       <c r="H209" s="7"/>
       <c r="I209" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J209" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="210" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C210" s="7"/>
       <c r="D210" s="7">
@@ -7550,18 +7550,18 @@
       </c>
       <c r="H210" s="7"/>
       <c r="I210" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J210" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="211" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C211" s="7"/>
       <c r="D211" s="7">
@@ -7578,18 +7578,18 @@
       </c>
       <c r="H211" s="7"/>
       <c r="I211" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J211" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="212" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C212" s="7"/>
       <c r="D212" s="7">
@@ -7606,18 +7606,18 @@
       </c>
       <c r="H212" s="7"/>
       <c r="I212" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J212" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="213" spans="1:10" ht="126" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C213" s="7"/>
       <c r="D213" s="7">
@@ -7634,18 +7634,18 @@
       </c>
       <c r="H213" s="7"/>
       <c r="I213" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J213" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="214" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C214" s="7"/>
       <c r="D214" s="7">
@@ -7662,18 +7662,18 @@
       </c>
       <c r="H214" s="7"/>
       <c r="I214" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J214" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="215" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C215" s="7"/>
       <c r="D215" s="7">
@@ -7690,18 +7690,18 @@
       </c>
       <c r="H215" s="7"/>
       <c r="I215" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J215" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="216" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C216" s="7"/>
       <c r="D216" s="7">
@@ -7718,18 +7718,18 @@
       </c>
       <c r="H216" s="7"/>
       <c r="I216" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J216" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="217" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B217" s="6" t="s">
         <v>268</v>
-      </c>
-      <c r="B217" s="6" t="s">
-        <v>269</v>
       </c>
       <c r="C217" s="7"/>
       <c r="D217" s="7">
@@ -7746,18 +7746,18 @@
       </c>
       <c r="H217" s="7"/>
       <c r="I217" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J217" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="218" spans="1:10" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C218" s="7"/>
       <c r="D218" s="7">
@@ -7774,18 +7774,18 @@
       </c>
       <c r="H218" s="7"/>
       <c r="I218" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J218" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="219" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C219" s="7"/>
       <c r="D219" s="7">
@@ -7802,18 +7802,18 @@
       </c>
       <c r="H219" s="7"/>
       <c r="I219" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J219" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="220" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C220" s="7"/>
       <c r="D220" s="7">
@@ -7830,18 +7830,18 @@
       </c>
       <c r="H220" s="7"/>
       <c r="I220" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J220" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="221" spans="1:10" ht="126" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C221" s="7"/>
       <c r="D221" s="7">
@@ -7857,21 +7857,21 @@
         <v>0.8</v>
       </c>
       <c r="H221" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I221" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J221" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="222" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C222" s="7"/>
       <c r="D222" s="7">
@@ -7888,18 +7888,18 @@
       </c>
       <c r="H222" s="7"/>
       <c r="I222" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J222" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="223" spans="1:10" ht="126" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C223" s="7"/>
       <c r="D223" s="7">
@@ -7916,18 +7916,18 @@
       </c>
       <c r="H223" s="7"/>
       <c r="I223" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J223" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="224" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C224" s="7"/>
       <c r="D224" s="7">
@@ -7944,18 +7944,18 @@
       </c>
       <c r="H224" s="7"/>
       <c r="I224" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J224" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="225" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C225" s="7"/>
       <c r="D225" s="7">
@@ -7972,18 +7972,18 @@
       </c>
       <c r="H225" s="7"/>
       <c r="I225" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J225" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="226" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C226" s="7"/>
       <c r="D226" s="7">
@@ -8000,18 +8000,18 @@
       </c>
       <c r="H226" s="7"/>
       <c r="I226" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J226" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="227" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C227" s="7"/>
       <c r="D227" s="7">
@@ -8028,18 +8028,18 @@
       </c>
       <c r="H227" s="7"/>
       <c r="I227" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J227" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="228" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C228" s="7"/>
       <c r="D228" s="7">
@@ -8056,18 +8056,18 @@
       </c>
       <c r="H228" s="7"/>
       <c r="I228" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J228" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="229" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C229" s="7"/>
       <c r="D229" s="7">
@@ -8077,25 +8077,25 @@
         <v>80</v>
       </c>
       <c r="F229" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G229" s="10">
         <v>0</v>
       </c>
       <c r="H229" s="7"/>
       <c r="I229" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J229" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="230" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C230" s="7"/>
       <c r="D230" s="7">
@@ -8105,25 +8105,25 @@
         <v>80</v>
       </c>
       <c r="F230" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G230" s="10">
         <v>0</v>
       </c>
       <c r="H230" s="7"/>
       <c r="I230" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J230" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="231" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C231" s="7"/>
       <c r="D231" s="7">
@@ -8133,25 +8133,25 @@
         <v>80</v>
       </c>
       <c r="F231" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G231" s="10">
         <v>0</v>
       </c>
       <c r="H231" s="7"/>
       <c r="I231" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J231" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="232" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C232" s="7"/>
       <c r="D232" s="7">
@@ -8168,18 +8168,18 @@
       </c>
       <c r="H232" s="7"/>
       <c r="I232" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J232" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="233" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C233" s="7"/>
       <c r="D233" s="7">
@@ -8196,18 +8196,18 @@
       </c>
       <c r="H233" s="7"/>
       <c r="I233" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J233" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="234" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C234" s="7"/>
       <c r="D234" s="7">
@@ -8224,18 +8224,18 @@
       </c>
       <c r="H234" s="7"/>
       <c r="I234" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J234" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="235" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C235" s="7"/>
       <c r="D235" s="7">
@@ -8252,18 +8252,18 @@
       </c>
       <c r="H235" s="7"/>
       <c r="I235" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J235" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="236" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C236" s="7"/>
       <c r="D236" s="7">
@@ -8273,25 +8273,25 @@
         <v>80</v>
       </c>
       <c r="F236" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G236" s="10">
         <v>0.8</v>
       </c>
       <c r="H236" s="7"/>
       <c r="I236" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J236" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="237" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C237" s="7"/>
       <c r="D237" s="7">
@@ -8308,18 +8308,18 @@
       </c>
       <c r="H237" s="7"/>
       <c r="I237" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J237" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="238" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C238" s="7"/>
       <c r="D238" s="7">
@@ -8334,18 +8334,18 @@
       </c>
       <c r="H238" s="7"/>
       <c r="I238" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J238" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="239" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C239" s="7"/>
       <c r="D239" s="7">
@@ -8362,21 +8362,21 @@
       </c>
       <c r="H239" s="7"/>
       <c r="I239" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J239" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="240" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B240" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="B240" s="6" t="s">
-        <v>292</v>
-      </c>
       <c r="C240" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D240" s="7">
         <v>200</v>
@@ -8392,21 +8392,21 @@
       </c>
       <c r="H240" s="9"/>
       <c r="I240" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J240" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="241" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B241" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="B241" s="6" t="s">
-        <v>292</v>
-      </c>
       <c r="C241" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D241" s="7">
         <v>100</v>
@@ -8415,28 +8415,28 @@
         <v>80</v>
       </c>
       <c r="F241" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G241" s="10">
         <v>0</v>
       </c>
       <c r="H241" s="9"/>
       <c r="I241" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J241" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="242" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B242" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="B242" s="6" t="s">
-        <v>292</v>
-      </c>
       <c r="C242" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D242" s="7">
         <v>50</v>
@@ -8445,28 +8445,28 @@
         <v>80</v>
       </c>
       <c r="F242" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G242" s="10">
         <v>0</v>
       </c>
       <c r="H242" s="9"/>
       <c r="I242" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J242" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="243" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C243" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D243" s="7">
         <v>500</v>
@@ -8482,21 +8482,21 @@
       </c>
       <c r="H243" s="9"/>
       <c r="I243" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J243" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="244" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A244" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C244" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D244" s="7">
         <v>300</v>
@@ -8512,24 +8512,24 @@
       </c>
       <c r="H244" s="9"/>
       <c r="I244" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J244" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="245" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C245" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D245" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E245" s="7">
         <v>80</v>
@@ -8542,21 +8542,21 @@
       </c>
       <c r="H245" s="9"/>
       <c r="I245" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J245" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="246" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C246" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D246" s="7">
         <v>300</v>
@@ -8570,21 +8570,21 @@
       </c>
       <c r="H246" s="9"/>
       <c r="I246" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J246" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="247" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A247" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C247" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D247" s="7">
         <v>300</v>
@@ -8598,21 +8598,21 @@
       </c>
       <c r="H247" s="9"/>
       <c r="I247" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J247" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="248" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A248" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C248" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D248" s="7">
         <v>1000</v>
@@ -8628,21 +8628,21 @@
       </c>
       <c r="H248" s="9"/>
       <c r="I248" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J248" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="249" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C249" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D249" s="7">
         <v>5</v>
@@ -8651,28 +8651,28 @@
         <v>90</v>
       </c>
       <c r="F249" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G249" s="10">
         <v>0</v>
       </c>
       <c r="H249" s="9"/>
       <c r="I249" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J249" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="250" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A250" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C250" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D250" s="7">
         <v>200</v>
@@ -8681,28 +8681,28 @@
         <v>80</v>
       </c>
       <c r="F250" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G250" s="10">
         <v>0.8</v>
       </c>
       <c r="H250" s="9"/>
       <c r="I250" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J250" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="251" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C251" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D251" s="7">
         <v>500</v>
@@ -8717,24 +8717,24 @@
         <v>0</v>
       </c>
       <c r="H251" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I251" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J251" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="252" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C252" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D252" s="7">
         <v>1000</v>
@@ -8748,21 +8748,21 @@
       </c>
       <c r="H252" s="9"/>
       <c r="I252" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J252" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="253" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C253" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D253" s="7">
         <v>500</v>
@@ -8778,21 +8778,21 @@
       </c>
       <c r="H253" s="9"/>
       <c r="I253" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J253" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="254" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C254" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D254" s="7">
         <v>1000</v>
@@ -8806,21 +8806,21 @@
       </c>
       <c r="H254" s="9"/>
       <c r="I254" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J254" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="255" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A255" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C255" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D255" s="7">
         <v>500</v>
@@ -8835,24 +8835,24 @@
         <v>0</v>
       </c>
       <c r="H255" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I255" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J255" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="256" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C256" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D256" s="7">
         <v>1000</v>
@@ -8868,21 +8868,21 @@
       </c>
       <c r="H256" s="9"/>
       <c r="I256" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J256" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="257" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C257" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D257" s="7">
         <v>500</v>
@@ -8898,21 +8898,21 @@
       </c>
       <c r="H257" s="9"/>
       <c r="I257" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J257" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="258" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A258" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C258" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D258" s="7">
         <v>300</v>
@@ -8928,21 +8928,21 @@
       </c>
       <c r="H258" s="9"/>
       <c r="I258" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J258" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="259" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A259" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C259" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D259" s="7">
         <v>50</v>
@@ -8955,24 +8955,24 @@
         <v>0</v>
       </c>
       <c r="H259" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I259" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J259" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="260" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A260" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C260" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D260" s="7">
         <v>500</v>
@@ -8988,21 +8988,21 @@
       </c>
       <c r="H260" s="9"/>
       <c r="I260" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J260" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="261" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A261" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C261" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D261" s="7">
         <v>500</v>
@@ -9018,21 +9018,21 @@
       </c>
       <c r="H261" s="9"/>
       <c r="I261" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J261" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="262" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A262" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C262" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D262" s="7">
         <v>300</v>
@@ -9048,21 +9048,21 @@
       </c>
       <c r="H262" s="9"/>
       <c r="I262" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J262" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="263" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A263" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C263" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D263" s="7">
         <v>500</v>
@@ -9078,21 +9078,21 @@
       </c>
       <c r="H263" s="9"/>
       <c r="I263" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J263" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="264" spans="1:10" ht="189" x14ac:dyDescent="0.25">
       <c r="A264" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C264" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D264" s="7">
         <v>300</v>
@@ -9108,21 +9108,21 @@
       </c>
       <c r="H264" s="9"/>
       <c r="I264" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J264" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="265" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A265" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C265" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D265" s="7">
         <v>500</v>
@@ -9138,21 +9138,21 @@
       </c>
       <c r="H265" s="9"/>
       <c r="I265" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J265" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="266" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A266" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C266" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D266" s="7">
         <v>1000</v>
@@ -9168,54 +9168,54 @@
       </c>
       <c r="H266" s="9"/>
       <c r="I266" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J266" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="267" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A267" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C267" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D267" s="7">
         <v>10000</v>
       </c>
       <c r="E267" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F267" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G267" s="10">
         <v>0</v>
       </c>
       <c r="H267" s="9"/>
       <c r="I267" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J267" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="268" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A268" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C268" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D268" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E268" s="7">
         <v>90</v>
@@ -9228,24 +9228,24 @@
       </c>
       <c r="H268" s="9"/>
       <c r="I268" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J268" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="269" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A269" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B269" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="C269" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="D269" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="C269" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="D269" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="E269" s="7">
         <v>90</v>
@@ -9258,24 +9258,24 @@
       </c>
       <c r="H269" s="9"/>
       <c r="I269" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J269" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="270" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A270" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C270" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D270" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E270" s="7">
         <v>90</v>
@@ -9288,21 +9288,21 @@
       </c>
       <c r="H270" s="9"/>
       <c r="I270" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J270" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="271" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A271" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C271" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D271" s="7">
         <v>20</v>
@@ -9311,28 +9311,28 @@
         <v>90</v>
       </c>
       <c r="F271" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G271" s="10">
         <v>0</v>
       </c>
       <c r="H271" s="9"/>
       <c r="I271" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J271" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="272" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A272" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C272" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D272" s="7">
         <v>500</v>
@@ -9347,24 +9347,24 @@
         <v>0</v>
       </c>
       <c r="H272" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I272" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J272" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="273" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A273" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C273" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D273" s="7">
         <v>1000</v>
@@ -9380,21 +9380,21 @@
       </c>
       <c r="H273" s="7"/>
       <c r="I273" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J273" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="274" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A274" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C274" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D274" s="7">
         <v>500</v>
@@ -9410,21 +9410,21 @@
       </c>
       <c r="H274" s="7"/>
       <c r="I274" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J274" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="275" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A275" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C275" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D275" s="7">
         <v>1000</v>
@@ -9439,24 +9439,24 @@
         <v>0.8</v>
       </c>
       <c r="H275" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I275" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J275" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="276" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A276" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B276" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C276" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D276" s="7">
         <v>300</v>
@@ -9472,21 +9472,21 @@
       </c>
       <c r="H276" s="7"/>
       <c r="I276" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J276" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="277" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A277" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C277" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D277" s="7">
         <v>500</v>
@@ -9502,21 +9502,21 @@
       </c>
       <c r="H277" s="7"/>
       <c r="I277" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J277" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="278" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A278" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C278" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D278" s="7">
         <v>5000</v>
@@ -9532,10 +9532,10 @@
       </c>
       <c r="H278" s="7"/>
       <c r="I278" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J278" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>

--- a/app_lightbulb/management/commands/x.xlsx
+++ b/app_lightbulb/management/commands/x.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FASTAPI\cal\app_lightbulb\management\commands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B970AEC-66FE-4319-9118-0A8AFEF68BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0061C4-6140-404F-BA64-53291820F037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1292,7 +1292,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1326,9 +1326,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1613,8 +1610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J278"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A275" workbookViewId="0">
+      <selection activeCell="K278" sqref="K278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8534,7 +8531,7 @@
       <c r="E245" s="7">
         <v>80</v>
       </c>
-      <c r="F245" s="12">
+      <c r="F245" s="6">
         <v>15</v>
       </c>
       <c r="G245" s="10">
@@ -8564,7 +8561,7 @@
       <c r="E246" s="7">
         <v>80</v>
       </c>
-      <c r="F246" s="12"/>
+      <c r="F246" s="6"/>
       <c r="G246" s="10">
         <v>0.8</v>
       </c>
@@ -8592,7 +8589,7 @@
       <c r="E247" s="7">
         <v>80</v>
       </c>
-      <c r="F247" s="12"/>
+      <c r="F247" s="6"/>
       <c r="G247" s="10">
         <v>0.8</v>
       </c>
@@ -8710,7 +8707,7 @@
       <c r="E251" s="7">
         <v>90</v>
       </c>
-      <c r="F251" s="12">
+      <c r="F251" s="6">
         <v>10</v>
       </c>
       <c r="G251" s="10">
@@ -8742,7 +8739,9 @@
       <c r="E252" s="7">
         <v>90</v>
       </c>
-      <c r="F252" s="12"/>
+      <c r="F252" s="6">
+        <v>10</v>
+      </c>
       <c r="G252" s="10">
         <v>0.8</v>
       </c>
@@ -8770,7 +8769,7 @@
       <c r="E253" s="7">
         <v>90</v>
       </c>
-      <c r="F253" s="12">
+      <c r="F253" s="6">
         <v>10</v>
       </c>
       <c r="G253" s="10">
@@ -8800,7 +8799,7 @@
       <c r="E254" s="7">
         <v>90</v>
       </c>
-      <c r="F254" s="12"/>
+      <c r="F254" s="6"/>
       <c r="G254" s="10">
         <v>0</v>
       </c>
@@ -8920,7 +8919,7 @@
       <c r="E258" s="7">
         <v>80</v>
       </c>
-      <c r="F258" s="12">
+      <c r="F258" s="6">
         <v>15</v>
       </c>
       <c r="G258" s="10">
@@ -8950,7 +8949,9 @@
       <c r="E259" s="7">
         <v>80</v>
       </c>
-      <c r="F259" s="12"/>
+      <c r="F259" s="6">
+        <v>15</v>
+      </c>
       <c r="G259" s="10">
         <v>0</v>
       </c>
@@ -9539,12 +9540,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="F258:F259"/>
-    <mergeCell ref="F245:F247"/>
-    <mergeCell ref="F251:F252"/>
-    <mergeCell ref="F253:F254"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/app_lightbulb/management/commands/x.xlsx
+++ b/app_lightbulb/management/commands/x.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FASTAPI\cal\app_lightbulb\management\commands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0061C4-6140-404F-BA64-53291820F037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864D46CF-09CA-49EE-8D95-CB9781FE2E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="372">
   <si>
     <t>Room_Type_Category  name</t>
   </si>
@@ -1190,6 +1190,9 @@
   </si>
   <si>
     <t>category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -1608,10 +1611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J278"/>
+  <dimension ref="A1:K278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A275" workbookViewId="0">
-      <selection activeCell="K278" sqref="K278"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="J3" sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9357,7 +9360,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="273" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A273" s="4" t="s">
         <v>290</v>
       </c>
@@ -9387,7 +9390,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="274" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A274" s="4" t="s">
         <v>290</v>
       </c>
@@ -9417,7 +9420,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="275" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A275" s="4" t="s">
         <v>290</v>
       </c>
@@ -9449,7 +9452,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="276" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A276" s="4" t="s">
         <v>290</v>
       </c>
@@ -9479,7 +9482,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="277" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A277" s="4" t="s">
         <v>290</v>
       </c>
@@ -9509,7 +9512,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="278" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A278" s="4" t="s">
         <v>290</v>
       </c>
@@ -9537,6 +9540,9 @@
       </c>
       <c r="J278" s="6" t="s">
         <v>314</v>
+      </c>
+      <c r="K278" t="s">
+        <v>371</v>
       </c>
     </row>
   </sheetData>

--- a/app_lightbulb/management/commands/x.xlsx
+++ b/app_lightbulb/management/commands/x.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FASTAPI\cal\app_lightbulb\management\commands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864D46CF-09CA-49EE-8D95-CB9781FE2E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF9E462-33E3-48E0-A540-9E042FBE7D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="321">
   <si>
     <t>Room_Type_Category  name</t>
   </si>
@@ -946,63 +946,6 @@
     <t xml:space="preserve"> Столовые</t>
   </si>
   <si>
-    <t>Учреждения здравоохранения</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Многоцелевые помещения</t>
-  </si>
-  <si>
-    <t>Помещения для персонала</t>
-  </si>
-  <si>
-    <t>Больничные палаты</t>
-  </si>
-  <si>
-    <t>Кабинеты общего обследования и лечения</t>
-  </si>
-  <si>
-    <t>5000-6500</t>
-  </si>
-  <si>
-    <t>Кабинеты отоларингологов</t>
-  </si>
-  <si>
-    <t>Кабинеты окулистов</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Кабинеты компьютерной диагностики</t>
-  </si>
-  <si>
-    <t>6000-6500</t>
-  </si>
-  <si>
-    <t>Специализированные кабинеты</t>
-  </si>
-  <si>
-    <t>Операционные</t>
-  </si>
-  <si>
-    <t>Помещения интенсивной терапии</t>
-  </si>
-  <si>
-    <t>300***</t>
-  </si>
-  <si>
-    <t>1000***</t>
-  </si>
-  <si>
-    <t>Стоматологические кабинеты</t>
-  </si>
-  <si>
-    <t>Лаборатории и аптеки</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Стерилизационные</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Морги</t>
-  </si>
-  <si>
     <t>recommended_lamps</t>
   </si>
   <si>
@@ -1088,105 +1031,6 @@
   </si>
   <si>
     <t>Склады в зоне приема товара</t>
-  </si>
-  <si>
-    <t>Комнаты ожидания</t>
-  </si>
-  <si>
-    <t>Коридоры днем</t>
-  </si>
-  <si>
-    <t>Коридоры ночью</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Административные помещения</t>
-  </si>
-  <si>
-    <t>Комнаты персонала</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Общее освещение</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Освещение для чтения</t>
-  </si>
-  <si>
-    <t>Обычный осмотр</t>
-  </si>
-  <si>
-    <t>Исследование и лечение</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ночное освещение</t>
-  </si>
-  <si>
-    <t>Туалеты, ванные комнаты</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Общее освещение**</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Обследование и лечение</t>
-  </si>
-  <si>
-    <t>Общее освещение</t>
-  </si>
-  <si>
-    <t>Обследование</t>
-  </si>
-  <si>
-    <t>Чтение таблиц с тестами на ви
- дение и цветоразличение</t>
-  </si>
-  <si>
-    <t>Помещения для обследования*4</t>
-  </si>
-  <si>
-    <t>Диализа</t>
-  </si>
-  <si>
-    <t>Дерматологии</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Эндоскопии</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Перевязочные</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Специальные ванные комнаты, ра
- диотерапия, массаж, физиотерапия</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Комнаты подготовки к операции</t>
-  </si>
-  <si>
-    <t>Общее освещение операционных</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Операционное поле</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Общее обследование</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Наблюдение ночью</t>
-  </si>
-  <si>
-    <t>Общее освещение*4</t>
-  </si>
-  <si>
-    <t>Зона пациента</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Цветовой контроль*4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Стерилизация и дезинфекция </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Столы для вскрытия трупов и 
-анатомические</t>
   </si>
   <si>
     <t>category</t>
@@ -1613,8 +1457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="J3" sqref="A1:J3"/>
+    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="M242" sqref="M242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1627,10 +1471,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>370</v>
+        <v>319</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -1651,15 +1495,15 @@
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7">
@@ -1675,21 +1519,21 @@
         <v>0.8</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>10</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7">
@@ -1705,21 +1549,21 @@
         <v>0</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7">
@@ -1735,21 +1579,21 @@
         <v>0.8</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7">
@@ -1765,21 +1609,21 @@
         <v>0</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7">
@@ -1795,21 +1639,21 @@
         <v>0</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>15</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7">
@@ -1825,21 +1669,21 @@
         <v>0</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7">
@@ -1855,21 +1699,21 @@
         <v>0.8</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>10</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7">
@@ -1885,21 +1729,21 @@
         <v>0.8</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>10</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7">
@@ -1921,15 +1765,15 @@
         <v>10</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7">
@@ -1945,21 +1789,21 @@
         <v>0.8</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7">
@@ -1975,21 +1819,21 @@
         <v>0.8</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>10</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7">
@@ -2005,21 +1849,21 @@
         <v>0.8</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>10</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7">
@@ -2035,21 +1879,21 @@
         <v>0</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>35</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7">
@@ -2071,15 +1915,15 @@
         <v>10</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7">
@@ -2095,13 +1939,13 @@
         <v>0</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>35</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
@@ -2129,7 +1973,7 @@
         <v>10</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="126" x14ac:dyDescent="0.25">
@@ -2157,7 +2001,7 @@
         <v>10</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
@@ -2185,7 +2029,7 @@
         <v>10</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -2213,7 +2057,7 @@
         <v>15</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -2241,7 +2085,7 @@
         <v>15</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
@@ -2269,7 +2113,7 @@
         <v>10</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="126" x14ac:dyDescent="0.25">
@@ -2297,7 +2141,7 @@
         <v>10</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -2325,7 +2169,7 @@
         <v>10</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
@@ -2355,7 +2199,7 @@
         <v>10</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
@@ -2383,7 +2227,7 @@
         <v>10</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
@@ -2411,7 +2255,7 @@
         <v>25</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="63" x14ac:dyDescent="0.25">
@@ -2439,7 +2283,7 @@
         <v>10</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -2467,7 +2311,7 @@
         <v>10</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
@@ -2495,7 +2339,7 @@
         <v>10</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
@@ -2523,7 +2367,7 @@
         <v>10</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
@@ -2551,7 +2395,7 @@
         <v>35</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -2579,7 +2423,7 @@
         <v>10</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="189" x14ac:dyDescent="0.25">
@@ -2607,7 +2451,7 @@
         <v>10</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
@@ -2635,7 +2479,7 @@
         <v>15</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
@@ -2663,7 +2507,7 @@
         <v>15</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
@@ -2691,7 +2535,7 @@
         <v>10</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
@@ -2719,7 +2563,7 @@
         <v>10</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
@@ -2747,7 +2591,7 @@
         <v>10</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -2775,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="157.5" x14ac:dyDescent="0.25">
@@ -2803,7 +2647,7 @@
         <v>10</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
@@ -2831,7 +2675,7 @@
         <v>10</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -2859,7 +2703,7 @@
         <v>10</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -2887,7 +2731,7 @@
         <v>10</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="157.5" x14ac:dyDescent="0.25">
@@ -2915,7 +2759,7 @@
         <v>10</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="299.25" x14ac:dyDescent="0.25">
@@ -2943,7 +2787,7 @@
         <v>10</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="252" x14ac:dyDescent="0.25">
@@ -2971,7 +2815,7 @@
         <v>35</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="220.5" x14ac:dyDescent="0.25">
@@ -2999,7 +2843,7 @@
         <v>35</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
@@ -3029,7 +2873,7 @@
         <v>35</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
@@ -3059,7 +2903,7 @@
         <v>35</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="63" x14ac:dyDescent="0.25">
@@ -3085,7 +2929,7 @@
       <c r="H51" s="7"/>
       <c r="I51" s="6"/>
       <c r="J51" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="173.25" x14ac:dyDescent="0.25">
@@ -3113,7 +2957,7 @@
         <v>10</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="189" x14ac:dyDescent="0.25">
@@ -3141,7 +2985,7 @@
         <v>10</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="173.25" x14ac:dyDescent="0.25">
@@ -3169,7 +3013,7 @@
         <v>10</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="126" x14ac:dyDescent="0.25">
@@ -3197,7 +3041,7 @@
         <v>35</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
@@ -3225,7 +3069,7 @@
         <v>10</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="63" x14ac:dyDescent="0.25">
@@ -3253,7 +3097,7 @@
         <v>10</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="63" x14ac:dyDescent="0.25">
@@ -3283,7 +3127,7 @@
         <v>35</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
@@ -3309,7 +3153,7 @@
         <v>68</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
@@ -3337,7 +3181,7 @@
         <v>10</v>
       </c>
       <c r="J60" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="126" x14ac:dyDescent="0.25">
@@ -3365,7 +3209,7 @@
         <v>72</v>
       </c>
       <c r="J61" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
@@ -3393,7 +3237,7 @@
         <v>74</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
@@ -3421,7 +3265,7 @@
         <v>74</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
@@ -3449,7 +3293,7 @@
         <v>72</v>
       </c>
       <c r="J64" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
@@ -3477,7 +3321,7 @@
         <v>72</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
@@ -3505,7 +3349,7 @@
         <v>79</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
@@ -3533,7 +3377,7 @@
         <v>81</v>
       </c>
       <c r="J67" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
@@ -3561,7 +3405,7 @@
         <v>72</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
@@ -3589,7 +3433,7 @@
         <v>72</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
@@ -3617,7 +3461,7 @@
         <v>81</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
@@ -3645,7 +3489,7 @@
         <v>72</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="63" x14ac:dyDescent="0.25">
@@ -3673,7 +3517,7 @@
         <v>79</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -3701,7 +3545,7 @@
         <v>81</v>
       </c>
       <c r="J73" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
@@ -3731,7 +3575,7 @@
         <v>72</v>
       </c>
       <c r="J74" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
@@ -3759,7 +3603,7 @@
         <v>74</v>
       </c>
       <c r="J75" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -3787,7 +3631,7 @@
         <v>81</v>
       </c>
       <c r="J76" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
@@ -3815,7 +3659,7 @@
         <v>81</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
@@ -3843,7 +3687,7 @@
         <v>72</v>
       </c>
       <c r="J78" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
@@ -3871,7 +3715,7 @@
         <v>72</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="252" x14ac:dyDescent="0.25">
@@ -3899,7 +3743,7 @@
         <v>81</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="63" x14ac:dyDescent="0.25">
@@ -3927,7 +3771,7 @@
         <v>100</v>
       </c>
       <c r="J81" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -3955,7 +3799,7 @@
         <v>102</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="63" x14ac:dyDescent="0.25">
@@ -3983,7 +3827,7 @@
         <v>100</v>
       </c>
       <c r="J83" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
@@ -4011,7 +3855,7 @@
         <v>100</v>
       </c>
       <c r="J84" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="189" x14ac:dyDescent="0.25">
@@ -4039,7 +3883,7 @@
         <v>72</v>
       </c>
       <c r="J85" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
@@ -4067,7 +3911,7 @@
         <v>100</v>
       </c>
       <c r="J86" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
@@ -4095,7 +3939,7 @@
         <v>109</v>
       </c>
       <c r="J87" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="220.5" x14ac:dyDescent="0.25">
@@ -4123,7 +3967,7 @@
         <v>79</v>
       </c>
       <c r="J88" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="252" x14ac:dyDescent="0.25">
@@ -4149,7 +3993,7 @@
         <v>72</v>
       </c>
       <c r="J89" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -4177,7 +4021,7 @@
         <v>81</v>
       </c>
       <c r="J90" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
@@ -4207,7 +4051,7 @@
         <v>72</v>
       </c>
       <c r="J91" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
@@ -4235,7 +4079,7 @@
         <v>72</v>
       </c>
       <c r="J92" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -4263,7 +4107,7 @@
         <v>35</v>
       </c>
       <c r="J93" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
@@ -4291,7 +4135,7 @@
         <v>72</v>
       </c>
       <c r="J94" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="157.5" x14ac:dyDescent="0.25">
@@ -4319,7 +4163,7 @@
         <v>81</v>
       </c>
       <c r="J95" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="63" x14ac:dyDescent="0.25">
@@ -4347,7 +4191,7 @@
         <v>81</v>
       </c>
       <c r="J96" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
@@ -4375,7 +4219,7 @@
         <v>100</v>
       </c>
       <c r="J97" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
@@ -4403,7 +4247,7 @@
         <v>72</v>
       </c>
       <c r="J98" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -4431,7 +4275,7 @@
         <v>35</v>
       </c>
       <c r="J99" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="63" x14ac:dyDescent="0.25">
@@ -4459,7 +4303,7 @@
         <v>15</v>
       </c>
       <c r="J100" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
@@ -4487,7 +4331,7 @@
         <v>72</v>
       </c>
       <c r="J101" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
@@ -4515,7 +4359,7 @@
         <v>72</v>
       </c>
       <c r="J102" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="63" x14ac:dyDescent="0.25">
@@ -4543,7 +4387,7 @@
         <v>35</v>
       </c>
       <c r="J103" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
@@ -4571,7 +4415,7 @@
         <v>35</v>
       </c>
       <c r="J104" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -4599,7 +4443,7 @@
         <v>35</v>
       </c>
       <c r="J105" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="63" x14ac:dyDescent="0.25">
@@ -4627,7 +4471,7 @@
         <v>35</v>
       </c>
       <c r="J106" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
@@ -4655,7 +4499,7 @@
         <v>100</v>
       </c>
       <c r="J107" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="126" x14ac:dyDescent="0.25">
@@ -4683,7 +4527,7 @@
         <v>100</v>
       </c>
       <c r="J108" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="157.5" x14ac:dyDescent="0.25">
@@ -4711,7 +4555,7 @@
         <v>72</v>
       </c>
       <c r="J109" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="63" x14ac:dyDescent="0.25">
@@ -4739,7 +4583,7 @@
         <v>35</v>
       </c>
       <c r="J110" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -4769,7 +4613,7 @@
         <v>81</v>
       </c>
       <c r="J111" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="126" x14ac:dyDescent="0.25">
@@ -4797,7 +4641,7 @@
         <v>72</v>
       </c>
       <c r="J112" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
@@ -4825,7 +4669,7 @@
         <v>35</v>
       </c>
       <c r="J113" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
@@ -4853,7 +4697,7 @@
         <v>72</v>
       </c>
       <c r="J114" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -4881,7 +4725,7 @@
         <v>81</v>
       </c>
       <c r="J115" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="63" x14ac:dyDescent="0.25">
@@ -4909,7 +4753,7 @@
         <v>81</v>
       </c>
       <c r="J116" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
@@ -4937,7 +4781,7 @@
         <v>72</v>
       </c>
       <c r="J117" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
@@ -4965,7 +4809,7 @@
         <v>81</v>
       </c>
       <c r="J118" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
@@ -4993,7 +4837,7 @@
         <v>72</v>
       </c>
       <c r="J119" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="157.5" x14ac:dyDescent="0.25">
@@ -5023,7 +4867,7 @@
         <v>72</v>
       </c>
       <c r="J120" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
@@ -5053,7 +4897,7 @@
         <v>35</v>
       </c>
       <c r="J121" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
@@ -5081,7 +4925,7 @@
         <v>150</v>
       </c>
       <c r="J122" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="63" x14ac:dyDescent="0.25">
@@ -5109,7 +4953,7 @@
         <v>150</v>
       </c>
       <c r="J123" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="63" x14ac:dyDescent="0.25">
@@ -5137,7 +4981,7 @@
         <v>150</v>
       </c>
       <c r="J124" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="63" x14ac:dyDescent="0.25">
@@ -5165,7 +5009,7 @@
         <v>100</v>
       </c>
       <c r="J125" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
@@ -5193,7 +5037,7 @@
         <v>100</v>
       </c>
       <c r="J126" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -5221,7 +5065,7 @@
         <v>10</v>
       </c>
       <c r="J127" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="63" x14ac:dyDescent="0.25">
@@ -5249,7 +5093,7 @@
         <v>100</v>
       </c>
       <c r="J128" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="63" x14ac:dyDescent="0.25">
@@ -5277,7 +5121,7 @@
         <v>160</v>
       </c>
       <c r="J129" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
@@ -5305,7 +5149,7 @@
         <v>100</v>
       </c>
       <c r="J130" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
@@ -5333,7 +5177,7 @@
         <v>100</v>
       </c>
       <c r="J131" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -5361,7 +5205,7 @@
         <v>35</v>
       </c>
       <c r="J132" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="189" x14ac:dyDescent="0.25">
@@ -5389,7 +5233,7 @@
         <v>10</v>
       </c>
       <c r="J133" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="126" x14ac:dyDescent="0.25">
@@ -5417,7 +5261,7 @@
         <v>35</v>
       </c>
       <c r="J134" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -5445,7 +5289,7 @@
         <v>35</v>
       </c>
       <c r="J135" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
@@ -5473,7 +5317,7 @@
         <v>10</v>
       </c>
       <c r="J136" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="157.5" x14ac:dyDescent="0.25">
@@ -5501,7 +5345,7 @@
         <v>10</v>
       </c>
       <c r="J137" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="126" x14ac:dyDescent="0.25">
@@ -5529,7 +5373,7 @@
         <v>35</v>
       </c>
       <c r="J138" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="157.5" x14ac:dyDescent="0.25">
@@ -5557,7 +5401,7 @@
         <v>35</v>
       </c>
       <c r="J139" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -5585,7 +5429,7 @@
         <v>10</v>
       </c>
       <c r="J140" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -5613,7 +5457,7 @@
         <v>10</v>
       </c>
       <c r="J141" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -5641,7 +5485,7 @@
         <v>35</v>
       </c>
       <c r="J142" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -5669,7 +5513,7 @@
         <v>35</v>
       </c>
       <c r="J143" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -5697,7 +5541,7 @@
         <v>35</v>
       </c>
       <c r="J144" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="145" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
@@ -5725,7 +5569,7 @@
         <v>35</v>
       </c>
       <c r="J145" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="146" spans="1:10" ht="204.75" x14ac:dyDescent="0.25">
@@ -5753,7 +5597,7 @@
         <v>35</v>
       </c>
       <c r="J146" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="147" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -5781,7 +5625,7 @@
         <v>10</v>
       </c>
       <c r="J147" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="148" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
@@ -5809,7 +5653,7 @@
         <v>10</v>
       </c>
       <c r="J148" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="149" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
@@ -5837,7 +5681,7 @@
         <v>35</v>
       </c>
       <c r="J149" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="150" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
@@ -5867,7 +5711,7 @@
         <v>185</v>
       </c>
       <c r="J150" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="151" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
@@ -5895,7 +5739,7 @@
         <v>10</v>
       </c>
       <c r="J151" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="152" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
@@ -5923,7 +5767,7 @@
         <v>188</v>
       </c>
       <c r="J152" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="153" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -5951,7 +5795,7 @@
         <v>10</v>
       </c>
       <c r="J153" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="154" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
@@ -5979,7 +5823,7 @@
         <v>10</v>
       </c>
       <c r="J154" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="155" spans="1:10" ht="157.5" x14ac:dyDescent="0.25">
@@ -6007,7 +5851,7 @@
         <v>10</v>
       </c>
       <c r="J155" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="156" spans="1:10" ht="157.5" x14ac:dyDescent="0.25">
@@ -6035,7 +5879,7 @@
         <v>35</v>
       </c>
       <c r="J156" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="157" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -6063,7 +5907,7 @@
         <v>10</v>
       </c>
       <c r="J157" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="158" spans="1:10" ht="63" x14ac:dyDescent="0.25">
@@ -6091,7 +5935,7 @@
         <v>35</v>
       </c>
       <c r="J158" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="159" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -6119,7 +5963,7 @@
         <v>35</v>
       </c>
       <c r="J159" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="160" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
@@ -6147,7 +5991,7 @@
         <v>198</v>
       </c>
       <c r="J160" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="161" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
@@ -6175,7 +6019,7 @@
         <v>199</v>
       </c>
       <c r="J161" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="162" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
@@ -6203,7 +6047,7 @@
         <v>201</v>
       </c>
       <c r="J162" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="163" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
@@ -6231,7 +6075,7 @@
         <v>201</v>
       </c>
       <c r="J163" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="164" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
@@ -6255,7 +6099,7 @@
         <v>205</v>
       </c>
       <c r="J164" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="165" spans="1:10" ht="157.5" x14ac:dyDescent="0.25">
@@ -6283,7 +6127,7 @@
         <v>10</v>
       </c>
       <c r="J165" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="166" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
@@ -6311,7 +6155,7 @@
         <v>10</v>
       </c>
       <c r="J166" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="167" spans="1:10" ht="63" x14ac:dyDescent="0.25">
@@ -6339,7 +6183,7 @@
         <v>210</v>
       </c>
       <c r="J167" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="168" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
@@ -6367,7 +6211,7 @@
         <v>10</v>
       </c>
       <c r="J168" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="169" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
@@ -6395,7 +6239,7 @@
         <v>35</v>
       </c>
       <c r="J169" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="170" spans="1:10" ht="252" x14ac:dyDescent="0.25">
@@ -6423,7 +6267,7 @@
         <v>210</v>
       </c>
       <c r="J170" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="171" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
@@ -6453,7 +6297,7 @@
         <v>10</v>
       </c>
       <c r="J171" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="172" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
@@ -6483,7 +6327,7 @@
         <v>199</v>
       </c>
       <c r="J172" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="173" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
@@ -6513,7 +6357,7 @@
         <v>199</v>
       </c>
       <c r="J173" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="174" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
@@ -6541,7 +6385,7 @@
         <v>160</v>
       </c>
       <c r="J174" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="175" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
@@ -6569,7 +6413,7 @@
         <v>10</v>
       </c>
       <c r="J175" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="176" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
@@ -6595,7 +6439,7 @@
         <v>35</v>
       </c>
       <c r="J176" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="177" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
@@ -6623,7 +6467,7 @@
         <v>10</v>
       </c>
       <c r="J177" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="178" spans="1:10" ht="126" x14ac:dyDescent="0.25">
@@ -6651,7 +6495,7 @@
         <v>160</v>
       </c>
       <c r="J178" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="179" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
@@ -6679,7 +6523,7 @@
         <v>10</v>
       </c>
       <c r="J179" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="180" spans="1:10" ht="63" x14ac:dyDescent="0.25">
@@ -6707,7 +6551,7 @@
         <v>160</v>
       </c>
       <c r="J180" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="181" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
@@ -6735,7 +6579,7 @@
         <v>10</v>
       </c>
       <c r="J181" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="182" spans="1:10" ht="393.75" x14ac:dyDescent="0.25">
@@ -6763,7 +6607,7 @@
         <v>10</v>
       </c>
       <c r="J182" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="183" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
@@ -6791,7 +6635,7 @@
         <v>10</v>
       </c>
       <c r="J183" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="184" spans="1:10" ht="189" x14ac:dyDescent="0.25">
@@ -6819,7 +6663,7 @@
         <v>10</v>
       </c>
       <c r="J184" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="185" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
@@ -6847,7 +6691,7 @@
         <v>35</v>
       </c>
       <c r="J185" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="186" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
@@ -6877,7 +6721,7 @@
         <v>10</v>
       </c>
       <c r="J186" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="187" spans="1:10" ht="63" x14ac:dyDescent="0.25">
@@ -6905,7 +6749,7 @@
         <v>35</v>
       </c>
       <c r="J187" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="188" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
@@ -6933,7 +6777,7 @@
         <v>160</v>
       </c>
       <c r="J188" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="189" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
@@ -6961,7 +6805,7 @@
         <v>10</v>
       </c>
       <c r="J189" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="190" spans="1:10" ht="173.25" x14ac:dyDescent="0.25">
@@ -6989,7 +6833,7 @@
         <v>10</v>
       </c>
       <c r="J190" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="191" spans="1:10" ht="126" x14ac:dyDescent="0.25">
@@ -7019,7 +6863,7 @@
         <v>35</v>
       </c>
       <c r="J191" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="192" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
@@ -7049,7 +6893,7 @@
         <v>10</v>
       </c>
       <c r="J192" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="193" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
@@ -7077,7 +6921,7 @@
         <v>10</v>
       </c>
       <c r="J193" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="194" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
@@ -7105,7 +6949,7 @@
         <v>15</v>
       </c>
       <c r="J194" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="195" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -7133,7 +6977,7 @@
         <v>10</v>
       </c>
       <c r="J195" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="196" spans="1:10" ht="157.5" x14ac:dyDescent="0.25">
@@ -7161,7 +7005,7 @@
         <v>15</v>
       </c>
       <c r="J196" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="197" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
@@ -7189,7 +7033,7 @@
         <v>10</v>
       </c>
       <c r="J197" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="198" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -7217,7 +7061,7 @@
         <v>10</v>
       </c>
       <c r="J198" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="199" spans="1:10" ht="63" x14ac:dyDescent="0.25">
@@ -7245,7 +7089,7 @@
         <v>10</v>
       </c>
       <c r="J199" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="200" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -7273,7 +7117,7 @@
         <v>248</v>
       </c>
       <c r="J200" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="201" spans="1:10" ht="63" x14ac:dyDescent="0.25">
@@ -7301,7 +7145,7 @@
         <v>10</v>
       </c>
       <c r="J201" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="202" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
@@ -7329,7 +7173,7 @@
         <v>35</v>
       </c>
       <c r="J202" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="203" spans="1:10" ht="63" x14ac:dyDescent="0.25">
@@ -7357,7 +7201,7 @@
         <v>10</v>
       </c>
       <c r="J203" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="204" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -7385,7 +7229,7 @@
         <v>10</v>
       </c>
       <c r="J204" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="205" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -7413,7 +7257,7 @@
         <v>248</v>
       </c>
       <c r="J205" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="206" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
@@ -7441,7 +7285,7 @@
         <v>10</v>
       </c>
       <c r="J206" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="207" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
@@ -7469,7 +7313,7 @@
         <v>35</v>
       </c>
       <c r="J207" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="208" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
@@ -7497,7 +7341,7 @@
         <v>10</v>
       </c>
       <c r="J208" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="209" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
@@ -7525,7 +7369,7 @@
         <v>10</v>
       </c>
       <c r="J209" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="210" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -7553,7 +7397,7 @@
         <v>15</v>
       </c>
       <c r="J210" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="211" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
@@ -7581,7 +7425,7 @@
         <v>10</v>
       </c>
       <c r="J211" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="212" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
@@ -7609,7 +7453,7 @@
         <v>10</v>
       </c>
       <c r="J212" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="213" spans="1:10" ht="126" x14ac:dyDescent="0.25">
@@ -7637,7 +7481,7 @@
         <v>10</v>
       </c>
       <c r="J213" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="214" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
@@ -7665,7 +7509,7 @@
         <v>35</v>
       </c>
       <c r="J214" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="215" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
@@ -7693,7 +7537,7 @@
         <v>35</v>
       </c>
       <c r="J215" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="216" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
@@ -7721,7 +7565,7 @@
         <v>35</v>
       </c>
       <c r="J216" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="217" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
@@ -7749,7 +7593,7 @@
         <v>10</v>
       </c>
       <c r="J217" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="218" spans="1:10" ht="173.25" x14ac:dyDescent="0.25">
@@ -7777,7 +7621,7 @@
         <v>10</v>
       </c>
       <c r="J218" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="219" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
@@ -7805,7 +7649,7 @@
         <v>15</v>
       </c>
       <c r="J219" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="220" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
@@ -7833,7 +7677,7 @@
         <v>10</v>
       </c>
       <c r="J220" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="221" spans="1:10" ht="126" x14ac:dyDescent="0.25">
@@ -7863,7 +7707,7 @@
         <v>15</v>
       </c>
       <c r="J221" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="222" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
@@ -7891,7 +7735,7 @@
         <v>10</v>
       </c>
       <c r="J222" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="223" spans="1:10" ht="126" x14ac:dyDescent="0.25">
@@ -7919,7 +7763,7 @@
         <v>10</v>
       </c>
       <c r="J223" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="224" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
@@ -7947,7 +7791,7 @@
         <v>10</v>
       </c>
       <c r="J224" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="225" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7975,7 +7819,7 @@
         <v>15</v>
       </c>
       <c r="J225" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="226" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
@@ -8003,7 +7847,7 @@
         <v>10</v>
       </c>
       <c r="J226" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="227" spans="1:10" ht="63" x14ac:dyDescent="0.25">
@@ -8031,7 +7875,7 @@
         <v>10</v>
       </c>
       <c r="J227" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="228" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8059,7 +7903,7 @@
         <v>10</v>
       </c>
       <c r="J228" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="229" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -8087,7 +7931,7 @@
         <v>15</v>
       </c>
       <c r="J229" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="230" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8115,7 +7959,7 @@
         <v>10</v>
       </c>
       <c r="J230" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="231" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -8143,7 +7987,7 @@
         <v>10</v>
       </c>
       <c r="J231" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="232" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
@@ -8171,7 +8015,7 @@
         <v>10</v>
       </c>
       <c r="J232" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="233" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -8199,7 +8043,7 @@
         <v>10</v>
       </c>
       <c r="J233" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="234" spans="1:10" ht="63" x14ac:dyDescent="0.25">
@@ -8227,7 +8071,7 @@
         <v>10</v>
       </c>
       <c r="J234" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="235" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
@@ -8255,7 +8099,7 @@
         <v>10</v>
       </c>
       <c r="J235" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="236" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8283,7 +8127,7 @@
         <v>10</v>
       </c>
       <c r="J236" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="237" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
@@ -8311,7 +8155,7 @@
         <v>35</v>
       </c>
       <c r="J237" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="238" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8337,7 +8181,7 @@
         <v>15</v>
       </c>
       <c r="J238" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="239" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
@@ -8365,1184 +8209,478 @@
         <v>15</v>
       </c>
       <c r="J239" s="6" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="240" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B240" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="C240" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="D240" s="7">
-        <v>200</v>
-      </c>
-      <c r="E240" s="7">
-        <v>80</v>
-      </c>
-      <c r="F240" s="7">
-        <v>20</v>
-      </c>
-      <c r="G240" s="10">
-        <v>0</v>
-      </c>
+      <c r="A240" s="4"/>
+      <c r="B240" s="6"/>
+      <c r="C240" s="7"/>
+      <c r="D240" s="7"/>
+      <c r="E240" s="7"/>
+      <c r="F240" s="7"/>
+      <c r="G240" s="10"/>
       <c r="H240" s="9"/>
-      <c r="I240" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J240" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="241" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A241" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B241" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="C241" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="D241" s="7">
-        <v>100</v>
-      </c>
-      <c r="E241" s="7">
-        <v>80</v>
-      </c>
-      <c r="F241" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G241" s="10">
-        <v>0</v>
-      </c>
+      <c r="I240" s="6"/>
+      <c r="J240" s="6"/>
+    </row>
+    <row r="241" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A241" s="4"/>
+      <c r="B241" s="6"/>
+      <c r="C241" s="7"/>
+      <c r="D241" s="7"/>
+      <c r="E241" s="7"/>
+      <c r="F241" s="7"/>
+      <c r="G241" s="10"/>
       <c r="H241" s="9"/>
-      <c r="I241" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J241" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="242" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A242" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B242" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="C242" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="D242" s="7">
-        <v>50</v>
-      </c>
-      <c r="E242" s="7">
-        <v>80</v>
-      </c>
-      <c r="F242" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G242" s="10">
-        <v>0</v>
-      </c>
+      <c r="I241" s="6"/>
+      <c r="J241" s="6"/>
+    </row>
+    <row r="242" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A242" s="4"/>
+      <c r="B242" s="6"/>
+      <c r="C242" s="7"/>
+      <c r="D242" s="7"/>
+      <c r="E242" s="7"/>
+      <c r="F242" s="7"/>
+      <c r="G242" s="10"/>
       <c r="H242" s="9"/>
-      <c r="I242" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J242" s="6" t="s">
-        <v>314</v>
-      </c>
+      <c r="I242" s="6"/>
+      <c r="J242" s="6"/>
     </row>
     <row r="243" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B243" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="C243" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="D243" s="7">
-        <v>500</v>
-      </c>
-      <c r="E243" s="7">
-        <v>80</v>
-      </c>
-      <c r="F243" s="7">
-        <v>15</v>
-      </c>
-      <c r="G243" s="10">
-        <v>0</v>
-      </c>
+      <c r="A243" s="4"/>
+      <c r="B243" s="6"/>
+      <c r="C243" s="7"/>
+      <c r="D243" s="7"/>
+      <c r="E243" s="7"/>
+      <c r="F243" s="7"/>
+      <c r="G243" s="10"/>
       <c r="H243" s="9"/>
-      <c r="I243" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J243" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="244" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A244" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B244" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="C244" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="D244" s="7">
-        <v>300</v>
-      </c>
-      <c r="E244" s="7">
-        <v>80</v>
-      </c>
-      <c r="F244" s="7">
-        <v>20</v>
-      </c>
-      <c r="G244" s="10">
-        <v>0</v>
-      </c>
+      <c r="I243" s="6"/>
+      <c r="J243" s="6"/>
+    </row>
+    <row r="244" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A244" s="4"/>
+      <c r="B244" s="6"/>
+      <c r="C244" s="7"/>
+      <c r="D244" s="7"/>
+      <c r="E244" s="7"/>
+      <c r="F244" s="7"/>
+      <c r="G244" s="10"/>
       <c r="H244" s="9"/>
-      <c r="I244" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J244" s="6" t="s">
-        <v>314</v>
-      </c>
+      <c r="I244" s="6"/>
+      <c r="J244" s="6"/>
     </row>
     <row r="245" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B245" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="C245" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="D245" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="E245" s="7">
-        <v>80</v>
-      </c>
-      <c r="F245" s="6">
-        <v>15</v>
-      </c>
-      <c r="G245" s="10">
-        <v>0</v>
-      </c>
+      <c r="A245" s="4"/>
+      <c r="B245" s="6"/>
+      <c r="C245" s="7"/>
+      <c r="D245" s="7"/>
+      <c r="E245" s="7"/>
+      <c r="F245" s="6"/>
+      <c r="G245" s="10"/>
       <c r="H245" s="9"/>
-      <c r="I245" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J245" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="246" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A246" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B246" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="C246" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="D246" s="7">
-        <v>300</v>
-      </c>
-      <c r="E246" s="7">
-        <v>80</v>
-      </c>
+      <c r="I245" s="6"/>
+      <c r="J245" s="6"/>
+    </row>
+    <row r="246" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A246" s="4"/>
+      <c r="B246" s="6"/>
+      <c r="C246" s="7"/>
+      <c r="D246" s="7"/>
+      <c r="E246" s="7"/>
       <c r="F246" s="6"/>
-      <c r="G246" s="10">
-        <v>0.8</v>
-      </c>
+      <c r="G246" s="10"/>
       <c r="H246" s="9"/>
-      <c r="I246" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J246" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="247" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A247" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B247" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="C247" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="D247" s="7">
-        <v>300</v>
-      </c>
-      <c r="E247" s="7">
-        <v>80</v>
-      </c>
+      <c r="I246" s="6"/>
+      <c r="J246" s="6"/>
+    </row>
+    <row r="247" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A247" s="4"/>
+      <c r="B247" s="6"/>
+      <c r="C247" s="7"/>
+      <c r="D247" s="7"/>
+      <c r="E247" s="7"/>
       <c r="F247" s="6"/>
-      <c r="G247" s="10">
-        <v>0.8</v>
-      </c>
+      <c r="G247" s="10"/>
       <c r="H247" s="9"/>
-      <c r="I247" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J247" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="248" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A248" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B248" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="C248" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="D248" s="7">
-        <v>1000</v>
-      </c>
-      <c r="E248" s="7">
-        <v>80</v>
-      </c>
-      <c r="F248" s="7">
-        <v>10</v>
-      </c>
-      <c r="G248" s="10">
-        <v>0.8</v>
-      </c>
+      <c r="I247" s="6"/>
+      <c r="J247" s="6"/>
+    </row>
+    <row r="248" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A248" s="4"/>
+      <c r="B248" s="6"/>
+      <c r="C248" s="7"/>
+      <c r="D248" s="7"/>
+      <c r="E248" s="7"/>
+      <c r="F248" s="7"/>
+      <c r="G248" s="10"/>
       <c r="H248" s="9"/>
-      <c r="I248" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J248" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="249" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A249" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B249" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="C249" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="D249" s="7">
-        <v>5</v>
-      </c>
-      <c r="E249" s="7">
-        <v>90</v>
-      </c>
-      <c r="F249" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G249" s="10">
-        <v>0</v>
-      </c>
+      <c r="I248" s="6"/>
+      <c r="J248" s="6"/>
+    </row>
+    <row r="249" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A249" s="4"/>
+      <c r="B249" s="6"/>
+      <c r="C249" s="7"/>
+      <c r="D249" s="7"/>
+      <c r="E249" s="7"/>
+      <c r="F249" s="7"/>
+      <c r="G249" s="10"/>
       <c r="H249" s="9"/>
-      <c r="I249" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J249" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="250" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A250" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B250" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="C250" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="D250" s="7">
-        <v>200</v>
-      </c>
-      <c r="E250" s="7">
-        <v>80</v>
-      </c>
-      <c r="F250" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G250" s="10">
-        <v>0.8</v>
-      </c>
+      <c r="I249" s="6"/>
+      <c r="J249" s="6"/>
+    </row>
+    <row r="250" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A250" s="4"/>
+      <c r="B250" s="6"/>
+      <c r="C250" s="7"/>
+      <c r="D250" s="7"/>
+      <c r="E250" s="7"/>
+      <c r="F250" s="7"/>
+      <c r="G250" s="10"/>
       <c r="H250" s="9"/>
-      <c r="I250" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J250" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="251" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A251" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B251" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="C251" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="D251" s="7">
-        <v>500</v>
-      </c>
-      <c r="E251" s="7">
-        <v>90</v>
-      </c>
-      <c r="F251" s="6">
-        <v>10</v>
-      </c>
-      <c r="G251" s="10">
-        <v>0</v>
-      </c>
-      <c r="H251" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="I251" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J251" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="252" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A252" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B252" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="C252" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="D252" s="7">
-        <v>1000</v>
-      </c>
-      <c r="E252" s="7">
-        <v>90</v>
-      </c>
-      <c r="F252" s="6">
-        <v>10</v>
-      </c>
-      <c r="G252" s="10">
-        <v>0.8</v>
-      </c>
+      <c r="I250" s="6"/>
+      <c r="J250" s="6"/>
+    </row>
+    <row r="251" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A251" s="4"/>
+      <c r="B251" s="6"/>
+      <c r="C251" s="7"/>
+      <c r="D251" s="7"/>
+      <c r="E251" s="7"/>
+      <c r="F251" s="6"/>
+      <c r="G251" s="10"/>
+      <c r="H251" s="7"/>
+      <c r="I251" s="6"/>
+      <c r="J251" s="6"/>
+    </row>
+    <row r="252" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A252" s="4"/>
+      <c r="B252" s="6"/>
+      <c r="C252" s="7"/>
+      <c r="D252" s="7"/>
+      <c r="E252" s="7"/>
+      <c r="F252" s="6"/>
+      <c r="G252" s="10"/>
       <c r="H252" s="9"/>
-      <c r="I252" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J252" s="6" t="s">
-        <v>314</v>
-      </c>
+      <c r="I252" s="6"/>
+      <c r="J252" s="6"/>
     </row>
     <row r="253" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B253" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="C253" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="D253" s="7">
-        <v>500</v>
-      </c>
-      <c r="E253" s="7">
-        <v>90</v>
-      </c>
-      <c r="F253" s="6">
-        <v>10</v>
-      </c>
-      <c r="G253" s="10">
-        <v>0</v>
-      </c>
+      <c r="A253" s="4"/>
+      <c r="B253" s="6"/>
+      <c r="C253" s="7"/>
+      <c r="D253" s="7"/>
+      <c r="E253" s="7"/>
+      <c r="F253" s="6"/>
+      <c r="G253" s="10"/>
       <c r="H253" s="9"/>
-      <c r="I253" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J253" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="254" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A254" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B254" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="C254" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="D254" s="7">
-        <v>1000</v>
-      </c>
-      <c r="E254" s="7">
-        <v>90</v>
-      </c>
+      <c r="I253" s="6"/>
+      <c r="J253" s="6"/>
+    </row>
+    <row r="254" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A254" s="4"/>
+      <c r="B254" s="6"/>
+      <c r="C254" s="7"/>
+      <c r="D254" s="7"/>
+      <c r="E254" s="7"/>
       <c r="F254" s="6"/>
-      <c r="G254" s="10">
-        <v>0</v>
-      </c>
+      <c r="G254" s="10"/>
       <c r="H254" s="9"/>
-      <c r="I254" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J254" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="255" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A255" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B255" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="C255" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="D255" s="7">
-        <v>500</v>
-      </c>
-      <c r="E255" s="7">
-        <v>80</v>
-      </c>
-      <c r="F255" s="7">
-        <v>15</v>
-      </c>
-      <c r="G255" s="10">
-        <v>0</v>
-      </c>
-      <c r="H255" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="I255" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J255" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="256" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A256" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B256" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="C256" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="D256" s="7">
-        <v>1000</v>
-      </c>
-      <c r="E256" s="7">
-        <v>90</v>
-      </c>
-      <c r="F256" s="7">
-        <v>10</v>
-      </c>
-      <c r="G256" s="10">
-        <v>0</v>
-      </c>
+      <c r="I254" s="6"/>
+      <c r="J254" s="6"/>
+    </row>
+    <row r="255" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A255" s="4"/>
+      <c r="B255" s="6"/>
+      <c r="C255" s="7"/>
+      <c r="D255" s="7"/>
+      <c r="E255" s="7"/>
+      <c r="F255" s="7"/>
+      <c r="G255" s="10"/>
+      <c r="H255" s="7"/>
+      <c r="I255" s="6"/>
+      <c r="J255" s="6"/>
+    </row>
+    <row r="256" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A256" s="4"/>
+      <c r="B256" s="6"/>
+      <c r="C256" s="7"/>
+      <c r="D256" s="7"/>
+      <c r="E256" s="7"/>
+      <c r="F256" s="7"/>
+      <c r="G256" s="10"/>
       <c r="H256" s="9"/>
-      <c r="I256" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J256" s="6" t="s">
-        <v>314</v>
-      </c>
+      <c r="I256" s="6"/>
+      <c r="J256" s="6"/>
     </row>
     <row r="257" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B257" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="C257" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="D257" s="7">
-        <v>500</v>
-      </c>
-      <c r="E257" s="7">
-        <v>90</v>
-      </c>
-      <c r="F257" s="7">
-        <v>10</v>
-      </c>
-      <c r="G257" s="10">
-        <v>0.8</v>
-      </c>
+      <c r="A257" s="4"/>
+      <c r="B257" s="6"/>
+      <c r="C257" s="7"/>
+      <c r="D257" s="7"/>
+      <c r="E257" s="7"/>
+      <c r="F257" s="7"/>
+      <c r="G257" s="10"/>
       <c r="H257" s="9"/>
-      <c r="I257" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J257" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="258" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A258" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B258" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="C258" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="D258" s="7">
-        <v>300</v>
-      </c>
-      <c r="E258" s="7">
-        <v>80</v>
-      </c>
-      <c r="F258" s="6">
-        <v>15</v>
-      </c>
-      <c r="G258" s="10">
-        <v>0</v>
-      </c>
+      <c r="I257" s="6"/>
+      <c r="J257" s="6"/>
+    </row>
+    <row r="258" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A258" s="4"/>
+      <c r="B258" s="6"/>
+      <c r="C258" s="7"/>
+      <c r="D258" s="7"/>
+      <c r="E258" s="7"/>
+      <c r="F258" s="6"/>
+      <c r="G258" s="10"/>
       <c r="H258" s="9"/>
-      <c r="I258" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J258" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="259" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A259" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B259" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="C259" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="D259" s="7">
-        <v>50</v>
-      </c>
-      <c r="E259" s="7">
-        <v>80</v>
-      </c>
-      <c r="F259" s="6">
-        <v>15</v>
-      </c>
-      <c r="G259" s="10">
-        <v>0</v>
-      </c>
-      <c r="H259" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="I259" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J259" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="260" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A260" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B260" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="C260" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="D260" s="7">
-        <v>500</v>
-      </c>
-      <c r="E260" s="7">
-        <v>80</v>
-      </c>
-      <c r="F260" s="7">
-        <v>15</v>
-      </c>
-      <c r="G260" s="10">
-        <v>0.8</v>
-      </c>
+      <c r="I258" s="6"/>
+      <c r="J258" s="6"/>
+    </row>
+    <row r="259" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A259" s="4"/>
+      <c r="B259" s="6"/>
+      <c r="C259" s="7"/>
+      <c r="D259" s="7"/>
+      <c r="E259" s="7"/>
+      <c r="F259" s="6"/>
+      <c r="G259" s="10"/>
+      <c r="H259" s="7"/>
+      <c r="I259" s="6"/>
+      <c r="J259" s="6"/>
+    </row>
+    <row r="260" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A260" s="4"/>
+      <c r="B260" s="6"/>
+      <c r="C260" s="7"/>
+      <c r="D260" s="7"/>
+      <c r="E260" s="7"/>
+      <c r="F260" s="7"/>
+      <c r="G260" s="10"/>
       <c r="H260" s="9"/>
-      <c r="I260" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J260" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="261" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A261" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B261" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="C261" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="D261" s="7">
-        <v>500</v>
-      </c>
-      <c r="E261" s="7">
-        <v>90</v>
-      </c>
-      <c r="F261" s="7">
-        <v>10</v>
-      </c>
-      <c r="G261" s="10">
-        <v>0.8</v>
-      </c>
+      <c r="I260" s="6"/>
+      <c r="J260" s="6"/>
+    </row>
+    <row r="261" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A261" s="4"/>
+      <c r="B261" s="6"/>
+      <c r="C261" s="7"/>
+      <c r="D261" s="7"/>
+      <c r="E261" s="7"/>
+      <c r="F261" s="7"/>
+      <c r="G261" s="10"/>
       <c r="H261" s="9"/>
-      <c r="I261" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J261" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="262" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A262" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B262" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="C262" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="D262" s="7">
-        <v>300</v>
-      </c>
-      <c r="E262" s="7">
-        <v>90</v>
-      </c>
-      <c r="F262" s="7">
-        <v>15</v>
-      </c>
-      <c r="G262" s="10">
-        <v>0.8</v>
-      </c>
+      <c r="I261" s="6"/>
+      <c r="J261" s="6"/>
+    </row>
+    <row r="262" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A262" s="4"/>
+      <c r="B262" s="6"/>
+      <c r="C262" s="7"/>
+      <c r="D262" s="7"/>
+      <c r="E262" s="7"/>
+      <c r="F262" s="7"/>
+      <c r="G262" s="10"/>
       <c r="H262" s="9"/>
-      <c r="I262" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J262" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="263" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A263" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B263" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="C263" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="D263" s="7">
-        <v>500</v>
-      </c>
-      <c r="E263" s="7">
-        <v>90</v>
-      </c>
-      <c r="F263" s="7">
-        <v>10</v>
-      </c>
-      <c r="G263" s="10">
-        <v>0.8</v>
-      </c>
+      <c r="I262" s="6"/>
+      <c r="J262" s="6"/>
+    </row>
+    <row r="263" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A263" s="4"/>
+      <c r="B263" s="6"/>
+      <c r="C263" s="7"/>
+      <c r="D263" s="7"/>
+      <c r="E263" s="7"/>
+      <c r="F263" s="7"/>
+      <c r="G263" s="10"/>
       <c r="H263" s="9"/>
-      <c r="I263" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J263" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="264" spans="1:10" ht="189" x14ac:dyDescent="0.25">
-      <c r="A264" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B264" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="C264" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="D264" s="7">
-        <v>300</v>
-      </c>
-      <c r="E264" s="7">
-        <v>90</v>
-      </c>
-      <c r="F264" s="7">
-        <v>15</v>
-      </c>
-      <c r="G264" s="10">
-        <v>0.8</v>
-      </c>
+      <c r="I263" s="6"/>
+      <c r="J263" s="6"/>
+    </row>
+    <row r="264" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A264" s="4"/>
+      <c r="B264" s="6"/>
+      <c r="C264" s="7"/>
+      <c r="D264" s="7"/>
+      <c r="E264" s="7"/>
+      <c r="F264" s="7"/>
+      <c r="G264" s="10"/>
       <c r="H264" s="9"/>
-      <c r="I264" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J264" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="265" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A265" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B265" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="C265" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="D265" s="7">
-        <v>500</v>
-      </c>
-      <c r="E265" s="7">
-        <v>90</v>
-      </c>
-      <c r="F265" s="7">
-        <v>10</v>
-      </c>
-      <c r="G265" s="10">
-        <v>0.8</v>
-      </c>
+      <c r="I264" s="6"/>
+      <c r="J264" s="6"/>
+    </row>
+    <row r="265" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A265" s="4"/>
+      <c r="B265" s="6"/>
+      <c r="C265" s="7"/>
+      <c r="D265" s="7"/>
+      <c r="E265" s="7"/>
+      <c r="F265" s="7"/>
+      <c r="G265" s="10"/>
       <c r="H265" s="9"/>
-      <c r="I265" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J265" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="266" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A266" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B266" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="C266" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="D266" s="7">
-        <v>1000</v>
-      </c>
-      <c r="E266" s="7">
-        <v>90</v>
-      </c>
-      <c r="F266" s="7">
-        <v>10</v>
-      </c>
-      <c r="G266" s="10">
-        <v>0</v>
-      </c>
+      <c r="I265" s="6"/>
+      <c r="J265" s="6"/>
+    </row>
+    <row r="266" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A266" s="4"/>
+      <c r="B266" s="6"/>
+      <c r="C266" s="7"/>
+      <c r="D266" s="7"/>
+      <c r="E266" s="7"/>
+      <c r="F266" s="7"/>
+      <c r="G266" s="10"/>
       <c r="H266" s="9"/>
-      <c r="I266" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J266" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="267" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A267" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B267" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="C267" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="D267" s="7">
-        <v>10000</v>
-      </c>
-      <c r="E267" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F267" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G267" s="10">
-        <v>0</v>
-      </c>
+      <c r="I266" s="6"/>
+      <c r="J266" s="6"/>
+    </row>
+    <row r="267" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A267" s="4"/>
+      <c r="B267" s="6"/>
+      <c r="C267" s="7"/>
+      <c r="D267" s="7"/>
+      <c r="E267" s="7"/>
+      <c r="F267" s="7"/>
+      <c r="G267" s="10"/>
       <c r="H267" s="9"/>
-      <c r="I267" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J267" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="268" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A268" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B268" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="C268" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="D268" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="E268" s="7">
-        <v>90</v>
-      </c>
-      <c r="F268" s="7">
-        <v>20</v>
-      </c>
-      <c r="G268" s="10">
-        <v>0</v>
-      </c>
+      <c r="I267" s="6"/>
+      <c r="J267" s="6"/>
+    </row>
+    <row r="268" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A268" s="4"/>
+      <c r="B268" s="6"/>
+      <c r="C268" s="7"/>
+      <c r="D268" s="7"/>
+      <c r="E268" s="7"/>
+      <c r="F268" s="7"/>
+      <c r="G268" s="10"/>
       <c r="H268" s="9"/>
-      <c r="I268" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J268" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="269" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A269" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B269" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="C269" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="D269" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="E269" s="7">
-        <v>90</v>
-      </c>
-      <c r="F269" s="7">
-        <v>15</v>
-      </c>
-      <c r="G269" s="10">
-        <v>0</v>
-      </c>
+      <c r="I268" s="6"/>
+      <c r="J268" s="6"/>
+    </row>
+    <row r="269" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A269" s="4"/>
+      <c r="B269" s="6"/>
+      <c r="C269" s="7"/>
+      <c r="D269" s="7"/>
+      <c r="E269" s="7"/>
+      <c r="F269" s="7"/>
+      <c r="G269" s="10"/>
       <c r="H269" s="9"/>
-      <c r="I269" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J269" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="270" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A270" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B270" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="C270" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="D270" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="E270" s="7">
-        <v>90</v>
-      </c>
-      <c r="F270" s="7">
-        <v>10</v>
-      </c>
-      <c r="G270" s="10">
-        <v>0</v>
-      </c>
+      <c r="I269" s="6"/>
+      <c r="J269" s="6"/>
+    </row>
+    <row r="270" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A270" s="4"/>
+      <c r="B270" s="6"/>
+      <c r="C270" s="7"/>
+      <c r="D270" s="7"/>
+      <c r="E270" s="7"/>
+      <c r="F270" s="7"/>
+      <c r="G270" s="10"/>
       <c r="H270" s="9"/>
-      <c r="I270" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J270" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="271" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A271" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B271" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="C271" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="D271" s="7">
-        <v>20</v>
-      </c>
-      <c r="E271" s="7">
-        <v>90</v>
-      </c>
-      <c r="F271" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G271" s="10">
-        <v>0</v>
-      </c>
+      <c r="I270" s="6"/>
+      <c r="J270" s="6"/>
+    </row>
+    <row r="271" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A271" s="4"/>
+      <c r="B271" s="6"/>
+      <c r="C271" s="7"/>
+      <c r="D271" s="7"/>
+      <c r="E271" s="7"/>
+      <c r="F271" s="7"/>
+      <c r="G271" s="10"/>
       <c r="H271" s="9"/>
-      <c r="I271" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J271" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="272" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A272" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B272" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="C272" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="D272" s="7">
-        <v>500</v>
-      </c>
-      <c r="E272" s="7">
-        <v>90</v>
-      </c>
-      <c r="F272" s="7">
-        <v>15</v>
-      </c>
-      <c r="G272" s="10">
-        <v>0</v>
-      </c>
-      <c r="H272" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="I272" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J272" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="273" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A273" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B273" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="C273" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="D273" s="7">
-        <v>1000</v>
-      </c>
-      <c r="E273" s="7">
-        <v>90</v>
-      </c>
-      <c r="F273" s="7">
-        <v>10</v>
-      </c>
-      <c r="G273" s="10">
-        <v>0.8</v>
-      </c>
+      <c r="I271" s="6"/>
+      <c r="J271" s="6"/>
+    </row>
+    <row r="272" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A272" s="4"/>
+      <c r="B272" s="6"/>
+      <c r="C272" s="7"/>
+      <c r="D272" s="7"/>
+      <c r="E272" s="7"/>
+      <c r="F272" s="7"/>
+      <c r="G272" s="10"/>
+      <c r="H272" s="7"/>
+      <c r="I272" s="6"/>
+      <c r="J272" s="6"/>
+    </row>
+    <row r="273" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A273" s="4"/>
+      <c r="B273" s="6"/>
+      <c r="C273" s="7"/>
+      <c r="D273" s="7"/>
+      <c r="E273" s="7"/>
+      <c r="F273" s="7"/>
+      <c r="G273" s="10"/>
       <c r="H273" s="7"/>
-      <c r="I273" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J273" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="274" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A274" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B274" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="C274" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="D274" s="7">
-        <v>500</v>
-      </c>
-      <c r="E274" s="7">
-        <v>80</v>
-      </c>
-      <c r="F274" s="7">
-        <v>15</v>
-      </c>
-      <c r="G274" s="10">
-        <v>0</v>
-      </c>
+      <c r="I273" s="6"/>
+      <c r="J273" s="6"/>
+    </row>
+    <row r="274" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A274" s="4"/>
+      <c r="B274" s="6"/>
+      <c r="C274" s="7"/>
+      <c r="D274" s="7"/>
+      <c r="E274" s="7"/>
+      <c r="F274" s="7"/>
+      <c r="G274" s="10"/>
       <c r="H274" s="7"/>
-      <c r="I274" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J274" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="275" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A275" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B275" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="C275" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="D275" s="7">
-        <v>1000</v>
-      </c>
-      <c r="E275" s="7">
-        <v>90</v>
-      </c>
-      <c r="F275" s="7">
-        <v>10</v>
-      </c>
-      <c r="G275" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="H275" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="I275" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J275" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="276" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A276" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B276" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="C276" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="D276" s="7">
-        <v>300</v>
-      </c>
-      <c r="E276" s="7">
-        <v>80</v>
-      </c>
-      <c r="F276" s="7">
-        <v>20</v>
-      </c>
-      <c r="G276" s="10">
-        <v>0.8</v>
-      </c>
+      <c r="I274" s="6"/>
+      <c r="J274" s="6"/>
+    </row>
+    <row r="275" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A275" s="4"/>
+      <c r="B275" s="6"/>
+      <c r="C275" s="7"/>
+      <c r="D275" s="7"/>
+      <c r="E275" s="7"/>
+      <c r="F275" s="7"/>
+      <c r="G275" s="10"/>
+      <c r="H275" s="7"/>
+      <c r="I275" s="6"/>
+      <c r="J275" s="6"/>
+    </row>
+    <row r="276" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A276" s="4"/>
+      <c r="B276" s="7"/>
+      <c r="C276" s="7"/>
+      <c r="D276" s="7"/>
+      <c r="E276" s="7"/>
+      <c r="F276" s="7"/>
+      <c r="G276" s="10"/>
       <c r="H276" s="7"/>
-      <c r="I276" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J276" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="277" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A277" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B277" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="C277" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="D277" s="7">
-        <v>500</v>
-      </c>
-      <c r="E277" s="7">
-        <v>90</v>
-      </c>
-      <c r="F277" s="7">
-        <v>15</v>
-      </c>
-      <c r="G277" s="10">
-        <v>0</v>
-      </c>
+      <c r="I276" s="6"/>
+      <c r="J276" s="6"/>
+    </row>
+    <row r="277" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A277" s="4"/>
+      <c r="B277" s="6"/>
+      <c r="C277" s="7"/>
+      <c r="D277" s="7"/>
+      <c r="E277" s="7"/>
+      <c r="F277" s="7"/>
+      <c r="G277" s="10"/>
       <c r="H277" s="7"/>
-      <c r="I277" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="J277" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="278" spans="1:11" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A278" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B278" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="C278" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="D278" s="7">
-        <v>5000</v>
-      </c>
-      <c r="E278" s="7">
-        <v>90</v>
-      </c>
-      <c r="F278" s="7">
-        <v>10</v>
-      </c>
-      <c r="G278" s="10">
-        <v>0.8</v>
-      </c>
+      <c r="I277" s="6"/>
+      <c r="J277" s="6"/>
+    </row>
+    <row r="278" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A278" s="4"/>
+      <c r="B278" s="6"/>
+      <c r="C278" s="7"/>
+      <c r="D278" s="7"/>
+      <c r="E278" s="7"/>
+      <c r="F278" s="7"/>
+      <c r="G278" s="10"/>
       <c r="H278" s="7"/>
-      <c r="I278" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="J278" s="6" t="s">
-        <v>314</v>
-      </c>
+      <c r="I278" s="6"/>
+      <c r="J278" s="6"/>
       <c r="K278" t="s">
-        <v>371</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
